--- a/imputacioHoresDSA.xlsx
+++ b/imputacioHoresDSA.xlsx
@@ -1,17 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DSA\ProyectoDSA\Proyecto_DSA_Rempalago\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BBECEE9-6C45-4076-9727-98DF45316187}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
     </ext>
@@ -25,98 +41,77 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t xml:space="preserve">Tasca</t>
+    <t>Tasca</t>
   </si>
   <si>
-    <t xml:space="preserve">Juan Antonio</t>
+    <t>Juan Antonio</t>
   </si>
   <si>
-    <t xml:space="preserve">Ángela</t>
+    <t>Ángela</t>
   </si>
   <si>
-    <t xml:space="preserve">Alejandro</t>
+    <t>Alejandro</t>
   </si>
   <si>
-    <t xml:space="preserve">Ashley</t>
+    <t>Ashley</t>
   </si>
   <si>
-    <t xml:space="preserve">Total</t>
+    <t>Total</t>
   </si>
   <si>
-    <t xml:space="preserve">Setmana</t>
+    <t>Setmana</t>
   </si>
   <si>
-    <t xml:space="preserve">API REST</t>
+    <t>API REST</t>
   </si>
   <si>
-    <t xml:space="preserve">10/11-15/11</t>
+    <t>10/11-15/11</t>
   </si>
   <si>
-    <t xml:space="preserve">Android</t>
+    <t>Android</t>
   </si>
   <si>
-    <t xml:space="preserve">14/11-16/11</t>
+    <t>14/11-16/11</t>
   </si>
   <si>
-    <t xml:space="preserve">Unity</t>
+    <t>Unity</t>
   </si>
   <si>
-    <t xml:space="preserve">Web</t>
+    <t>Web</t>
   </si>
   <si>
-    <t xml:space="preserve">TOTAL</t>
+    <t>TOTAL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
-    <numFmt numFmtId="166" formatCode="General"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Cambria"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -147,143 +142,131 @@
     </fill>
   </fills>
   <borders count="7">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -342,32 +325,340 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H999"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J12" activeCellId="0" sqref="J12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.86"/>
+    <col min="1" max="1" width="28.7109375" customWidth="1"/>
+    <col min="2" max="2" width="6.28515625" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -375,7 +666,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -383,7 +674,7 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -393,7 +684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -417,7 +708,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="4" t="s">
@@ -429,135 +720,141 @@
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="4"/>
+      <c r="C6" s="4">
+        <v>1</v>
+      </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
-      <c r="F6" s="6" t="n">
+      <c r="F6" s="6">
         <v>11</v>
       </c>
-      <c r="G6" s="6" t="n">
-        <f aca="false">SUM(C6:F6)</f>
-        <v>11</v>
+      <c r="G6" s="6">
+        <f t="shared" ref="G6:G13" si="0">SUM(C6:F6)</f>
+        <v>12</v>
       </c>
       <c r="H6" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="4"/>
+      <c r="C7" s="4">
+        <v>2</v>
+      </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
-      <c r="F7" s="6" t="n">
+      <c r="F7" s="6">
         <v>8</v>
       </c>
-      <c r="G7" s="6" t="n">
-        <f aca="false">SUM(C7:F7)</f>
-        <v>8</v>
+      <c r="G7" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
-      <c r="F8" s="6" t="n">
+      <c r="F8" s="6">
         <v>0</v>
       </c>
-      <c r="G8" s="6" t="n">
-        <f aca="false">SUM(C8:F8)</f>
+      <c r="G8" s="6">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="4"/>
+      <c r="C9" s="4">
+        <v>9</v>
+      </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
-      <c r="F9" s="6" t="n">
+      <c r="F9" s="6">
         <v>0</v>
       </c>
-      <c r="G9" s="6" t="n">
-        <f aca="false">SUM(C9:F9)</f>
-        <v>0</v>
+      <c r="G9" s="6">
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C10" s="4"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
-      <c r="G10" s="6" t="n">
-        <f aca="false">SUM(C10:F10)</f>
+      <c r="G10" s="6">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C11" s="4"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
-      <c r="G11" s="6" t="n">
-        <f aca="false">SUM(C11:F11)</f>
+      <c r="G11" s="6">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C12" s="9"/>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
-      <c r="G12" s="6" t="n">
-        <f aca="false">SUM(C12:F12)</f>
+      <c r="G12" s="6">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H12" s="10"/>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="11" t="n">
-        <f aca="false">SUM(C6:C12)</f>
+      <c r="C13" s="11">
+        <f>SUM(C6:C12)</f>
+        <v>12</v>
+      </c>
+      <c r="D13" s="11">
+        <f>SUM(D6:D12)</f>
         <v>0</v>
       </c>
-      <c r="D13" s="11" t="n">
-        <f aca="false">SUM(D6:D12)</f>
+      <c r="E13" s="11">
+        <f>SUM(E6:E9)</f>
         <v>0</v>
       </c>
-      <c r="E13" s="11" t="n">
-        <f aca="false">SUM(E6:E9)</f>
-        <v>0</v>
-      </c>
-      <c r="F13" s="12" t="n">
-        <f aca="false">SUM(F6:F12)</f>
+      <c r="F13" s="12">
+        <f>SUM(F6:F12)</f>
         <v>19</v>
       </c>
-      <c r="G13" s="12" t="n">
-        <f aca="false">SUM(C13:F13)</f>
-        <v>19</v>
+      <c r="G13" s="12">
+        <f t="shared" si="0"/>
+        <v>31</v>
       </c>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -565,7 +862,7 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -573,7 +870,7 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -581,7 +878,7 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -589,7 +886,7 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -597,7 +894,7 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -605,7 +902,7 @@
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -613,7 +910,7 @@
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -621,7 +918,7 @@
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -629,7 +926,7 @@
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -637,7 +934,7 @@
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -645,7 +942,7 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -653,7 +950,7 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -661,7 +958,7 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -669,7 +966,7 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -677,7 +974,7 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
     </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -685,7 +982,7 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -693,7 +990,7 @@
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -701,7 +998,7 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
     </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -709,7 +1006,7 @@
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -717,7 +1014,7 @@
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -725,7 +1022,7 @@
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
     </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -733,7 +1030,7 @@
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
     </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -741,7 +1038,7 @@
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
     </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -749,7 +1046,7 @@
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
     </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -757,7 +1054,7 @@
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
     </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -765,7 +1062,7 @@
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
     </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -773,7 +1070,7 @@
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
     </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -781,7 +1078,7 @@
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
     </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -789,7 +1086,7 @@
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
     </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -797,7 +1094,7 @@
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
     </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
@@ -805,7 +1102,7 @@
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
     </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
@@ -813,7 +1110,7 @@
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
     </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
@@ -821,7 +1118,7 @@
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
     </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
@@ -829,7 +1126,7 @@
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
     </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
@@ -837,7 +1134,7 @@
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
     </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
@@ -845,7 +1142,7 @@
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
     </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
@@ -853,7 +1150,7 @@
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
     </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
@@ -861,7 +1158,7 @@
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
     </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
@@ -869,7 +1166,7 @@
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
     </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
@@ -877,7 +1174,7 @@
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
     </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
@@ -885,7 +1182,7 @@
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
     </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
@@ -893,7 +1190,7 @@
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
     </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
@@ -901,7 +1198,7 @@
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
     </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
@@ -909,7 +1206,7 @@
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
     </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
@@ -917,7 +1214,7 @@
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
     </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
@@ -925,7 +1222,7 @@
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
     </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
@@ -933,7 +1230,7 @@
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
     </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
@@ -941,7 +1238,7 @@
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
     </row>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
@@ -949,7 +1246,7 @@
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
     </row>
-    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
@@ -957,7 +1254,7 @@
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
     </row>
-    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
@@ -965,7 +1262,7 @@
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
     </row>
-    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
@@ -973,7 +1270,7 @@
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
     </row>
-    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
@@ -981,7 +1278,7 @@
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
     </row>
-    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
@@ -989,7 +1286,7 @@
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
     </row>
-    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
@@ -997,7 +1294,7 @@
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
     </row>
-    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
@@ -1005,7 +1302,7 @@
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
     </row>
-    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
@@ -1013,7 +1310,7 @@
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
     </row>
-    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
@@ -1021,7 +1318,7 @@
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
     </row>
-    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
@@ -1029,7 +1326,7 @@
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
     </row>
-    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
@@ -1037,7 +1334,7 @@
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
     </row>
-    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
@@ -1045,7 +1342,7 @@
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
     </row>
-    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
@@ -1053,7 +1350,7 @@
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
     </row>
-    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
@@ -1061,7 +1358,7 @@
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
     </row>
-    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
@@ -1069,7 +1366,7 @@
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
     </row>
-    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
@@ -1077,7 +1374,7 @@
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
     </row>
-    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
@@ -1085,7 +1382,7 @@
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
     </row>
-    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
@@ -1093,7 +1390,7 @@
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
     </row>
-    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
@@ -1101,7 +1398,7 @@
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
     </row>
-    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
@@ -1109,7 +1406,7 @@
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
     </row>
-    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
@@ -1117,7 +1414,7 @@
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
     </row>
-    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
@@ -1125,7 +1422,7 @@
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
     </row>
-    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
@@ -1133,7 +1430,7 @@
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
     </row>
-    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
@@ -1141,7 +1438,7 @@
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
     </row>
-    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
@@ -1149,7 +1446,7 @@
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
     </row>
-    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
@@ -1157,7 +1454,7 @@
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
     </row>
-    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
@@ -1165,7 +1462,7 @@
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
     </row>
-    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
@@ -1173,7 +1470,7 @@
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
     </row>
-    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
@@ -1181,7 +1478,7 @@
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
     </row>
-    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
@@ -1189,7 +1486,7 @@
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
     </row>
-    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
@@ -1197,7 +1494,7 @@
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
     </row>
-    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
@@ -1205,7 +1502,7 @@
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
     </row>
-    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
@@ -1213,7 +1510,7 @@
       <c r="G95" s="1"/>
       <c r="H95" s="1"/>
     </row>
-    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
@@ -1221,7 +1518,7 @@
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
     </row>
-    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
@@ -1229,7 +1526,7 @@
       <c r="G97" s="1"/>
       <c r="H97" s="1"/>
     </row>
-    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
@@ -1237,7 +1534,7 @@
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
     </row>
-    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
@@ -1245,7 +1542,7 @@
       <c r="G99" s="1"/>
       <c r="H99" s="1"/>
     </row>
-    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
@@ -1253,7 +1550,7 @@
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
     </row>
-    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
@@ -1261,7 +1558,7 @@
       <c r="G101" s="1"/>
       <c r="H101" s="1"/>
     </row>
-    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
@@ -1269,7 +1566,7 @@
       <c r="G102" s="1"/>
       <c r="H102" s="1"/>
     </row>
-    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
@@ -1277,7 +1574,7 @@
       <c r="G103" s="1"/>
       <c r="H103" s="1"/>
     </row>
-    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
@@ -1285,7 +1582,7 @@
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
     </row>
-    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
@@ -1293,7 +1590,7 @@
       <c r="G105" s="1"/>
       <c r="H105" s="1"/>
     </row>
-    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
@@ -1301,7 +1598,7 @@
       <c r="G106" s="1"/>
       <c r="H106" s="1"/>
     </row>
-    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
@@ -1309,7 +1606,7 @@
       <c r="G107" s="1"/>
       <c r="H107" s="1"/>
     </row>
-    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
@@ -1317,7 +1614,7 @@
       <c r="G108" s="1"/>
       <c r="H108" s="1"/>
     </row>
-    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
@@ -1325,7 +1622,7 @@
       <c r="G109" s="1"/>
       <c r="H109" s="1"/>
     </row>
-    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
@@ -1333,7 +1630,7 @@
       <c r="G110" s="1"/>
       <c r="H110" s="1"/>
     </row>
-    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
@@ -1341,7 +1638,7 @@
       <c r="G111" s="1"/>
       <c r="H111" s="1"/>
     </row>
-    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
       <c r="E112" s="1"/>
@@ -1349,7 +1646,7 @@
       <c r="G112" s="1"/>
       <c r="H112" s="1"/>
     </row>
-    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
@@ -1357,7 +1654,7 @@
       <c r="G113" s="1"/>
       <c r="H113" s="1"/>
     </row>
-    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
@@ -1365,7 +1662,7 @@
       <c r="G114" s="1"/>
       <c r="H114" s="1"/>
     </row>
-    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
@@ -1373,7 +1670,7 @@
       <c r="G115" s="1"/>
       <c r="H115" s="1"/>
     </row>
-    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
       <c r="E116" s="1"/>
@@ -1381,7 +1678,7 @@
       <c r="G116" s="1"/>
       <c r="H116" s="1"/>
     </row>
-    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
@@ -1389,7 +1686,7 @@
       <c r="G117" s="1"/>
       <c r="H117" s="1"/>
     </row>
-    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
@@ -1397,7 +1694,7 @@
       <c r="G118" s="1"/>
       <c r="H118" s="1"/>
     </row>
-    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
@@ -1405,7 +1702,7 @@
       <c r="G119" s="1"/>
       <c r="H119" s="1"/>
     </row>
-    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
@@ -1413,7 +1710,7 @@
       <c r="G120" s="1"/>
       <c r="H120" s="1"/>
     </row>
-    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
@@ -1421,7 +1718,7 @@
       <c r="G121" s="1"/>
       <c r="H121" s="1"/>
     </row>
-    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
@@ -1429,7 +1726,7 @@
       <c r="G122" s="1"/>
       <c r="H122" s="1"/>
     </row>
-    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
@@ -1437,7 +1734,7 @@
       <c r="G123" s="1"/>
       <c r="H123" s="1"/>
     </row>
-    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
       <c r="E124" s="1"/>
@@ -1445,7 +1742,7 @@
       <c r="G124" s="1"/>
       <c r="H124" s="1"/>
     </row>
-    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
       <c r="E125" s="1"/>
@@ -1453,7 +1750,7 @@
       <c r="G125" s="1"/>
       <c r="H125" s="1"/>
     </row>
-    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
@@ -1461,7 +1758,7 @@
       <c r="G126" s="1"/>
       <c r="H126" s="1"/>
     </row>
-    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
@@ -1469,7 +1766,7 @@
       <c r="G127" s="1"/>
       <c r="H127" s="1"/>
     </row>
-    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
@@ -1477,7 +1774,7 @@
       <c r="G128" s="1"/>
       <c r="H128" s="1"/>
     </row>
-    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>
@@ -1485,7 +1782,7 @@
       <c r="G129" s="1"/>
       <c r="H129" s="1"/>
     </row>
-    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
       <c r="E130" s="1"/>
@@ -1493,7 +1790,7 @@
       <c r="G130" s="1"/>
       <c r="H130" s="1"/>
     </row>
-    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
@@ -1501,7 +1798,7 @@
       <c r="G131" s="1"/>
       <c r="H131" s="1"/>
     </row>
-    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
       <c r="E132" s="1"/>
@@ -1509,7 +1806,7 @@
       <c r="G132" s="1"/>
       <c r="H132" s="1"/>
     </row>
-    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
@@ -1517,7 +1814,7 @@
       <c r="G133" s="1"/>
       <c r="H133" s="1"/>
     </row>
-    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
@@ -1525,7 +1822,7 @@
       <c r="G134" s="1"/>
       <c r="H134" s="1"/>
     </row>
-    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
       <c r="E135" s="1"/>
@@ -1533,7 +1830,7 @@
       <c r="G135" s="1"/>
       <c r="H135" s="1"/>
     </row>
-    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
       <c r="E136" s="1"/>
@@ -1541,7 +1838,7 @@
       <c r="G136" s="1"/>
       <c r="H136" s="1"/>
     </row>
-    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
       <c r="E137" s="1"/>
@@ -1549,7 +1846,7 @@
       <c r="G137" s="1"/>
       <c r="H137" s="1"/>
     </row>
-    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
       <c r="E138" s="1"/>
@@ -1557,7 +1854,7 @@
       <c r="G138" s="1"/>
       <c r="H138" s="1"/>
     </row>
-    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
       <c r="E139" s="1"/>
@@ -1565,7 +1862,7 @@
       <c r="G139" s="1"/>
       <c r="H139" s="1"/>
     </row>
-    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
       <c r="E140" s="1"/>
@@ -1573,7 +1870,7 @@
       <c r="G140" s="1"/>
       <c r="H140" s="1"/>
     </row>
-    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
       <c r="E141" s="1"/>
@@ -1581,7 +1878,7 @@
       <c r="G141" s="1"/>
       <c r="H141" s="1"/>
     </row>
-    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
       <c r="E142" s="1"/>
@@ -1589,7 +1886,7 @@
       <c r="G142" s="1"/>
       <c r="H142" s="1"/>
     </row>
-    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
       <c r="E143" s="1"/>
@@ -1597,7 +1894,7 @@
       <c r="G143" s="1"/>
       <c r="H143" s="1"/>
     </row>
-    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
       <c r="E144" s="1"/>
@@ -1605,7 +1902,7 @@
       <c r="G144" s="1"/>
       <c r="H144" s="1"/>
     </row>
-    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
       <c r="E145" s="1"/>
@@ -1613,7 +1910,7 @@
       <c r="G145" s="1"/>
       <c r="H145" s="1"/>
     </row>
-    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
       <c r="E146" s="1"/>
@@ -1621,7 +1918,7 @@
       <c r="G146" s="1"/>
       <c r="H146" s="1"/>
     </row>
-    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
       <c r="E147" s="1"/>
@@ -1629,7 +1926,7 @@
       <c r="G147" s="1"/>
       <c r="H147" s="1"/>
     </row>
-    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
       <c r="E148" s="1"/>
@@ -1637,7 +1934,7 @@
       <c r="G148" s="1"/>
       <c r="H148" s="1"/>
     </row>
-    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
       <c r="E149" s="1"/>
@@ -1645,7 +1942,7 @@
       <c r="G149" s="1"/>
       <c r="H149" s="1"/>
     </row>
-    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
       <c r="E150" s="1"/>
@@ -1653,7 +1950,7 @@
       <c r="G150" s="1"/>
       <c r="H150" s="1"/>
     </row>
-    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
       <c r="E151" s="1"/>
@@ -1661,7 +1958,7 @@
       <c r="G151" s="1"/>
       <c r="H151" s="1"/>
     </row>
-    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
       <c r="E152" s="1"/>
@@ -1669,7 +1966,7 @@
       <c r="G152" s="1"/>
       <c r="H152" s="1"/>
     </row>
-    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
       <c r="E153" s="1"/>
@@ -1677,7 +1974,7 @@
       <c r="G153" s="1"/>
       <c r="H153" s="1"/>
     </row>
-    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
       <c r="E154" s="1"/>
@@ -1685,7 +1982,7 @@
       <c r="G154" s="1"/>
       <c r="H154" s="1"/>
     </row>
-    <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
       <c r="E155" s="1"/>
@@ -1693,7 +1990,7 @@
       <c r="G155" s="1"/>
       <c r="H155" s="1"/>
     </row>
-    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
       <c r="E156" s="1"/>
@@ -1701,7 +1998,7 @@
       <c r="G156" s="1"/>
       <c r="H156" s="1"/>
     </row>
-    <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C157" s="1"/>
       <c r="D157" s="1"/>
       <c r="E157" s="1"/>
@@ -1709,7 +2006,7 @@
       <c r="G157" s="1"/>
       <c r="H157" s="1"/>
     </row>
-    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="158" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
       <c r="E158" s="1"/>
@@ -1717,7 +2014,7 @@
       <c r="G158" s="1"/>
       <c r="H158" s="1"/>
     </row>
-    <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="159" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C159" s="1"/>
       <c r="D159" s="1"/>
       <c r="E159" s="1"/>
@@ -1725,7 +2022,7 @@
       <c r="G159" s="1"/>
       <c r="H159" s="1"/>
     </row>
-    <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
       <c r="E160" s="1"/>
@@ -1733,7 +2030,7 @@
       <c r="G160" s="1"/>
       <c r="H160" s="1"/>
     </row>
-    <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
       <c r="E161" s="1"/>
@@ -1741,7 +2038,7 @@
       <c r="G161" s="1"/>
       <c r="H161" s="1"/>
     </row>
-    <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="162" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
       <c r="E162" s="1"/>
@@ -1749,7 +2046,7 @@
       <c r="G162" s="1"/>
       <c r="H162" s="1"/>
     </row>
-    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="163" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C163" s="1"/>
       <c r="D163" s="1"/>
       <c r="E163" s="1"/>
@@ -1757,7 +2054,7 @@
       <c r="G163" s="1"/>
       <c r="H163" s="1"/>
     </row>
-    <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
       <c r="E164" s="1"/>
@@ -1765,7 +2062,7 @@
       <c r="G164" s="1"/>
       <c r="H164" s="1"/>
     </row>
-    <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="165" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
       <c r="E165" s="1"/>
@@ -1773,7 +2070,7 @@
       <c r="G165" s="1"/>
       <c r="H165" s="1"/>
     </row>
-    <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="166" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C166" s="1"/>
       <c r="D166" s="1"/>
       <c r="E166" s="1"/>
@@ -1781,7 +2078,7 @@
       <c r="G166" s="1"/>
       <c r="H166" s="1"/>
     </row>
-    <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="167" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C167" s="1"/>
       <c r="D167" s="1"/>
       <c r="E167" s="1"/>
@@ -1789,7 +2086,7 @@
       <c r="G167" s="1"/>
       <c r="H167" s="1"/>
     </row>
-    <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="168" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
       <c r="E168" s="1"/>
@@ -1797,7 +2094,7 @@
       <c r="G168" s="1"/>
       <c r="H168" s="1"/>
     </row>
-    <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="169" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C169" s="1"/>
       <c r="D169" s="1"/>
       <c r="E169" s="1"/>
@@ -1805,7 +2102,7 @@
       <c r="G169" s="1"/>
       <c r="H169" s="1"/>
     </row>
-    <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="170" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C170" s="1"/>
       <c r="D170" s="1"/>
       <c r="E170" s="1"/>
@@ -1813,7 +2110,7 @@
       <c r="G170" s="1"/>
       <c r="H170" s="1"/>
     </row>
-    <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="171" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C171" s="1"/>
       <c r="D171" s="1"/>
       <c r="E171" s="1"/>
@@ -1821,7 +2118,7 @@
       <c r="G171" s="1"/>
       <c r="H171" s="1"/>
     </row>
-    <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="172" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C172" s="1"/>
       <c r="D172" s="1"/>
       <c r="E172" s="1"/>
@@ -1829,7 +2126,7 @@
       <c r="G172" s="1"/>
       <c r="H172" s="1"/>
     </row>
-    <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="173" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C173" s="1"/>
       <c r="D173" s="1"/>
       <c r="E173" s="1"/>
@@ -1837,7 +2134,7 @@
       <c r="G173" s="1"/>
       <c r="H173" s="1"/>
     </row>
-    <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="174" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
       <c r="E174" s="1"/>
@@ -1845,7 +2142,7 @@
       <c r="G174" s="1"/>
       <c r="H174" s="1"/>
     </row>
-    <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="175" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C175" s="1"/>
       <c r="D175" s="1"/>
       <c r="E175" s="1"/>
@@ -1853,7 +2150,7 @@
       <c r="G175" s="1"/>
       <c r="H175" s="1"/>
     </row>
-    <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="176" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
       <c r="E176" s="1"/>
@@ -1861,7 +2158,7 @@
       <c r="G176" s="1"/>
       <c r="H176" s="1"/>
     </row>
-    <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="177" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
       <c r="E177" s="1"/>
@@ -1869,7 +2166,7 @@
       <c r="G177" s="1"/>
       <c r="H177" s="1"/>
     </row>
-    <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="178" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
       <c r="E178" s="1"/>
@@ -1877,7 +2174,7 @@
       <c r="G178" s="1"/>
       <c r="H178" s="1"/>
     </row>
-    <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="179" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C179" s="1"/>
       <c r="D179" s="1"/>
       <c r="E179" s="1"/>
@@ -1885,7 +2182,7 @@
       <c r="G179" s="1"/>
       <c r="H179" s="1"/>
     </row>
-    <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="180" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
       <c r="E180" s="1"/>
@@ -1893,7 +2190,7 @@
       <c r="G180" s="1"/>
       <c r="H180" s="1"/>
     </row>
-    <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="181" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C181" s="1"/>
       <c r="D181" s="1"/>
       <c r="E181" s="1"/>
@@ -1901,7 +2198,7 @@
       <c r="G181" s="1"/>
       <c r="H181" s="1"/>
     </row>
-    <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="182" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C182" s="1"/>
       <c r="D182" s="1"/>
       <c r="E182" s="1"/>
@@ -1909,7 +2206,7 @@
       <c r="G182" s="1"/>
       <c r="H182" s="1"/>
     </row>
-    <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="183" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C183" s="1"/>
       <c r="D183" s="1"/>
       <c r="E183" s="1"/>
@@ -1917,7 +2214,7 @@
       <c r="G183" s="1"/>
       <c r="H183" s="1"/>
     </row>
-    <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="184" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C184" s="1"/>
       <c r="D184" s="1"/>
       <c r="E184" s="1"/>
@@ -1925,7 +2222,7 @@
       <c r="G184" s="1"/>
       <c r="H184" s="1"/>
     </row>
-    <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="185" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C185" s="1"/>
       <c r="D185" s="1"/>
       <c r="E185" s="1"/>
@@ -1933,7 +2230,7 @@
       <c r="G185" s="1"/>
       <c r="H185" s="1"/>
     </row>
-    <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="186" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C186" s="1"/>
       <c r="D186" s="1"/>
       <c r="E186" s="1"/>
@@ -1941,7 +2238,7 @@
       <c r="G186" s="1"/>
       <c r="H186" s="1"/>
     </row>
-    <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="187" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C187" s="1"/>
       <c r="D187" s="1"/>
       <c r="E187" s="1"/>
@@ -1949,7 +2246,7 @@
       <c r="G187" s="1"/>
       <c r="H187" s="1"/>
     </row>
-    <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="188" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C188" s="1"/>
       <c r="D188" s="1"/>
       <c r="E188" s="1"/>
@@ -1957,7 +2254,7 @@
       <c r="G188" s="1"/>
       <c r="H188" s="1"/>
     </row>
-    <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="189" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C189" s="1"/>
       <c r="D189" s="1"/>
       <c r="E189" s="1"/>
@@ -1965,7 +2262,7 @@
       <c r="G189" s="1"/>
       <c r="H189" s="1"/>
     </row>
-    <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="190" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C190" s="1"/>
       <c r="D190" s="1"/>
       <c r="E190" s="1"/>
@@ -1973,7 +2270,7 @@
       <c r="G190" s="1"/>
       <c r="H190" s="1"/>
     </row>
-    <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="191" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C191" s="1"/>
       <c r="D191" s="1"/>
       <c r="E191" s="1"/>
@@ -1981,7 +2278,7 @@
       <c r="G191" s="1"/>
       <c r="H191" s="1"/>
     </row>
-    <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="192" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C192" s="1"/>
       <c r="D192" s="1"/>
       <c r="E192" s="1"/>
@@ -1989,7 +2286,7 @@
       <c r="G192" s="1"/>
       <c r="H192" s="1"/>
     </row>
-    <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="193" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C193" s="1"/>
       <c r="D193" s="1"/>
       <c r="E193" s="1"/>
@@ -1997,7 +2294,7 @@
       <c r="G193" s="1"/>
       <c r="H193" s="1"/>
     </row>
-    <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="194" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C194" s="1"/>
       <c r="D194" s="1"/>
       <c r="E194" s="1"/>
@@ -2005,7 +2302,7 @@
       <c r="G194" s="1"/>
       <c r="H194" s="1"/>
     </row>
-    <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="195" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C195" s="1"/>
       <c r="D195" s="1"/>
       <c r="E195" s="1"/>
@@ -2013,7 +2310,7 @@
       <c r="G195" s="1"/>
       <c r="H195" s="1"/>
     </row>
-    <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="196" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C196" s="1"/>
       <c r="D196" s="1"/>
       <c r="E196" s="1"/>
@@ -2021,7 +2318,7 @@
       <c r="G196" s="1"/>
       <c r="H196" s="1"/>
     </row>
-    <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="197" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C197" s="1"/>
       <c r="D197" s="1"/>
       <c r="E197" s="1"/>
@@ -2029,7 +2326,7 @@
       <c r="G197" s="1"/>
       <c r="H197" s="1"/>
     </row>
-    <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="198" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C198" s="1"/>
       <c r="D198" s="1"/>
       <c r="E198" s="1"/>
@@ -2037,7 +2334,7 @@
       <c r="G198" s="1"/>
       <c r="H198" s="1"/>
     </row>
-    <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="199" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C199" s="1"/>
       <c r="D199" s="1"/>
       <c r="E199" s="1"/>
@@ -2045,7 +2342,7 @@
       <c r="G199" s="1"/>
       <c r="H199" s="1"/>
     </row>
-    <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="200" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C200" s="1"/>
       <c r="D200" s="1"/>
       <c r="E200" s="1"/>
@@ -2053,7 +2350,7 @@
       <c r="G200" s="1"/>
       <c r="H200" s="1"/>
     </row>
-    <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="201" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C201" s="1"/>
       <c r="D201" s="1"/>
       <c r="E201" s="1"/>
@@ -2061,7 +2358,7 @@
       <c r="G201" s="1"/>
       <c r="H201" s="1"/>
     </row>
-    <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="202" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C202" s="1"/>
       <c r="D202" s="1"/>
       <c r="E202" s="1"/>
@@ -2069,7 +2366,7 @@
       <c r="G202" s="1"/>
       <c r="H202" s="1"/>
     </row>
-    <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="203" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C203" s="1"/>
       <c r="D203" s="1"/>
       <c r="E203" s="1"/>
@@ -2077,7 +2374,7 @@
       <c r="G203" s="1"/>
       <c r="H203" s="1"/>
     </row>
-    <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="204" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C204" s="1"/>
       <c r="D204" s="1"/>
       <c r="E204" s="1"/>
@@ -2085,7 +2382,7 @@
       <c r="G204" s="1"/>
       <c r="H204" s="1"/>
     </row>
-    <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="205" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C205" s="1"/>
       <c r="D205" s="1"/>
       <c r="E205" s="1"/>
@@ -2093,7 +2390,7 @@
       <c r="G205" s="1"/>
       <c r="H205" s="1"/>
     </row>
-    <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="206" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C206" s="1"/>
       <c r="D206" s="1"/>
       <c r="E206" s="1"/>
@@ -2101,7 +2398,7 @@
       <c r="G206" s="1"/>
       <c r="H206" s="1"/>
     </row>
-    <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="207" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C207" s="1"/>
       <c r="D207" s="1"/>
       <c r="E207" s="1"/>
@@ -2109,7 +2406,7 @@
       <c r="G207" s="1"/>
       <c r="H207" s="1"/>
     </row>
-    <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="208" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C208" s="1"/>
       <c r="D208" s="1"/>
       <c r="E208" s="1"/>
@@ -2117,7 +2414,7 @@
       <c r="G208" s="1"/>
       <c r="H208" s="1"/>
     </row>
-    <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="209" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C209" s="1"/>
       <c r="D209" s="1"/>
       <c r="E209" s="1"/>
@@ -2125,7 +2422,7 @@
       <c r="G209" s="1"/>
       <c r="H209" s="1"/>
     </row>
-    <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="210" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C210" s="1"/>
       <c r="D210" s="1"/>
       <c r="E210" s="1"/>
@@ -2133,7 +2430,7 @@
       <c r="G210" s="1"/>
       <c r="H210" s="1"/>
     </row>
-    <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="211" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C211" s="1"/>
       <c r="D211" s="1"/>
       <c r="E211" s="1"/>
@@ -2141,7 +2438,7 @@
       <c r="G211" s="1"/>
       <c r="H211" s="1"/>
     </row>
-    <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="212" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C212" s="1"/>
       <c r="D212" s="1"/>
       <c r="E212" s="1"/>
@@ -2149,7 +2446,7 @@
       <c r="G212" s="1"/>
       <c r="H212" s="1"/>
     </row>
-    <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="213" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C213" s="1"/>
       <c r="D213" s="1"/>
       <c r="E213" s="1"/>
@@ -2157,7 +2454,7 @@
       <c r="G213" s="1"/>
       <c r="H213" s="1"/>
     </row>
-    <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="214" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C214" s="1"/>
       <c r="D214" s="1"/>
       <c r="E214" s="1"/>
@@ -2165,7 +2462,7 @@
       <c r="G214" s="1"/>
       <c r="H214" s="1"/>
     </row>
-    <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="215" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C215" s="1"/>
       <c r="D215" s="1"/>
       <c r="E215" s="1"/>
@@ -2173,7 +2470,7 @@
       <c r="G215" s="1"/>
       <c r="H215" s="1"/>
     </row>
-    <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="216" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C216" s="1"/>
       <c r="D216" s="1"/>
       <c r="E216" s="1"/>
@@ -2181,7 +2478,7 @@
       <c r="G216" s="1"/>
       <c r="H216" s="1"/>
     </row>
-    <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="217" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C217" s="1"/>
       <c r="D217" s="1"/>
       <c r="E217" s="1"/>
@@ -2189,7 +2486,7 @@
       <c r="G217" s="1"/>
       <c r="H217" s="1"/>
     </row>
-    <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="218" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C218" s="1"/>
       <c r="D218" s="1"/>
       <c r="E218" s="1"/>
@@ -2197,7 +2494,7 @@
       <c r="G218" s="1"/>
       <c r="H218" s="1"/>
     </row>
-    <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="219" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C219" s="1"/>
       <c r="D219" s="1"/>
       <c r="E219" s="1"/>
@@ -2205,7 +2502,7 @@
       <c r="G219" s="1"/>
       <c r="H219" s="1"/>
     </row>
-    <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="220" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C220" s="1"/>
       <c r="D220" s="1"/>
       <c r="E220" s="1"/>
@@ -2213,7 +2510,7 @@
       <c r="G220" s="1"/>
       <c r="H220" s="1"/>
     </row>
-    <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="221" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C221" s="1"/>
       <c r="D221" s="1"/>
       <c r="E221" s="1"/>
@@ -2221,7 +2518,7 @@
       <c r="G221" s="1"/>
       <c r="H221" s="1"/>
     </row>
-    <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="222" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C222" s="1"/>
       <c r="D222" s="1"/>
       <c r="E222" s="1"/>
@@ -2229,7 +2526,7 @@
       <c r="G222" s="1"/>
       <c r="H222" s="1"/>
     </row>
-    <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="223" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C223" s="1"/>
       <c r="D223" s="1"/>
       <c r="E223" s="1"/>
@@ -2237,7 +2534,7 @@
       <c r="G223" s="1"/>
       <c r="H223" s="1"/>
     </row>
-    <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="224" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C224" s="1"/>
       <c r="D224" s="1"/>
       <c r="E224" s="1"/>
@@ -2245,7 +2542,7 @@
       <c r="G224" s="1"/>
       <c r="H224" s="1"/>
     </row>
-    <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="225" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C225" s="1"/>
       <c r="D225" s="1"/>
       <c r="E225" s="1"/>
@@ -2253,7 +2550,7 @@
       <c r="G225" s="1"/>
       <c r="H225" s="1"/>
     </row>
-    <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="226" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C226" s="1"/>
       <c r="D226" s="1"/>
       <c r="E226" s="1"/>
@@ -2261,7 +2558,7 @@
       <c r="G226" s="1"/>
       <c r="H226" s="1"/>
     </row>
-    <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="227" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C227" s="1"/>
       <c r="D227" s="1"/>
       <c r="E227" s="1"/>
@@ -2269,7 +2566,7 @@
       <c r="G227" s="1"/>
       <c r="H227" s="1"/>
     </row>
-    <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="228" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C228" s="1"/>
       <c r="D228" s="1"/>
       <c r="E228" s="1"/>
@@ -2277,7 +2574,7 @@
       <c r="G228" s="1"/>
       <c r="H228" s="1"/>
     </row>
-    <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="229" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C229" s="1"/>
       <c r="D229" s="1"/>
       <c r="E229" s="1"/>
@@ -2285,7 +2582,7 @@
       <c r="G229" s="1"/>
       <c r="H229" s="1"/>
     </row>
-    <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="230" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C230" s="1"/>
       <c r="D230" s="1"/>
       <c r="E230" s="1"/>
@@ -2293,7 +2590,7 @@
       <c r="G230" s="1"/>
       <c r="H230" s="1"/>
     </row>
-    <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="231" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C231" s="1"/>
       <c r="D231" s="1"/>
       <c r="E231" s="1"/>
@@ -2301,7 +2598,7 @@
       <c r="G231" s="1"/>
       <c r="H231" s="1"/>
     </row>
-    <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="232" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C232" s="1"/>
       <c r="D232" s="1"/>
       <c r="E232" s="1"/>
@@ -2309,7 +2606,7 @@
       <c r="G232" s="1"/>
       <c r="H232" s="1"/>
     </row>
-    <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="233" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C233" s="1"/>
       <c r="D233" s="1"/>
       <c r="E233" s="1"/>
@@ -2317,7 +2614,7 @@
       <c r="G233" s="1"/>
       <c r="H233" s="1"/>
     </row>
-    <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="234" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C234" s="1"/>
       <c r="D234" s="1"/>
       <c r="E234" s="1"/>
@@ -2325,7 +2622,7 @@
       <c r="G234" s="1"/>
       <c r="H234" s="1"/>
     </row>
-    <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="235" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C235" s="1"/>
       <c r="D235" s="1"/>
       <c r="E235" s="1"/>
@@ -2333,7 +2630,7 @@
       <c r="G235" s="1"/>
       <c r="H235" s="1"/>
     </row>
-    <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="236" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C236" s="1"/>
       <c r="D236" s="1"/>
       <c r="E236" s="1"/>
@@ -2341,7 +2638,7 @@
       <c r="G236" s="1"/>
       <c r="H236" s="1"/>
     </row>
-    <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="237" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C237" s="1"/>
       <c r="D237" s="1"/>
       <c r="E237" s="1"/>
@@ -2349,7 +2646,7 @@
       <c r="G237" s="1"/>
       <c r="H237" s="1"/>
     </row>
-    <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="238" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C238" s="1"/>
       <c r="D238" s="1"/>
       <c r="E238" s="1"/>
@@ -2357,7 +2654,7 @@
       <c r="G238" s="1"/>
       <c r="H238" s="1"/>
     </row>
-    <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="239" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C239" s="1"/>
       <c r="D239" s="1"/>
       <c r="E239" s="1"/>
@@ -2365,7 +2662,7 @@
       <c r="G239" s="1"/>
       <c r="H239" s="1"/>
     </row>
-    <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="240" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C240" s="1"/>
       <c r="D240" s="1"/>
       <c r="E240" s="1"/>
@@ -2373,7 +2670,7 @@
       <c r="G240" s="1"/>
       <c r="H240" s="1"/>
     </row>
-    <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="241" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C241" s="1"/>
       <c r="D241" s="1"/>
       <c r="E241" s="1"/>
@@ -2381,7 +2678,7 @@
       <c r="G241" s="1"/>
       <c r="H241" s="1"/>
     </row>
-    <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="242" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C242" s="1"/>
       <c r="D242" s="1"/>
       <c r="E242" s="1"/>
@@ -2389,7 +2686,7 @@
       <c r="G242" s="1"/>
       <c r="H242" s="1"/>
     </row>
-    <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="243" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C243" s="1"/>
       <c r="D243" s="1"/>
       <c r="E243" s="1"/>
@@ -2397,7 +2694,7 @@
       <c r="G243" s="1"/>
       <c r="H243" s="1"/>
     </row>
-    <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="244" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C244" s="1"/>
       <c r="D244" s="1"/>
       <c r="E244" s="1"/>
@@ -2405,7 +2702,7 @@
       <c r="G244" s="1"/>
       <c r="H244" s="1"/>
     </row>
-    <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="245" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C245" s="1"/>
       <c r="D245" s="1"/>
       <c r="E245" s="1"/>
@@ -2413,7 +2710,7 @@
       <c r="G245" s="1"/>
       <c r="H245" s="1"/>
     </row>
-    <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="246" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C246" s="1"/>
       <c r="D246" s="1"/>
       <c r="E246" s="1"/>
@@ -2421,7 +2718,7 @@
       <c r="G246" s="1"/>
       <c r="H246" s="1"/>
     </row>
-    <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="247" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C247" s="1"/>
       <c r="D247" s="1"/>
       <c r="E247" s="1"/>
@@ -2429,7 +2726,7 @@
       <c r="G247" s="1"/>
       <c r="H247" s="1"/>
     </row>
-    <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="248" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C248" s="1"/>
       <c r="D248" s="1"/>
       <c r="E248" s="1"/>
@@ -2437,7 +2734,7 @@
       <c r="G248" s="1"/>
       <c r="H248" s="1"/>
     </row>
-    <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="249" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C249" s="1"/>
       <c r="D249" s="1"/>
       <c r="E249" s="1"/>
@@ -2445,7 +2742,7 @@
       <c r="G249" s="1"/>
       <c r="H249" s="1"/>
     </row>
-    <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="250" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C250" s="1"/>
       <c r="D250" s="1"/>
       <c r="E250" s="1"/>
@@ -2453,7 +2750,7 @@
       <c r="G250" s="1"/>
       <c r="H250" s="1"/>
     </row>
-    <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="251" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C251" s="1"/>
       <c r="D251" s="1"/>
       <c r="E251" s="1"/>
@@ -2461,7 +2758,7 @@
       <c r="G251" s="1"/>
       <c r="H251" s="1"/>
     </row>
-    <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="252" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C252" s="1"/>
       <c r="D252" s="1"/>
       <c r="E252" s="1"/>
@@ -2469,7 +2766,7 @@
       <c r="G252" s="1"/>
       <c r="H252" s="1"/>
     </row>
-    <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="253" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C253" s="1"/>
       <c r="D253" s="1"/>
       <c r="E253" s="1"/>
@@ -2477,7 +2774,7 @@
       <c r="G253" s="1"/>
       <c r="H253" s="1"/>
     </row>
-    <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="254" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C254" s="1"/>
       <c r="D254" s="1"/>
       <c r="E254" s="1"/>
@@ -2485,7 +2782,7 @@
       <c r="G254" s="1"/>
       <c r="H254" s="1"/>
     </row>
-    <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="255" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C255" s="1"/>
       <c r="D255" s="1"/>
       <c r="E255" s="1"/>
@@ -2493,7 +2790,7 @@
       <c r="G255" s="1"/>
       <c r="H255" s="1"/>
     </row>
-    <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="256" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C256" s="1"/>
       <c r="D256" s="1"/>
       <c r="E256" s="1"/>
@@ -2501,7 +2798,7 @@
       <c r="G256" s="1"/>
       <c r="H256" s="1"/>
     </row>
-    <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="257" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C257" s="1"/>
       <c r="D257" s="1"/>
       <c r="E257" s="1"/>
@@ -2509,7 +2806,7 @@
       <c r="G257" s="1"/>
       <c r="H257" s="1"/>
     </row>
-    <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="258" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C258" s="1"/>
       <c r="D258" s="1"/>
       <c r="E258" s="1"/>
@@ -2517,7 +2814,7 @@
       <c r="G258" s="1"/>
       <c r="H258" s="1"/>
     </row>
-    <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="259" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C259" s="1"/>
       <c r="D259" s="1"/>
       <c r="E259" s="1"/>
@@ -2525,7 +2822,7 @@
       <c r="G259" s="1"/>
       <c r="H259" s="1"/>
     </row>
-    <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="260" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C260" s="1"/>
       <c r="D260" s="1"/>
       <c r="E260" s="1"/>
@@ -2533,7 +2830,7 @@
       <c r="G260" s="1"/>
       <c r="H260" s="1"/>
     </row>
-    <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="261" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C261" s="1"/>
       <c r="D261" s="1"/>
       <c r="E261" s="1"/>
@@ -2541,7 +2838,7 @@
       <c r="G261" s="1"/>
       <c r="H261" s="1"/>
     </row>
-    <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="262" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C262" s="1"/>
       <c r="D262" s="1"/>
       <c r="E262" s="1"/>
@@ -2549,7 +2846,7 @@
       <c r="G262" s="1"/>
       <c r="H262" s="1"/>
     </row>
-    <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="263" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C263" s="1"/>
       <c r="D263" s="1"/>
       <c r="E263" s="1"/>
@@ -2557,7 +2854,7 @@
       <c r="G263" s="1"/>
       <c r="H263" s="1"/>
     </row>
-    <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="264" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C264" s="1"/>
       <c r="D264" s="1"/>
       <c r="E264" s="1"/>
@@ -2565,7 +2862,7 @@
       <c r="G264" s="1"/>
       <c r="H264" s="1"/>
     </row>
-    <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="265" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C265" s="1"/>
       <c r="D265" s="1"/>
       <c r="E265" s="1"/>
@@ -2573,7 +2870,7 @@
       <c r="G265" s="1"/>
       <c r="H265" s="1"/>
     </row>
-    <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="266" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C266" s="1"/>
       <c r="D266" s="1"/>
       <c r="E266" s="1"/>
@@ -2581,7 +2878,7 @@
       <c r="G266" s="1"/>
       <c r="H266" s="1"/>
     </row>
-    <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="267" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C267" s="1"/>
       <c r="D267" s="1"/>
       <c r="E267" s="1"/>
@@ -2589,7 +2886,7 @@
       <c r="G267" s="1"/>
       <c r="H267" s="1"/>
     </row>
-    <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="268" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C268" s="1"/>
       <c r="D268" s="1"/>
       <c r="E268" s="1"/>
@@ -2597,7 +2894,7 @@
       <c r="G268" s="1"/>
       <c r="H268" s="1"/>
     </row>
-    <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="269" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C269" s="1"/>
       <c r="D269" s="1"/>
       <c r="E269" s="1"/>
@@ -2605,7 +2902,7 @@
       <c r="G269" s="1"/>
       <c r="H269" s="1"/>
     </row>
-    <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="270" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C270" s="1"/>
       <c r="D270" s="1"/>
       <c r="E270" s="1"/>
@@ -2613,7 +2910,7 @@
       <c r="G270" s="1"/>
       <c r="H270" s="1"/>
     </row>
-    <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="271" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C271" s="1"/>
       <c r="D271" s="1"/>
       <c r="E271" s="1"/>
@@ -2621,7 +2918,7 @@
       <c r="G271" s="1"/>
       <c r="H271" s="1"/>
     </row>
-    <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="272" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C272" s="1"/>
       <c r="D272" s="1"/>
       <c r="E272" s="1"/>
@@ -2629,7 +2926,7 @@
       <c r="G272" s="1"/>
       <c r="H272" s="1"/>
     </row>
-    <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="273" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C273" s="1"/>
       <c r="D273" s="1"/>
       <c r="E273" s="1"/>
@@ -2637,7 +2934,7 @@
       <c r="G273" s="1"/>
       <c r="H273" s="1"/>
     </row>
-    <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="274" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C274" s="1"/>
       <c r="D274" s="1"/>
       <c r="E274" s="1"/>
@@ -2645,7 +2942,7 @@
       <c r="G274" s="1"/>
       <c r="H274" s="1"/>
     </row>
-    <row r="275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="275" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C275" s="1"/>
       <c r="D275" s="1"/>
       <c r="E275" s="1"/>
@@ -2653,7 +2950,7 @@
       <c r="G275" s="1"/>
       <c r="H275" s="1"/>
     </row>
-    <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="276" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C276" s="1"/>
       <c r="D276" s="1"/>
       <c r="E276" s="1"/>
@@ -2661,7 +2958,7 @@
       <c r="G276" s="1"/>
       <c r="H276" s="1"/>
     </row>
-    <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="277" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C277" s="1"/>
       <c r="D277" s="1"/>
       <c r="E277" s="1"/>
@@ -2669,7 +2966,7 @@
       <c r="G277" s="1"/>
       <c r="H277" s="1"/>
     </row>
-    <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="278" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C278" s="1"/>
       <c r="D278" s="1"/>
       <c r="E278" s="1"/>
@@ -2677,7 +2974,7 @@
       <c r="G278" s="1"/>
       <c r="H278" s="1"/>
     </row>
-    <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="279" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C279" s="1"/>
       <c r="D279" s="1"/>
       <c r="E279" s="1"/>
@@ -2685,7 +2982,7 @@
       <c r="G279" s="1"/>
       <c r="H279" s="1"/>
     </row>
-    <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="280" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C280" s="1"/>
       <c r="D280" s="1"/>
       <c r="E280" s="1"/>
@@ -2693,7 +2990,7 @@
       <c r="G280" s="1"/>
       <c r="H280" s="1"/>
     </row>
-    <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="281" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C281" s="1"/>
       <c r="D281" s="1"/>
       <c r="E281" s="1"/>
@@ -2701,7 +2998,7 @@
       <c r="G281" s="1"/>
       <c r="H281" s="1"/>
     </row>
-    <row r="282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="282" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C282" s="1"/>
       <c r="D282" s="1"/>
       <c r="E282" s="1"/>
@@ -2709,7 +3006,7 @@
       <c r="G282" s="1"/>
       <c r="H282" s="1"/>
     </row>
-    <row r="283" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="283" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C283" s="1"/>
       <c r="D283" s="1"/>
       <c r="E283" s="1"/>
@@ -2717,7 +3014,7 @@
       <c r="G283" s="1"/>
       <c r="H283" s="1"/>
     </row>
-    <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="284" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C284" s="1"/>
       <c r="D284" s="1"/>
       <c r="E284" s="1"/>
@@ -2725,7 +3022,7 @@
       <c r="G284" s="1"/>
       <c r="H284" s="1"/>
     </row>
-    <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="285" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C285" s="1"/>
       <c r="D285" s="1"/>
       <c r="E285" s="1"/>
@@ -2733,7 +3030,7 @@
       <c r="G285" s="1"/>
       <c r="H285" s="1"/>
     </row>
-    <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="286" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C286" s="1"/>
       <c r="D286" s="1"/>
       <c r="E286" s="1"/>
@@ -2741,7 +3038,7 @@
       <c r="G286" s="1"/>
       <c r="H286" s="1"/>
     </row>
-    <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="287" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C287" s="1"/>
       <c r="D287" s="1"/>
       <c r="E287" s="1"/>
@@ -2749,7 +3046,7 @@
       <c r="G287" s="1"/>
       <c r="H287" s="1"/>
     </row>
-    <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="288" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C288" s="1"/>
       <c r="D288" s="1"/>
       <c r="E288" s="1"/>
@@ -2757,7 +3054,7 @@
       <c r="G288" s="1"/>
       <c r="H288" s="1"/>
     </row>
-    <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="289" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C289" s="1"/>
       <c r="D289" s="1"/>
       <c r="E289" s="1"/>
@@ -2765,7 +3062,7 @@
       <c r="G289" s="1"/>
       <c r="H289" s="1"/>
     </row>
-    <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="290" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C290" s="1"/>
       <c r="D290" s="1"/>
       <c r="E290" s="1"/>
@@ -2773,7 +3070,7 @@
       <c r="G290" s="1"/>
       <c r="H290" s="1"/>
     </row>
-    <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="291" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C291" s="1"/>
       <c r="D291" s="1"/>
       <c r="E291" s="1"/>
@@ -2781,7 +3078,7 @@
       <c r="G291" s="1"/>
       <c r="H291" s="1"/>
     </row>
-    <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="292" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C292" s="1"/>
       <c r="D292" s="1"/>
       <c r="E292" s="1"/>
@@ -2789,7 +3086,7 @@
       <c r="G292" s="1"/>
       <c r="H292" s="1"/>
     </row>
-    <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="293" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C293" s="1"/>
       <c r="D293" s="1"/>
       <c r="E293" s="1"/>
@@ -2797,7 +3094,7 @@
       <c r="G293" s="1"/>
       <c r="H293" s="1"/>
     </row>
-    <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="294" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C294" s="1"/>
       <c r="D294" s="1"/>
       <c r="E294" s="1"/>
@@ -2805,7 +3102,7 @@
       <c r="G294" s="1"/>
       <c r="H294" s="1"/>
     </row>
-    <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="295" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C295" s="1"/>
       <c r="D295" s="1"/>
       <c r="E295" s="1"/>
@@ -2813,7 +3110,7 @@
       <c r="G295" s="1"/>
       <c r="H295" s="1"/>
     </row>
-    <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="296" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C296" s="1"/>
       <c r="D296" s="1"/>
       <c r="E296" s="1"/>
@@ -2821,7 +3118,7 @@
       <c r="G296" s="1"/>
       <c r="H296" s="1"/>
     </row>
-    <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="297" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C297" s="1"/>
       <c r="D297" s="1"/>
       <c r="E297" s="1"/>
@@ -2829,7 +3126,7 @@
       <c r="G297" s="1"/>
       <c r="H297" s="1"/>
     </row>
-    <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="298" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C298" s="1"/>
       <c r="D298" s="1"/>
       <c r="E298" s="1"/>
@@ -2837,7 +3134,7 @@
       <c r="G298" s="1"/>
       <c r="H298" s="1"/>
     </row>
-    <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="299" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C299" s="1"/>
       <c r="D299" s="1"/>
       <c r="E299" s="1"/>
@@ -2845,7 +3142,7 @@
       <c r="G299" s="1"/>
       <c r="H299" s="1"/>
     </row>
-    <row r="300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="300" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C300" s="1"/>
       <c r="D300" s="1"/>
       <c r="E300" s="1"/>
@@ -2853,7 +3150,7 @@
       <c r="G300" s="1"/>
       <c r="H300" s="1"/>
     </row>
-    <row r="301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="301" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C301" s="1"/>
       <c r="D301" s="1"/>
       <c r="E301" s="1"/>
@@ -2861,7 +3158,7 @@
       <c r="G301" s="1"/>
       <c r="H301" s="1"/>
     </row>
-    <row r="302" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="302" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C302" s="1"/>
       <c r="D302" s="1"/>
       <c r="E302" s="1"/>
@@ -2869,7 +3166,7 @@
       <c r="G302" s="1"/>
       <c r="H302" s="1"/>
     </row>
-    <row r="303" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="303" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C303" s="1"/>
       <c r="D303" s="1"/>
       <c r="E303" s="1"/>
@@ -2877,7 +3174,7 @@
       <c r="G303" s="1"/>
       <c r="H303" s="1"/>
     </row>
-    <row r="304" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="304" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C304" s="1"/>
       <c r="D304" s="1"/>
       <c r="E304" s="1"/>
@@ -2885,7 +3182,7 @@
       <c r="G304" s="1"/>
       <c r="H304" s="1"/>
     </row>
-    <row r="305" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="305" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C305" s="1"/>
       <c r="D305" s="1"/>
       <c r="E305" s="1"/>
@@ -2893,7 +3190,7 @@
       <c r="G305" s="1"/>
       <c r="H305" s="1"/>
     </row>
-    <row r="306" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="306" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C306" s="1"/>
       <c r="D306" s="1"/>
       <c r="E306" s="1"/>
@@ -2901,7 +3198,7 @@
       <c r="G306" s="1"/>
       <c r="H306" s="1"/>
     </row>
-    <row r="307" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="307" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C307" s="1"/>
       <c r="D307" s="1"/>
       <c r="E307" s="1"/>
@@ -2909,7 +3206,7 @@
       <c r="G307" s="1"/>
       <c r="H307" s="1"/>
     </row>
-    <row r="308" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="308" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C308" s="1"/>
       <c r="D308" s="1"/>
       <c r="E308" s="1"/>
@@ -2917,7 +3214,7 @@
       <c r="G308" s="1"/>
       <c r="H308" s="1"/>
     </row>
-    <row r="309" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="309" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C309" s="1"/>
       <c r="D309" s="1"/>
       <c r="E309" s="1"/>
@@ -2925,7 +3222,7 @@
       <c r="G309" s="1"/>
       <c r="H309" s="1"/>
     </row>
-    <row r="310" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="310" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C310" s="1"/>
       <c r="D310" s="1"/>
       <c r="E310" s="1"/>
@@ -2933,7 +3230,7 @@
       <c r="G310" s="1"/>
       <c r="H310" s="1"/>
     </row>
-    <row r="311" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="311" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C311" s="1"/>
       <c r="D311" s="1"/>
       <c r="E311" s="1"/>
@@ -2941,7 +3238,7 @@
       <c r="G311" s="1"/>
       <c r="H311" s="1"/>
     </row>
-    <row r="312" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="312" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C312" s="1"/>
       <c r="D312" s="1"/>
       <c r="E312" s="1"/>
@@ -2949,7 +3246,7 @@
       <c r="G312" s="1"/>
       <c r="H312" s="1"/>
     </row>
-    <row r="313" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="313" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C313" s="1"/>
       <c r="D313" s="1"/>
       <c r="E313" s="1"/>
@@ -2957,7 +3254,7 @@
       <c r="G313" s="1"/>
       <c r="H313" s="1"/>
     </row>
-    <row r="314" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="314" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C314" s="1"/>
       <c r="D314" s="1"/>
       <c r="E314" s="1"/>
@@ -2965,7 +3262,7 @@
       <c r="G314" s="1"/>
       <c r="H314" s="1"/>
     </row>
-    <row r="315" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="315" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C315" s="1"/>
       <c r="D315" s="1"/>
       <c r="E315" s="1"/>
@@ -2973,7 +3270,7 @@
       <c r="G315" s="1"/>
       <c r="H315" s="1"/>
     </row>
-    <row r="316" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="316" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C316" s="1"/>
       <c r="D316" s="1"/>
       <c r="E316" s="1"/>
@@ -2981,7 +3278,7 @@
       <c r="G316" s="1"/>
       <c r="H316" s="1"/>
     </row>
-    <row r="317" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="317" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C317" s="1"/>
       <c r="D317" s="1"/>
       <c r="E317" s="1"/>
@@ -2989,7 +3286,7 @@
       <c r="G317" s="1"/>
       <c r="H317" s="1"/>
     </row>
-    <row r="318" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="318" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C318" s="1"/>
       <c r="D318" s="1"/>
       <c r="E318" s="1"/>
@@ -2997,7 +3294,7 @@
       <c r="G318" s="1"/>
       <c r="H318" s="1"/>
     </row>
-    <row r="319" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="319" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C319" s="1"/>
       <c r="D319" s="1"/>
       <c r="E319" s="1"/>
@@ -3005,7 +3302,7 @@
       <c r="G319" s="1"/>
       <c r="H319" s="1"/>
     </row>
-    <row r="320" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="320" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C320" s="1"/>
       <c r="D320" s="1"/>
       <c r="E320" s="1"/>
@@ -3013,7 +3310,7 @@
       <c r="G320" s="1"/>
       <c r="H320" s="1"/>
     </row>
-    <row r="321" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="321" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C321" s="1"/>
       <c r="D321" s="1"/>
       <c r="E321" s="1"/>
@@ -3021,7 +3318,7 @@
       <c r="G321" s="1"/>
       <c r="H321" s="1"/>
     </row>
-    <row r="322" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="322" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C322" s="1"/>
       <c r="D322" s="1"/>
       <c r="E322" s="1"/>
@@ -3029,7 +3326,7 @@
       <c r="G322" s="1"/>
       <c r="H322" s="1"/>
     </row>
-    <row r="323" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="323" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C323" s="1"/>
       <c r="D323" s="1"/>
       <c r="E323" s="1"/>
@@ -3037,7 +3334,7 @@
       <c r="G323" s="1"/>
       <c r="H323" s="1"/>
     </row>
-    <row r="324" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="324" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C324" s="1"/>
       <c r="D324" s="1"/>
       <c r="E324" s="1"/>
@@ -3045,7 +3342,7 @@
       <c r="G324" s="1"/>
       <c r="H324" s="1"/>
     </row>
-    <row r="325" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="325" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C325" s="1"/>
       <c r="D325" s="1"/>
       <c r="E325" s="1"/>
@@ -3053,7 +3350,7 @@
       <c r="G325" s="1"/>
       <c r="H325" s="1"/>
     </row>
-    <row r="326" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="326" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C326" s="1"/>
       <c r="D326" s="1"/>
       <c r="E326" s="1"/>
@@ -3061,7 +3358,7 @@
       <c r="G326" s="1"/>
       <c r="H326" s="1"/>
     </row>
-    <row r="327" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="327" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C327" s="1"/>
       <c r="D327" s="1"/>
       <c r="E327" s="1"/>
@@ -3069,7 +3366,7 @@
       <c r="G327" s="1"/>
       <c r="H327" s="1"/>
     </row>
-    <row r="328" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="328" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C328" s="1"/>
       <c r="D328" s="1"/>
       <c r="E328" s="1"/>
@@ -3077,7 +3374,7 @@
       <c r="G328" s="1"/>
       <c r="H328" s="1"/>
     </row>
-    <row r="329" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="329" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C329" s="1"/>
       <c r="D329" s="1"/>
       <c r="E329" s="1"/>
@@ -3085,7 +3382,7 @@
       <c r="G329" s="1"/>
       <c r="H329" s="1"/>
     </row>
-    <row r="330" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="330" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C330" s="1"/>
       <c r="D330" s="1"/>
       <c r="E330" s="1"/>
@@ -3093,7 +3390,7 @@
       <c r="G330" s="1"/>
       <c r="H330" s="1"/>
     </row>
-    <row r="331" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="331" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C331" s="1"/>
       <c r="D331" s="1"/>
       <c r="E331" s="1"/>
@@ -3101,7 +3398,7 @@
       <c r="G331" s="1"/>
       <c r="H331" s="1"/>
     </row>
-    <row r="332" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="332" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C332" s="1"/>
       <c r="D332" s="1"/>
       <c r="E332" s="1"/>
@@ -3109,7 +3406,7 @@
       <c r="G332" s="1"/>
       <c r="H332" s="1"/>
     </row>
-    <row r="333" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="333" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C333" s="1"/>
       <c r="D333" s="1"/>
       <c r="E333" s="1"/>
@@ -3117,7 +3414,7 @@
       <c r="G333" s="1"/>
       <c r="H333" s="1"/>
     </row>
-    <row r="334" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="334" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C334" s="1"/>
       <c r="D334" s="1"/>
       <c r="E334" s="1"/>
@@ -3125,7 +3422,7 @@
       <c r="G334" s="1"/>
       <c r="H334" s="1"/>
     </row>
-    <row r="335" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="335" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C335" s="1"/>
       <c r="D335" s="1"/>
       <c r="E335" s="1"/>
@@ -3133,7 +3430,7 @@
       <c r="G335" s="1"/>
       <c r="H335" s="1"/>
     </row>
-    <row r="336" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="336" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C336" s="1"/>
       <c r="D336" s="1"/>
       <c r="E336" s="1"/>
@@ -3141,7 +3438,7 @@
       <c r="G336" s="1"/>
       <c r="H336" s="1"/>
     </row>
-    <row r="337" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="337" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C337" s="1"/>
       <c r="D337" s="1"/>
       <c r="E337" s="1"/>
@@ -3149,7 +3446,7 @@
       <c r="G337" s="1"/>
       <c r="H337" s="1"/>
     </row>
-    <row r="338" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="338" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C338" s="1"/>
       <c r="D338" s="1"/>
       <c r="E338" s="1"/>
@@ -3157,7 +3454,7 @@
       <c r="G338" s="1"/>
       <c r="H338" s="1"/>
     </row>
-    <row r="339" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="339" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C339" s="1"/>
       <c r="D339" s="1"/>
       <c r="E339" s="1"/>
@@ -3165,7 +3462,7 @@
       <c r="G339" s="1"/>
       <c r="H339" s="1"/>
     </row>
-    <row r="340" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="340" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C340" s="1"/>
       <c r="D340" s="1"/>
       <c r="E340" s="1"/>
@@ -3173,7 +3470,7 @@
       <c r="G340" s="1"/>
       <c r="H340" s="1"/>
     </row>
-    <row r="341" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="341" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C341" s="1"/>
       <c r="D341" s="1"/>
       <c r="E341" s="1"/>
@@ -3181,7 +3478,7 @@
       <c r="G341" s="1"/>
       <c r="H341" s="1"/>
     </row>
-    <row r="342" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="342" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C342" s="1"/>
       <c r="D342" s="1"/>
       <c r="E342" s="1"/>
@@ -3189,7 +3486,7 @@
       <c r="G342" s="1"/>
       <c r="H342" s="1"/>
     </row>
-    <row r="343" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="343" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C343" s="1"/>
       <c r="D343" s="1"/>
       <c r="E343" s="1"/>
@@ -3197,7 +3494,7 @@
       <c r="G343" s="1"/>
       <c r="H343" s="1"/>
     </row>
-    <row r="344" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="344" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C344" s="1"/>
       <c r="D344" s="1"/>
       <c r="E344" s="1"/>
@@ -3205,7 +3502,7 @@
       <c r="G344" s="1"/>
       <c r="H344" s="1"/>
     </row>
-    <row r="345" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="345" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C345" s="1"/>
       <c r="D345" s="1"/>
       <c r="E345" s="1"/>
@@ -3213,7 +3510,7 @@
       <c r="G345" s="1"/>
       <c r="H345" s="1"/>
     </row>
-    <row r="346" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="346" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C346" s="1"/>
       <c r="D346" s="1"/>
       <c r="E346" s="1"/>
@@ -3221,7 +3518,7 @@
       <c r="G346" s="1"/>
       <c r="H346" s="1"/>
     </row>
-    <row r="347" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="347" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C347" s="1"/>
       <c r="D347" s="1"/>
       <c r="E347" s="1"/>
@@ -3229,7 +3526,7 @@
       <c r="G347" s="1"/>
       <c r="H347" s="1"/>
     </row>
-    <row r="348" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="348" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C348" s="1"/>
       <c r="D348" s="1"/>
       <c r="E348" s="1"/>
@@ -3237,7 +3534,7 @@
       <c r="G348" s="1"/>
       <c r="H348" s="1"/>
     </row>
-    <row r="349" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="349" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C349" s="1"/>
       <c r="D349" s="1"/>
       <c r="E349" s="1"/>
@@ -3245,7 +3542,7 @@
       <c r="G349" s="1"/>
       <c r="H349" s="1"/>
     </row>
-    <row r="350" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="350" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C350" s="1"/>
       <c r="D350" s="1"/>
       <c r="E350" s="1"/>
@@ -3253,7 +3550,7 @@
       <c r="G350" s="1"/>
       <c r="H350" s="1"/>
     </row>
-    <row r="351" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="351" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C351" s="1"/>
       <c r="D351" s="1"/>
       <c r="E351" s="1"/>
@@ -3261,7 +3558,7 @@
       <c r="G351" s="1"/>
       <c r="H351" s="1"/>
     </row>
-    <row r="352" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="352" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C352" s="1"/>
       <c r="D352" s="1"/>
       <c r="E352" s="1"/>
@@ -3269,7 +3566,7 @@
       <c r="G352" s="1"/>
       <c r="H352" s="1"/>
     </row>
-    <row r="353" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="353" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C353" s="1"/>
       <c r="D353" s="1"/>
       <c r="E353" s="1"/>
@@ -3277,7 +3574,7 @@
       <c r="G353" s="1"/>
       <c r="H353" s="1"/>
     </row>
-    <row r="354" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="354" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C354" s="1"/>
       <c r="D354" s="1"/>
       <c r="E354" s="1"/>
@@ -3285,7 +3582,7 @@
       <c r="G354" s="1"/>
       <c r="H354" s="1"/>
     </row>
-    <row r="355" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="355" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C355" s="1"/>
       <c r="D355" s="1"/>
       <c r="E355" s="1"/>
@@ -3293,7 +3590,7 @@
       <c r="G355" s="1"/>
       <c r="H355" s="1"/>
     </row>
-    <row r="356" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="356" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C356" s="1"/>
       <c r="D356" s="1"/>
       <c r="E356" s="1"/>
@@ -3301,7 +3598,7 @@
       <c r="G356" s="1"/>
       <c r="H356" s="1"/>
     </row>
-    <row r="357" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="357" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C357" s="1"/>
       <c r="D357" s="1"/>
       <c r="E357" s="1"/>
@@ -3309,7 +3606,7 @@
       <c r="G357" s="1"/>
       <c r="H357" s="1"/>
     </row>
-    <row r="358" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="358" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C358" s="1"/>
       <c r="D358" s="1"/>
       <c r="E358" s="1"/>
@@ -3317,7 +3614,7 @@
       <c r="G358" s="1"/>
       <c r="H358" s="1"/>
     </row>
-    <row r="359" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="359" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C359" s="1"/>
       <c r="D359" s="1"/>
       <c r="E359" s="1"/>
@@ -3325,7 +3622,7 @@
       <c r="G359" s="1"/>
       <c r="H359" s="1"/>
     </row>
-    <row r="360" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="360" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C360" s="1"/>
       <c r="D360" s="1"/>
       <c r="E360" s="1"/>
@@ -3333,7 +3630,7 @@
       <c r="G360" s="1"/>
       <c r="H360" s="1"/>
     </row>
-    <row r="361" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="361" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C361" s="1"/>
       <c r="D361" s="1"/>
       <c r="E361" s="1"/>
@@ -3341,7 +3638,7 @@
       <c r="G361" s="1"/>
       <c r="H361" s="1"/>
     </row>
-    <row r="362" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="362" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C362" s="1"/>
       <c r="D362" s="1"/>
       <c r="E362" s="1"/>
@@ -3349,7 +3646,7 @@
       <c r="G362" s="1"/>
       <c r="H362" s="1"/>
     </row>
-    <row r="363" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="363" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C363" s="1"/>
       <c r="D363" s="1"/>
       <c r="E363" s="1"/>
@@ -3357,7 +3654,7 @@
       <c r="G363" s="1"/>
       <c r="H363" s="1"/>
     </row>
-    <row r="364" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="364" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C364" s="1"/>
       <c r="D364" s="1"/>
       <c r="E364" s="1"/>
@@ -3365,7 +3662,7 @@
       <c r="G364" s="1"/>
       <c r="H364" s="1"/>
     </row>
-    <row r="365" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="365" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C365" s="1"/>
       <c r="D365" s="1"/>
       <c r="E365" s="1"/>
@@ -3373,7 +3670,7 @@
       <c r="G365" s="1"/>
       <c r="H365" s="1"/>
     </row>
-    <row r="366" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="366" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C366" s="1"/>
       <c r="D366" s="1"/>
       <c r="E366" s="1"/>
@@ -3381,7 +3678,7 @@
       <c r="G366" s="1"/>
       <c r="H366" s="1"/>
     </row>
-    <row r="367" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="367" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C367" s="1"/>
       <c r="D367" s="1"/>
       <c r="E367" s="1"/>
@@ -3389,7 +3686,7 @@
       <c r="G367" s="1"/>
       <c r="H367" s="1"/>
     </row>
-    <row r="368" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="368" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C368" s="1"/>
       <c r="D368" s="1"/>
       <c r="E368" s="1"/>
@@ -3397,7 +3694,7 @@
       <c r="G368" s="1"/>
       <c r="H368" s="1"/>
     </row>
-    <row r="369" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="369" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C369" s="1"/>
       <c r="D369" s="1"/>
       <c r="E369" s="1"/>
@@ -3405,7 +3702,7 @@
       <c r="G369" s="1"/>
       <c r="H369" s="1"/>
     </row>
-    <row r="370" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="370" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C370" s="1"/>
       <c r="D370" s="1"/>
       <c r="E370" s="1"/>
@@ -3413,7 +3710,7 @@
       <c r="G370" s="1"/>
       <c r="H370" s="1"/>
     </row>
-    <row r="371" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="371" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C371" s="1"/>
       <c r="D371" s="1"/>
       <c r="E371" s="1"/>
@@ -3421,7 +3718,7 @@
       <c r="G371" s="1"/>
       <c r="H371" s="1"/>
     </row>
-    <row r="372" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="372" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C372" s="1"/>
       <c r="D372" s="1"/>
       <c r="E372" s="1"/>
@@ -3429,7 +3726,7 @@
       <c r="G372" s="1"/>
       <c r="H372" s="1"/>
     </row>
-    <row r="373" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="373" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C373" s="1"/>
       <c r="D373" s="1"/>
       <c r="E373" s="1"/>
@@ -3437,7 +3734,7 @@
       <c r="G373" s="1"/>
       <c r="H373" s="1"/>
     </row>
-    <row r="374" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="374" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C374" s="1"/>
       <c r="D374" s="1"/>
       <c r="E374" s="1"/>
@@ -3445,7 +3742,7 @@
       <c r="G374" s="1"/>
       <c r="H374" s="1"/>
     </row>
-    <row r="375" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="375" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C375" s="1"/>
       <c r="D375" s="1"/>
       <c r="E375" s="1"/>
@@ -3453,7 +3750,7 @@
       <c r="G375" s="1"/>
       <c r="H375" s="1"/>
     </row>
-    <row r="376" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="376" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C376" s="1"/>
       <c r="D376" s="1"/>
       <c r="E376" s="1"/>
@@ -3461,7 +3758,7 @@
       <c r="G376" s="1"/>
       <c r="H376" s="1"/>
     </row>
-    <row r="377" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="377" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C377" s="1"/>
       <c r="D377" s="1"/>
       <c r="E377" s="1"/>
@@ -3469,7 +3766,7 @@
       <c r="G377" s="1"/>
       <c r="H377" s="1"/>
     </row>
-    <row r="378" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="378" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C378" s="1"/>
       <c r="D378" s="1"/>
       <c r="E378" s="1"/>
@@ -3477,7 +3774,7 @@
       <c r="G378" s="1"/>
       <c r="H378" s="1"/>
     </row>
-    <row r="379" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="379" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C379" s="1"/>
       <c r="D379" s="1"/>
       <c r="E379" s="1"/>
@@ -3485,7 +3782,7 @@
       <c r="G379" s="1"/>
       <c r="H379" s="1"/>
     </row>
-    <row r="380" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="380" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C380" s="1"/>
       <c r="D380" s="1"/>
       <c r="E380" s="1"/>
@@ -3493,7 +3790,7 @@
       <c r="G380" s="1"/>
       <c r="H380" s="1"/>
     </row>
-    <row r="381" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="381" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C381" s="1"/>
       <c r="D381" s="1"/>
       <c r="E381" s="1"/>
@@ -3501,7 +3798,7 @@
       <c r="G381" s="1"/>
       <c r="H381" s="1"/>
     </row>
-    <row r="382" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="382" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C382" s="1"/>
       <c r="D382" s="1"/>
       <c r="E382" s="1"/>
@@ -3509,7 +3806,7 @@
       <c r="G382" s="1"/>
       <c r="H382" s="1"/>
     </row>
-    <row r="383" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="383" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C383" s="1"/>
       <c r="D383" s="1"/>
       <c r="E383" s="1"/>
@@ -3517,7 +3814,7 @@
       <c r="G383" s="1"/>
       <c r="H383" s="1"/>
     </row>
-    <row r="384" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="384" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C384" s="1"/>
       <c r="D384" s="1"/>
       <c r="E384" s="1"/>
@@ -3525,7 +3822,7 @@
       <c r="G384" s="1"/>
       <c r="H384" s="1"/>
     </row>
-    <row r="385" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="385" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C385" s="1"/>
       <c r="D385" s="1"/>
       <c r="E385" s="1"/>
@@ -3533,7 +3830,7 @@
       <c r="G385" s="1"/>
       <c r="H385" s="1"/>
     </row>
-    <row r="386" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="386" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C386" s="1"/>
       <c r="D386" s="1"/>
       <c r="E386" s="1"/>
@@ -3541,7 +3838,7 @@
       <c r="G386" s="1"/>
       <c r="H386" s="1"/>
     </row>
-    <row r="387" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="387" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C387" s="1"/>
       <c r="D387" s="1"/>
       <c r="E387" s="1"/>
@@ -3549,7 +3846,7 @@
       <c r="G387" s="1"/>
       <c r="H387" s="1"/>
     </row>
-    <row r="388" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="388" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C388" s="1"/>
       <c r="D388" s="1"/>
       <c r="E388" s="1"/>
@@ -3557,7 +3854,7 @@
       <c r="G388" s="1"/>
       <c r="H388" s="1"/>
     </row>
-    <row r="389" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="389" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C389" s="1"/>
       <c r="D389" s="1"/>
       <c r="E389" s="1"/>
@@ -3565,7 +3862,7 @@
       <c r="G389" s="1"/>
       <c r="H389" s="1"/>
     </row>
-    <row r="390" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="390" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C390" s="1"/>
       <c r="D390" s="1"/>
       <c r="E390" s="1"/>
@@ -3573,7 +3870,7 @@
       <c r="G390" s="1"/>
       <c r="H390" s="1"/>
     </row>
-    <row r="391" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="391" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C391" s="1"/>
       <c r="D391" s="1"/>
       <c r="E391" s="1"/>
@@ -3581,7 +3878,7 @@
       <c r="G391" s="1"/>
       <c r="H391" s="1"/>
     </row>
-    <row r="392" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="392" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C392" s="1"/>
       <c r="D392" s="1"/>
       <c r="E392" s="1"/>
@@ -3589,7 +3886,7 @@
       <c r="G392" s="1"/>
       <c r="H392" s="1"/>
     </row>
-    <row r="393" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="393" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C393" s="1"/>
       <c r="D393" s="1"/>
       <c r="E393" s="1"/>
@@ -3597,7 +3894,7 @@
       <c r="G393" s="1"/>
       <c r="H393" s="1"/>
     </row>
-    <row r="394" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="394" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C394" s="1"/>
       <c r="D394" s="1"/>
       <c r="E394" s="1"/>
@@ -3605,7 +3902,7 @@
       <c r="G394" s="1"/>
       <c r="H394" s="1"/>
     </row>
-    <row r="395" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="395" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C395" s="1"/>
       <c r="D395" s="1"/>
       <c r="E395" s="1"/>
@@ -3613,7 +3910,7 @@
       <c r="G395" s="1"/>
       <c r="H395" s="1"/>
     </row>
-    <row r="396" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="396" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C396" s="1"/>
       <c r="D396" s="1"/>
       <c r="E396" s="1"/>
@@ -3621,7 +3918,7 @@
       <c r="G396" s="1"/>
       <c r="H396" s="1"/>
     </row>
-    <row r="397" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="397" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C397" s="1"/>
       <c r="D397" s="1"/>
       <c r="E397" s="1"/>
@@ -3629,7 +3926,7 @@
       <c r="G397" s="1"/>
       <c r="H397" s="1"/>
     </row>
-    <row r="398" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="398" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C398" s="1"/>
       <c r="D398" s="1"/>
       <c r="E398" s="1"/>
@@ -3637,7 +3934,7 @@
       <c r="G398" s="1"/>
       <c r="H398" s="1"/>
     </row>
-    <row r="399" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="399" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C399" s="1"/>
       <c r="D399" s="1"/>
       <c r="E399" s="1"/>
@@ -3645,7 +3942,7 @@
       <c r="G399" s="1"/>
       <c r="H399" s="1"/>
     </row>
-    <row r="400" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="400" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C400" s="1"/>
       <c r="D400" s="1"/>
       <c r="E400" s="1"/>
@@ -3653,7 +3950,7 @@
       <c r="G400" s="1"/>
       <c r="H400" s="1"/>
     </row>
-    <row r="401" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="401" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C401" s="1"/>
       <c r="D401" s="1"/>
       <c r="E401" s="1"/>
@@ -3661,7 +3958,7 @@
       <c r="G401" s="1"/>
       <c r="H401" s="1"/>
     </row>
-    <row r="402" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="402" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C402" s="1"/>
       <c r="D402" s="1"/>
       <c r="E402" s="1"/>
@@ -3669,7 +3966,7 @@
       <c r="G402" s="1"/>
       <c r="H402" s="1"/>
     </row>
-    <row r="403" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="403" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C403" s="1"/>
       <c r="D403" s="1"/>
       <c r="E403" s="1"/>
@@ -3677,7 +3974,7 @@
       <c r="G403" s="1"/>
       <c r="H403" s="1"/>
     </row>
-    <row r="404" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="404" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C404" s="1"/>
       <c r="D404" s="1"/>
       <c r="E404" s="1"/>
@@ -3685,7 +3982,7 @@
       <c r="G404" s="1"/>
       <c r="H404" s="1"/>
     </row>
-    <row r="405" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="405" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C405" s="1"/>
       <c r="D405" s="1"/>
       <c r="E405" s="1"/>
@@ -3693,7 +3990,7 @@
       <c r="G405" s="1"/>
       <c r="H405" s="1"/>
     </row>
-    <row r="406" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="406" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C406" s="1"/>
       <c r="D406" s="1"/>
       <c r="E406" s="1"/>
@@ -3701,7 +3998,7 @@
       <c r="G406" s="1"/>
       <c r="H406" s="1"/>
     </row>
-    <row r="407" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="407" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C407" s="1"/>
       <c r="D407" s="1"/>
       <c r="E407" s="1"/>
@@ -3709,7 +4006,7 @@
       <c r="G407" s="1"/>
       <c r="H407" s="1"/>
     </row>
-    <row r="408" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="408" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C408" s="1"/>
       <c r="D408" s="1"/>
       <c r="E408" s="1"/>
@@ -3717,7 +4014,7 @@
       <c r="G408" s="1"/>
       <c r="H408" s="1"/>
     </row>
-    <row r="409" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="409" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C409" s="1"/>
       <c r="D409" s="1"/>
       <c r="E409" s="1"/>
@@ -3725,7 +4022,7 @@
       <c r="G409" s="1"/>
       <c r="H409" s="1"/>
     </row>
-    <row r="410" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="410" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C410" s="1"/>
       <c r="D410" s="1"/>
       <c r="E410" s="1"/>
@@ -3733,7 +4030,7 @@
       <c r="G410" s="1"/>
       <c r="H410" s="1"/>
     </row>
-    <row r="411" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="411" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C411" s="1"/>
       <c r="D411" s="1"/>
       <c r="E411" s="1"/>
@@ -3741,7 +4038,7 @@
       <c r="G411" s="1"/>
       <c r="H411" s="1"/>
     </row>
-    <row r="412" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="412" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C412" s="1"/>
       <c r="D412" s="1"/>
       <c r="E412" s="1"/>
@@ -3749,7 +4046,7 @@
       <c r="G412" s="1"/>
       <c r="H412" s="1"/>
     </row>
-    <row r="413" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="413" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C413" s="1"/>
       <c r="D413" s="1"/>
       <c r="E413" s="1"/>
@@ -3757,7 +4054,7 @@
       <c r="G413" s="1"/>
       <c r="H413" s="1"/>
     </row>
-    <row r="414" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="414" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C414" s="1"/>
       <c r="D414" s="1"/>
       <c r="E414" s="1"/>
@@ -3765,7 +4062,7 @@
       <c r="G414" s="1"/>
       <c r="H414" s="1"/>
     </row>
-    <row r="415" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="415" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C415" s="1"/>
       <c r="D415" s="1"/>
       <c r="E415" s="1"/>
@@ -3773,7 +4070,7 @@
       <c r="G415" s="1"/>
       <c r="H415" s="1"/>
     </row>
-    <row r="416" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="416" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C416" s="1"/>
       <c r="D416" s="1"/>
       <c r="E416" s="1"/>
@@ -3781,7 +4078,7 @@
       <c r="G416" s="1"/>
       <c r="H416" s="1"/>
     </row>
-    <row r="417" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="417" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C417" s="1"/>
       <c r="D417" s="1"/>
       <c r="E417" s="1"/>
@@ -3789,7 +4086,7 @@
       <c r="G417" s="1"/>
       <c r="H417" s="1"/>
     </row>
-    <row r="418" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="418" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C418" s="1"/>
       <c r="D418" s="1"/>
       <c r="E418" s="1"/>
@@ -3797,7 +4094,7 @@
       <c r="G418" s="1"/>
       <c r="H418" s="1"/>
     </row>
-    <row r="419" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="419" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C419" s="1"/>
       <c r="D419" s="1"/>
       <c r="E419" s="1"/>
@@ -3805,7 +4102,7 @@
       <c r="G419" s="1"/>
       <c r="H419" s="1"/>
     </row>
-    <row r="420" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="420" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C420" s="1"/>
       <c r="D420" s="1"/>
       <c r="E420" s="1"/>
@@ -3813,7 +4110,7 @@
       <c r="G420" s="1"/>
       <c r="H420" s="1"/>
     </row>
-    <row r="421" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="421" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C421" s="1"/>
       <c r="D421" s="1"/>
       <c r="E421" s="1"/>
@@ -3821,7 +4118,7 @@
       <c r="G421" s="1"/>
       <c r="H421" s="1"/>
     </row>
-    <row r="422" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="422" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C422" s="1"/>
       <c r="D422" s="1"/>
       <c r="E422" s="1"/>
@@ -3829,7 +4126,7 @@
       <c r="G422" s="1"/>
       <c r="H422" s="1"/>
     </row>
-    <row r="423" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="423" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C423" s="1"/>
       <c r="D423" s="1"/>
       <c r="E423" s="1"/>
@@ -3837,7 +4134,7 @@
       <c r="G423" s="1"/>
       <c r="H423" s="1"/>
     </row>
-    <row r="424" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="424" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C424" s="1"/>
       <c r="D424" s="1"/>
       <c r="E424" s="1"/>
@@ -3845,7 +4142,7 @@
       <c r="G424" s="1"/>
       <c r="H424" s="1"/>
     </row>
-    <row r="425" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="425" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C425" s="1"/>
       <c r="D425" s="1"/>
       <c r="E425" s="1"/>
@@ -3853,7 +4150,7 @@
       <c r="G425" s="1"/>
       <c r="H425" s="1"/>
     </row>
-    <row r="426" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="426" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C426" s="1"/>
       <c r="D426" s="1"/>
       <c r="E426" s="1"/>
@@ -3861,7 +4158,7 @@
       <c r="G426" s="1"/>
       <c r="H426" s="1"/>
     </row>
-    <row r="427" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="427" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C427" s="1"/>
       <c r="D427" s="1"/>
       <c r="E427" s="1"/>
@@ -3869,7 +4166,7 @@
       <c r="G427" s="1"/>
       <c r="H427" s="1"/>
     </row>
-    <row r="428" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="428" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C428" s="1"/>
       <c r="D428" s="1"/>
       <c r="E428" s="1"/>
@@ -3877,7 +4174,7 @@
       <c r="G428" s="1"/>
       <c r="H428" s="1"/>
     </row>
-    <row r="429" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="429" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C429" s="1"/>
       <c r="D429" s="1"/>
       <c r="E429" s="1"/>
@@ -3885,7 +4182,7 @@
       <c r="G429" s="1"/>
       <c r="H429" s="1"/>
     </row>
-    <row r="430" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="430" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C430" s="1"/>
       <c r="D430" s="1"/>
       <c r="E430" s="1"/>
@@ -3893,7 +4190,7 @@
       <c r="G430" s="1"/>
       <c r="H430" s="1"/>
     </row>
-    <row r="431" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="431" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C431" s="1"/>
       <c r="D431" s="1"/>
       <c r="E431" s="1"/>
@@ -3901,7 +4198,7 @@
       <c r="G431" s="1"/>
       <c r="H431" s="1"/>
     </row>
-    <row r="432" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="432" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C432" s="1"/>
       <c r="D432" s="1"/>
       <c r="E432" s="1"/>
@@ -3909,7 +4206,7 @@
       <c r="G432" s="1"/>
       <c r="H432" s="1"/>
     </row>
-    <row r="433" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="433" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C433" s="1"/>
       <c r="D433" s="1"/>
       <c r="E433" s="1"/>
@@ -3917,7 +4214,7 @@
       <c r="G433" s="1"/>
       <c r="H433" s="1"/>
     </row>
-    <row r="434" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="434" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C434" s="1"/>
       <c r="D434" s="1"/>
       <c r="E434" s="1"/>
@@ -3925,7 +4222,7 @@
       <c r="G434" s="1"/>
       <c r="H434" s="1"/>
     </row>
-    <row r="435" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="435" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C435" s="1"/>
       <c r="D435" s="1"/>
       <c r="E435" s="1"/>
@@ -3933,7 +4230,7 @@
       <c r="G435" s="1"/>
       <c r="H435" s="1"/>
     </row>
-    <row r="436" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="436" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C436" s="1"/>
       <c r="D436" s="1"/>
       <c r="E436" s="1"/>
@@ -3941,7 +4238,7 @@
       <c r="G436" s="1"/>
       <c r="H436" s="1"/>
     </row>
-    <row r="437" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="437" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C437" s="1"/>
       <c r="D437" s="1"/>
       <c r="E437" s="1"/>
@@ -3949,7 +4246,7 @@
       <c r="G437" s="1"/>
       <c r="H437" s="1"/>
     </row>
-    <row r="438" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="438" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C438" s="1"/>
       <c r="D438" s="1"/>
       <c r="E438" s="1"/>
@@ -3957,7 +4254,7 @@
       <c r="G438" s="1"/>
       <c r="H438" s="1"/>
     </row>
-    <row r="439" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="439" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C439" s="1"/>
       <c r="D439" s="1"/>
       <c r="E439" s="1"/>
@@ -3965,7 +4262,7 @@
       <c r="G439" s="1"/>
       <c r="H439" s="1"/>
     </row>
-    <row r="440" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="440" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C440" s="1"/>
       <c r="D440" s="1"/>
       <c r="E440" s="1"/>
@@ -3973,7 +4270,7 @@
       <c r="G440" s="1"/>
       <c r="H440" s="1"/>
     </row>
-    <row r="441" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="441" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C441" s="1"/>
       <c r="D441" s="1"/>
       <c r="E441" s="1"/>
@@ -3981,7 +4278,7 @@
       <c r="G441" s="1"/>
       <c r="H441" s="1"/>
     </row>
-    <row r="442" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="442" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C442" s="1"/>
       <c r="D442" s="1"/>
       <c r="E442" s="1"/>
@@ -3989,7 +4286,7 @@
       <c r="G442" s="1"/>
       <c r="H442" s="1"/>
     </row>
-    <row r="443" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="443" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C443" s="1"/>
       <c r="D443" s="1"/>
       <c r="E443" s="1"/>
@@ -3997,7 +4294,7 @@
       <c r="G443" s="1"/>
       <c r="H443" s="1"/>
     </row>
-    <row r="444" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="444" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C444" s="1"/>
       <c r="D444" s="1"/>
       <c r="E444" s="1"/>
@@ -4005,7 +4302,7 @@
       <c r="G444" s="1"/>
       <c r="H444" s="1"/>
     </row>
-    <row r="445" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="445" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C445" s="1"/>
       <c r="D445" s="1"/>
       <c r="E445" s="1"/>
@@ -4013,7 +4310,7 @@
       <c r="G445" s="1"/>
       <c r="H445" s="1"/>
     </row>
-    <row r="446" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="446" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C446" s="1"/>
       <c r="D446" s="1"/>
       <c r="E446" s="1"/>
@@ -4021,7 +4318,7 @@
       <c r="G446" s="1"/>
       <c r="H446" s="1"/>
     </row>
-    <row r="447" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="447" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C447" s="1"/>
       <c r="D447" s="1"/>
       <c r="E447" s="1"/>
@@ -4029,7 +4326,7 @@
       <c r="G447" s="1"/>
       <c r="H447" s="1"/>
     </row>
-    <row r="448" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="448" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C448" s="1"/>
       <c r="D448" s="1"/>
       <c r="E448" s="1"/>
@@ -4037,7 +4334,7 @@
       <c r="G448" s="1"/>
       <c r="H448" s="1"/>
     </row>
-    <row r="449" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="449" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C449" s="1"/>
       <c r="D449" s="1"/>
       <c r="E449" s="1"/>
@@ -4045,7 +4342,7 @@
       <c r="G449" s="1"/>
       <c r="H449" s="1"/>
     </row>
-    <row r="450" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="450" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C450" s="1"/>
       <c r="D450" s="1"/>
       <c r="E450" s="1"/>
@@ -4053,7 +4350,7 @@
       <c r="G450" s="1"/>
       <c r="H450" s="1"/>
     </row>
-    <row r="451" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="451" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C451" s="1"/>
       <c r="D451" s="1"/>
       <c r="E451" s="1"/>
@@ -4061,7 +4358,7 @@
       <c r="G451" s="1"/>
       <c r="H451" s="1"/>
     </row>
-    <row r="452" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="452" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C452" s="1"/>
       <c r="D452" s="1"/>
       <c r="E452" s="1"/>
@@ -4069,7 +4366,7 @@
       <c r="G452" s="1"/>
       <c r="H452" s="1"/>
     </row>
-    <row r="453" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="453" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C453" s="1"/>
       <c r="D453" s="1"/>
       <c r="E453" s="1"/>
@@ -4077,7 +4374,7 @@
       <c r="G453" s="1"/>
       <c r="H453" s="1"/>
     </row>
-    <row r="454" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="454" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C454" s="1"/>
       <c r="D454" s="1"/>
       <c r="E454" s="1"/>
@@ -4085,7 +4382,7 @@
       <c r="G454" s="1"/>
       <c r="H454" s="1"/>
     </row>
-    <row r="455" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="455" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C455" s="1"/>
       <c r="D455" s="1"/>
       <c r="E455" s="1"/>
@@ -4093,7 +4390,7 @@
       <c r="G455" s="1"/>
       <c r="H455" s="1"/>
     </row>
-    <row r="456" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="456" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C456" s="1"/>
       <c r="D456" s="1"/>
       <c r="E456" s="1"/>
@@ -4101,7 +4398,7 @@
       <c r="G456" s="1"/>
       <c r="H456" s="1"/>
     </row>
-    <row r="457" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="457" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C457" s="1"/>
       <c r="D457" s="1"/>
       <c r="E457" s="1"/>
@@ -4109,7 +4406,7 @@
       <c r="G457" s="1"/>
       <c r="H457" s="1"/>
     </row>
-    <row r="458" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="458" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C458" s="1"/>
       <c r="D458" s="1"/>
       <c r="E458" s="1"/>
@@ -4117,7 +4414,7 @@
       <c r="G458" s="1"/>
       <c r="H458" s="1"/>
     </row>
-    <row r="459" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="459" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C459" s="1"/>
       <c r="D459" s="1"/>
       <c r="E459" s="1"/>
@@ -4125,7 +4422,7 @@
       <c r="G459" s="1"/>
       <c r="H459" s="1"/>
     </row>
-    <row r="460" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="460" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C460" s="1"/>
       <c r="D460" s="1"/>
       <c r="E460" s="1"/>
@@ -4133,7 +4430,7 @@
       <c r="G460" s="1"/>
       <c r="H460" s="1"/>
     </row>
-    <row r="461" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="461" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C461" s="1"/>
       <c r="D461" s="1"/>
       <c r="E461" s="1"/>
@@ -4141,7 +4438,7 @@
       <c r="G461" s="1"/>
       <c r="H461" s="1"/>
     </row>
-    <row r="462" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="462" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C462" s="1"/>
       <c r="D462" s="1"/>
       <c r="E462" s="1"/>
@@ -4149,7 +4446,7 @@
       <c r="G462" s="1"/>
       <c r="H462" s="1"/>
     </row>
-    <row r="463" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="463" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C463" s="1"/>
       <c r="D463" s="1"/>
       <c r="E463" s="1"/>
@@ -4157,7 +4454,7 @@
       <c r="G463" s="1"/>
       <c r="H463" s="1"/>
     </row>
-    <row r="464" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="464" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C464" s="1"/>
       <c r="D464" s="1"/>
       <c r="E464" s="1"/>
@@ -4165,7 +4462,7 @@
       <c r="G464" s="1"/>
       <c r="H464" s="1"/>
     </row>
-    <row r="465" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="465" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C465" s="1"/>
       <c r="D465" s="1"/>
       <c r="E465" s="1"/>
@@ -4173,7 +4470,7 @@
       <c r="G465" s="1"/>
       <c r="H465" s="1"/>
     </row>
-    <row r="466" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="466" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C466" s="1"/>
       <c r="D466" s="1"/>
       <c r="E466" s="1"/>
@@ -4181,7 +4478,7 @@
       <c r="G466" s="1"/>
       <c r="H466" s="1"/>
     </row>
-    <row r="467" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="467" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C467" s="1"/>
       <c r="D467" s="1"/>
       <c r="E467" s="1"/>
@@ -4189,7 +4486,7 @@
       <c r="G467" s="1"/>
       <c r="H467" s="1"/>
     </row>
-    <row r="468" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="468" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C468" s="1"/>
       <c r="D468" s="1"/>
       <c r="E468" s="1"/>
@@ -4197,7 +4494,7 @@
       <c r="G468" s="1"/>
       <c r="H468" s="1"/>
     </row>
-    <row r="469" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="469" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C469" s="1"/>
       <c r="D469" s="1"/>
       <c r="E469" s="1"/>
@@ -4205,7 +4502,7 @@
       <c r="G469" s="1"/>
       <c r="H469" s="1"/>
     </row>
-    <row r="470" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="470" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C470" s="1"/>
       <c r="D470" s="1"/>
       <c r="E470" s="1"/>
@@ -4213,7 +4510,7 @@
       <c r="G470" s="1"/>
       <c r="H470" s="1"/>
     </row>
-    <row r="471" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="471" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C471" s="1"/>
       <c r="D471" s="1"/>
       <c r="E471" s="1"/>
@@ -4221,7 +4518,7 @@
       <c r="G471" s="1"/>
       <c r="H471" s="1"/>
     </row>
-    <row r="472" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="472" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C472" s="1"/>
       <c r="D472" s="1"/>
       <c r="E472" s="1"/>
@@ -4229,7 +4526,7 @@
       <c r="G472" s="1"/>
       <c r="H472" s="1"/>
     </row>
-    <row r="473" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="473" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C473" s="1"/>
       <c r="D473" s="1"/>
       <c r="E473" s="1"/>
@@ -4237,7 +4534,7 @@
       <c r="G473" s="1"/>
       <c r="H473" s="1"/>
     </row>
-    <row r="474" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="474" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C474" s="1"/>
       <c r="D474" s="1"/>
       <c r="E474" s="1"/>
@@ -4245,7 +4542,7 @@
       <c r="G474" s="1"/>
       <c r="H474" s="1"/>
     </row>
-    <row r="475" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="475" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C475" s="1"/>
       <c r="D475" s="1"/>
       <c r="E475" s="1"/>
@@ -4253,7 +4550,7 @@
       <c r="G475" s="1"/>
       <c r="H475" s="1"/>
     </row>
-    <row r="476" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="476" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C476" s="1"/>
       <c r="D476" s="1"/>
       <c r="E476" s="1"/>
@@ -4261,7 +4558,7 @@
       <c r="G476" s="1"/>
       <c r="H476" s="1"/>
     </row>
-    <row r="477" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="477" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C477" s="1"/>
       <c r="D477" s="1"/>
       <c r="E477" s="1"/>
@@ -4269,7 +4566,7 @@
       <c r="G477" s="1"/>
       <c r="H477" s="1"/>
     </row>
-    <row r="478" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="478" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C478" s="1"/>
       <c r="D478" s="1"/>
       <c r="E478" s="1"/>
@@ -4277,7 +4574,7 @@
       <c r="G478" s="1"/>
       <c r="H478" s="1"/>
     </row>
-    <row r="479" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="479" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C479" s="1"/>
       <c r="D479" s="1"/>
       <c r="E479" s="1"/>
@@ -4285,7 +4582,7 @@
       <c r="G479" s="1"/>
       <c r="H479" s="1"/>
     </row>
-    <row r="480" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="480" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C480" s="1"/>
       <c r="D480" s="1"/>
       <c r="E480" s="1"/>
@@ -4293,7 +4590,7 @@
       <c r="G480" s="1"/>
       <c r="H480" s="1"/>
     </row>
-    <row r="481" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="481" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C481" s="1"/>
       <c r="D481" s="1"/>
       <c r="E481" s="1"/>
@@ -4301,7 +4598,7 @@
       <c r="G481" s="1"/>
       <c r="H481" s="1"/>
     </row>
-    <row r="482" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="482" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C482" s="1"/>
       <c r="D482" s="1"/>
       <c r="E482" s="1"/>
@@ -4309,7 +4606,7 @@
       <c r="G482" s="1"/>
       <c r="H482" s="1"/>
     </row>
-    <row r="483" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="483" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C483" s="1"/>
       <c r="D483" s="1"/>
       <c r="E483" s="1"/>
@@ -4317,7 +4614,7 @@
       <c r="G483" s="1"/>
       <c r="H483" s="1"/>
     </row>
-    <row r="484" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="484" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C484" s="1"/>
       <c r="D484" s="1"/>
       <c r="E484" s="1"/>
@@ -4325,7 +4622,7 @@
       <c r="G484" s="1"/>
       <c r="H484" s="1"/>
     </row>
-    <row r="485" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="485" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C485" s="1"/>
       <c r="D485" s="1"/>
       <c r="E485" s="1"/>
@@ -4333,7 +4630,7 @@
       <c r="G485" s="1"/>
       <c r="H485" s="1"/>
     </row>
-    <row r="486" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="486" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C486" s="1"/>
       <c r="D486" s="1"/>
       <c r="E486" s="1"/>
@@ -4341,7 +4638,7 @@
       <c r="G486" s="1"/>
       <c r="H486" s="1"/>
     </row>
-    <row r="487" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="487" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C487" s="1"/>
       <c r="D487" s="1"/>
       <c r="E487" s="1"/>
@@ -4349,7 +4646,7 @@
       <c r="G487" s="1"/>
       <c r="H487" s="1"/>
     </row>
-    <row r="488" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="488" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C488" s="1"/>
       <c r="D488" s="1"/>
       <c r="E488" s="1"/>
@@ -4357,7 +4654,7 @@
       <c r="G488" s="1"/>
       <c r="H488" s="1"/>
     </row>
-    <row r="489" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="489" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C489" s="1"/>
       <c r="D489" s="1"/>
       <c r="E489" s="1"/>
@@ -4365,7 +4662,7 @@
       <c r="G489" s="1"/>
       <c r="H489" s="1"/>
     </row>
-    <row r="490" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="490" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C490" s="1"/>
       <c r="D490" s="1"/>
       <c r="E490" s="1"/>
@@ -4373,7 +4670,7 @@
       <c r="G490" s="1"/>
       <c r="H490" s="1"/>
     </row>
-    <row r="491" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="491" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C491" s="1"/>
       <c r="D491" s="1"/>
       <c r="E491" s="1"/>
@@ -4381,7 +4678,7 @@
       <c r="G491" s="1"/>
       <c r="H491" s="1"/>
     </row>
-    <row r="492" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="492" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C492" s="1"/>
       <c r="D492" s="1"/>
       <c r="E492" s="1"/>
@@ -4389,7 +4686,7 @@
       <c r="G492" s="1"/>
       <c r="H492" s="1"/>
     </row>
-    <row r="493" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="493" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C493" s="1"/>
       <c r="D493" s="1"/>
       <c r="E493" s="1"/>
@@ -4397,7 +4694,7 @@
       <c r="G493" s="1"/>
       <c r="H493" s="1"/>
     </row>
-    <row r="494" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="494" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C494" s="1"/>
       <c r="D494" s="1"/>
       <c r="E494" s="1"/>
@@ -4405,7 +4702,7 @@
       <c r="G494" s="1"/>
       <c r="H494" s="1"/>
     </row>
-    <row r="495" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="495" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C495" s="1"/>
       <c r="D495" s="1"/>
       <c r="E495" s="1"/>
@@ -4413,7 +4710,7 @@
       <c r="G495" s="1"/>
       <c r="H495" s="1"/>
     </row>
-    <row r="496" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="496" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C496" s="1"/>
       <c r="D496" s="1"/>
       <c r="E496" s="1"/>
@@ -4421,7 +4718,7 @@
       <c r="G496" s="1"/>
       <c r="H496" s="1"/>
     </row>
-    <row r="497" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="497" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C497" s="1"/>
       <c r="D497" s="1"/>
       <c r="E497" s="1"/>
@@ -4429,7 +4726,7 @@
       <c r="G497" s="1"/>
       <c r="H497" s="1"/>
     </row>
-    <row r="498" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="498" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C498" s="1"/>
       <c r="D498" s="1"/>
       <c r="E498" s="1"/>
@@ -4437,7 +4734,7 @@
       <c r="G498" s="1"/>
       <c r="H498" s="1"/>
     </row>
-    <row r="499" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="499" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C499" s="1"/>
       <c r="D499" s="1"/>
       <c r="E499" s="1"/>
@@ -4445,7 +4742,7 @@
       <c r="G499" s="1"/>
       <c r="H499" s="1"/>
     </row>
-    <row r="500" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="500" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C500" s="1"/>
       <c r="D500" s="1"/>
       <c r="E500" s="1"/>
@@ -4453,7 +4750,7 @@
       <c r="G500" s="1"/>
       <c r="H500" s="1"/>
     </row>
-    <row r="501" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="501" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C501" s="1"/>
       <c r="D501" s="1"/>
       <c r="E501" s="1"/>
@@ -4461,7 +4758,7 @@
       <c r="G501" s="1"/>
       <c r="H501" s="1"/>
     </row>
-    <row r="502" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="502" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C502" s="1"/>
       <c r="D502" s="1"/>
       <c r="E502" s="1"/>
@@ -4469,7 +4766,7 @@
       <c r="G502" s="1"/>
       <c r="H502" s="1"/>
     </row>
-    <row r="503" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="503" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C503" s="1"/>
       <c r="D503" s="1"/>
       <c r="E503" s="1"/>
@@ -4477,7 +4774,7 @@
       <c r="G503" s="1"/>
       <c r="H503" s="1"/>
     </row>
-    <row r="504" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="504" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C504" s="1"/>
       <c r="D504" s="1"/>
       <c r="E504" s="1"/>
@@ -4485,7 +4782,7 @@
       <c r="G504" s="1"/>
       <c r="H504" s="1"/>
     </row>
-    <row r="505" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="505" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C505" s="1"/>
       <c r="D505" s="1"/>
       <c r="E505" s="1"/>
@@ -4493,7 +4790,7 @@
       <c r="G505" s="1"/>
       <c r="H505" s="1"/>
     </row>
-    <row r="506" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="506" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C506" s="1"/>
       <c r="D506" s="1"/>
       <c r="E506" s="1"/>
@@ -4501,7 +4798,7 @@
       <c r="G506" s="1"/>
       <c r="H506" s="1"/>
     </row>
-    <row r="507" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="507" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C507" s="1"/>
       <c r="D507" s="1"/>
       <c r="E507" s="1"/>
@@ -4509,7 +4806,7 @@
       <c r="G507" s="1"/>
       <c r="H507" s="1"/>
     </row>
-    <row r="508" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="508" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C508" s="1"/>
       <c r="D508" s="1"/>
       <c r="E508" s="1"/>
@@ -4517,7 +4814,7 @@
       <c r="G508" s="1"/>
       <c r="H508" s="1"/>
     </row>
-    <row r="509" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="509" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C509" s="1"/>
       <c r="D509" s="1"/>
       <c r="E509" s="1"/>
@@ -4525,7 +4822,7 @@
       <c r="G509" s="1"/>
       <c r="H509" s="1"/>
     </row>
-    <row r="510" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="510" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C510" s="1"/>
       <c r="D510" s="1"/>
       <c r="E510" s="1"/>
@@ -4533,7 +4830,7 @@
       <c r="G510" s="1"/>
       <c r="H510" s="1"/>
     </row>
-    <row r="511" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="511" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C511" s="1"/>
       <c r="D511" s="1"/>
       <c r="E511" s="1"/>
@@ -4541,7 +4838,7 @@
       <c r="G511" s="1"/>
       <c r="H511" s="1"/>
     </row>
-    <row r="512" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="512" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C512" s="1"/>
       <c r="D512" s="1"/>
       <c r="E512" s="1"/>
@@ -4549,7 +4846,7 @@
       <c r="G512" s="1"/>
       <c r="H512" s="1"/>
     </row>
-    <row r="513" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="513" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C513" s="1"/>
       <c r="D513" s="1"/>
       <c r="E513" s="1"/>
@@ -4557,7 +4854,7 @@
       <c r="G513" s="1"/>
       <c r="H513" s="1"/>
     </row>
-    <row r="514" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="514" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C514" s="1"/>
       <c r="D514" s="1"/>
       <c r="E514" s="1"/>
@@ -4565,7 +4862,7 @@
       <c r="G514" s="1"/>
       <c r="H514" s="1"/>
     </row>
-    <row r="515" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="515" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C515" s="1"/>
       <c r="D515" s="1"/>
       <c r="E515" s="1"/>
@@ -4573,7 +4870,7 @@
       <c r="G515" s="1"/>
       <c r="H515" s="1"/>
     </row>
-    <row r="516" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="516" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C516" s="1"/>
       <c r="D516" s="1"/>
       <c r="E516" s="1"/>
@@ -4581,7 +4878,7 @@
       <c r="G516" s="1"/>
       <c r="H516" s="1"/>
     </row>
-    <row r="517" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="517" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C517" s="1"/>
       <c r="D517" s="1"/>
       <c r="E517" s="1"/>
@@ -4589,7 +4886,7 @@
       <c r="G517" s="1"/>
       <c r="H517" s="1"/>
     </row>
-    <row r="518" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="518" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C518" s="1"/>
       <c r="D518" s="1"/>
       <c r="E518" s="1"/>
@@ -4597,7 +4894,7 @@
       <c r="G518" s="1"/>
       <c r="H518" s="1"/>
     </row>
-    <row r="519" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="519" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C519" s="1"/>
       <c r="D519" s="1"/>
       <c r="E519" s="1"/>
@@ -4605,7 +4902,7 @@
       <c r="G519" s="1"/>
       <c r="H519" s="1"/>
     </row>
-    <row r="520" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="520" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C520" s="1"/>
       <c r="D520" s="1"/>
       <c r="E520" s="1"/>
@@ -4613,7 +4910,7 @@
       <c r="G520" s="1"/>
       <c r="H520" s="1"/>
     </row>
-    <row r="521" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="521" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C521" s="1"/>
       <c r="D521" s="1"/>
       <c r="E521" s="1"/>
@@ -4621,7 +4918,7 @@
       <c r="G521" s="1"/>
       <c r="H521" s="1"/>
     </row>
-    <row r="522" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="522" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C522" s="1"/>
       <c r="D522" s="1"/>
       <c r="E522" s="1"/>
@@ -4629,7 +4926,7 @@
       <c r="G522" s="1"/>
       <c r="H522" s="1"/>
     </row>
-    <row r="523" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="523" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C523" s="1"/>
       <c r="D523" s="1"/>
       <c r="E523" s="1"/>
@@ -4637,7 +4934,7 @@
       <c r="G523" s="1"/>
       <c r="H523" s="1"/>
     </row>
-    <row r="524" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="524" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C524" s="1"/>
       <c r="D524" s="1"/>
       <c r="E524" s="1"/>
@@ -4645,7 +4942,7 @@
       <c r="G524" s="1"/>
       <c r="H524" s="1"/>
     </row>
-    <row r="525" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="525" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C525" s="1"/>
       <c r="D525" s="1"/>
       <c r="E525" s="1"/>
@@ -4653,7 +4950,7 @@
       <c r="G525" s="1"/>
       <c r="H525" s="1"/>
     </row>
-    <row r="526" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="526" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C526" s="1"/>
       <c r="D526" s="1"/>
       <c r="E526" s="1"/>
@@ -4661,7 +4958,7 @@
       <c r="G526" s="1"/>
       <c r="H526" s="1"/>
     </row>
-    <row r="527" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="527" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C527" s="1"/>
       <c r="D527" s="1"/>
       <c r="E527" s="1"/>
@@ -4669,7 +4966,7 @@
       <c r="G527" s="1"/>
       <c r="H527" s="1"/>
     </row>
-    <row r="528" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="528" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C528" s="1"/>
       <c r="D528" s="1"/>
       <c r="E528" s="1"/>
@@ -4677,7 +4974,7 @@
       <c r="G528" s="1"/>
       <c r="H528" s="1"/>
     </row>
-    <row r="529" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="529" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C529" s="1"/>
       <c r="D529" s="1"/>
       <c r="E529" s="1"/>
@@ -4685,7 +4982,7 @@
       <c r="G529" s="1"/>
       <c r="H529" s="1"/>
     </row>
-    <row r="530" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="530" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C530" s="1"/>
       <c r="D530" s="1"/>
       <c r="E530" s="1"/>
@@ -4693,7 +4990,7 @@
       <c r="G530" s="1"/>
       <c r="H530" s="1"/>
     </row>
-    <row r="531" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="531" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C531" s="1"/>
       <c r="D531" s="1"/>
       <c r="E531" s="1"/>
@@ -4701,7 +4998,7 @@
       <c r="G531" s="1"/>
       <c r="H531" s="1"/>
     </row>
-    <row r="532" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="532" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C532" s="1"/>
       <c r="D532" s="1"/>
       <c r="E532" s="1"/>
@@ -4709,7 +5006,7 @@
       <c r="G532" s="1"/>
       <c r="H532" s="1"/>
     </row>
-    <row r="533" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="533" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C533" s="1"/>
       <c r="D533" s="1"/>
       <c r="E533" s="1"/>
@@ -4717,7 +5014,7 @@
       <c r="G533" s="1"/>
       <c r="H533" s="1"/>
     </row>
-    <row r="534" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="534" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C534" s="1"/>
       <c r="D534" s="1"/>
       <c r="E534" s="1"/>
@@ -4725,7 +5022,7 @@
       <c r="G534" s="1"/>
       <c r="H534" s="1"/>
     </row>
-    <row r="535" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="535" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C535" s="1"/>
       <c r="D535" s="1"/>
       <c r="E535" s="1"/>
@@ -4733,7 +5030,7 @@
       <c r="G535" s="1"/>
       <c r="H535" s="1"/>
     </row>
-    <row r="536" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="536" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C536" s="1"/>
       <c r="D536" s="1"/>
       <c r="E536" s="1"/>
@@ -4741,7 +5038,7 @@
       <c r="G536" s="1"/>
       <c r="H536" s="1"/>
     </row>
-    <row r="537" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="537" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C537" s="1"/>
       <c r="D537" s="1"/>
       <c r="E537" s="1"/>
@@ -4749,7 +5046,7 @@
       <c r="G537" s="1"/>
       <c r="H537" s="1"/>
     </row>
-    <row r="538" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="538" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C538" s="1"/>
       <c r="D538" s="1"/>
       <c r="E538" s="1"/>
@@ -4757,7 +5054,7 @@
       <c r="G538" s="1"/>
       <c r="H538" s="1"/>
     </row>
-    <row r="539" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="539" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C539" s="1"/>
       <c r="D539" s="1"/>
       <c r="E539" s="1"/>
@@ -4765,7 +5062,7 @@
       <c r="G539" s="1"/>
       <c r="H539" s="1"/>
     </row>
-    <row r="540" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="540" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C540" s="1"/>
       <c r="D540" s="1"/>
       <c r="E540" s="1"/>
@@ -4773,7 +5070,7 @@
       <c r="G540" s="1"/>
       <c r="H540" s="1"/>
     </row>
-    <row r="541" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="541" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C541" s="1"/>
       <c r="D541" s="1"/>
       <c r="E541" s="1"/>
@@ -4781,7 +5078,7 @@
       <c r="G541" s="1"/>
       <c r="H541" s="1"/>
     </row>
-    <row r="542" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="542" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C542" s="1"/>
       <c r="D542" s="1"/>
       <c r="E542" s="1"/>
@@ -4789,7 +5086,7 @@
       <c r="G542" s="1"/>
       <c r="H542" s="1"/>
     </row>
-    <row r="543" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="543" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C543" s="1"/>
       <c r="D543" s="1"/>
       <c r="E543" s="1"/>
@@ -4797,7 +5094,7 @@
       <c r="G543" s="1"/>
       <c r="H543" s="1"/>
     </row>
-    <row r="544" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="544" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C544" s="1"/>
       <c r="D544" s="1"/>
       <c r="E544" s="1"/>
@@ -4805,7 +5102,7 @@
       <c r="G544" s="1"/>
       <c r="H544" s="1"/>
     </row>
-    <row r="545" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="545" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C545" s="1"/>
       <c r="D545" s="1"/>
       <c r="E545" s="1"/>
@@ -4813,7 +5110,7 @@
       <c r="G545" s="1"/>
       <c r="H545" s="1"/>
     </row>
-    <row r="546" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="546" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C546" s="1"/>
       <c r="D546" s="1"/>
       <c r="E546" s="1"/>
@@ -4821,7 +5118,7 @@
       <c r="G546" s="1"/>
       <c r="H546" s="1"/>
     </row>
-    <row r="547" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="547" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C547" s="1"/>
       <c r="D547" s="1"/>
       <c r="E547" s="1"/>
@@ -4829,7 +5126,7 @@
       <c r="G547" s="1"/>
       <c r="H547" s="1"/>
     </row>
-    <row r="548" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="548" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C548" s="1"/>
       <c r="D548" s="1"/>
       <c r="E548" s="1"/>
@@ -4837,7 +5134,7 @@
       <c r="G548" s="1"/>
       <c r="H548" s="1"/>
     </row>
-    <row r="549" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="549" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C549" s="1"/>
       <c r="D549" s="1"/>
       <c r="E549" s="1"/>
@@ -4845,7 +5142,7 @@
       <c r="G549" s="1"/>
       <c r="H549" s="1"/>
     </row>
-    <row r="550" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="550" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C550" s="1"/>
       <c r="D550" s="1"/>
       <c r="E550" s="1"/>
@@ -4853,7 +5150,7 @@
       <c r="G550" s="1"/>
       <c r="H550" s="1"/>
     </row>
-    <row r="551" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="551" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C551" s="1"/>
       <c r="D551" s="1"/>
       <c r="E551" s="1"/>
@@ -4861,7 +5158,7 @@
       <c r="G551" s="1"/>
       <c r="H551" s="1"/>
     </row>
-    <row r="552" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="552" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C552" s="1"/>
       <c r="D552" s="1"/>
       <c r="E552" s="1"/>
@@ -4869,7 +5166,7 @@
       <c r="G552" s="1"/>
       <c r="H552" s="1"/>
     </row>
-    <row r="553" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="553" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C553" s="1"/>
       <c r="D553" s="1"/>
       <c r="E553" s="1"/>
@@ -4877,7 +5174,7 @@
       <c r="G553" s="1"/>
       <c r="H553" s="1"/>
     </row>
-    <row r="554" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="554" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C554" s="1"/>
       <c r="D554" s="1"/>
       <c r="E554" s="1"/>
@@ -4885,7 +5182,7 @@
       <c r="G554" s="1"/>
       <c r="H554" s="1"/>
     </row>
-    <row r="555" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="555" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C555" s="1"/>
       <c r="D555" s="1"/>
       <c r="E555" s="1"/>
@@ -4893,7 +5190,7 @@
       <c r="G555" s="1"/>
       <c r="H555" s="1"/>
     </row>
-    <row r="556" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="556" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C556" s="1"/>
       <c r="D556" s="1"/>
       <c r="E556" s="1"/>
@@ -4901,7 +5198,7 @@
       <c r="G556" s="1"/>
       <c r="H556" s="1"/>
     </row>
-    <row r="557" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="557" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C557" s="1"/>
       <c r="D557" s="1"/>
       <c r="E557" s="1"/>
@@ -4909,7 +5206,7 @@
       <c r="G557" s="1"/>
       <c r="H557" s="1"/>
     </row>
-    <row r="558" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="558" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C558" s="1"/>
       <c r="D558" s="1"/>
       <c r="E558" s="1"/>
@@ -4917,7 +5214,7 @@
       <c r="G558" s="1"/>
       <c r="H558" s="1"/>
     </row>
-    <row r="559" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="559" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C559" s="1"/>
       <c r="D559" s="1"/>
       <c r="E559" s="1"/>
@@ -4925,7 +5222,7 @@
       <c r="G559" s="1"/>
       <c r="H559" s="1"/>
     </row>
-    <row r="560" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="560" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C560" s="1"/>
       <c r="D560" s="1"/>
       <c r="E560" s="1"/>
@@ -4933,7 +5230,7 @@
       <c r="G560" s="1"/>
       <c r="H560" s="1"/>
     </row>
-    <row r="561" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="561" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C561" s="1"/>
       <c r="D561" s="1"/>
       <c r="E561" s="1"/>
@@ -4941,7 +5238,7 @@
       <c r="G561" s="1"/>
       <c r="H561" s="1"/>
     </row>
-    <row r="562" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="562" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C562" s="1"/>
       <c r="D562" s="1"/>
       <c r="E562" s="1"/>
@@ -4949,7 +5246,7 @@
       <c r="G562" s="1"/>
       <c r="H562" s="1"/>
     </row>
-    <row r="563" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="563" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C563" s="1"/>
       <c r="D563" s="1"/>
       <c r="E563" s="1"/>
@@ -4957,7 +5254,7 @@
       <c r="G563" s="1"/>
       <c r="H563" s="1"/>
     </row>
-    <row r="564" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="564" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C564" s="1"/>
       <c r="D564" s="1"/>
       <c r="E564" s="1"/>
@@ -4965,7 +5262,7 @@
       <c r="G564" s="1"/>
       <c r="H564" s="1"/>
     </row>
-    <row r="565" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="565" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C565" s="1"/>
       <c r="D565" s="1"/>
       <c r="E565" s="1"/>
@@ -4973,7 +5270,7 @@
       <c r="G565" s="1"/>
       <c r="H565" s="1"/>
     </row>
-    <row r="566" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="566" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C566" s="1"/>
       <c r="D566" s="1"/>
       <c r="E566" s="1"/>
@@ -4981,7 +5278,7 @@
       <c r="G566" s="1"/>
       <c r="H566" s="1"/>
     </row>
-    <row r="567" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="567" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C567" s="1"/>
       <c r="D567" s="1"/>
       <c r="E567" s="1"/>
@@ -4989,7 +5286,7 @@
       <c r="G567" s="1"/>
       <c r="H567" s="1"/>
     </row>
-    <row r="568" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="568" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C568" s="1"/>
       <c r="D568" s="1"/>
       <c r="E568" s="1"/>
@@ -4997,7 +5294,7 @@
       <c r="G568" s="1"/>
       <c r="H568" s="1"/>
     </row>
-    <row r="569" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="569" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C569" s="1"/>
       <c r="D569" s="1"/>
       <c r="E569" s="1"/>
@@ -5005,7 +5302,7 @@
       <c r="G569" s="1"/>
       <c r="H569" s="1"/>
     </row>
-    <row r="570" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="570" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C570" s="1"/>
       <c r="D570" s="1"/>
       <c r="E570" s="1"/>
@@ -5013,7 +5310,7 @@
       <c r="G570" s="1"/>
       <c r="H570" s="1"/>
     </row>
-    <row r="571" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="571" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C571" s="1"/>
       <c r="D571" s="1"/>
       <c r="E571" s="1"/>
@@ -5021,7 +5318,7 @@
       <c r="G571" s="1"/>
       <c r="H571" s="1"/>
     </row>
-    <row r="572" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="572" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C572" s="1"/>
       <c r="D572" s="1"/>
       <c r="E572" s="1"/>
@@ -5029,7 +5326,7 @@
       <c r="G572" s="1"/>
       <c r="H572" s="1"/>
     </row>
-    <row r="573" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="573" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C573" s="1"/>
       <c r="D573" s="1"/>
       <c r="E573" s="1"/>
@@ -5037,7 +5334,7 @@
       <c r="G573" s="1"/>
       <c r="H573" s="1"/>
     </row>
-    <row r="574" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="574" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C574" s="1"/>
       <c r="D574" s="1"/>
       <c r="E574" s="1"/>
@@ -5045,7 +5342,7 @@
       <c r="G574" s="1"/>
       <c r="H574" s="1"/>
     </row>
-    <row r="575" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="575" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C575" s="1"/>
       <c r="D575" s="1"/>
       <c r="E575" s="1"/>
@@ -5053,7 +5350,7 @@
       <c r="G575" s="1"/>
       <c r="H575" s="1"/>
     </row>
-    <row r="576" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="576" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C576" s="1"/>
       <c r="D576" s="1"/>
       <c r="E576" s="1"/>
@@ -5061,7 +5358,7 @@
       <c r="G576" s="1"/>
       <c r="H576" s="1"/>
     </row>
-    <row r="577" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="577" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C577" s="1"/>
       <c r="D577" s="1"/>
       <c r="E577" s="1"/>
@@ -5069,7 +5366,7 @@
       <c r="G577" s="1"/>
       <c r="H577" s="1"/>
     </row>
-    <row r="578" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="578" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C578" s="1"/>
       <c r="D578" s="1"/>
       <c r="E578" s="1"/>
@@ -5077,7 +5374,7 @@
       <c r="G578" s="1"/>
       <c r="H578" s="1"/>
     </row>
-    <row r="579" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="579" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C579" s="1"/>
       <c r="D579" s="1"/>
       <c r="E579" s="1"/>
@@ -5085,7 +5382,7 @@
       <c r="G579" s="1"/>
       <c r="H579" s="1"/>
     </row>
-    <row r="580" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="580" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C580" s="1"/>
       <c r="D580" s="1"/>
       <c r="E580" s="1"/>
@@ -5093,7 +5390,7 @@
       <c r="G580" s="1"/>
       <c r="H580" s="1"/>
     </row>
-    <row r="581" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="581" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C581" s="1"/>
       <c r="D581" s="1"/>
       <c r="E581" s="1"/>
@@ -5101,7 +5398,7 @@
       <c r="G581" s="1"/>
       <c r="H581" s="1"/>
     </row>
-    <row r="582" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="582" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C582" s="1"/>
       <c r="D582" s="1"/>
       <c r="E582" s="1"/>
@@ -5109,7 +5406,7 @@
       <c r="G582" s="1"/>
       <c r="H582" s="1"/>
     </row>
-    <row r="583" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="583" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C583" s="1"/>
       <c r="D583" s="1"/>
       <c r="E583" s="1"/>
@@ -5117,7 +5414,7 @@
       <c r="G583" s="1"/>
       <c r="H583" s="1"/>
     </row>
-    <row r="584" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="584" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C584" s="1"/>
       <c r="D584" s="1"/>
       <c r="E584" s="1"/>
@@ -5125,7 +5422,7 @@
       <c r="G584" s="1"/>
       <c r="H584" s="1"/>
     </row>
-    <row r="585" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="585" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C585" s="1"/>
       <c r="D585" s="1"/>
       <c r="E585" s="1"/>
@@ -5133,7 +5430,7 @@
       <c r="G585" s="1"/>
       <c r="H585" s="1"/>
     </row>
-    <row r="586" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="586" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C586" s="1"/>
       <c r="D586" s="1"/>
       <c r="E586" s="1"/>
@@ -5141,7 +5438,7 @@
       <c r="G586" s="1"/>
       <c r="H586" s="1"/>
     </row>
-    <row r="587" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="587" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C587" s="1"/>
       <c r="D587" s="1"/>
       <c r="E587" s="1"/>
@@ -5149,7 +5446,7 @@
       <c r="G587" s="1"/>
       <c r="H587" s="1"/>
     </row>
-    <row r="588" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="588" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C588" s="1"/>
       <c r="D588" s="1"/>
       <c r="E588" s="1"/>
@@ -5157,7 +5454,7 @@
       <c r="G588" s="1"/>
       <c r="H588" s="1"/>
     </row>
-    <row r="589" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="589" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C589" s="1"/>
       <c r="D589" s="1"/>
       <c r="E589" s="1"/>
@@ -5165,7 +5462,7 @@
       <c r="G589" s="1"/>
       <c r="H589" s="1"/>
     </row>
-    <row r="590" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="590" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C590" s="1"/>
       <c r="D590" s="1"/>
       <c r="E590" s="1"/>
@@ -5173,7 +5470,7 @@
       <c r="G590" s="1"/>
       <c r="H590" s="1"/>
     </row>
-    <row r="591" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="591" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C591" s="1"/>
       <c r="D591" s="1"/>
       <c r="E591" s="1"/>
@@ -5181,7 +5478,7 @@
       <c r="G591" s="1"/>
       <c r="H591" s="1"/>
     </row>
-    <row r="592" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="592" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C592" s="1"/>
       <c r="D592" s="1"/>
       <c r="E592" s="1"/>
@@ -5189,7 +5486,7 @@
       <c r="G592" s="1"/>
       <c r="H592" s="1"/>
     </row>
-    <row r="593" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="593" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C593" s="1"/>
       <c r="D593" s="1"/>
       <c r="E593" s="1"/>
@@ -5197,7 +5494,7 @@
       <c r="G593" s="1"/>
       <c r="H593" s="1"/>
     </row>
-    <row r="594" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="594" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C594" s="1"/>
       <c r="D594" s="1"/>
       <c r="E594" s="1"/>
@@ -5205,7 +5502,7 @@
       <c r="G594" s="1"/>
       <c r="H594" s="1"/>
     </row>
-    <row r="595" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="595" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C595" s="1"/>
       <c r="D595" s="1"/>
       <c r="E595" s="1"/>
@@ -5213,7 +5510,7 @@
       <c r="G595" s="1"/>
       <c r="H595" s="1"/>
     </row>
-    <row r="596" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="596" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C596" s="1"/>
       <c r="D596" s="1"/>
       <c r="E596" s="1"/>
@@ -5221,7 +5518,7 @@
       <c r="G596" s="1"/>
       <c r="H596" s="1"/>
     </row>
-    <row r="597" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="597" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C597" s="1"/>
       <c r="D597" s="1"/>
       <c r="E597" s="1"/>
@@ -5229,7 +5526,7 @@
       <c r="G597" s="1"/>
       <c r="H597" s="1"/>
     </row>
-    <row r="598" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="598" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C598" s="1"/>
       <c r="D598" s="1"/>
       <c r="E598" s="1"/>
@@ -5237,7 +5534,7 @@
       <c r="G598" s="1"/>
       <c r="H598" s="1"/>
     </row>
-    <row r="599" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="599" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C599" s="1"/>
       <c r="D599" s="1"/>
       <c r="E599" s="1"/>
@@ -5245,7 +5542,7 @@
       <c r="G599" s="1"/>
       <c r="H599" s="1"/>
     </row>
-    <row r="600" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="600" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C600" s="1"/>
       <c r="D600" s="1"/>
       <c r="E600" s="1"/>
@@ -5253,7 +5550,7 @@
       <c r="G600" s="1"/>
       <c r="H600" s="1"/>
     </row>
-    <row r="601" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="601" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C601" s="1"/>
       <c r="D601" s="1"/>
       <c r="E601" s="1"/>
@@ -5261,7 +5558,7 @@
       <c r="G601" s="1"/>
       <c r="H601" s="1"/>
     </row>
-    <row r="602" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="602" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C602" s="1"/>
       <c r="D602" s="1"/>
       <c r="E602" s="1"/>
@@ -5269,7 +5566,7 @@
       <c r="G602" s="1"/>
       <c r="H602" s="1"/>
     </row>
-    <row r="603" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="603" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C603" s="1"/>
       <c r="D603" s="1"/>
       <c r="E603" s="1"/>
@@ -5277,7 +5574,7 @@
       <c r="G603" s="1"/>
       <c r="H603" s="1"/>
     </row>
-    <row r="604" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="604" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C604" s="1"/>
       <c r="D604" s="1"/>
       <c r="E604" s="1"/>
@@ -5285,7 +5582,7 @@
       <c r="G604" s="1"/>
       <c r="H604" s="1"/>
     </row>
-    <row r="605" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="605" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C605" s="1"/>
       <c r="D605" s="1"/>
       <c r="E605" s="1"/>
@@ -5293,7 +5590,7 @@
       <c r="G605" s="1"/>
       <c r="H605" s="1"/>
     </row>
-    <row r="606" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="606" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C606" s="1"/>
       <c r="D606" s="1"/>
       <c r="E606" s="1"/>
@@ -5301,7 +5598,7 @@
       <c r="G606" s="1"/>
       <c r="H606" s="1"/>
     </row>
-    <row r="607" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="607" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C607" s="1"/>
       <c r="D607" s="1"/>
       <c r="E607" s="1"/>
@@ -5309,7 +5606,7 @@
       <c r="G607" s="1"/>
       <c r="H607" s="1"/>
     </row>
-    <row r="608" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="608" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C608" s="1"/>
       <c r="D608" s="1"/>
       <c r="E608" s="1"/>
@@ -5317,7 +5614,7 @@
       <c r="G608" s="1"/>
       <c r="H608" s="1"/>
     </row>
-    <row r="609" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="609" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C609" s="1"/>
       <c r="D609" s="1"/>
       <c r="E609" s="1"/>
@@ -5325,7 +5622,7 @@
       <c r="G609" s="1"/>
       <c r="H609" s="1"/>
     </row>
-    <row r="610" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="610" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C610" s="1"/>
       <c r="D610" s="1"/>
       <c r="E610" s="1"/>
@@ -5333,7 +5630,7 @@
       <c r="G610" s="1"/>
       <c r="H610" s="1"/>
     </row>
-    <row r="611" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="611" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C611" s="1"/>
       <c r="D611" s="1"/>
       <c r="E611" s="1"/>
@@ -5341,7 +5638,7 @@
       <c r="G611" s="1"/>
       <c r="H611" s="1"/>
     </row>
-    <row r="612" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="612" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C612" s="1"/>
       <c r="D612" s="1"/>
       <c r="E612" s="1"/>
@@ -5349,7 +5646,7 @@
       <c r="G612" s="1"/>
       <c r="H612" s="1"/>
     </row>
-    <row r="613" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="613" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C613" s="1"/>
       <c r="D613" s="1"/>
       <c r="E613" s="1"/>
@@ -5357,7 +5654,7 @@
       <c r="G613" s="1"/>
       <c r="H613" s="1"/>
     </row>
-    <row r="614" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="614" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C614" s="1"/>
       <c r="D614" s="1"/>
       <c r="E614" s="1"/>
@@ -5365,7 +5662,7 @@
       <c r="G614" s="1"/>
       <c r="H614" s="1"/>
     </row>
-    <row r="615" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="615" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C615" s="1"/>
       <c r="D615" s="1"/>
       <c r="E615" s="1"/>
@@ -5373,7 +5670,7 @@
       <c r="G615" s="1"/>
       <c r="H615" s="1"/>
     </row>
-    <row r="616" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="616" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C616" s="1"/>
       <c r="D616" s="1"/>
       <c r="E616" s="1"/>
@@ -5381,7 +5678,7 @@
       <c r="G616" s="1"/>
       <c r="H616" s="1"/>
     </row>
-    <row r="617" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="617" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C617" s="1"/>
       <c r="D617" s="1"/>
       <c r="E617" s="1"/>
@@ -5389,7 +5686,7 @@
       <c r="G617" s="1"/>
       <c r="H617" s="1"/>
     </row>
-    <row r="618" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="618" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C618" s="1"/>
       <c r="D618" s="1"/>
       <c r="E618" s="1"/>
@@ -5397,7 +5694,7 @@
       <c r="G618" s="1"/>
       <c r="H618" s="1"/>
     </row>
-    <row r="619" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="619" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C619" s="1"/>
       <c r="D619" s="1"/>
       <c r="E619" s="1"/>
@@ -5405,7 +5702,7 @@
       <c r="G619" s="1"/>
       <c r="H619" s="1"/>
     </row>
-    <row r="620" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="620" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C620" s="1"/>
       <c r="D620" s="1"/>
       <c r="E620" s="1"/>
@@ -5413,7 +5710,7 @@
       <c r="G620" s="1"/>
       <c r="H620" s="1"/>
     </row>
-    <row r="621" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="621" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C621" s="1"/>
       <c r="D621" s="1"/>
       <c r="E621" s="1"/>
@@ -5421,7 +5718,7 @@
       <c r="G621" s="1"/>
       <c r="H621" s="1"/>
     </row>
-    <row r="622" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="622" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C622" s="1"/>
       <c r="D622" s="1"/>
       <c r="E622" s="1"/>
@@ -5429,7 +5726,7 @@
       <c r="G622" s="1"/>
       <c r="H622" s="1"/>
     </row>
-    <row r="623" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="623" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C623" s="1"/>
       <c r="D623" s="1"/>
       <c r="E623" s="1"/>
@@ -5437,7 +5734,7 @@
       <c r="G623" s="1"/>
       <c r="H623" s="1"/>
     </row>
-    <row r="624" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="624" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C624" s="1"/>
       <c r="D624" s="1"/>
       <c r="E624" s="1"/>
@@ -5445,7 +5742,7 @@
       <c r="G624" s="1"/>
       <c r="H624" s="1"/>
     </row>
-    <row r="625" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="625" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C625" s="1"/>
       <c r="D625" s="1"/>
       <c r="E625" s="1"/>
@@ -5453,7 +5750,7 @@
       <c r="G625" s="1"/>
       <c r="H625" s="1"/>
     </row>
-    <row r="626" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="626" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C626" s="1"/>
       <c r="D626" s="1"/>
       <c r="E626" s="1"/>
@@ -5461,7 +5758,7 @@
       <c r="G626" s="1"/>
       <c r="H626" s="1"/>
     </row>
-    <row r="627" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="627" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C627" s="1"/>
       <c r="D627" s="1"/>
       <c r="E627" s="1"/>
@@ -5469,7 +5766,7 @@
       <c r="G627" s="1"/>
       <c r="H627" s="1"/>
     </row>
-    <row r="628" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="628" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C628" s="1"/>
       <c r="D628" s="1"/>
       <c r="E628" s="1"/>
@@ -5477,7 +5774,7 @@
       <c r="G628" s="1"/>
       <c r="H628" s="1"/>
     </row>
-    <row r="629" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="629" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C629" s="1"/>
       <c r="D629" s="1"/>
       <c r="E629" s="1"/>
@@ -5485,7 +5782,7 @@
       <c r="G629" s="1"/>
       <c r="H629" s="1"/>
     </row>
-    <row r="630" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="630" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C630" s="1"/>
       <c r="D630" s="1"/>
       <c r="E630" s="1"/>
@@ -5493,7 +5790,7 @@
       <c r="G630" s="1"/>
       <c r="H630" s="1"/>
     </row>
-    <row r="631" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="631" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C631" s="1"/>
       <c r="D631" s="1"/>
       <c r="E631" s="1"/>
@@ -5501,7 +5798,7 @@
       <c r="G631" s="1"/>
       <c r="H631" s="1"/>
     </row>
-    <row r="632" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="632" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C632" s="1"/>
       <c r="D632" s="1"/>
       <c r="E632" s="1"/>
@@ -5509,7 +5806,7 @@
       <c r="G632" s="1"/>
       <c r="H632" s="1"/>
     </row>
-    <row r="633" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="633" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C633" s="1"/>
       <c r="D633" s="1"/>
       <c r="E633" s="1"/>
@@ -5517,7 +5814,7 @@
       <c r="G633" s="1"/>
       <c r="H633" s="1"/>
     </row>
-    <row r="634" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="634" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C634" s="1"/>
       <c r="D634" s="1"/>
       <c r="E634" s="1"/>
@@ -5525,7 +5822,7 @@
       <c r="G634" s="1"/>
       <c r="H634" s="1"/>
     </row>
-    <row r="635" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="635" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C635" s="1"/>
       <c r="D635" s="1"/>
       <c r="E635" s="1"/>
@@ -5533,7 +5830,7 @@
       <c r="G635" s="1"/>
       <c r="H635" s="1"/>
     </row>
-    <row r="636" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="636" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C636" s="1"/>
       <c r="D636" s="1"/>
       <c r="E636" s="1"/>
@@ -5541,7 +5838,7 @@
       <c r="G636" s="1"/>
       <c r="H636" s="1"/>
     </row>
-    <row r="637" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="637" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C637" s="1"/>
       <c r="D637" s="1"/>
       <c r="E637" s="1"/>
@@ -5549,7 +5846,7 @@
       <c r="G637" s="1"/>
       <c r="H637" s="1"/>
     </row>
-    <row r="638" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="638" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C638" s="1"/>
       <c r="D638" s="1"/>
       <c r="E638" s="1"/>
@@ -5557,7 +5854,7 @@
       <c r="G638" s="1"/>
       <c r="H638" s="1"/>
     </row>
-    <row r="639" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="639" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C639" s="1"/>
       <c r="D639" s="1"/>
       <c r="E639" s="1"/>
@@ -5565,7 +5862,7 @@
       <c r="G639" s="1"/>
       <c r="H639" s="1"/>
     </row>
-    <row r="640" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="640" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C640" s="1"/>
       <c r="D640" s="1"/>
       <c r="E640" s="1"/>
@@ -5573,7 +5870,7 @@
       <c r="G640" s="1"/>
       <c r="H640" s="1"/>
     </row>
-    <row r="641" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="641" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C641" s="1"/>
       <c r="D641" s="1"/>
       <c r="E641" s="1"/>
@@ -5581,7 +5878,7 @@
       <c r="G641" s="1"/>
       <c r="H641" s="1"/>
     </row>
-    <row r="642" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="642" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C642" s="1"/>
       <c r="D642" s="1"/>
       <c r="E642" s="1"/>
@@ -5589,7 +5886,7 @@
       <c r="G642" s="1"/>
       <c r="H642" s="1"/>
     </row>
-    <row r="643" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="643" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C643" s="1"/>
       <c r="D643" s="1"/>
       <c r="E643" s="1"/>
@@ -5597,7 +5894,7 @@
       <c r="G643" s="1"/>
       <c r="H643" s="1"/>
     </row>
-    <row r="644" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="644" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C644" s="1"/>
       <c r="D644" s="1"/>
       <c r="E644" s="1"/>
@@ -5605,7 +5902,7 @@
       <c r="G644" s="1"/>
       <c r="H644" s="1"/>
     </row>
-    <row r="645" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="645" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C645" s="1"/>
       <c r="D645" s="1"/>
       <c r="E645" s="1"/>
@@ -5613,7 +5910,7 @@
       <c r="G645" s="1"/>
       <c r="H645" s="1"/>
     </row>
-    <row r="646" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="646" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C646" s="1"/>
       <c r="D646" s="1"/>
       <c r="E646" s="1"/>
@@ -5621,7 +5918,7 @@
       <c r="G646" s="1"/>
       <c r="H646" s="1"/>
     </row>
-    <row r="647" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="647" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C647" s="1"/>
       <c r="D647" s="1"/>
       <c r="E647" s="1"/>
@@ -5629,7 +5926,7 @@
       <c r="G647" s="1"/>
       <c r="H647" s="1"/>
     </row>
-    <row r="648" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="648" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C648" s="1"/>
       <c r="D648" s="1"/>
       <c r="E648" s="1"/>
@@ -5637,7 +5934,7 @@
       <c r="G648" s="1"/>
       <c r="H648" s="1"/>
     </row>
-    <row r="649" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="649" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C649" s="1"/>
       <c r="D649" s="1"/>
       <c r="E649" s="1"/>
@@ -5645,7 +5942,7 @@
       <c r="G649" s="1"/>
       <c r="H649" s="1"/>
     </row>
-    <row r="650" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="650" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C650" s="1"/>
       <c r="D650" s="1"/>
       <c r="E650" s="1"/>
@@ -5653,7 +5950,7 @@
       <c r="G650" s="1"/>
       <c r="H650" s="1"/>
     </row>
-    <row r="651" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="651" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C651" s="1"/>
       <c r="D651" s="1"/>
       <c r="E651" s="1"/>
@@ -5661,7 +5958,7 @@
       <c r="G651" s="1"/>
       <c r="H651" s="1"/>
     </row>
-    <row r="652" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="652" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C652" s="1"/>
       <c r="D652" s="1"/>
       <c r="E652" s="1"/>
@@ -5669,7 +5966,7 @@
       <c r="G652" s="1"/>
       <c r="H652" s="1"/>
     </row>
-    <row r="653" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="653" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C653" s="1"/>
       <c r="D653" s="1"/>
       <c r="E653" s="1"/>
@@ -5677,7 +5974,7 @@
       <c r="G653" s="1"/>
       <c r="H653" s="1"/>
     </row>
-    <row r="654" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="654" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C654" s="1"/>
       <c r="D654" s="1"/>
       <c r="E654" s="1"/>
@@ -5685,7 +5982,7 @@
       <c r="G654" s="1"/>
       <c r="H654" s="1"/>
     </row>
-    <row r="655" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="655" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C655" s="1"/>
       <c r="D655" s="1"/>
       <c r="E655" s="1"/>
@@ -5693,7 +5990,7 @@
       <c r="G655" s="1"/>
       <c r="H655" s="1"/>
     </row>
-    <row r="656" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="656" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C656" s="1"/>
       <c r="D656" s="1"/>
       <c r="E656" s="1"/>
@@ -5701,7 +5998,7 @@
       <c r="G656" s="1"/>
       <c r="H656" s="1"/>
     </row>
-    <row r="657" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="657" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C657" s="1"/>
       <c r="D657" s="1"/>
       <c r="E657" s="1"/>
@@ -5709,7 +6006,7 @@
       <c r="G657" s="1"/>
       <c r="H657" s="1"/>
     </row>
-    <row r="658" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="658" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C658" s="1"/>
       <c r="D658" s="1"/>
       <c r="E658" s="1"/>
@@ -5717,7 +6014,7 @@
       <c r="G658" s="1"/>
       <c r="H658" s="1"/>
     </row>
-    <row r="659" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="659" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C659" s="1"/>
       <c r="D659" s="1"/>
       <c r="E659" s="1"/>
@@ -5725,7 +6022,7 @@
       <c r="G659" s="1"/>
       <c r="H659" s="1"/>
     </row>
-    <row r="660" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="660" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C660" s="1"/>
       <c r="D660" s="1"/>
       <c r="E660" s="1"/>
@@ -5733,7 +6030,7 @@
       <c r="G660" s="1"/>
       <c r="H660" s="1"/>
     </row>
-    <row r="661" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="661" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C661" s="1"/>
       <c r="D661" s="1"/>
       <c r="E661" s="1"/>
@@ -5741,7 +6038,7 @@
       <c r="G661" s="1"/>
       <c r="H661" s="1"/>
     </row>
-    <row r="662" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="662" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C662" s="1"/>
       <c r="D662" s="1"/>
       <c r="E662" s="1"/>
@@ -5749,7 +6046,7 @@
       <c r="G662" s="1"/>
       <c r="H662" s="1"/>
     </row>
-    <row r="663" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="663" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C663" s="1"/>
       <c r="D663" s="1"/>
       <c r="E663" s="1"/>
@@ -5757,7 +6054,7 @@
       <c r="G663" s="1"/>
       <c r="H663" s="1"/>
     </row>
-    <row r="664" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="664" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C664" s="1"/>
       <c r="D664" s="1"/>
       <c r="E664" s="1"/>
@@ -5765,7 +6062,7 @@
       <c r="G664" s="1"/>
       <c r="H664" s="1"/>
     </row>
-    <row r="665" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="665" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C665" s="1"/>
       <c r="D665" s="1"/>
       <c r="E665" s="1"/>
@@ -5773,7 +6070,7 @@
       <c r="G665" s="1"/>
       <c r="H665" s="1"/>
     </row>
-    <row r="666" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="666" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C666" s="1"/>
       <c r="D666" s="1"/>
       <c r="E666" s="1"/>
@@ -5781,7 +6078,7 @@
       <c r="G666" s="1"/>
       <c r="H666" s="1"/>
     </row>
-    <row r="667" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="667" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C667" s="1"/>
       <c r="D667" s="1"/>
       <c r="E667" s="1"/>
@@ -5789,7 +6086,7 @@
       <c r="G667" s="1"/>
       <c r="H667" s="1"/>
     </row>
-    <row r="668" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="668" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C668" s="1"/>
       <c r="D668" s="1"/>
       <c r="E668" s="1"/>
@@ -5797,7 +6094,7 @@
       <c r="G668" s="1"/>
       <c r="H668" s="1"/>
     </row>
-    <row r="669" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="669" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C669" s="1"/>
       <c r="D669" s="1"/>
       <c r="E669" s="1"/>
@@ -5805,7 +6102,7 @@
       <c r="G669" s="1"/>
       <c r="H669" s="1"/>
     </row>
-    <row r="670" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="670" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C670" s="1"/>
       <c r="D670" s="1"/>
       <c r="E670" s="1"/>
@@ -5813,7 +6110,7 @@
       <c r="G670" s="1"/>
       <c r="H670" s="1"/>
     </row>
-    <row r="671" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="671" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C671" s="1"/>
       <c r="D671" s="1"/>
       <c r="E671" s="1"/>
@@ -5821,7 +6118,7 @@
       <c r="G671" s="1"/>
       <c r="H671" s="1"/>
     </row>
-    <row r="672" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="672" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C672" s="1"/>
       <c r="D672" s="1"/>
       <c r="E672" s="1"/>
@@ -5829,7 +6126,7 @@
       <c r="G672" s="1"/>
       <c r="H672" s="1"/>
     </row>
-    <row r="673" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="673" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C673" s="1"/>
       <c r="D673" s="1"/>
       <c r="E673" s="1"/>
@@ -5837,7 +6134,7 @@
       <c r="G673" s="1"/>
       <c r="H673" s="1"/>
     </row>
-    <row r="674" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="674" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C674" s="1"/>
       <c r="D674" s="1"/>
       <c r="E674" s="1"/>
@@ -5845,7 +6142,7 @@
       <c r="G674" s="1"/>
       <c r="H674" s="1"/>
     </row>
-    <row r="675" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="675" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C675" s="1"/>
       <c r="D675" s="1"/>
       <c r="E675" s="1"/>
@@ -5853,7 +6150,7 @@
       <c r="G675" s="1"/>
       <c r="H675" s="1"/>
     </row>
-    <row r="676" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="676" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C676" s="1"/>
       <c r="D676" s="1"/>
       <c r="E676" s="1"/>
@@ -5861,7 +6158,7 @@
       <c r="G676" s="1"/>
       <c r="H676" s="1"/>
     </row>
-    <row r="677" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="677" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C677" s="1"/>
       <c r="D677" s="1"/>
       <c r="E677" s="1"/>
@@ -5869,7 +6166,7 @@
       <c r="G677" s="1"/>
       <c r="H677" s="1"/>
     </row>
-    <row r="678" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="678" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C678" s="1"/>
       <c r="D678" s="1"/>
       <c r="E678" s="1"/>
@@ -5877,7 +6174,7 @@
       <c r="G678" s="1"/>
       <c r="H678" s="1"/>
     </row>
-    <row r="679" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="679" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C679" s="1"/>
       <c r="D679" s="1"/>
       <c r="E679" s="1"/>
@@ -5885,7 +6182,7 @@
       <c r="G679" s="1"/>
       <c r="H679" s="1"/>
     </row>
-    <row r="680" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="680" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C680" s="1"/>
       <c r="D680" s="1"/>
       <c r="E680" s="1"/>
@@ -5893,7 +6190,7 @@
       <c r="G680" s="1"/>
       <c r="H680" s="1"/>
     </row>
-    <row r="681" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="681" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C681" s="1"/>
       <c r="D681" s="1"/>
       <c r="E681" s="1"/>
@@ -5901,7 +6198,7 @@
       <c r="G681" s="1"/>
       <c r="H681" s="1"/>
     </row>
-    <row r="682" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="682" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C682" s="1"/>
       <c r="D682" s="1"/>
       <c r="E682" s="1"/>
@@ -5909,7 +6206,7 @@
       <c r="G682" s="1"/>
       <c r="H682" s="1"/>
     </row>
-    <row r="683" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="683" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C683" s="1"/>
       <c r="D683" s="1"/>
       <c r="E683" s="1"/>
@@ -5917,7 +6214,7 @@
       <c r="G683" s="1"/>
       <c r="H683" s="1"/>
     </row>
-    <row r="684" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="684" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C684" s="1"/>
       <c r="D684" s="1"/>
       <c r="E684" s="1"/>
@@ -5925,7 +6222,7 @@
       <c r="G684" s="1"/>
       <c r="H684" s="1"/>
     </row>
-    <row r="685" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="685" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C685" s="1"/>
       <c r="D685" s="1"/>
       <c r="E685" s="1"/>
@@ -5933,7 +6230,7 @@
       <c r="G685" s="1"/>
       <c r="H685" s="1"/>
     </row>
-    <row r="686" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="686" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C686" s="1"/>
       <c r="D686" s="1"/>
       <c r="E686" s="1"/>
@@ -5941,7 +6238,7 @@
       <c r="G686" s="1"/>
       <c r="H686" s="1"/>
     </row>
-    <row r="687" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="687" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C687" s="1"/>
       <c r="D687" s="1"/>
       <c r="E687" s="1"/>
@@ -5949,7 +6246,7 @@
       <c r="G687" s="1"/>
       <c r="H687" s="1"/>
     </row>
-    <row r="688" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="688" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C688" s="1"/>
       <c r="D688" s="1"/>
       <c r="E688" s="1"/>
@@ -5957,7 +6254,7 @@
       <c r="G688" s="1"/>
       <c r="H688" s="1"/>
     </row>
-    <row r="689" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="689" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C689" s="1"/>
       <c r="D689" s="1"/>
       <c r="E689" s="1"/>
@@ -5965,7 +6262,7 @@
       <c r="G689" s="1"/>
       <c r="H689" s="1"/>
     </row>
-    <row r="690" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="690" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C690" s="1"/>
       <c r="D690" s="1"/>
       <c r="E690" s="1"/>
@@ -5973,7 +6270,7 @@
       <c r="G690" s="1"/>
       <c r="H690" s="1"/>
     </row>
-    <row r="691" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="691" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C691" s="1"/>
       <c r="D691" s="1"/>
       <c r="E691" s="1"/>
@@ -5981,7 +6278,7 @@
       <c r="G691" s="1"/>
       <c r="H691" s="1"/>
     </row>
-    <row r="692" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="692" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C692" s="1"/>
       <c r="D692" s="1"/>
       <c r="E692" s="1"/>
@@ -5989,7 +6286,7 @@
       <c r="G692" s="1"/>
       <c r="H692" s="1"/>
     </row>
-    <row r="693" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="693" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C693" s="1"/>
       <c r="D693" s="1"/>
       <c r="E693" s="1"/>
@@ -5997,7 +6294,7 @@
       <c r="G693" s="1"/>
       <c r="H693" s="1"/>
     </row>
-    <row r="694" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="694" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C694" s="1"/>
       <c r="D694" s="1"/>
       <c r="E694" s="1"/>
@@ -6005,7 +6302,7 @@
       <c r="G694" s="1"/>
       <c r="H694" s="1"/>
     </row>
-    <row r="695" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="695" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C695" s="1"/>
       <c r="D695" s="1"/>
       <c r="E695" s="1"/>
@@ -6013,7 +6310,7 @@
       <c r="G695" s="1"/>
       <c r="H695" s="1"/>
     </row>
-    <row r="696" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="696" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C696" s="1"/>
       <c r="D696" s="1"/>
       <c r="E696" s="1"/>
@@ -6021,7 +6318,7 @@
       <c r="G696" s="1"/>
       <c r="H696" s="1"/>
     </row>
-    <row r="697" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="697" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C697" s="1"/>
       <c r="D697" s="1"/>
       <c r="E697" s="1"/>
@@ -6029,7 +6326,7 @@
       <c r="G697" s="1"/>
       <c r="H697" s="1"/>
     </row>
-    <row r="698" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="698" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C698" s="1"/>
       <c r="D698" s="1"/>
       <c r="E698" s="1"/>
@@ -6037,7 +6334,7 @@
       <c r="G698" s="1"/>
       <c r="H698" s="1"/>
     </row>
-    <row r="699" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="699" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C699" s="1"/>
       <c r="D699" s="1"/>
       <c r="E699" s="1"/>
@@ -6045,7 +6342,7 @@
       <c r="G699" s="1"/>
       <c r="H699" s="1"/>
     </row>
-    <row r="700" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="700" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C700" s="1"/>
       <c r="D700" s="1"/>
       <c r="E700" s="1"/>
@@ -6053,7 +6350,7 @@
       <c r="G700" s="1"/>
       <c r="H700" s="1"/>
     </row>
-    <row r="701" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="701" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C701" s="1"/>
       <c r="D701" s="1"/>
       <c r="E701" s="1"/>
@@ -6061,7 +6358,7 @@
       <c r="G701" s="1"/>
       <c r="H701" s="1"/>
     </row>
-    <row r="702" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="702" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C702" s="1"/>
       <c r="D702" s="1"/>
       <c r="E702" s="1"/>
@@ -6069,7 +6366,7 @@
       <c r="G702" s="1"/>
       <c r="H702" s="1"/>
     </row>
-    <row r="703" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="703" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C703" s="1"/>
       <c r="D703" s="1"/>
       <c r="E703" s="1"/>
@@ -6077,7 +6374,7 @@
       <c r="G703" s="1"/>
       <c r="H703" s="1"/>
     </row>
-    <row r="704" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="704" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C704" s="1"/>
       <c r="D704" s="1"/>
       <c r="E704" s="1"/>
@@ -6085,7 +6382,7 @@
       <c r="G704" s="1"/>
       <c r="H704" s="1"/>
     </row>
-    <row r="705" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="705" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C705" s="1"/>
       <c r="D705" s="1"/>
       <c r="E705" s="1"/>
@@ -6093,7 +6390,7 @@
       <c r="G705" s="1"/>
       <c r="H705" s="1"/>
     </row>
-    <row r="706" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="706" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C706" s="1"/>
       <c r="D706" s="1"/>
       <c r="E706" s="1"/>
@@ -6101,7 +6398,7 @@
       <c r="G706" s="1"/>
       <c r="H706" s="1"/>
     </row>
-    <row r="707" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="707" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C707" s="1"/>
       <c r="D707" s="1"/>
       <c r="E707" s="1"/>
@@ -6109,7 +6406,7 @@
       <c r="G707" s="1"/>
       <c r="H707" s="1"/>
     </row>
-    <row r="708" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="708" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C708" s="1"/>
       <c r="D708" s="1"/>
       <c r="E708" s="1"/>
@@ -6117,7 +6414,7 @@
       <c r="G708" s="1"/>
       <c r="H708" s="1"/>
     </row>
-    <row r="709" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="709" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C709" s="1"/>
       <c r="D709" s="1"/>
       <c r="E709" s="1"/>
@@ -6125,7 +6422,7 @@
       <c r="G709" s="1"/>
       <c r="H709" s="1"/>
     </row>
-    <row r="710" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="710" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C710" s="1"/>
       <c r="D710" s="1"/>
       <c r="E710" s="1"/>
@@ -6133,7 +6430,7 @@
       <c r="G710" s="1"/>
       <c r="H710" s="1"/>
     </row>
-    <row r="711" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="711" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C711" s="1"/>
       <c r="D711" s="1"/>
       <c r="E711" s="1"/>
@@ -6141,7 +6438,7 @@
       <c r="G711" s="1"/>
       <c r="H711" s="1"/>
     </row>
-    <row r="712" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="712" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C712" s="1"/>
       <c r="D712" s="1"/>
       <c r="E712" s="1"/>
@@ -6149,7 +6446,7 @@
       <c r="G712" s="1"/>
       <c r="H712" s="1"/>
     </row>
-    <row r="713" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="713" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C713" s="1"/>
       <c r="D713" s="1"/>
       <c r="E713" s="1"/>
@@ -6157,7 +6454,7 @@
       <c r="G713" s="1"/>
       <c r="H713" s="1"/>
     </row>
-    <row r="714" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="714" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C714" s="1"/>
       <c r="D714" s="1"/>
       <c r="E714" s="1"/>
@@ -6165,7 +6462,7 @@
       <c r="G714" s="1"/>
       <c r="H714" s="1"/>
     </row>
-    <row r="715" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="715" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C715" s="1"/>
       <c r="D715" s="1"/>
       <c r="E715" s="1"/>
@@ -6173,7 +6470,7 @@
       <c r="G715" s="1"/>
       <c r="H715" s="1"/>
     </row>
-    <row r="716" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="716" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C716" s="1"/>
       <c r="D716" s="1"/>
       <c r="E716" s="1"/>
@@ -6181,7 +6478,7 @@
       <c r="G716" s="1"/>
       <c r="H716" s="1"/>
     </row>
-    <row r="717" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="717" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C717" s="1"/>
       <c r="D717" s="1"/>
       <c r="E717" s="1"/>
@@ -6189,7 +6486,7 @@
       <c r="G717" s="1"/>
       <c r="H717" s="1"/>
     </row>
-    <row r="718" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="718" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C718" s="1"/>
       <c r="D718" s="1"/>
       <c r="E718" s="1"/>
@@ -6197,7 +6494,7 @@
       <c r="G718" s="1"/>
       <c r="H718" s="1"/>
     </row>
-    <row r="719" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="719" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C719" s="1"/>
       <c r="D719" s="1"/>
       <c r="E719" s="1"/>
@@ -6205,7 +6502,7 @@
       <c r="G719" s="1"/>
       <c r="H719" s="1"/>
     </row>
-    <row r="720" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="720" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C720" s="1"/>
       <c r="D720" s="1"/>
       <c r="E720" s="1"/>
@@ -6213,7 +6510,7 @@
       <c r="G720" s="1"/>
       <c r="H720" s="1"/>
     </row>
-    <row r="721" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="721" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C721" s="1"/>
       <c r="D721" s="1"/>
       <c r="E721" s="1"/>
@@ -6221,7 +6518,7 @@
       <c r="G721" s="1"/>
       <c r="H721" s="1"/>
     </row>
-    <row r="722" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="722" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C722" s="1"/>
       <c r="D722" s="1"/>
       <c r="E722" s="1"/>
@@ -6229,7 +6526,7 @@
       <c r="G722" s="1"/>
       <c r="H722" s="1"/>
     </row>
-    <row r="723" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="723" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C723" s="1"/>
       <c r="D723" s="1"/>
       <c r="E723" s="1"/>
@@ -6237,7 +6534,7 @@
       <c r="G723" s="1"/>
       <c r="H723" s="1"/>
     </row>
-    <row r="724" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="724" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C724" s="1"/>
       <c r="D724" s="1"/>
       <c r="E724" s="1"/>
@@ -6245,7 +6542,7 @@
       <c r="G724" s="1"/>
       <c r="H724" s="1"/>
     </row>
-    <row r="725" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="725" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C725" s="1"/>
       <c r="D725" s="1"/>
       <c r="E725" s="1"/>
@@ -6253,7 +6550,7 @@
       <c r="G725" s="1"/>
       <c r="H725" s="1"/>
     </row>
-    <row r="726" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="726" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C726" s="1"/>
       <c r="D726" s="1"/>
       <c r="E726" s="1"/>
@@ -6261,7 +6558,7 @@
       <c r="G726" s="1"/>
       <c r="H726" s="1"/>
     </row>
-    <row r="727" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="727" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C727" s="1"/>
       <c r="D727" s="1"/>
       <c r="E727" s="1"/>
@@ -6269,7 +6566,7 @@
       <c r="G727" s="1"/>
       <c r="H727" s="1"/>
     </row>
-    <row r="728" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="728" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C728" s="1"/>
       <c r="D728" s="1"/>
       <c r="E728" s="1"/>
@@ -6277,7 +6574,7 @@
       <c r="G728" s="1"/>
       <c r="H728" s="1"/>
     </row>
-    <row r="729" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="729" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C729" s="1"/>
       <c r="D729" s="1"/>
       <c r="E729" s="1"/>
@@ -6285,7 +6582,7 @@
       <c r="G729" s="1"/>
       <c r="H729" s="1"/>
     </row>
-    <row r="730" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="730" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C730" s="1"/>
       <c r="D730" s="1"/>
       <c r="E730" s="1"/>
@@ -6293,7 +6590,7 @@
       <c r="G730" s="1"/>
       <c r="H730" s="1"/>
     </row>
-    <row r="731" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="731" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C731" s="1"/>
       <c r="D731" s="1"/>
       <c r="E731" s="1"/>
@@ -6301,7 +6598,7 @@
       <c r="G731" s="1"/>
       <c r="H731" s="1"/>
     </row>
-    <row r="732" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="732" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C732" s="1"/>
       <c r="D732" s="1"/>
       <c r="E732" s="1"/>
@@ -6309,7 +6606,7 @@
       <c r="G732" s="1"/>
       <c r="H732" s="1"/>
     </row>
-    <row r="733" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="733" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C733" s="1"/>
       <c r="D733" s="1"/>
       <c r="E733" s="1"/>
@@ -6317,7 +6614,7 @@
       <c r="G733" s="1"/>
       <c r="H733" s="1"/>
     </row>
-    <row r="734" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="734" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C734" s="1"/>
       <c r="D734" s="1"/>
       <c r="E734" s="1"/>
@@ -6325,7 +6622,7 @@
       <c r="G734" s="1"/>
       <c r="H734" s="1"/>
     </row>
-    <row r="735" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="735" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C735" s="1"/>
       <c r="D735" s="1"/>
       <c r="E735" s="1"/>
@@ -6333,7 +6630,7 @@
       <c r="G735" s="1"/>
       <c r="H735" s="1"/>
     </row>
-    <row r="736" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="736" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C736" s="1"/>
       <c r="D736" s="1"/>
       <c r="E736" s="1"/>
@@ -6341,7 +6638,7 @@
       <c r="G736" s="1"/>
       <c r="H736" s="1"/>
     </row>
-    <row r="737" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="737" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C737" s="1"/>
       <c r="D737" s="1"/>
       <c r="E737" s="1"/>
@@ -6349,7 +6646,7 @@
       <c r="G737" s="1"/>
       <c r="H737" s="1"/>
     </row>
-    <row r="738" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="738" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C738" s="1"/>
       <c r="D738" s="1"/>
       <c r="E738" s="1"/>
@@ -6357,7 +6654,7 @@
       <c r="G738" s="1"/>
       <c r="H738" s="1"/>
     </row>
-    <row r="739" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="739" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C739" s="1"/>
       <c r="D739" s="1"/>
       <c r="E739" s="1"/>
@@ -6365,7 +6662,7 @@
       <c r="G739" s="1"/>
       <c r="H739" s="1"/>
     </row>
-    <row r="740" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="740" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C740" s="1"/>
       <c r="D740" s="1"/>
       <c r="E740" s="1"/>
@@ -6373,7 +6670,7 @@
       <c r="G740" s="1"/>
       <c r="H740" s="1"/>
     </row>
-    <row r="741" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="741" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C741" s="1"/>
       <c r="D741" s="1"/>
       <c r="E741" s="1"/>
@@ -6381,7 +6678,7 @@
       <c r="G741" s="1"/>
       <c r="H741" s="1"/>
     </row>
-    <row r="742" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="742" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C742" s="1"/>
       <c r="D742" s="1"/>
       <c r="E742" s="1"/>
@@ -6389,7 +6686,7 @@
       <c r="G742" s="1"/>
       <c r="H742" s="1"/>
     </row>
-    <row r="743" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="743" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C743" s="1"/>
       <c r="D743" s="1"/>
       <c r="E743" s="1"/>
@@ -6397,7 +6694,7 @@
       <c r="G743" s="1"/>
       <c r="H743" s="1"/>
     </row>
-    <row r="744" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="744" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C744" s="1"/>
       <c r="D744" s="1"/>
       <c r="E744" s="1"/>
@@ -6405,7 +6702,7 @@
       <c r="G744" s="1"/>
       <c r="H744" s="1"/>
     </row>
-    <row r="745" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="745" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C745" s="1"/>
       <c r="D745" s="1"/>
       <c r="E745" s="1"/>
@@ -6413,7 +6710,7 @@
       <c r="G745" s="1"/>
       <c r="H745" s="1"/>
     </row>
-    <row r="746" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="746" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C746" s="1"/>
       <c r="D746" s="1"/>
       <c r="E746" s="1"/>
@@ -6421,7 +6718,7 @@
       <c r="G746" s="1"/>
       <c r="H746" s="1"/>
     </row>
-    <row r="747" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="747" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C747" s="1"/>
       <c r="D747" s="1"/>
       <c r="E747" s="1"/>
@@ -6429,7 +6726,7 @@
       <c r="G747" s="1"/>
       <c r="H747" s="1"/>
     </row>
-    <row r="748" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="748" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C748" s="1"/>
       <c r="D748" s="1"/>
       <c r="E748" s="1"/>
@@ -6437,7 +6734,7 @@
       <c r="G748" s="1"/>
       <c r="H748" s="1"/>
     </row>
-    <row r="749" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="749" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C749" s="1"/>
       <c r="D749" s="1"/>
       <c r="E749" s="1"/>
@@ -6445,7 +6742,7 @@
       <c r="G749" s="1"/>
       <c r="H749" s="1"/>
     </row>
-    <row r="750" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="750" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C750" s="1"/>
       <c r="D750" s="1"/>
       <c r="E750" s="1"/>
@@ -6453,7 +6750,7 @@
       <c r="G750" s="1"/>
       <c r="H750" s="1"/>
     </row>
-    <row r="751" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="751" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C751" s="1"/>
       <c r="D751" s="1"/>
       <c r="E751" s="1"/>
@@ -6461,7 +6758,7 @@
       <c r="G751" s="1"/>
       <c r="H751" s="1"/>
     </row>
-    <row r="752" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="752" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C752" s="1"/>
       <c r="D752" s="1"/>
       <c r="E752" s="1"/>
@@ -6469,7 +6766,7 @@
       <c r="G752" s="1"/>
       <c r="H752" s="1"/>
     </row>
-    <row r="753" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="753" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C753" s="1"/>
       <c r="D753" s="1"/>
       <c r="E753" s="1"/>
@@ -6477,7 +6774,7 @@
       <c r="G753" s="1"/>
       <c r="H753" s="1"/>
     </row>
-    <row r="754" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="754" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C754" s="1"/>
       <c r="D754" s="1"/>
       <c r="E754" s="1"/>
@@ -6485,7 +6782,7 @@
       <c r="G754" s="1"/>
       <c r="H754" s="1"/>
     </row>
-    <row r="755" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="755" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C755" s="1"/>
       <c r="D755" s="1"/>
       <c r="E755" s="1"/>
@@ -6493,7 +6790,7 @@
       <c r="G755" s="1"/>
       <c r="H755" s="1"/>
     </row>
-    <row r="756" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="756" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C756" s="1"/>
       <c r="D756" s="1"/>
       <c r="E756" s="1"/>
@@ -6501,7 +6798,7 @@
       <c r="G756" s="1"/>
       <c r="H756" s="1"/>
     </row>
-    <row r="757" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="757" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C757" s="1"/>
       <c r="D757" s="1"/>
       <c r="E757" s="1"/>
@@ -6509,7 +6806,7 @@
       <c r="G757" s="1"/>
       <c r="H757" s="1"/>
     </row>
-    <row r="758" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="758" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C758" s="1"/>
       <c r="D758" s="1"/>
       <c r="E758" s="1"/>
@@ -6517,7 +6814,7 @@
       <c r="G758" s="1"/>
       <c r="H758" s="1"/>
     </row>
-    <row r="759" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="759" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C759" s="1"/>
       <c r="D759" s="1"/>
       <c r="E759" s="1"/>
@@ -6525,7 +6822,7 @@
       <c r="G759" s="1"/>
       <c r="H759" s="1"/>
     </row>
-    <row r="760" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="760" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C760" s="1"/>
       <c r="D760" s="1"/>
       <c r="E760" s="1"/>
@@ -6533,7 +6830,7 @@
       <c r="G760" s="1"/>
       <c r="H760" s="1"/>
     </row>
-    <row r="761" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="761" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C761" s="1"/>
       <c r="D761" s="1"/>
       <c r="E761" s="1"/>
@@ -6541,7 +6838,7 @@
       <c r="G761" s="1"/>
       <c r="H761" s="1"/>
     </row>
-    <row r="762" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="762" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C762" s="1"/>
       <c r="D762" s="1"/>
       <c r="E762" s="1"/>
@@ -6549,7 +6846,7 @@
       <c r="G762" s="1"/>
       <c r="H762" s="1"/>
     </row>
-    <row r="763" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="763" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C763" s="1"/>
       <c r="D763" s="1"/>
       <c r="E763" s="1"/>
@@ -6557,7 +6854,7 @@
       <c r="G763" s="1"/>
       <c r="H763" s="1"/>
     </row>
-    <row r="764" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="764" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C764" s="1"/>
       <c r="D764" s="1"/>
       <c r="E764" s="1"/>
@@ -6565,7 +6862,7 @@
       <c r="G764" s="1"/>
       <c r="H764" s="1"/>
     </row>
-    <row r="765" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="765" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C765" s="1"/>
       <c r="D765" s="1"/>
       <c r="E765" s="1"/>
@@ -6573,7 +6870,7 @@
       <c r="G765" s="1"/>
       <c r="H765" s="1"/>
     </row>
-    <row r="766" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="766" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C766" s="1"/>
       <c r="D766" s="1"/>
       <c r="E766" s="1"/>
@@ -6581,7 +6878,7 @@
       <c r="G766" s="1"/>
       <c r="H766" s="1"/>
     </row>
-    <row r="767" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="767" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C767" s="1"/>
       <c r="D767" s="1"/>
       <c r="E767" s="1"/>
@@ -6589,7 +6886,7 @@
       <c r="G767" s="1"/>
       <c r="H767" s="1"/>
     </row>
-    <row r="768" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="768" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C768" s="1"/>
       <c r="D768" s="1"/>
       <c r="E768" s="1"/>
@@ -6597,7 +6894,7 @@
       <c r="G768" s="1"/>
       <c r="H768" s="1"/>
     </row>
-    <row r="769" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="769" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C769" s="1"/>
       <c r="D769" s="1"/>
       <c r="E769" s="1"/>
@@ -6605,7 +6902,7 @@
       <c r="G769" s="1"/>
       <c r="H769" s="1"/>
     </row>
-    <row r="770" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="770" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C770" s="1"/>
       <c r="D770" s="1"/>
       <c r="E770" s="1"/>
@@ -6613,7 +6910,7 @@
       <c r="G770" s="1"/>
       <c r="H770" s="1"/>
     </row>
-    <row r="771" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="771" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C771" s="1"/>
       <c r="D771" s="1"/>
       <c r="E771" s="1"/>
@@ -6621,7 +6918,7 @@
       <c r="G771" s="1"/>
       <c r="H771" s="1"/>
     </row>
-    <row r="772" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="772" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C772" s="1"/>
       <c r="D772" s="1"/>
       <c r="E772" s="1"/>
@@ -6629,7 +6926,7 @@
       <c r="G772" s="1"/>
       <c r="H772" s="1"/>
     </row>
-    <row r="773" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="773" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C773" s="1"/>
       <c r="D773" s="1"/>
       <c r="E773" s="1"/>
@@ -6637,7 +6934,7 @@
       <c r="G773" s="1"/>
       <c r="H773" s="1"/>
     </row>
-    <row r="774" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="774" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C774" s="1"/>
       <c r="D774" s="1"/>
       <c r="E774" s="1"/>
@@ -6645,7 +6942,7 @@
       <c r="G774" s="1"/>
       <c r="H774" s="1"/>
     </row>
-    <row r="775" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="775" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C775" s="1"/>
       <c r="D775" s="1"/>
       <c r="E775" s="1"/>
@@ -6653,7 +6950,7 @@
       <c r="G775" s="1"/>
       <c r="H775" s="1"/>
     </row>
-    <row r="776" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="776" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C776" s="1"/>
       <c r="D776" s="1"/>
       <c r="E776" s="1"/>
@@ -6661,7 +6958,7 @@
       <c r="G776" s="1"/>
       <c r="H776" s="1"/>
     </row>
-    <row r="777" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="777" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C777" s="1"/>
       <c r="D777" s="1"/>
       <c r="E777" s="1"/>
@@ -6669,7 +6966,7 @@
       <c r="G777" s="1"/>
       <c r="H777" s="1"/>
     </row>
-    <row r="778" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="778" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C778" s="1"/>
       <c r="D778" s="1"/>
       <c r="E778" s="1"/>
@@ -6677,7 +6974,7 @@
       <c r="G778" s="1"/>
       <c r="H778" s="1"/>
     </row>
-    <row r="779" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="779" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C779" s="1"/>
       <c r="D779" s="1"/>
       <c r="E779" s="1"/>
@@ -6685,7 +6982,7 @@
       <c r="G779" s="1"/>
       <c r="H779" s="1"/>
     </row>
-    <row r="780" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="780" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C780" s="1"/>
       <c r="D780" s="1"/>
       <c r="E780" s="1"/>
@@ -6693,7 +6990,7 @@
       <c r="G780" s="1"/>
       <c r="H780" s="1"/>
     </row>
-    <row r="781" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="781" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C781" s="1"/>
       <c r="D781" s="1"/>
       <c r="E781" s="1"/>
@@ -6701,7 +6998,7 @@
       <c r="G781" s="1"/>
       <c r="H781" s="1"/>
     </row>
-    <row r="782" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="782" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C782" s="1"/>
       <c r="D782" s="1"/>
       <c r="E782" s="1"/>
@@ -6709,7 +7006,7 @@
       <c r="G782" s="1"/>
       <c r="H782" s="1"/>
     </row>
-    <row r="783" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="783" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C783" s="1"/>
       <c r="D783" s="1"/>
       <c r="E783" s="1"/>
@@ -6717,7 +7014,7 @@
       <c r="G783" s="1"/>
       <c r="H783" s="1"/>
     </row>
-    <row r="784" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="784" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C784" s="1"/>
       <c r="D784" s="1"/>
       <c r="E784" s="1"/>
@@ -6725,7 +7022,7 @@
       <c r="G784" s="1"/>
       <c r="H784" s="1"/>
     </row>
-    <row r="785" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="785" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C785" s="1"/>
       <c r="D785" s="1"/>
       <c r="E785" s="1"/>
@@ -6733,7 +7030,7 @@
       <c r="G785" s="1"/>
       <c r="H785" s="1"/>
     </row>
-    <row r="786" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="786" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C786" s="1"/>
       <c r="D786" s="1"/>
       <c r="E786" s="1"/>
@@ -6741,7 +7038,7 @@
       <c r="G786" s="1"/>
       <c r="H786" s="1"/>
     </row>
-    <row r="787" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="787" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C787" s="1"/>
       <c r="D787" s="1"/>
       <c r="E787" s="1"/>
@@ -6749,7 +7046,7 @@
       <c r="G787" s="1"/>
       <c r="H787" s="1"/>
     </row>
-    <row r="788" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="788" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C788" s="1"/>
       <c r="D788" s="1"/>
       <c r="E788" s="1"/>
@@ -6757,7 +7054,7 @@
       <c r="G788" s="1"/>
       <c r="H788" s="1"/>
     </row>
-    <row r="789" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="789" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C789" s="1"/>
       <c r="D789" s="1"/>
       <c r="E789" s="1"/>
@@ -6765,7 +7062,7 @@
       <c r="G789" s="1"/>
       <c r="H789" s="1"/>
     </row>
-    <row r="790" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="790" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C790" s="1"/>
       <c r="D790" s="1"/>
       <c r="E790" s="1"/>
@@ -6773,7 +7070,7 @@
       <c r="G790" s="1"/>
       <c r="H790" s="1"/>
     </row>
-    <row r="791" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="791" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C791" s="1"/>
       <c r="D791" s="1"/>
       <c r="E791" s="1"/>
@@ -6781,7 +7078,7 @@
       <c r="G791" s="1"/>
       <c r="H791" s="1"/>
     </row>
-    <row r="792" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="792" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C792" s="1"/>
       <c r="D792" s="1"/>
       <c r="E792" s="1"/>
@@ -6789,7 +7086,7 @@
       <c r="G792" s="1"/>
       <c r="H792" s="1"/>
     </row>
-    <row r="793" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="793" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C793" s="1"/>
       <c r="D793" s="1"/>
       <c r="E793" s="1"/>
@@ -6797,7 +7094,7 @@
       <c r="G793" s="1"/>
       <c r="H793" s="1"/>
     </row>
-    <row r="794" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="794" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C794" s="1"/>
       <c r="D794" s="1"/>
       <c r="E794" s="1"/>
@@ -6805,7 +7102,7 @@
       <c r="G794" s="1"/>
       <c r="H794" s="1"/>
     </row>
-    <row r="795" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="795" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C795" s="1"/>
       <c r="D795" s="1"/>
       <c r="E795" s="1"/>
@@ -6813,7 +7110,7 @@
       <c r="G795" s="1"/>
       <c r="H795" s="1"/>
     </row>
-    <row r="796" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="796" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C796" s="1"/>
       <c r="D796" s="1"/>
       <c r="E796" s="1"/>
@@ -6821,7 +7118,7 @@
       <c r="G796" s="1"/>
       <c r="H796" s="1"/>
     </row>
-    <row r="797" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="797" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C797" s="1"/>
       <c r="D797" s="1"/>
       <c r="E797" s="1"/>
@@ -6829,7 +7126,7 @@
       <c r="G797" s="1"/>
       <c r="H797" s="1"/>
     </row>
-    <row r="798" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="798" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C798" s="1"/>
       <c r="D798" s="1"/>
       <c r="E798" s="1"/>
@@ -6837,7 +7134,7 @@
       <c r="G798" s="1"/>
       <c r="H798" s="1"/>
     </row>
-    <row r="799" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="799" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C799" s="1"/>
       <c r="D799" s="1"/>
       <c r="E799" s="1"/>
@@ -6845,7 +7142,7 @@
       <c r="G799" s="1"/>
       <c r="H799" s="1"/>
     </row>
-    <row r="800" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="800" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C800" s="1"/>
       <c r="D800" s="1"/>
       <c r="E800" s="1"/>
@@ -6853,7 +7150,7 @@
       <c r="G800" s="1"/>
       <c r="H800" s="1"/>
     </row>
-    <row r="801" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="801" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C801" s="1"/>
       <c r="D801" s="1"/>
       <c r="E801" s="1"/>
@@ -6861,7 +7158,7 @@
       <c r="G801" s="1"/>
       <c r="H801" s="1"/>
     </row>
-    <row r="802" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="802" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C802" s="1"/>
       <c r="D802" s="1"/>
       <c r="E802" s="1"/>
@@ -6869,7 +7166,7 @@
       <c r="G802" s="1"/>
       <c r="H802" s="1"/>
     </row>
-    <row r="803" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="803" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C803" s="1"/>
       <c r="D803" s="1"/>
       <c r="E803" s="1"/>
@@ -6877,7 +7174,7 @@
       <c r="G803" s="1"/>
       <c r="H803" s="1"/>
     </row>
-    <row r="804" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="804" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C804" s="1"/>
       <c r="D804" s="1"/>
       <c r="E804" s="1"/>
@@ -6885,7 +7182,7 @@
       <c r="G804" s="1"/>
       <c r="H804" s="1"/>
     </row>
-    <row r="805" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="805" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C805" s="1"/>
       <c r="D805" s="1"/>
       <c r="E805" s="1"/>
@@ -6893,7 +7190,7 @@
       <c r="G805" s="1"/>
       <c r="H805" s="1"/>
     </row>
-    <row r="806" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="806" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C806" s="1"/>
       <c r="D806" s="1"/>
       <c r="E806" s="1"/>
@@ -6901,7 +7198,7 @@
       <c r="G806" s="1"/>
       <c r="H806" s="1"/>
     </row>
-    <row r="807" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="807" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C807" s="1"/>
       <c r="D807" s="1"/>
       <c r="E807" s="1"/>
@@ -6909,7 +7206,7 @@
       <c r="G807" s="1"/>
       <c r="H807" s="1"/>
     </row>
-    <row r="808" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="808" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C808" s="1"/>
       <c r="D808" s="1"/>
       <c r="E808" s="1"/>
@@ -6917,7 +7214,7 @@
       <c r="G808" s="1"/>
       <c r="H808" s="1"/>
     </row>
-    <row r="809" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="809" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C809" s="1"/>
       <c r="D809" s="1"/>
       <c r="E809" s="1"/>
@@ -6925,7 +7222,7 @@
       <c r="G809" s="1"/>
       <c r="H809" s="1"/>
     </row>
-    <row r="810" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="810" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C810" s="1"/>
       <c r="D810" s="1"/>
       <c r="E810" s="1"/>
@@ -6933,7 +7230,7 @@
       <c r="G810" s="1"/>
       <c r="H810" s="1"/>
     </row>
-    <row r="811" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="811" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C811" s="1"/>
       <c r="D811" s="1"/>
       <c r="E811" s="1"/>
@@ -6941,7 +7238,7 @@
       <c r="G811" s="1"/>
       <c r="H811" s="1"/>
     </row>
-    <row r="812" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="812" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C812" s="1"/>
       <c r="D812" s="1"/>
       <c r="E812" s="1"/>
@@ -6949,7 +7246,7 @@
       <c r="G812" s="1"/>
       <c r="H812" s="1"/>
     </row>
-    <row r="813" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="813" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C813" s="1"/>
       <c r="D813" s="1"/>
       <c r="E813" s="1"/>
@@ -6957,7 +7254,7 @@
       <c r="G813" s="1"/>
       <c r="H813" s="1"/>
     </row>
-    <row r="814" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="814" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C814" s="1"/>
       <c r="D814" s="1"/>
       <c r="E814" s="1"/>
@@ -6965,7 +7262,7 @@
       <c r="G814" s="1"/>
       <c r="H814" s="1"/>
     </row>
-    <row r="815" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="815" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C815" s="1"/>
       <c r="D815" s="1"/>
       <c r="E815" s="1"/>
@@ -6973,7 +7270,7 @@
       <c r="G815" s="1"/>
       <c r="H815" s="1"/>
     </row>
-    <row r="816" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="816" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C816" s="1"/>
       <c r="D816" s="1"/>
       <c r="E816" s="1"/>
@@ -6981,7 +7278,7 @@
       <c r="G816" s="1"/>
       <c r="H816" s="1"/>
     </row>
-    <row r="817" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="817" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C817" s="1"/>
       <c r="D817" s="1"/>
       <c r="E817" s="1"/>
@@ -6989,7 +7286,7 @@
       <c r="G817" s="1"/>
       <c r="H817" s="1"/>
     </row>
-    <row r="818" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="818" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C818" s="1"/>
       <c r="D818" s="1"/>
       <c r="E818" s="1"/>
@@ -6997,7 +7294,7 @@
       <c r="G818" s="1"/>
       <c r="H818" s="1"/>
     </row>
-    <row r="819" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="819" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C819" s="1"/>
       <c r="D819" s="1"/>
       <c r="E819" s="1"/>
@@ -7005,7 +7302,7 @@
       <c r="G819" s="1"/>
       <c r="H819" s="1"/>
     </row>
-    <row r="820" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="820" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C820" s="1"/>
       <c r="D820" s="1"/>
       <c r="E820" s="1"/>
@@ -7013,7 +7310,7 @@
       <c r="G820" s="1"/>
       <c r="H820" s="1"/>
     </row>
-    <row r="821" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="821" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C821" s="1"/>
       <c r="D821" s="1"/>
       <c r="E821" s="1"/>
@@ -7021,7 +7318,7 @@
       <c r="G821" s="1"/>
       <c r="H821" s="1"/>
     </row>
-    <row r="822" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="822" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C822" s="1"/>
       <c r="D822" s="1"/>
       <c r="E822" s="1"/>
@@ -7029,7 +7326,7 @@
       <c r="G822" s="1"/>
       <c r="H822" s="1"/>
     </row>
-    <row r="823" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="823" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C823" s="1"/>
       <c r="D823" s="1"/>
       <c r="E823" s="1"/>
@@ -7037,7 +7334,7 @@
       <c r="G823" s="1"/>
       <c r="H823" s="1"/>
     </row>
-    <row r="824" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="824" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C824" s="1"/>
       <c r="D824" s="1"/>
       <c r="E824" s="1"/>
@@ -7045,7 +7342,7 @@
       <c r="G824" s="1"/>
       <c r="H824" s="1"/>
     </row>
-    <row r="825" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="825" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C825" s="1"/>
       <c r="D825" s="1"/>
       <c r="E825" s="1"/>
@@ -7053,7 +7350,7 @@
       <c r="G825" s="1"/>
       <c r="H825" s="1"/>
     </row>
-    <row r="826" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="826" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C826" s="1"/>
       <c r="D826" s="1"/>
       <c r="E826" s="1"/>
@@ -7061,7 +7358,7 @@
       <c r="G826" s="1"/>
       <c r="H826" s="1"/>
     </row>
-    <row r="827" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="827" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C827" s="1"/>
       <c r="D827" s="1"/>
       <c r="E827" s="1"/>
@@ -7069,7 +7366,7 @@
       <c r="G827" s="1"/>
       <c r="H827" s="1"/>
     </row>
-    <row r="828" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="828" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C828" s="1"/>
       <c r="D828" s="1"/>
       <c r="E828" s="1"/>
@@ -7077,7 +7374,7 @@
       <c r="G828" s="1"/>
       <c r="H828" s="1"/>
     </row>
-    <row r="829" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="829" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C829" s="1"/>
       <c r="D829" s="1"/>
       <c r="E829" s="1"/>
@@ -7085,7 +7382,7 @@
       <c r="G829" s="1"/>
       <c r="H829" s="1"/>
     </row>
-    <row r="830" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="830" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C830" s="1"/>
       <c r="D830" s="1"/>
       <c r="E830" s="1"/>
@@ -7093,7 +7390,7 @@
       <c r="G830" s="1"/>
       <c r="H830" s="1"/>
     </row>
-    <row r="831" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="831" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C831" s="1"/>
       <c r="D831" s="1"/>
       <c r="E831" s="1"/>
@@ -7101,7 +7398,7 @@
       <c r="G831" s="1"/>
       <c r="H831" s="1"/>
     </row>
-    <row r="832" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="832" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C832" s="1"/>
       <c r="D832" s="1"/>
       <c r="E832" s="1"/>
@@ -7109,7 +7406,7 @@
       <c r="G832" s="1"/>
       <c r="H832" s="1"/>
     </row>
-    <row r="833" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="833" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C833" s="1"/>
       <c r="D833" s="1"/>
       <c r="E833" s="1"/>
@@ -7117,7 +7414,7 @@
       <c r="G833" s="1"/>
       <c r="H833" s="1"/>
     </row>
-    <row r="834" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="834" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C834" s="1"/>
       <c r="D834" s="1"/>
       <c r="E834" s="1"/>
@@ -7125,7 +7422,7 @@
       <c r="G834" s="1"/>
       <c r="H834" s="1"/>
     </row>
-    <row r="835" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="835" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C835" s="1"/>
       <c r="D835" s="1"/>
       <c r="E835" s="1"/>
@@ -7133,7 +7430,7 @@
       <c r="G835" s="1"/>
       <c r="H835" s="1"/>
     </row>
-    <row r="836" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="836" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C836" s="1"/>
       <c r="D836" s="1"/>
       <c r="E836" s="1"/>
@@ -7141,7 +7438,7 @@
       <c r="G836" s="1"/>
       <c r="H836" s="1"/>
     </row>
-    <row r="837" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="837" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C837" s="1"/>
       <c r="D837" s="1"/>
       <c r="E837" s="1"/>
@@ -7149,7 +7446,7 @@
       <c r="G837" s="1"/>
       <c r="H837" s="1"/>
     </row>
-    <row r="838" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="838" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C838" s="1"/>
       <c r="D838" s="1"/>
       <c r="E838" s="1"/>
@@ -7157,7 +7454,7 @@
       <c r="G838" s="1"/>
       <c r="H838" s="1"/>
     </row>
-    <row r="839" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="839" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C839" s="1"/>
       <c r="D839" s="1"/>
       <c r="E839" s="1"/>
@@ -7165,7 +7462,7 @@
       <c r="G839" s="1"/>
       <c r="H839" s="1"/>
     </row>
-    <row r="840" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="840" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C840" s="1"/>
       <c r="D840" s="1"/>
       <c r="E840" s="1"/>
@@ -7173,7 +7470,7 @@
       <c r="G840" s="1"/>
       <c r="H840" s="1"/>
     </row>
-    <row r="841" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="841" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C841" s="1"/>
       <c r="D841" s="1"/>
       <c r="E841" s="1"/>
@@ -7181,7 +7478,7 @@
       <c r="G841" s="1"/>
       <c r="H841" s="1"/>
     </row>
-    <row r="842" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="842" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C842" s="1"/>
       <c r="D842" s="1"/>
       <c r="E842" s="1"/>
@@ -7189,7 +7486,7 @@
       <c r="G842" s="1"/>
       <c r="H842" s="1"/>
     </row>
-    <row r="843" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="843" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C843" s="1"/>
       <c r="D843" s="1"/>
       <c r="E843" s="1"/>
@@ -7197,7 +7494,7 @@
       <c r="G843" s="1"/>
       <c r="H843" s="1"/>
     </row>
-    <row r="844" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="844" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C844" s="1"/>
       <c r="D844" s="1"/>
       <c r="E844" s="1"/>
@@ -7205,7 +7502,7 @@
       <c r="G844" s="1"/>
       <c r="H844" s="1"/>
     </row>
-    <row r="845" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="845" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C845" s="1"/>
       <c r="D845" s="1"/>
       <c r="E845" s="1"/>
@@ -7213,7 +7510,7 @@
       <c r="G845" s="1"/>
       <c r="H845" s="1"/>
     </row>
-    <row r="846" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="846" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C846" s="1"/>
       <c r="D846" s="1"/>
       <c r="E846" s="1"/>
@@ -7221,7 +7518,7 @@
       <c r="G846" s="1"/>
       <c r="H846" s="1"/>
     </row>
-    <row r="847" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="847" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C847" s="1"/>
       <c r="D847" s="1"/>
       <c r="E847" s="1"/>
@@ -7229,7 +7526,7 @@
       <c r="G847" s="1"/>
       <c r="H847" s="1"/>
     </row>
-    <row r="848" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="848" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C848" s="1"/>
       <c r="D848" s="1"/>
       <c r="E848" s="1"/>
@@ -7237,7 +7534,7 @@
       <c r="G848" s="1"/>
       <c r="H848" s="1"/>
     </row>
-    <row r="849" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="849" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C849" s="1"/>
       <c r="D849" s="1"/>
       <c r="E849" s="1"/>
@@ -7245,7 +7542,7 @@
       <c r="G849" s="1"/>
       <c r="H849" s="1"/>
     </row>
-    <row r="850" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="850" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C850" s="1"/>
       <c r="D850" s="1"/>
       <c r="E850" s="1"/>
@@ -7253,7 +7550,7 @@
       <c r="G850" s="1"/>
       <c r="H850" s="1"/>
     </row>
-    <row r="851" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="851" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C851" s="1"/>
       <c r="D851" s="1"/>
       <c r="E851" s="1"/>
@@ -7261,7 +7558,7 @@
       <c r="G851" s="1"/>
       <c r="H851" s="1"/>
     </row>
-    <row r="852" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="852" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C852" s="1"/>
       <c r="D852" s="1"/>
       <c r="E852" s="1"/>
@@ -7269,7 +7566,7 @@
       <c r="G852" s="1"/>
       <c r="H852" s="1"/>
     </row>
-    <row r="853" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="853" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C853" s="1"/>
       <c r="D853" s="1"/>
       <c r="E853" s="1"/>
@@ -7277,7 +7574,7 @@
       <c r="G853" s="1"/>
       <c r="H853" s="1"/>
     </row>
-    <row r="854" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="854" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C854" s="1"/>
       <c r="D854" s="1"/>
       <c r="E854" s="1"/>
@@ -7285,7 +7582,7 @@
       <c r="G854" s="1"/>
       <c r="H854" s="1"/>
     </row>
-    <row r="855" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="855" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C855" s="1"/>
       <c r="D855" s="1"/>
       <c r="E855" s="1"/>
@@ -7293,7 +7590,7 @@
       <c r="G855" s="1"/>
       <c r="H855" s="1"/>
     </row>
-    <row r="856" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="856" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C856" s="1"/>
       <c r="D856" s="1"/>
       <c r="E856" s="1"/>
@@ -7301,7 +7598,7 @@
       <c r="G856" s="1"/>
       <c r="H856" s="1"/>
     </row>
-    <row r="857" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="857" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C857" s="1"/>
       <c r="D857" s="1"/>
       <c r="E857" s="1"/>
@@ -7309,7 +7606,7 @@
       <c r="G857" s="1"/>
       <c r="H857" s="1"/>
     </row>
-    <row r="858" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="858" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C858" s="1"/>
       <c r="D858" s="1"/>
       <c r="E858" s="1"/>
@@ -7317,7 +7614,7 @@
       <c r="G858" s="1"/>
       <c r="H858" s="1"/>
     </row>
-    <row r="859" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="859" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C859" s="1"/>
       <c r="D859" s="1"/>
       <c r="E859" s="1"/>
@@ -7325,7 +7622,7 @@
       <c r="G859" s="1"/>
       <c r="H859" s="1"/>
     </row>
-    <row r="860" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="860" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C860" s="1"/>
       <c r="D860" s="1"/>
       <c r="E860" s="1"/>
@@ -7333,7 +7630,7 @@
       <c r="G860" s="1"/>
       <c r="H860" s="1"/>
     </row>
-    <row r="861" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="861" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C861" s="1"/>
       <c r="D861" s="1"/>
       <c r="E861" s="1"/>
@@ -7341,7 +7638,7 @@
       <c r="G861" s="1"/>
       <c r="H861" s="1"/>
     </row>
-    <row r="862" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="862" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C862" s="1"/>
       <c r="D862" s="1"/>
       <c r="E862" s="1"/>
@@ -7349,7 +7646,7 @@
       <c r="G862" s="1"/>
       <c r="H862" s="1"/>
     </row>
-    <row r="863" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="863" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C863" s="1"/>
       <c r="D863" s="1"/>
       <c r="E863" s="1"/>
@@ -7357,7 +7654,7 @@
       <c r="G863" s="1"/>
       <c r="H863" s="1"/>
     </row>
-    <row r="864" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="864" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C864" s="1"/>
       <c r="D864" s="1"/>
       <c r="E864" s="1"/>
@@ -7365,7 +7662,7 @@
       <c r="G864" s="1"/>
       <c r="H864" s="1"/>
     </row>
-    <row r="865" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="865" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C865" s="1"/>
       <c r="D865" s="1"/>
       <c r="E865" s="1"/>
@@ -7373,7 +7670,7 @@
       <c r="G865" s="1"/>
       <c r="H865" s="1"/>
     </row>
-    <row r="866" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="866" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C866" s="1"/>
       <c r="D866" s="1"/>
       <c r="E866" s="1"/>
@@ -7381,7 +7678,7 @@
       <c r="G866" s="1"/>
       <c r="H866" s="1"/>
     </row>
-    <row r="867" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="867" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C867" s="1"/>
       <c r="D867" s="1"/>
       <c r="E867" s="1"/>
@@ -7389,7 +7686,7 @@
       <c r="G867" s="1"/>
       <c r="H867" s="1"/>
     </row>
-    <row r="868" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="868" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C868" s="1"/>
       <c r="D868" s="1"/>
       <c r="E868" s="1"/>
@@ -7397,7 +7694,7 @@
       <c r="G868" s="1"/>
       <c r="H868" s="1"/>
     </row>
-    <row r="869" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="869" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C869" s="1"/>
       <c r="D869" s="1"/>
       <c r="E869" s="1"/>
@@ -7405,7 +7702,7 @@
       <c r="G869" s="1"/>
       <c r="H869" s="1"/>
     </row>
-    <row r="870" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="870" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C870" s="1"/>
       <c r="D870" s="1"/>
       <c r="E870" s="1"/>
@@ -7413,7 +7710,7 @@
       <c r="G870" s="1"/>
       <c r="H870" s="1"/>
     </row>
-    <row r="871" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="871" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C871" s="1"/>
       <c r="D871" s="1"/>
       <c r="E871" s="1"/>
@@ -7421,7 +7718,7 @@
       <c r="G871" s="1"/>
       <c r="H871" s="1"/>
     </row>
-    <row r="872" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="872" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C872" s="1"/>
       <c r="D872" s="1"/>
       <c r="E872" s="1"/>
@@ -7429,7 +7726,7 @@
       <c r="G872" s="1"/>
       <c r="H872" s="1"/>
     </row>
-    <row r="873" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="873" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C873" s="1"/>
       <c r="D873" s="1"/>
       <c r="E873" s="1"/>
@@ -7437,7 +7734,7 @@
       <c r="G873" s="1"/>
       <c r="H873" s="1"/>
     </row>
-    <row r="874" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="874" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C874" s="1"/>
       <c r="D874" s="1"/>
       <c r="E874" s="1"/>
@@ -7445,7 +7742,7 @@
       <c r="G874" s="1"/>
       <c r="H874" s="1"/>
     </row>
-    <row r="875" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="875" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C875" s="1"/>
       <c r="D875" s="1"/>
       <c r="E875" s="1"/>
@@ -7453,7 +7750,7 @@
       <c r="G875" s="1"/>
       <c r="H875" s="1"/>
     </row>
-    <row r="876" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="876" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C876" s="1"/>
       <c r="D876" s="1"/>
       <c r="E876" s="1"/>
@@ -7461,7 +7758,7 @@
       <c r="G876" s="1"/>
       <c r="H876" s="1"/>
     </row>
-    <row r="877" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="877" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C877" s="1"/>
       <c r="D877" s="1"/>
       <c r="E877" s="1"/>
@@ -7469,7 +7766,7 @@
       <c r="G877" s="1"/>
       <c r="H877" s="1"/>
     </row>
-    <row r="878" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="878" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C878" s="1"/>
       <c r="D878" s="1"/>
       <c r="E878" s="1"/>
@@ -7477,7 +7774,7 @@
       <c r="G878" s="1"/>
       <c r="H878" s="1"/>
     </row>
-    <row r="879" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="879" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C879" s="1"/>
       <c r="D879" s="1"/>
       <c r="E879" s="1"/>
@@ -7485,7 +7782,7 @@
       <c r="G879" s="1"/>
       <c r="H879" s="1"/>
     </row>
-    <row r="880" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="880" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C880" s="1"/>
       <c r="D880" s="1"/>
       <c r="E880" s="1"/>
@@ -7493,7 +7790,7 @@
       <c r="G880" s="1"/>
       <c r="H880" s="1"/>
     </row>
-    <row r="881" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="881" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C881" s="1"/>
       <c r="D881" s="1"/>
       <c r="E881" s="1"/>
@@ -7501,7 +7798,7 @@
       <c r="G881" s="1"/>
       <c r="H881" s="1"/>
     </row>
-    <row r="882" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="882" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C882" s="1"/>
       <c r="D882" s="1"/>
       <c r="E882" s="1"/>
@@ -7509,7 +7806,7 @@
       <c r="G882" s="1"/>
       <c r="H882" s="1"/>
     </row>
-    <row r="883" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="883" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C883" s="1"/>
       <c r="D883" s="1"/>
       <c r="E883" s="1"/>
@@ -7517,7 +7814,7 @@
       <c r="G883" s="1"/>
       <c r="H883" s="1"/>
     </row>
-    <row r="884" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="884" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C884" s="1"/>
       <c r="D884" s="1"/>
       <c r="E884" s="1"/>
@@ -7525,7 +7822,7 @@
       <c r="G884" s="1"/>
       <c r="H884" s="1"/>
     </row>
-    <row r="885" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="885" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C885" s="1"/>
       <c r="D885" s="1"/>
       <c r="E885" s="1"/>
@@ -7533,7 +7830,7 @@
       <c r="G885" s="1"/>
       <c r="H885" s="1"/>
     </row>
-    <row r="886" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="886" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C886" s="1"/>
       <c r="D886" s="1"/>
       <c r="E886" s="1"/>
@@ -7541,7 +7838,7 @@
       <c r="G886" s="1"/>
       <c r="H886" s="1"/>
     </row>
-    <row r="887" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="887" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C887" s="1"/>
       <c r="D887" s="1"/>
       <c r="E887" s="1"/>
@@ -7549,7 +7846,7 @@
       <c r="G887" s="1"/>
       <c r="H887" s="1"/>
     </row>
-    <row r="888" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="888" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C888" s="1"/>
       <c r="D888" s="1"/>
       <c r="E888" s="1"/>
@@ -7557,7 +7854,7 @@
       <c r="G888" s="1"/>
       <c r="H888" s="1"/>
     </row>
-    <row r="889" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="889" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C889" s="1"/>
       <c r="D889" s="1"/>
       <c r="E889" s="1"/>
@@ -7565,7 +7862,7 @@
       <c r="G889" s="1"/>
       <c r="H889" s="1"/>
     </row>
-    <row r="890" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="890" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C890" s="1"/>
       <c r="D890" s="1"/>
       <c r="E890" s="1"/>
@@ -7573,7 +7870,7 @@
       <c r="G890" s="1"/>
       <c r="H890" s="1"/>
     </row>
-    <row r="891" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="891" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C891" s="1"/>
       <c r="D891" s="1"/>
       <c r="E891" s="1"/>
@@ -7581,7 +7878,7 @@
       <c r="G891" s="1"/>
       <c r="H891" s="1"/>
     </row>
-    <row r="892" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="892" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C892" s="1"/>
       <c r="D892" s="1"/>
       <c r="E892" s="1"/>
@@ -7589,7 +7886,7 @@
       <c r="G892" s="1"/>
       <c r="H892" s="1"/>
     </row>
-    <row r="893" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="893" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C893" s="1"/>
       <c r="D893" s="1"/>
       <c r="E893" s="1"/>
@@ -7597,7 +7894,7 @@
       <c r="G893" s="1"/>
       <c r="H893" s="1"/>
     </row>
-    <row r="894" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="894" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C894" s="1"/>
       <c r="D894" s="1"/>
       <c r="E894" s="1"/>
@@ -7605,7 +7902,7 @@
       <c r="G894" s="1"/>
       <c r="H894" s="1"/>
     </row>
-    <row r="895" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="895" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C895" s="1"/>
       <c r="D895" s="1"/>
       <c r="E895" s="1"/>
@@ -7613,7 +7910,7 @@
       <c r="G895" s="1"/>
       <c r="H895" s="1"/>
     </row>
-    <row r="896" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="896" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C896" s="1"/>
       <c r="D896" s="1"/>
       <c r="E896" s="1"/>
@@ -7621,7 +7918,7 @@
       <c r="G896" s="1"/>
       <c r="H896" s="1"/>
     </row>
-    <row r="897" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="897" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C897" s="1"/>
       <c r="D897" s="1"/>
       <c r="E897" s="1"/>
@@ -7629,7 +7926,7 @@
       <c r="G897" s="1"/>
       <c r="H897" s="1"/>
     </row>
-    <row r="898" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="898" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C898" s="1"/>
       <c r="D898" s="1"/>
       <c r="E898" s="1"/>
@@ -7637,7 +7934,7 @@
       <c r="G898" s="1"/>
       <c r="H898" s="1"/>
     </row>
-    <row r="899" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="899" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C899" s="1"/>
       <c r="D899" s="1"/>
       <c r="E899" s="1"/>
@@ -7645,7 +7942,7 @@
       <c r="G899" s="1"/>
       <c r="H899" s="1"/>
     </row>
-    <row r="900" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="900" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C900" s="1"/>
       <c r="D900" s="1"/>
       <c r="E900" s="1"/>
@@ -7653,7 +7950,7 @@
       <c r="G900" s="1"/>
       <c r="H900" s="1"/>
     </row>
-    <row r="901" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="901" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C901" s="1"/>
       <c r="D901" s="1"/>
       <c r="E901" s="1"/>
@@ -7661,7 +7958,7 @@
       <c r="G901" s="1"/>
       <c r="H901" s="1"/>
     </row>
-    <row r="902" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="902" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C902" s="1"/>
       <c r="D902" s="1"/>
       <c r="E902" s="1"/>
@@ -7669,7 +7966,7 @@
       <c r="G902" s="1"/>
       <c r="H902" s="1"/>
     </row>
-    <row r="903" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="903" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C903" s="1"/>
       <c r="D903" s="1"/>
       <c r="E903" s="1"/>
@@ -7677,7 +7974,7 @@
       <c r="G903" s="1"/>
       <c r="H903" s="1"/>
     </row>
-    <row r="904" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="904" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C904" s="1"/>
       <c r="D904" s="1"/>
       <c r="E904" s="1"/>
@@ -7685,7 +7982,7 @@
       <c r="G904" s="1"/>
       <c r="H904" s="1"/>
     </row>
-    <row r="905" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="905" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C905" s="1"/>
       <c r="D905" s="1"/>
       <c r="E905" s="1"/>
@@ -7693,7 +7990,7 @@
       <c r="G905" s="1"/>
       <c r="H905" s="1"/>
     </row>
-    <row r="906" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="906" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C906" s="1"/>
       <c r="D906" s="1"/>
       <c r="E906" s="1"/>
@@ -7701,7 +7998,7 @@
       <c r="G906" s="1"/>
       <c r="H906" s="1"/>
     </row>
-    <row r="907" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="907" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C907" s="1"/>
       <c r="D907" s="1"/>
       <c r="E907" s="1"/>
@@ -7709,7 +8006,7 @@
       <c r="G907" s="1"/>
       <c r="H907" s="1"/>
     </row>
-    <row r="908" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="908" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C908" s="1"/>
       <c r="D908" s="1"/>
       <c r="E908" s="1"/>
@@ -7717,7 +8014,7 @@
       <c r="G908" s="1"/>
       <c r="H908" s="1"/>
     </row>
-    <row r="909" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="909" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C909" s="1"/>
       <c r="D909" s="1"/>
       <c r="E909" s="1"/>
@@ -7725,7 +8022,7 @@
       <c r="G909" s="1"/>
       <c r="H909" s="1"/>
     </row>
-    <row r="910" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="910" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C910" s="1"/>
       <c r="D910" s="1"/>
       <c r="E910" s="1"/>
@@ -7733,7 +8030,7 @@
       <c r="G910" s="1"/>
       <c r="H910" s="1"/>
     </row>
-    <row r="911" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="911" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C911" s="1"/>
       <c r="D911" s="1"/>
       <c r="E911" s="1"/>
@@ -7741,7 +8038,7 @@
       <c r="G911" s="1"/>
       <c r="H911" s="1"/>
     </row>
-    <row r="912" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="912" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C912" s="1"/>
       <c r="D912" s="1"/>
       <c r="E912" s="1"/>
@@ -7749,7 +8046,7 @@
       <c r="G912" s="1"/>
       <c r="H912" s="1"/>
     </row>
-    <row r="913" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="913" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C913" s="1"/>
       <c r="D913" s="1"/>
       <c r="E913" s="1"/>
@@ -7757,7 +8054,7 @@
       <c r="G913" s="1"/>
       <c r="H913" s="1"/>
     </row>
-    <row r="914" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="914" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C914" s="1"/>
       <c r="D914" s="1"/>
       <c r="E914" s="1"/>
@@ -7765,7 +8062,7 @@
       <c r="G914" s="1"/>
       <c r="H914" s="1"/>
     </row>
-    <row r="915" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="915" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C915" s="1"/>
       <c r="D915" s="1"/>
       <c r="E915" s="1"/>
@@ -7773,7 +8070,7 @@
       <c r="G915" s="1"/>
       <c r="H915" s="1"/>
     </row>
-    <row r="916" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="916" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C916" s="1"/>
       <c r="D916" s="1"/>
       <c r="E916" s="1"/>
@@ -7781,7 +8078,7 @@
       <c r="G916" s="1"/>
       <c r="H916" s="1"/>
     </row>
-    <row r="917" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="917" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C917" s="1"/>
       <c r="D917" s="1"/>
       <c r="E917" s="1"/>
@@ -7789,7 +8086,7 @@
       <c r="G917" s="1"/>
       <c r="H917" s="1"/>
     </row>
-    <row r="918" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="918" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C918" s="1"/>
       <c r="D918" s="1"/>
       <c r="E918" s="1"/>
@@ -7797,7 +8094,7 @@
       <c r="G918" s="1"/>
       <c r="H918" s="1"/>
     </row>
-    <row r="919" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="919" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C919" s="1"/>
       <c r="D919" s="1"/>
       <c r="E919" s="1"/>
@@ -7805,7 +8102,7 @@
       <c r="G919" s="1"/>
       <c r="H919" s="1"/>
     </row>
-    <row r="920" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="920" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C920" s="1"/>
       <c r="D920" s="1"/>
       <c r="E920" s="1"/>
@@ -7813,7 +8110,7 @@
       <c r="G920" s="1"/>
       <c r="H920" s="1"/>
     </row>
-    <row r="921" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="921" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C921" s="1"/>
       <c r="D921" s="1"/>
       <c r="E921" s="1"/>
@@ -7821,7 +8118,7 @@
       <c r="G921" s="1"/>
       <c r="H921" s="1"/>
     </row>
-    <row r="922" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="922" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C922" s="1"/>
       <c r="D922" s="1"/>
       <c r="E922" s="1"/>
@@ -7829,7 +8126,7 @@
       <c r="G922" s="1"/>
       <c r="H922" s="1"/>
     </row>
-    <row r="923" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="923" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C923" s="1"/>
       <c r="D923" s="1"/>
       <c r="E923" s="1"/>
@@ -7837,7 +8134,7 @@
       <c r="G923" s="1"/>
       <c r="H923" s="1"/>
     </row>
-    <row r="924" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="924" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C924" s="1"/>
       <c r="D924" s="1"/>
       <c r="E924" s="1"/>
@@ -7845,7 +8142,7 @@
       <c r="G924" s="1"/>
       <c r="H924" s="1"/>
     </row>
-    <row r="925" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="925" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C925" s="1"/>
       <c r="D925" s="1"/>
       <c r="E925" s="1"/>
@@ -7853,7 +8150,7 @@
       <c r="G925" s="1"/>
       <c r="H925" s="1"/>
     </row>
-    <row r="926" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="926" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C926" s="1"/>
       <c r="D926" s="1"/>
       <c r="E926" s="1"/>
@@ -7861,7 +8158,7 @@
       <c r="G926" s="1"/>
       <c r="H926" s="1"/>
     </row>
-    <row r="927" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="927" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C927" s="1"/>
       <c r="D927" s="1"/>
       <c r="E927" s="1"/>
@@ -7869,7 +8166,7 @@
       <c r="G927" s="1"/>
       <c r="H927" s="1"/>
     </row>
-    <row r="928" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="928" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C928" s="1"/>
       <c r="D928" s="1"/>
       <c r="E928" s="1"/>
@@ -7877,7 +8174,7 @@
       <c r="G928" s="1"/>
       <c r="H928" s="1"/>
     </row>
-    <row r="929" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="929" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C929" s="1"/>
       <c r="D929" s="1"/>
       <c r="E929" s="1"/>
@@ -7885,7 +8182,7 @@
       <c r="G929" s="1"/>
       <c r="H929" s="1"/>
     </row>
-    <row r="930" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="930" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C930" s="1"/>
       <c r="D930" s="1"/>
       <c r="E930" s="1"/>
@@ -7893,7 +8190,7 @@
       <c r="G930" s="1"/>
       <c r="H930" s="1"/>
     </row>
-    <row r="931" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="931" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C931" s="1"/>
       <c r="D931" s="1"/>
       <c r="E931" s="1"/>
@@ -7901,7 +8198,7 @@
       <c r="G931" s="1"/>
       <c r="H931" s="1"/>
     </row>
-    <row r="932" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="932" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C932" s="1"/>
       <c r="D932" s="1"/>
       <c r="E932" s="1"/>
@@ -7909,7 +8206,7 @@
       <c r="G932" s="1"/>
       <c r="H932" s="1"/>
     </row>
-    <row r="933" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="933" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C933" s="1"/>
       <c r="D933" s="1"/>
       <c r="E933" s="1"/>
@@ -7917,7 +8214,7 @@
       <c r="G933" s="1"/>
       <c r="H933" s="1"/>
     </row>
-    <row r="934" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="934" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C934" s="1"/>
       <c r="D934" s="1"/>
       <c r="E934" s="1"/>
@@ -7925,7 +8222,7 @@
       <c r="G934" s="1"/>
       <c r="H934" s="1"/>
     </row>
-    <row r="935" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="935" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C935" s="1"/>
       <c r="D935" s="1"/>
       <c r="E935" s="1"/>
@@ -7933,7 +8230,7 @@
       <c r="G935" s="1"/>
       <c r="H935" s="1"/>
     </row>
-    <row r="936" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="936" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C936" s="1"/>
       <c r="D936" s="1"/>
       <c r="E936" s="1"/>
@@ -7941,7 +8238,7 @@
       <c r="G936" s="1"/>
       <c r="H936" s="1"/>
     </row>
-    <row r="937" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="937" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C937" s="1"/>
       <c r="D937" s="1"/>
       <c r="E937" s="1"/>
@@ -7949,7 +8246,7 @@
       <c r="G937" s="1"/>
       <c r="H937" s="1"/>
     </row>
-    <row r="938" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="938" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C938" s="1"/>
       <c r="D938" s="1"/>
       <c r="E938" s="1"/>
@@ -7957,7 +8254,7 @@
       <c r="G938" s="1"/>
       <c r="H938" s="1"/>
     </row>
-    <row r="939" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="939" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C939" s="1"/>
       <c r="D939" s="1"/>
       <c r="E939" s="1"/>
@@ -7965,7 +8262,7 @@
       <c r="G939" s="1"/>
       <c r="H939" s="1"/>
     </row>
-    <row r="940" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="940" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C940" s="1"/>
       <c r="D940" s="1"/>
       <c r="E940" s="1"/>
@@ -7973,7 +8270,7 @@
       <c r="G940" s="1"/>
       <c r="H940" s="1"/>
     </row>
-    <row r="941" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="941" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C941" s="1"/>
       <c r="D941" s="1"/>
       <c r="E941" s="1"/>
@@ -7981,7 +8278,7 @@
       <c r="G941" s="1"/>
       <c r="H941" s="1"/>
     </row>
-    <row r="942" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="942" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C942" s="1"/>
       <c r="D942" s="1"/>
       <c r="E942" s="1"/>
@@ -7989,7 +8286,7 @@
       <c r="G942" s="1"/>
       <c r="H942" s="1"/>
     </row>
-    <row r="943" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="943" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C943" s="1"/>
       <c r="D943" s="1"/>
       <c r="E943" s="1"/>
@@ -7997,7 +8294,7 @@
       <c r="G943" s="1"/>
       <c r="H943" s="1"/>
     </row>
-    <row r="944" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="944" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C944" s="1"/>
       <c r="D944" s="1"/>
       <c r="E944" s="1"/>
@@ -8005,7 +8302,7 @@
       <c r="G944" s="1"/>
       <c r="H944" s="1"/>
     </row>
-    <row r="945" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="945" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C945" s="1"/>
       <c r="D945" s="1"/>
       <c r="E945" s="1"/>
@@ -8013,7 +8310,7 @@
       <c r="G945" s="1"/>
       <c r="H945" s="1"/>
     </row>
-    <row r="946" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="946" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C946" s="1"/>
       <c r="D946" s="1"/>
       <c r="E946" s="1"/>
@@ -8021,7 +8318,7 @@
       <c r="G946" s="1"/>
       <c r="H946" s="1"/>
     </row>
-    <row r="947" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="947" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C947" s="1"/>
       <c r="D947" s="1"/>
       <c r="E947" s="1"/>
@@ -8029,7 +8326,7 @@
       <c r="G947" s="1"/>
       <c r="H947" s="1"/>
     </row>
-    <row r="948" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="948" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C948" s="1"/>
       <c r="D948" s="1"/>
       <c r="E948" s="1"/>
@@ -8037,7 +8334,7 @@
       <c r="G948" s="1"/>
       <c r="H948" s="1"/>
     </row>
-    <row r="949" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="949" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C949" s="1"/>
       <c r="D949" s="1"/>
       <c r="E949" s="1"/>
@@ -8045,7 +8342,7 @@
       <c r="G949" s="1"/>
       <c r="H949" s="1"/>
     </row>
-    <row r="950" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="950" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C950" s="1"/>
       <c r="D950" s="1"/>
       <c r="E950" s="1"/>
@@ -8053,7 +8350,7 @@
       <c r="G950" s="1"/>
       <c r="H950" s="1"/>
     </row>
-    <row r="951" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="951" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C951" s="1"/>
       <c r="D951" s="1"/>
       <c r="E951" s="1"/>
@@ -8061,7 +8358,7 @@
       <c r="G951" s="1"/>
       <c r="H951" s="1"/>
     </row>
-    <row r="952" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="952" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C952" s="1"/>
       <c r="D952" s="1"/>
       <c r="E952" s="1"/>
@@ -8069,7 +8366,7 @@
       <c r="G952" s="1"/>
       <c r="H952" s="1"/>
     </row>
-    <row r="953" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="953" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C953" s="1"/>
       <c r="D953" s="1"/>
       <c r="E953" s="1"/>
@@ -8077,7 +8374,7 @@
       <c r="G953" s="1"/>
       <c r="H953" s="1"/>
     </row>
-    <row r="954" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="954" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C954" s="1"/>
       <c r="D954" s="1"/>
       <c r="E954" s="1"/>
@@ -8085,7 +8382,7 @@
       <c r="G954" s="1"/>
       <c r="H954" s="1"/>
     </row>
-    <row r="955" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="955" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C955" s="1"/>
       <c r="D955" s="1"/>
       <c r="E955" s="1"/>
@@ -8093,7 +8390,7 @@
       <c r="G955" s="1"/>
       <c r="H955" s="1"/>
     </row>
-    <row r="956" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="956" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C956" s="1"/>
       <c r="D956" s="1"/>
       <c r="E956" s="1"/>
@@ -8101,7 +8398,7 @@
       <c r="G956" s="1"/>
       <c r="H956" s="1"/>
     </row>
-    <row r="957" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="957" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C957" s="1"/>
       <c r="D957" s="1"/>
       <c r="E957" s="1"/>
@@ -8109,7 +8406,7 @@
       <c r="G957" s="1"/>
       <c r="H957" s="1"/>
     </row>
-    <row r="958" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="958" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C958" s="1"/>
       <c r="D958" s="1"/>
       <c r="E958" s="1"/>
@@ -8117,7 +8414,7 @@
       <c r="G958" s="1"/>
       <c r="H958" s="1"/>
     </row>
-    <row r="959" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="959" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C959" s="1"/>
       <c r="D959" s="1"/>
       <c r="E959" s="1"/>
@@ -8125,7 +8422,7 @@
       <c r="G959" s="1"/>
       <c r="H959" s="1"/>
     </row>
-    <row r="960" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="960" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C960" s="1"/>
       <c r="D960" s="1"/>
       <c r="E960" s="1"/>
@@ -8133,7 +8430,7 @@
       <c r="G960" s="1"/>
       <c r="H960" s="1"/>
     </row>
-    <row r="961" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="961" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C961" s="1"/>
       <c r="D961" s="1"/>
       <c r="E961" s="1"/>
@@ -8141,7 +8438,7 @@
       <c r="G961" s="1"/>
       <c r="H961" s="1"/>
     </row>
-    <row r="962" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="962" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C962" s="1"/>
       <c r="D962" s="1"/>
       <c r="E962" s="1"/>
@@ -8149,7 +8446,7 @@
       <c r="G962" s="1"/>
       <c r="H962" s="1"/>
     </row>
-    <row r="963" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="963" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C963" s="1"/>
       <c r="D963" s="1"/>
       <c r="E963" s="1"/>
@@ -8157,7 +8454,7 @@
       <c r="G963" s="1"/>
       <c r="H963" s="1"/>
     </row>
-    <row r="964" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="964" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C964" s="1"/>
       <c r="D964" s="1"/>
       <c r="E964" s="1"/>
@@ -8165,7 +8462,7 @@
       <c r="G964" s="1"/>
       <c r="H964" s="1"/>
     </row>
-    <row r="965" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="965" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C965" s="1"/>
       <c r="D965" s="1"/>
       <c r="E965" s="1"/>
@@ -8173,7 +8470,7 @@
       <c r="G965" s="1"/>
       <c r="H965" s="1"/>
     </row>
-    <row r="966" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="966" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C966" s="1"/>
       <c r="D966" s="1"/>
       <c r="E966" s="1"/>
@@ -8181,7 +8478,7 @@
       <c r="G966" s="1"/>
       <c r="H966" s="1"/>
     </row>
-    <row r="967" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="967" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C967" s="1"/>
       <c r="D967" s="1"/>
       <c r="E967" s="1"/>
@@ -8189,7 +8486,7 @@
       <c r="G967" s="1"/>
       <c r="H967" s="1"/>
     </row>
-    <row r="968" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="968" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C968" s="1"/>
       <c r="D968" s="1"/>
       <c r="E968" s="1"/>
@@ -8197,7 +8494,7 @@
       <c r="G968" s="1"/>
       <c r="H968" s="1"/>
     </row>
-    <row r="969" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="969" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C969" s="1"/>
       <c r="D969" s="1"/>
       <c r="E969" s="1"/>
@@ -8205,7 +8502,7 @@
       <c r="G969" s="1"/>
       <c r="H969" s="1"/>
     </row>
-    <row r="970" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="970" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C970" s="1"/>
       <c r="D970" s="1"/>
       <c r="E970" s="1"/>
@@ -8213,7 +8510,7 @@
       <c r="G970" s="1"/>
       <c r="H970" s="1"/>
     </row>
-    <row r="971" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="971" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C971" s="1"/>
       <c r="D971" s="1"/>
       <c r="E971" s="1"/>
@@ -8221,7 +8518,7 @@
       <c r="G971" s="1"/>
       <c r="H971" s="1"/>
     </row>
-    <row r="972" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="972" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C972" s="1"/>
       <c r="D972" s="1"/>
       <c r="E972" s="1"/>
@@ -8229,7 +8526,7 @@
       <c r="G972" s="1"/>
       <c r="H972" s="1"/>
     </row>
-    <row r="973" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="973" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C973" s="1"/>
       <c r="D973" s="1"/>
       <c r="E973" s="1"/>
@@ -8237,7 +8534,7 @@
       <c r="G973" s="1"/>
       <c r="H973" s="1"/>
     </row>
-    <row r="974" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="974" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C974" s="1"/>
       <c r="D974" s="1"/>
       <c r="E974" s="1"/>
@@ -8245,7 +8542,7 @@
       <c r="G974" s="1"/>
       <c r="H974" s="1"/>
     </row>
-    <row r="975" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="975" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C975" s="1"/>
       <c r="D975" s="1"/>
       <c r="E975" s="1"/>
@@ -8253,7 +8550,7 @@
       <c r="G975" s="1"/>
       <c r="H975" s="1"/>
     </row>
-    <row r="976" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="976" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C976" s="1"/>
       <c r="D976" s="1"/>
       <c r="E976" s="1"/>
@@ -8261,7 +8558,7 @@
       <c r="G976" s="1"/>
       <c r="H976" s="1"/>
     </row>
-    <row r="977" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="977" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C977" s="1"/>
       <c r="D977" s="1"/>
       <c r="E977" s="1"/>
@@ -8269,7 +8566,7 @@
       <c r="G977" s="1"/>
       <c r="H977" s="1"/>
     </row>
-    <row r="978" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="978" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C978" s="1"/>
       <c r="D978" s="1"/>
       <c r="E978" s="1"/>
@@ -8277,7 +8574,7 @@
       <c r="G978" s="1"/>
       <c r="H978" s="1"/>
     </row>
-    <row r="979" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="979" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C979" s="1"/>
       <c r="D979" s="1"/>
       <c r="E979" s="1"/>
@@ -8285,7 +8582,7 @@
       <c r="G979" s="1"/>
       <c r="H979" s="1"/>
     </row>
-    <row r="980" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="980" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C980" s="1"/>
       <c r="D980" s="1"/>
       <c r="E980" s="1"/>
@@ -8293,7 +8590,7 @@
       <c r="G980" s="1"/>
       <c r="H980" s="1"/>
     </row>
-    <row r="981" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="981" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C981" s="1"/>
       <c r="D981" s="1"/>
       <c r="E981" s="1"/>
@@ -8301,7 +8598,7 @@
       <c r="G981" s="1"/>
       <c r="H981" s="1"/>
     </row>
-    <row r="982" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="982" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C982" s="1"/>
       <c r="D982" s="1"/>
       <c r="E982" s="1"/>
@@ -8309,7 +8606,7 @@
       <c r="G982" s="1"/>
       <c r="H982" s="1"/>
     </row>
-    <row r="983" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="983" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C983" s="1"/>
       <c r="D983" s="1"/>
       <c r="E983" s="1"/>
@@ -8317,7 +8614,7 @@
       <c r="G983" s="1"/>
       <c r="H983" s="1"/>
     </row>
-    <row r="984" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="984" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C984" s="1"/>
       <c r="D984" s="1"/>
       <c r="E984" s="1"/>
@@ -8325,7 +8622,7 @@
       <c r="G984" s="1"/>
       <c r="H984" s="1"/>
     </row>
-    <row r="985" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="985" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C985" s="1"/>
       <c r="D985" s="1"/>
       <c r="E985" s="1"/>
@@ -8333,7 +8630,7 @@
       <c r="G985" s="1"/>
       <c r="H985" s="1"/>
     </row>
-    <row r="986" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="986" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C986" s="1"/>
       <c r="D986" s="1"/>
       <c r="E986" s="1"/>
@@ -8341,7 +8638,7 @@
       <c r="G986" s="1"/>
       <c r="H986" s="1"/>
     </row>
-    <row r="987" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="987" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C987" s="1"/>
       <c r="D987" s="1"/>
       <c r="E987" s="1"/>
@@ -8349,7 +8646,7 @@
       <c r="G987" s="1"/>
       <c r="H987" s="1"/>
     </row>
-    <row r="988" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="988" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C988" s="1"/>
       <c r="D988" s="1"/>
       <c r="E988" s="1"/>
@@ -8357,7 +8654,7 @@
       <c r="G988" s="1"/>
       <c r="H988" s="1"/>
     </row>
-    <row r="989" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="989" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C989" s="1"/>
       <c r="D989" s="1"/>
       <c r="E989" s="1"/>
@@ -8365,7 +8662,7 @@
       <c r="G989" s="1"/>
       <c r="H989" s="1"/>
     </row>
-    <row r="990" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="990" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C990" s="1"/>
       <c r="D990" s="1"/>
       <c r="E990" s="1"/>
@@ -8373,7 +8670,7 @@
       <c r="G990" s="1"/>
       <c r="H990" s="1"/>
     </row>
-    <row r="991" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="991" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C991" s="1"/>
       <c r="D991" s="1"/>
       <c r="E991" s="1"/>
@@ -8381,7 +8678,7 @@
       <c r="G991" s="1"/>
       <c r="H991" s="1"/>
     </row>
-    <row r="992" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="992" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C992" s="1"/>
       <c r="D992" s="1"/>
       <c r="E992" s="1"/>
@@ -8389,7 +8686,7 @@
       <c r="G992" s="1"/>
       <c r="H992" s="1"/>
     </row>
-    <row r="993" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="993" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C993" s="1"/>
       <c r="D993" s="1"/>
       <c r="E993" s="1"/>
@@ -8397,7 +8694,7 @@
       <c r="G993" s="1"/>
       <c r="H993" s="1"/>
     </row>
-    <row r="994" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="994" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C994" s="1"/>
       <c r="D994" s="1"/>
       <c r="E994" s="1"/>
@@ -8405,7 +8702,7 @@
       <c r="G994" s="1"/>
       <c r="H994" s="1"/>
     </row>
-    <row r="995" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="995" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C995" s="1"/>
       <c r="D995" s="1"/>
       <c r="E995" s="1"/>
@@ -8413,7 +8710,7 @@
       <c r="G995" s="1"/>
       <c r="H995" s="1"/>
     </row>
-    <row r="996" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="996" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C996" s="1"/>
       <c r="D996" s="1"/>
       <c r="E996" s="1"/>
@@ -8421,7 +8718,7 @@
       <c r="G996" s="1"/>
       <c r="H996" s="1"/>
     </row>
-    <row r="997" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="997" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C997" s="1"/>
       <c r="D997" s="1"/>
       <c r="E997" s="1"/>
@@ -8429,7 +8726,7 @@
       <c r="G997" s="1"/>
       <c r="H997" s="1"/>
     </row>
-    <row r="998" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="998" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C998" s="1"/>
       <c r="D998" s="1"/>
       <c r="E998" s="1"/>
@@ -8437,7 +8734,7 @@
       <c r="G998" s="1"/>
       <c r="H998" s="1"/>
     </row>
-    <row r="999" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="999" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C999" s="1"/>
       <c r="D999" s="1"/>
       <c r="E999" s="1"/>
@@ -8446,12 +8743,7 @@
       <c r="H999" s="1"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/imputacioHoresDSA.xlsx
+++ b/imputacioHoresDSA.xlsx
@@ -1,33 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DSA\ProyectoDSA\Proyecto_DSA_Rempalago\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BBECEE9-6C45-4076-9727-98DF45316187}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
     </ext>
@@ -36,82 +20,106 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Tasca</t>
+    <t xml:space="preserve">Tasca</t>
   </si>
   <si>
-    <t>Juan Antonio</t>
+    <t xml:space="preserve">Juan Antonio</t>
   </si>
   <si>
-    <t>Ángela</t>
+    <t xml:space="preserve">Ángela</t>
   </si>
   <si>
-    <t>Alejandro</t>
+    <t xml:space="preserve">Alejandro</t>
   </si>
   <si>
-    <t>Ashley</t>
+    <t xml:space="preserve">Ashley</t>
   </si>
   <si>
-    <t>Total</t>
+    <t xml:space="preserve">Total</t>
   </si>
   <si>
-    <t>Setmana</t>
+    <t xml:space="preserve">Setmana</t>
   </si>
   <si>
-    <t>API REST</t>
+    <t xml:space="preserve">Grupo 3</t>
   </si>
   <si>
-    <t>10/11-15/11</t>
+    <t xml:space="preserve">API REST</t>
   </si>
   <si>
-    <t>Android</t>
+    <t xml:space="preserve">10/11-15/11</t>
   </si>
   <si>
-    <t>14/11-16/11</t>
+    <t xml:space="preserve">Android</t>
   </si>
   <si>
-    <t>Unity</t>
+    <t xml:space="preserve">14/11-16/11</t>
   </si>
   <si>
-    <t>Web</t>
+    <t xml:space="preserve">Unity</t>
   </si>
   <si>
-    <t>TOTAL</t>
+    <t xml:space="preserve">Web</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOTAL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="dd/mm/yy"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
+    <numFmt numFmtId="166" formatCode="General"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Cambria"/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -142,131 +150,143 @@
     </fill>
   </fills>
   <borders count="7">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
       <right/>
       <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
       <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -325,340 +345,32 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="44546A"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4472C4"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ED7D31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="FFC000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70AD47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0563C1"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="954F72"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H999"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:I999"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I4" activeCellId="0" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="28.7109375" customWidth="1"/>
-    <col min="2" max="2" width="6.28515625" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.86"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -666,7 +378,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -674,7 +386,7 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -684,7 +396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -707,8 +419,11 @@
       <c r="H4" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="I4" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="4" t="s">
@@ -720,141 +435,141 @@
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
     </row>
-    <row r="6" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="4">
+      <c r="C6" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
-      <c r="F6" s="6">
+      <c r="F6" s="6" t="n">
         <v>11</v>
       </c>
-      <c r="G6" s="6">
-        <f t="shared" ref="G6:G13" si="0">SUM(C6:F6)</f>
+      <c r="G6" s="6" t="n">
+        <f aca="false">SUM(C6:F6)</f>
         <v>12</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="4">
+    </row>
+    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="4" t="n">
         <v>2</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
-      <c r="F7" s="6">
+      <c r="F7" s="6" t="n">
         <v>8</v>
       </c>
-      <c r="G7" s="6">
-        <f t="shared" si="0"/>
+      <c r="G7" s="6" t="n">
+        <f aca="false">SUM(C7:F7)</f>
         <v>10</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
-      <c r="F8" s="6">
+      <c r="F8" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="G8" s="6">
-        <f t="shared" si="0"/>
+      <c r="G8" s="6" t="n">
+        <f aca="false">SUM(C8:F8)</f>
         <v>0</v>
       </c>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="4" t="n">
         <v>9</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
-      <c r="F9" s="6">
+      <c r="F9" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="G9" s="6">
-        <f t="shared" si="0"/>
+      <c r="G9" s="6" t="n">
+        <f aca="false">SUM(C9:F9)</f>
         <v>9</v>
       </c>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="4"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
-      <c r="G10" s="6">
-        <f t="shared" si="0"/>
+      <c r="G10" s="6" t="n">
+        <f aca="false">SUM(C10:F10)</f>
         <v>0</v>
       </c>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="4"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
-      <c r="G11" s="6">
-        <f t="shared" si="0"/>
+      <c r="G11" s="6" t="n">
+        <f aca="false">SUM(C11:F11)</f>
         <v>0</v>
       </c>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="9"/>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
-      <c r="G12" s="6">
-        <f t="shared" si="0"/>
+      <c r="G12" s="6" t="n">
+        <f aca="false">SUM(C12:F12)</f>
         <v>0</v>
       </c>
       <c r="H12" s="10"/>
     </row>
-    <row r="13" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
-      <c r="C13" s="11">
-        <f>SUM(C6:C12)</f>
+      <c r="C13" s="11" t="n">
+        <f aca="false">SUM(C6:C12)</f>
         <v>12</v>
       </c>
-      <c r="D13" s="11">
-        <f>SUM(D6:D12)</f>
+      <c r="D13" s="11" t="n">
+        <f aca="false">SUM(D6:D12)</f>
         <v>0</v>
       </c>
-      <c r="E13" s="11">
-        <f>SUM(E6:E9)</f>
+      <c r="E13" s="11" t="n">
+        <f aca="false">SUM(E6:E9)</f>
         <v>0</v>
       </c>
-      <c r="F13" s="12">
-        <f>SUM(F6:F12)</f>
+      <c r="F13" s="12" t="n">
+        <f aca="false">SUM(F6:F12)</f>
         <v>19</v>
       </c>
-      <c r="G13" s="12">
-        <f t="shared" si="0"/>
+      <c r="G13" s="12" t="n">
+        <f aca="false">SUM(C13:F13)</f>
         <v>31</v>
       </c>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -862,7 +577,7 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -870,7 +585,7 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -878,7 +593,7 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -886,7 +601,7 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -894,7 +609,7 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -902,7 +617,7 @@
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
     </row>
-    <row r="20" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -910,7 +625,7 @@
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
     </row>
-    <row r="21" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -918,7 +633,7 @@
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
     </row>
-    <row r="22" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -926,7 +641,7 @@
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
     </row>
-    <row r="23" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -934,7 +649,7 @@
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
     </row>
-    <row r="24" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -942,7 +657,7 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
     </row>
-    <row r="25" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -950,7 +665,7 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -958,7 +673,7 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
     </row>
-    <row r="27" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -966,7 +681,7 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
     </row>
-    <row r="28" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -974,7 +689,7 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
     </row>
-    <row r="29" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -982,7 +697,7 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
     </row>
-    <row r="30" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -990,7 +705,7 @@
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
     </row>
-    <row r="31" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -998,7 +713,7 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
     </row>
-    <row r="32" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -1006,7 +721,7 @@
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
     </row>
-    <row r="33" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -1014,7 +729,7 @@
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
     </row>
-    <row r="34" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -1022,7 +737,7 @@
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
     </row>
-    <row r="35" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -1030,7 +745,7 @@
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
     </row>
-    <row r="36" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -1038,7 +753,7 @@
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
     </row>
-    <row r="37" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -1046,7 +761,7 @@
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
     </row>
-    <row r="38" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -1054,7 +769,7 @@
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
     </row>
-    <row r="39" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -1062,7 +777,7 @@
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
     </row>
-    <row r="40" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -1070,7 +785,7 @@
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
     </row>
-    <row r="41" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -1078,7 +793,7 @@
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
     </row>
-    <row r="42" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -1086,7 +801,7 @@
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
     </row>
-    <row r="43" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -1094,7 +809,7 @@
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
     </row>
-    <row r="44" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
@@ -1102,7 +817,7 @@
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
     </row>
-    <row r="45" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
@@ -1110,7 +825,7 @@
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
     </row>
-    <row r="46" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
@@ -1118,7 +833,7 @@
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
     </row>
-    <row r="47" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
@@ -1126,7 +841,7 @@
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
     </row>
-    <row r="48" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
@@ -1134,7 +849,7 @@
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
     </row>
-    <row r="49" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
@@ -1142,7 +857,7 @@
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
     </row>
-    <row r="50" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
@@ -1150,7 +865,7 @@
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
     </row>
-    <row r="51" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
@@ -1158,7 +873,7 @@
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
     </row>
-    <row r="52" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
@@ -1166,7 +881,7 @@
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
     </row>
-    <row r="53" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
@@ -1174,7 +889,7 @@
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
     </row>
-    <row r="54" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
@@ -1182,7 +897,7 @@
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
     </row>
-    <row r="55" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
@@ -1190,7 +905,7 @@
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
     </row>
-    <row r="56" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
@@ -1198,7 +913,7 @@
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
     </row>
-    <row r="57" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="57" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
@@ -1206,7 +921,7 @@
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
     </row>
-    <row r="58" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
@@ -1214,7 +929,7 @@
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
     </row>
-    <row r="59" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="59" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
@@ -1222,7 +937,7 @@
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
     </row>
-    <row r="60" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="60" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
@@ -1230,7 +945,7 @@
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
     </row>
-    <row r="61" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
@@ -1238,7 +953,7 @@
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
     </row>
-    <row r="62" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
@@ -1246,7 +961,7 @@
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
     </row>
-    <row r="63" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="63" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
@@ -1254,7 +969,7 @@
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
     </row>
-    <row r="64" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="64" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
@@ -1262,7 +977,7 @@
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
     </row>
-    <row r="65" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="65" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
@@ -1270,7 +985,7 @@
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
     </row>
-    <row r="66" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="66" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
@@ -1278,7 +993,7 @@
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
     </row>
-    <row r="67" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="67" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
@@ -1286,7 +1001,7 @@
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
     </row>
-    <row r="68" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="68" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
@@ -1294,7 +1009,7 @@
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
     </row>
-    <row r="69" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="69" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
@@ -1302,7 +1017,7 @@
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
     </row>
-    <row r="70" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="70" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
@@ -1310,7 +1025,7 @@
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
     </row>
-    <row r="71" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="71" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
@@ -1318,7 +1033,7 @@
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
     </row>
-    <row r="72" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="72" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
@@ -1326,7 +1041,7 @@
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
     </row>
-    <row r="73" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="73" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
@@ -1334,7 +1049,7 @@
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
     </row>
-    <row r="74" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="74" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
@@ -1342,7 +1057,7 @@
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
     </row>
-    <row r="75" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="75" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
@@ -1350,7 +1065,7 @@
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
     </row>
-    <row r="76" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="76" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
@@ -1358,7 +1073,7 @@
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
     </row>
-    <row r="77" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="77" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
@@ -1366,7 +1081,7 @@
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
     </row>
-    <row r="78" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="78" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
@@ -1374,7 +1089,7 @@
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
     </row>
-    <row r="79" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="79" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
@@ -1382,7 +1097,7 @@
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
     </row>
-    <row r="80" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="80" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
@@ -1390,7 +1105,7 @@
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
     </row>
-    <row r="81" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="81" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
@@ -1398,7 +1113,7 @@
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
     </row>
-    <row r="82" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="82" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
@@ -1406,7 +1121,7 @@
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
     </row>
-    <row r="83" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="83" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
@@ -1414,7 +1129,7 @@
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
     </row>
-    <row r="84" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="84" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
@@ -1422,7 +1137,7 @@
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
     </row>
-    <row r="85" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="85" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
@@ -1430,7 +1145,7 @@
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
     </row>
-    <row r="86" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="86" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
@@ -1438,7 +1153,7 @@
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
     </row>
-    <row r="87" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="87" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
@@ -1446,7 +1161,7 @@
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
     </row>
-    <row r="88" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="88" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
@@ -1454,7 +1169,7 @@
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
     </row>
-    <row r="89" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="89" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
@@ -1462,7 +1177,7 @@
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
     </row>
-    <row r="90" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="90" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
@@ -1470,7 +1185,7 @@
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
     </row>
-    <row r="91" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="91" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
@@ -1478,7 +1193,7 @@
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
     </row>
-    <row r="92" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="92" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
@@ -1486,7 +1201,7 @@
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
     </row>
-    <row r="93" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="93" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
@@ -1494,7 +1209,7 @@
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
     </row>
-    <row r="94" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="94" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
@@ -1502,7 +1217,7 @@
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
     </row>
-    <row r="95" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="95" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
@@ -1510,7 +1225,7 @@
       <c r="G95" s="1"/>
       <c r="H95" s="1"/>
     </row>
-    <row r="96" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="96" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
@@ -1518,7 +1233,7 @@
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
     </row>
-    <row r="97" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="97" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
@@ -1526,7 +1241,7 @@
       <c r="G97" s="1"/>
       <c r="H97" s="1"/>
     </row>
-    <row r="98" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="98" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
@@ -1534,7 +1249,7 @@
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
     </row>
-    <row r="99" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="99" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
@@ -1542,7 +1257,7 @@
       <c r="G99" s="1"/>
       <c r="H99" s="1"/>
     </row>
-    <row r="100" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="100" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
@@ -1550,7 +1265,7 @@
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
     </row>
-    <row r="101" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="101" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
@@ -1558,7 +1273,7 @@
       <c r="G101" s="1"/>
       <c r="H101" s="1"/>
     </row>
-    <row r="102" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="102" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
@@ -1566,7 +1281,7 @@
       <c r="G102" s="1"/>
       <c r="H102" s="1"/>
     </row>
-    <row r="103" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="103" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
@@ -1574,7 +1289,7 @@
       <c r="G103" s="1"/>
       <c r="H103" s="1"/>
     </row>
-    <row r="104" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="104" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
@@ -1582,7 +1297,7 @@
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
     </row>
-    <row r="105" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="105" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
@@ -1590,7 +1305,7 @@
       <c r="G105" s="1"/>
       <c r="H105" s="1"/>
     </row>
-    <row r="106" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="106" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
@@ -1598,7 +1313,7 @@
       <c r="G106" s="1"/>
       <c r="H106" s="1"/>
     </row>
-    <row r="107" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="107" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
@@ -1606,7 +1321,7 @@
       <c r="G107" s="1"/>
       <c r="H107" s="1"/>
     </row>
-    <row r="108" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="108" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
@@ -1614,7 +1329,7 @@
       <c r="G108" s="1"/>
       <c r="H108" s="1"/>
     </row>
-    <row r="109" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="109" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
@@ -1622,7 +1337,7 @@
       <c r="G109" s="1"/>
       <c r="H109" s="1"/>
     </row>
-    <row r="110" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="110" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
@@ -1630,7 +1345,7 @@
       <c r="G110" s="1"/>
       <c r="H110" s="1"/>
     </row>
-    <row r="111" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="111" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
@@ -1638,7 +1353,7 @@
       <c r="G111" s="1"/>
       <c r="H111" s="1"/>
     </row>
-    <row r="112" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="112" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
       <c r="E112" s="1"/>
@@ -1646,7 +1361,7 @@
       <c r="G112" s="1"/>
       <c r="H112" s="1"/>
     </row>
-    <row r="113" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="113" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
@@ -1654,7 +1369,7 @@
       <c r="G113" s="1"/>
       <c r="H113" s="1"/>
     </row>
-    <row r="114" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="114" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
@@ -1662,7 +1377,7 @@
       <c r="G114" s="1"/>
       <c r="H114" s="1"/>
     </row>
-    <row r="115" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="115" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
@@ -1670,7 +1385,7 @@
       <c r="G115" s="1"/>
       <c r="H115" s="1"/>
     </row>
-    <row r="116" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="116" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
       <c r="E116" s="1"/>
@@ -1678,7 +1393,7 @@
       <c r="G116" s="1"/>
       <c r="H116" s="1"/>
     </row>
-    <row r="117" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="117" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
@@ -1686,7 +1401,7 @@
       <c r="G117" s="1"/>
       <c r="H117" s="1"/>
     </row>
-    <row r="118" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="118" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
@@ -1694,7 +1409,7 @@
       <c r="G118" s="1"/>
       <c r="H118" s="1"/>
     </row>
-    <row r="119" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="119" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
@@ -1702,7 +1417,7 @@
       <c r="G119" s="1"/>
       <c r="H119" s="1"/>
     </row>
-    <row r="120" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="120" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
@@ -1710,7 +1425,7 @@
       <c r="G120" s="1"/>
       <c r="H120" s="1"/>
     </row>
-    <row r="121" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="121" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
@@ -1718,7 +1433,7 @@
       <c r="G121" s="1"/>
       <c r="H121" s="1"/>
     </row>
-    <row r="122" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="122" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
@@ -1726,7 +1441,7 @@
       <c r="G122" s="1"/>
       <c r="H122" s="1"/>
     </row>
-    <row r="123" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="123" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
@@ -1734,7 +1449,7 @@
       <c r="G123" s="1"/>
       <c r="H123" s="1"/>
     </row>
-    <row r="124" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="124" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
       <c r="E124" s="1"/>
@@ -1742,7 +1457,7 @@
       <c r="G124" s="1"/>
       <c r="H124" s="1"/>
     </row>
-    <row r="125" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="125" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
       <c r="E125" s="1"/>
@@ -1750,7 +1465,7 @@
       <c r="G125" s="1"/>
       <c r="H125" s="1"/>
     </row>
-    <row r="126" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="126" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
@@ -1758,7 +1473,7 @@
       <c r="G126" s="1"/>
       <c r="H126" s="1"/>
     </row>
-    <row r="127" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="127" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
@@ -1766,7 +1481,7 @@
       <c r="G127" s="1"/>
       <c r="H127" s="1"/>
     </row>
-    <row r="128" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="128" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
@@ -1774,7 +1489,7 @@
       <c r="G128" s="1"/>
       <c r="H128" s="1"/>
     </row>
-    <row r="129" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="129" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>
@@ -1782,7 +1497,7 @@
       <c r="G129" s="1"/>
       <c r="H129" s="1"/>
     </row>
-    <row r="130" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="130" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
       <c r="E130" s="1"/>
@@ -1790,7 +1505,7 @@
       <c r="G130" s="1"/>
       <c r="H130" s="1"/>
     </row>
-    <row r="131" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="131" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
@@ -1798,7 +1513,7 @@
       <c r="G131" s="1"/>
       <c r="H131" s="1"/>
     </row>
-    <row r="132" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="132" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
       <c r="E132" s="1"/>
@@ -1806,7 +1521,7 @@
       <c r="G132" s="1"/>
       <c r="H132" s="1"/>
     </row>
-    <row r="133" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="133" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
@@ -1814,7 +1529,7 @@
       <c r="G133" s="1"/>
       <c r="H133" s="1"/>
     </row>
-    <row r="134" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="134" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
@@ -1822,7 +1537,7 @@
       <c r="G134" s="1"/>
       <c r="H134" s="1"/>
     </row>
-    <row r="135" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="135" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
       <c r="E135" s="1"/>
@@ -1830,7 +1545,7 @@
       <c r="G135" s="1"/>
       <c r="H135" s="1"/>
     </row>
-    <row r="136" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="136" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
       <c r="E136" s="1"/>
@@ -1838,7 +1553,7 @@
       <c r="G136" s="1"/>
       <c r="H136" s="1"/>
     </row>
-    <row r="137" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="137" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
       <c r="E137" s="1"/>
@@ -1846,7 +1561,7 @@
       <c r="G137" s="1"/>
       <c r="H137" s="1"/>
     </row>
-    <row r="138" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="138" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
       <c r="E138" s="1"/>
@@ -1854,7 +1569,7 @@
       <c r="G138" s="1"/>
       <c r="H138" s="1"/>
     </row>
-    <row r="139" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="139" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
       <c r="E139" s="1"/>
@@ -1862,7 +1577,7 @@
       <c r="G139" s="1"/>
       <c r="H139" s="1"/>
     </row>
-    <row r="140" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="140" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
       <c r="E140" s="1"/>
@@ -1870,7 +1585,7 @@
       <c r="G140" s="1"/>
       <c r="H140" s="1"/>
     </row>
-    <row r="141" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="141" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
       <c r="E141" s="1"/>
@@ -1878,7 +1593,7 @@
       <c r="G141" s="1"/>
       <c r="H141" s="1"/>
     </row>
-    <row r="142" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="142" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
       <c r="E142" s="1"/>
@@ -1886,7 +1601,7 @@
       <c r="G142" s="1"/>
       <c r="H142" s="1"/>
     </row>
-    <row r="143" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="143" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
       <c r="E143" s="1"/>
@@ -1894,7 +1609,7 @@
       <c r="G143" s="1"/>
       <c r="H143" s="1"/>
     </row>
-    <row r="144" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="144" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
       <c r="E144" s="1"/>
@@ -1902,7 +1617,7 @@
       <c r="G144" s="1"/>
       <c r="H144" s="1"/>
     </row>
-    <row r="145" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="145" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
       <c r="E145" s="1"/>
@@ -1910,7 +1625,7 @@
       <c r="G145" s="1"/>
       <c r="H145" s="1"/>
     </row>
-    <row r="146" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="146" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
       <c r="E146" s="1"/>
@@ -1918,7 +1633,7 @@
       <c r="G146" s="1"/>
       <c r="H146" s="1"/>
     </row>
-    <row r="147" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="147" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
       <c r="E147" s="1"/>
@@ -1926,7 +1641,7 @@
       <c r="G147" s="1"/>
       <c r="H147" s="1"/>
     </row>
-    <row r="148" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="148" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
       <c r="E148" s="1"/>
@@ -1934,7 +1649,7 @@
       <c r="G148" s="1"/>
       <c r="H148" s="1"/>
     </row>
-    <row r="149" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="149" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
       <c r="E149" s="1"/>
@@ -1942,7 +1657,7 @@
       <c r="G149" s="1"/>
       <c r="H149" s="1"/>
     </row>
-    <row r="150" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="150" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
       <c r="E150" s="1"/>
@@ -1950,7 +1665,7 @@
       <c r="G150" s="1"/>
       <c r="H150" s="1"/>
     </row>
-    <row r="151" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="151" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
       <c r="E151" s="1"/>
@@ -1958,7 +1673,7 @@
       <c r="G151" s="1"/>
       <c r="H151" s="1"/>
     </row>
-    <row r="152" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="152" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
       <c r="E152" s="1"/>
@@ -1966,7 +1681,7 @@
       <c r="G152" s="1"/>
       <c r="H152" s="1"/>
     </row>
-    <row r="153" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="153" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
       <c r="E153" s="1"/>
@@ -1974,7 +1689,7 @@
       <c r="G153" s="1"/>
       <c r="H153" s="1"/>
     </row>
-    <row r="154" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="154" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
       <c r="E154" s="1"/>
@@ -1982,7 +1697,7 @@
       <c r="G154" s="1"/>
       <c r="H154" s="1"/>
     </row>
-    <row r="155" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="155" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
       <c r="E155" s="1"/>
@@ -1990,7 +1705,7 @@
       <c r="G155" s="1"/>
       <c r="H155" s="1"/>
     </row>
-    <row r="156" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="156" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
       <c r="E156" s="1"/>
@@ -1998,7 +1713,7 @@
       <c r="G156" s="1"/>
       <c r="H156" s="1"/>
     </row>
-    <row r="157" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="157" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C157" s="1"/>
       <c r="D157" s="1"/>
       <c r="E157" s="1"/>
@@ -2006,7 +1721,7 @@
       <c r="G157" s="1"/>
       <c r="H157" s="1"/>
     </row>
-    <row r="158" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="158" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
       <c r="E158" s="1"/>
@@ -2014,7 +1729,7 @@
       <c r="G158" s="1"/>
       <c r="H158" s="1"/>
     </row>
-    <row r="159" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="159" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C159" s="1"/>
       <c r="D159" s="1"/>
       <c r="E159" s="1"/>
@@ -2022,7 +1737,7 @@
       <c r="G159" s="1"/>
       <c r="H159" s="1"/>
     </row>
-    <row r="160" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="160" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
       <c r="E160" s="1"/>
@@ -2030,7 +1745,7 @@
       <c r="G160" s="1"/>
       <c r="H160" s="1"/>
     </row>
-    <row r="161" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="161" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
       <c r="E161" s="1"/>
@@ -2038,7 +1753,7 @@
       <c r="G161" s="1"/>
       <c r="H161" s="1"/>
     </row>
-    <row r="162" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="162" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
       <c r="E162" s="1"/>
@@ -2046,7 +1761,7 @@
       <c r="G162" s="1"/>
       <c r="H162" s="1"/>
     </row>
-    <row r="163" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="163" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C163" s="1"/>
       <c r="D163" s="1"/>
       <c r="E163" s="1"/>
@@ -2054,7 +1769,7 @@
       <c r="G163" s="1"/>
       <c r="H163" s="1"/>
     </row>
-    <row r="164" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="164" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
       <c r="E164" s="1"/>
@@ -2062,7 +1777,7 @@
       <c r="G164" s="1"/>
       <c r="H164" s="1"/>
     </row>
-    <row r="165" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="165" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
       <c r="E165" s="1"/>
@@ -2070,7 +1785,7 @@
       <c r="G165" s="1"/>
       <c r="H165" s="1"/>
     </row>
-    <row r="166" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="166" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C166" s="1"/>
       <c r="D166" s="1"/>
       <c r="E166" s="1"/>
@@ -2078,7 +1793,7 @@
       <c r="G166" s="1"/>
       <c r="H166" s="1"/>
     </row>
-    <row r="167" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="167" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C167" s="1"/>
       <c r="D167" s="1"/>
       <c r="E167" s="1"/>
@@ -2086,7 +1801,7 @@
       <c r="G167" s="1"/>
       <c r="H167" s="1"/>
     </row>
-    <row r="168" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="168" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
       <c r="E168" s="1"/>
@@ -2094,7 +1809,7 @@
       <c r="G168" s="1"/>
       <c r="H168" s="1"/>
     </row>
-    <row r="169" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="169" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C169" s="1"/>
       <c r="D169" s="1"/>
       <c r="E169" s="1"/>
@@ -2102,7 +1817,7 @@
       <c r="G169" s="1"/>
       <c r="H169" s="1"/>
     </row>
-    <row r="170" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="170" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C170" s="1"/>
       <c r="D170" s="1"/>
       <c r="E170" s="1"/>
@@ -2110,7 +1825,7 @@
       <c r="G170" s="1"/>
       <c r="H170" s="1"/>
     </row>
-    <row r="171" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="171" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C171" s="1"/>
       <c r="D171" s="1"/>
       <c r="E171" s="1"/>
@@ -2118,7 +1833,7 @@
       <c r="G171" s="1"/>
       <c r="H171" s="1"/>
     </row>
-    <row r="172" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="172" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C172" s="1"/>
       <c r="D172" s="1"/>
       <c r="E172" s="1"/>
@@ -2126,7 +1841,7 @@
       <c r="G172" s="1"/>
       <c r="H172" s="1"/>
     </row>
-    <row r="173" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="173" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C173" s="1"/>
       <c r="D173" s="1"/>
       <c r="E173" s="1"/>
@@ -2134,7 +1849,7 @@
       <c r="G173" s="1"/>
       <c r="H173" s="1"/>
     </row>
-    <row r="174" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="174" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
       <c r="E174" s="1"/>
@@ -2142,7 +1857,7 @@
       <c r="G174" s="1"/>
       <c r="H174" s="1"/>
     </row>
-    <row r="175" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="175" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C175" s="1"/>
       <c r="D175" s="1"/>
       <c r="E175" s="1"/>
@@ -2150,7 +1865,7 @@
       <c r="G175" s="1"/>
       <c r="H175" s="1"/>
     </row>
-    <row r="176" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="176" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
       <c r="E176" s="1"/>
@@ -2158,7 +1873,7 @@
       <c r="G176" s="1"/>
       <c r="H176" s="1"/>
     </row>
-    <row r="177" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="177" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
       <c r="E177" s="1"/>
@@ -2166,7 +1881,7 @@
       <c r="G177" s="1"/>
       <c r="H177" s="1"/>
     </row>
-    <row r="178" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="178" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
       <c r="E178" s="1"/>
@@ -2174,7 +1889,7 @@
       <c r="G178" s="1"/>
       <c r="H178" s="1"/>
     </row>
-    <row r="179" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="179" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C179" s="1"/>
       <c r="D179" s="1"/>
       <c r="E179" s="1"/>
@@ -2182,7 +1897,7 @@
       <c r="G179" s="1"/>
       <c r="H179" s="1"/>
     </row>
-    <row r="180" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="180" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
       <c r="E180" s="1"/>
@@ -2190,7 +1905,7 @@
       <c r="G180" s="1"/>
       <c r="H180" s="1"/>
     </row>
-    <row r="181" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="181" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C181" s="1"/>
       <c r="D181" s="1"/>
       <c r="E181" s="1"/>
@@ -2198,7 +1913,7 @@
       <c r="G181" s="1"/>
       <c r="H181" s="1"/>
     </row>
-    <row r="182" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="182" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C182" s="1"/>
       <c r="D182" s="1"/>
       <c r="E182" s="1"/>
@@ -2206,7 +1921,7 @@
       <c r="G182" s="1"/>
       <c r="H182" s="1"/>
     </row>
-    <row r="183" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="183" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C183" s="1"/>
       <c r="D183" s="1"/>
       <c r="E183" s="1"/>
@@ -2214,7 +1929,7 @@
       <c r="G183" s="1"/>
       <c r="H183" s="1"/>
     </row>
-    <row r="184" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="184" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C184" s="1"/>
       <c r="D184" s="1"/>
       <c r="E184" s="1"/>
@@ -2222,7 +1937,7 @@
       <c r="G184" s="1"/>
       <c r="H184" s="1"/>
     </row>
-    <row r="185" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="185" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C185" s="1"/>
       <c r="D185" s="1"/>
       <c r="E185" s="1"/>
@@ -2230,7 +1945,7 @@
       <c r="G185" s="1"/>
       <c r="H185" s="1"/>
     </row>
-    <row r="186" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="186" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C186" s="1"/>
       <c r="D186" s="1"/>
       <c r="E186" s="1"/>
@@ -2238,7 +1953,7 @@
       <c r="G186" s="1"/>
       <c r="H186" s="1"/>
     </row>
-    <row r="187" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="187" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C187" s="1"/>
       <c r="D187" s="1"/>
       <c r="E187" s="1"/>
@@ -2246,7 +1961,7 @@
       <c r="G187" s="1"/>
       <c r="H187" s="1"/>
     </row>
-    <row r="188" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="188" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C188" s="1"/>
       <c r="D188" s="1"/>
       <c r="E188" s="1"/>
@@ -2254,7 +1969,7 @@
       <c r="G188" s="1"/>
       <c r="H188" s="1"/>
     </row>
-    <row r="189" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="189" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C189" s="1"/>
       <c r="D189" s="1"/>
       <c r="E189" s="1"/>
@@ -2262,7 +1977,7 @@
       <c r="G189" s="1"/>
       <c r="H189" s="1"/>
     </row>
-    <row r="190" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="190" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C190" s="1"/>
       <c r="D190" s="1"/>
       <c r="E190" s="1"/>
@@ -2270,7 +1985,7 @@
       <c r="G190" s="1"/>
       <c r="H190" s="1"/>
     </row>
-    <row r="191" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="191" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C191" s="1"/>
       <c r="D191" s="1"/>
       <c r="E191" s="1"/>
@@ -2278,7 +1993,7 @@
       <c r="G191" s="1"/>
       <c r="H191" s="1"/>
     </row>
-    <row r="192" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="192" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C192" s="1"/>
       <c r="D192" s="1"/>
       <c r="E192" s="1"/>
@@ -2286,7 +2001,7 @@
       <c r="G192" s="1"/>
       <c r="H192" s="1"/>
     </row>
-    <row r="193" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="193" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C193" s="1"/>
       <c r="D193" s="1"/>
       <c r="E193" s="1"/>
@@ -2294,7 +2009,7 @@
       <c r="G193" s="1"/>
       <c r="H193" s="1"/>
     </row>
-    <row r="194" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="194" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C194" s="1"/>
       <c r="D194" s="1"/>
       <c r="E194" s="1"/>
@@ -2302,7 +2017,7 @@
       <c r="G194" s="1"/>
       <c r="H194" s="1"/>
     </row>
-    <row r="195" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="195" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C195" s="1"/>
       <c r="D195" s="1"/>
       <c r="E195" s="1"/>
@@ -2310,7 +2025,7 @@
       <c r="G195" s="1"/>
       <c r="H195" s="1"/>
     </row>
-    <row r="196" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="196" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C196" s="1"/>
       <c r="D196" s="1"/>
       <c r="E196" s="1"/>
@@ -2318,7 +2033,7 @@
       <c r="G196" s="1"/>
       <c r="H196" s="1"/>
     </row>
-    <row r="197" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="197" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C197" s="1"/>
       <c r="D197" s="1"/>
       <c r="E197" s="1"/>
@@ -2326,7 +2041,7 @@
       <c r="G197" s="1"/>
       <c r="H197" s="1"/>
     </row>
-    <row r="198" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="198" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C198" s="1"/>
       <c r="D198" s="1"/>
       <c r="E198" s="1"/>
@@ -2334,7 +2049,7 @@
       <c r="G198" s="1"/>
       <c r="H198" s="1"/>
     </row>
-    <row r="199" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="199" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C199" s="1"/>
       <c r="D199" s="1"/>
       <c r="E199" s="1"/>
@@ -2342,7 +2057,7 @@
       <c r="G199" s="1"/>
       <c r="H199" s="1"/>
     </row>
-    <row r="200" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="200" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C200" s="1"/>
       <c r="D200" s="1"/>
       <c r="E200" s="1"/>
@@ -2350,7 +2065,7 @@
       <c r="G200" s="1"/>
       <c r="H200" s="1"/>
     </row>
-    <row r="201" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="201" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C201" s="1"/>
       <c r="D201" s="1"/>
       <c r="E201" s="1"/>
@@ -2358,7 +2073,7 @@
       <c r="G201" s="1"/>
       <c r="H201" s="1"/>
     </row>
-    <row r="202" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="202" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C202" s="1"/>
       <c r="D202" s="1"/>
       <c r="E202" s="1"/>
@@ -2366,7 +2081,7 @@
       <c r="G202" s="1"/>
       <c r="H202" s="1"/>
     </row>
-    <row r="203" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="203" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C203" s="1"/>
       <c r="D203" s="1"/>
       <c r="E203" s="1"/>
@@ -2374,7 +2089,7 @@
       <c r="G203" s="1"/>
       <c r="H203" s="1"/>
     </row>
-    <row r="204" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="204" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C204" s="1"/>
       <c r="D204" s="1"/>
       <c r="E204" s="1"/>
@@ -2382,7 +2097,7 @@
       <c r="G204" s="1"/>
       <c r="H204" s="1"/>
     </row>
-    <row r="205" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="205" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C205" s="1"/>
       <c r="D205" s="1"/>
       <c r="E205" s="1"/>
@@ -2390,7 +2105,7 @@
       <c r="G205" s="1"/>
       <c r="H205" s="1"/>
     </row>
-    <row r="206" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="206" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C206" s="1"/>
       <c r="D206" s="1"/>
       <c r="E206" s="1"/>
@@ -2398,7 +2113,7 @@
       <c r="G206" s="1"/>
       <c r="H206" s="1"/>
     </row>
-    <row r="207" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="207" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C207" s="1"/>
       <c r="D207" s="1"/>
       <c r="E207" s="1"/>
@@ -2406,7 +2121,7 @@
       <c r="G207" s="1"/>
       <c r="H207" s="1"/>
     </row>
-    <row r="208" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="208" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C208" s="1"/>
       <c r="D208" s="1"/>
       <c r="E208" s="1"/>
@@ -2414,7 +2129,7 @@
       <c r="G208" s="1"/>
       <c r="H208" s="1"/>
     </row>
-    <row r="209" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="209" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C209" s="1"/>
       <c r="D209" s="1"/>
       <c r="E209" s="1"/>
@@ -2422,7 +2137,7 @@
       <c r="G209" s="1"/>
       <c r="H209" s="1"/>
     </row>
-    <row r="210" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="210" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C210" s="1"/>
       <c r="D210" s="1"/>
       <c r="E210" s="1"/>
@@ -2430,7 +2145,7 @@
       <c r="G210" s="1"/>
       <c r="H210" s="1"/>
     </row>
-    <row r="211" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="211" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C211" s="1"/>
       <c r="D211" s="1"/>
       <c r="E211" s="1"/>
@@ -2438,7 +2153,7 @@
       <c r="G211" s="1"/>
       <c r="H211" s="1"/>
     </row>
-    <row r="212" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="212" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C212" s="1"/>
       <c r="D212" s="1"/>
       <c r="E212" s="1"/>
@@ -2446,7 +2161,7 @@
       <c r="G212" s="1"/>
       <c r="H212" s="1"/>
     </row>
-    <row r="213" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="213" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C213" s="1"/>
       <c r="D213" s="1"/>
       <c r="E213" s="1"/>
@@ -2454,7 +2169,7 @@
       <c r="G213" s="1"/>
       <c r="H213" s="1"/>
     </row>
-    <row r="214" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="214" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C214" s="1"/>
       <c r="D214" s="1"/>
       <c r="E214" s="1"/>
@@ -2462,7 +2177,7 @@
       <c r="G214" s="1"/>
       <c r="H214" s="1"/>
     </row>
-    <row r="215" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="215" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C215" s="1"/>
       <c r="D215" s="1"/>
       <c r="E215" s="1"/>
@@ -2470,7 +2185,7 @@
       <c r="G215" s="1"/>
       <c r="H215" s="1"/>
     </row>
-    <row r="216" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="216" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C216" s="1"/>
       <c r="D216" s="1"/>
       <c r="E216" s="1"/>
@@ -2478,7 +2193,7 @@
       <c r="G216" s="1"/>
       <c r="H216" s="1"/>
     </row>
-    <row r="217" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="217" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C217" s="1"/>
       <c r="D217" s="1"/>
       <c r="E217" s="1"/>
@@ -2486,7 +2201,7 @@
       <c r="G217" s="1"/>
       <c r="H217" s="1"/>
     </row>
-    <row r="218" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="218" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C218" s="1"/>
       <c r="D218" s="1"/>
       <c r="E218" s="1"/>
@@ -2494,7 +2209,7 @@
       <c r="G218" s="1"/>
       <c r="H218" s="1"/>
     </row>
-    <row r="219" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="219" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C219" s="1"/>
       <c r="D219" s="1"/>
       <c r="E219" s="1"/>
@@ -2502,7 +2217,7 @@
       <c r="G219" s="1"/>
       <c r="H219" s="1"/>
     </row>
-    <row r="220" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="220" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C220" s="1"/>
       <c r="D220" s="1"/>
       <c r="E220" s="1"/>
@@ -2510,7 +2225,7 @@
       <c r="G220" s="1"/>
       <c r="H220" s="1"/>
     </row>
-    <row r="221" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="221" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C221" s="1"/>
       <c r="D221" s="1"/>
       <c r="E221" s="1"/>
@@ -2518,7 +2233,7 @@
       <c r="G221" s="1"/>
       <c r="H221" s="1"/>
     </row>
-    <row r="222" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="222" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C222" s="1"/>
       <c r="D222" s="1"/>
       <c r="E222" s="1"/>
@@ -2526,7 +2241,7 @@
       <c r="G222" s="1"/>
       <c r="H222" s="1"/>
     </row>
-    <row r="223" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="223" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C223" s="1"/>
       <c r="D223" s="1"/>
       <c r="E223" s="1"/>
@@ -2534,7 +2249,7 @@
       <c r="G223" s="1"/>
       <c r="H223" s="1"/>
     </row>
-    <row r="224" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="224" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C224" s="1"/>
       <c r="D224" s="1"/>
       <c r="E224" s="1"/>
@@ -2542,7 +2257,7 @@
       <c r="G224" s="1"/>
       <c r="H224" s="1"/>
     </row>
-    <row r="225" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="225" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C225" s="1"/>
       <c r="D225" s="1"/>
       <c r="E225" s="1"/>
@@ -2550,7 +2265,7 @@
       <c r="G225" s="1"/>
       <c r="H225" s="1"/>
     </row>
-    <row r="226" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="226" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C226" s="1"/>
       <c r="D226" s="1"/>
       <c r="E226" s="1"/>
@@ -2558,7 +2273,7 @@
       <c r="G226" s="1"/>
       <c r="H226" s="1"/>
     </row>
-    <row r="227" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="227" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C227" s="1"/>
       <c r="D227" s="1"/>
       <c r="E227" s="1"/>
@@ -2566,7 +2281,7 @@
       <c r="G227" s="1"/>
       <c r="H227" s="1"/>
     </row>
-    <row r="228" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="228" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C228" s="1"/>
       <c r="D228" s="1"/>
       <c r="E228" s="1"/>
@@ -2574,7 +2289,7 @@
       <c r="G228" s="1"/>
       <c r="H228" s="1"/>
     </row>
-    <row r="229" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="229" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C229" s="1"/>
       <c r="D229" s="1"/>
       <c r="E229" s="1"/>
@@ -2582,7 +2297,7 @@
       <c r="G229" s="1"/>
       <c r="H229" s="1"/>
     </row>
-    <row r="230" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="230" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C230" s="1"/>
       <c r="D230" s="1"/>
       <c r="E230" s="1"/>
@@ -2590,7 +2305,7 @@
       <c r="G230" s="1"/>
       <c r="H230" s="1"/>
     </row>
-    <row r="231" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="231" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C231" s="1"/>
       <c r="D231" s="1"/>
       <c r="E231" s="1"/>
@@ -2598,7 +2313,7 @@
       <c r="G231" s="1"/>
       <c r="H231" s="1"/>
     </row>
-    <row r="232" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="232" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C232" s="1"/>
       <c r="D232" s="1"/>
       <c r="E232" s="1"/>
@@ -2606,7 +2321,7 @@
       <c r="G232" s="1"/>
       <c r="H232" s="1"/>
     </row>
-    <row r="233" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="233" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C233" s="1"/>
       <c r="D233" s="1"/>
       <c r="E233" s="1"/>
@@ -2614,7 +2329,7 @@
       <c r="G233" s="1"/>
       <c r="H233" s="1"/>
     </row>
-    <row r="234" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="234" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C234" s="1"/>
       <c r="D234" s="1"/>
       <c r="E234" s="1"/>
@@ -2622,7 +2337,7 @@
       <c r="G234" s="1"/>
       <c r="H234" s="1"/>
     </row>
-    <row r="235" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="235" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C235" s="1"/>
       <c r="D235" s="1"/>
       <c r="E235" s="1"/>
@@ -2630,7 +2345,7 @@
       <c r="G235" s="1"/>
       <c r="H235" s="1"/>
     </row>
-    <row r="236" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="236" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C236" s="1"/>
       <c r="D236" s="1"/>
       <c r="E236" s="1"/>
@@ -2638,7 +2353,7 @@
       <c r="G236" s="1"/>
       <c r="H236" s="1"/>
     </row>
-    <row r="237" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="237" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C237" s="1"/>
       <c r="D237" s="1"/>
       <c r="E237" s="1"/>
@@ -2646,7 +2361,7 @@
       <c r="G237" s="1"/>
       <c r="H237" s="1"/>
     </row>
-    <row r="238" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="238" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C238" s="1"/>
       <c r="D238" s="1"/>
       <c r="E238" s="1"/>
@@ -2654,7 +2369,7 @@
       <c r="G238" s="1"/>
       <c r="H238" s="1"/>
     </row>
-    <row r="239" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="239" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C239" s="1"/>
       <c r="D239" s="1"/>
       <c r="E239" s="1"/>
@@ -2662,7 +2377,7 @@
       <c r="G239" s="1"/>
       <c r="H239" s="1"/>
     </row>
-    <row r="240" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="240" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C240" s="1"/>
       <c r="D240" s="1"/>
       <c r="E240" s="1"/>
@@ -2670,7 +2385,7 @@
       <c r="G240" s="1"/>
       <c r="H240" s="1"/>
     </row>
-    <row r="241" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="241" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C241" s="1"/>
       <c r="D241" s="1"/>
       <c r="E241" s="1"/>
@@ -2678,7 +2393,7 @@
       <c r="G241" s="1"/>
       <c r="H241" s="1"/>
     </row>
-    <row r="242" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="242" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C242" s="1"/>
       <c r="D242" s="1"/>
       <c r="E242" s="1"/>
@@ -2686,7 +2401,7 @@
       <c r="G242" s="1"/>
       <c r="H242" s="1"/>
     </row>
-    <row r="243" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="243" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C243" s="1"/>
       <c r="D243" s="1"/>
       <c r="E243" s="1"/>
@@ -2694,7 +2409,7 @@
       <c r="G243" s="1"/>
       <c r="H243" s="1"/>
     </row>
-    <row r="244" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="244" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C244" s="1"/>
       <c r="D244" s="1"/>
       <c r="E244" s="1"/>
@@ -2702,7 +2417,7 @@
       <c r="G244" s="1"/>
       <c r="H244" s="1"/>
     </row>
-    <row r="245" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="245" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C245" s="1"/>
       <c r="D245" s="1"/>
       <c r="E245" s="1"/>
@@ -2710,7 +2425,7 @@
       <c r="G245" s="1"/>
       <c r="H245" s="1"/>
     </row>
-    <row r="246" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="246" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C246" s="1"/>
       <c r="D246" s="1"/>
       <c r="E246" s="1"/>
@@ -2718,7 +2433,7 @@
       <c r="G246" s="1"/>
       <c r="H246" s="1"/>
     </row>
-    <row r="247" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="247" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C247" s="1"/>
       <c r="D247" s="1"/>
       <c r="E247" s="1"/>
@@ -2726,7 +2441,7 @@
       <c r="G247" s="1"/>
       <c r="H247" s="1"/>
     </row>
-    <row r="248" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="248" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C248" s="1"/>
       <c r="D248" s="1"/>
       <c r="E248" s="1"/>
@@ -2734,7 +2449,7 @@
       <c r="G248" s="1"/>
       <c r="H248" s="1"/>
     </row>
-    <row r="249" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="249" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C249" s="1"/>
       <c r="D249" s="1"/>
       <c r="E249" s="1"/>
@@ -2742,7 +2457,7 @@
       <c r="G249" s="1"/>
       <c r="H249" s="1"/>
     </row>
-    <row r="250" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="250" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C250" s="1"/>
       <c r="D250" s="1"/>
       <c r="E250" s="1"/>
@@ -2750,7 +2465,7 @@
       <c r="G250" s="1"/>
       <c r="H250" s="1"/>
     </row>
-    <row r="251" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="251" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C251" s="1"/>
       <c r="D251" s="1"/>
       <c r="E251" s="1"/>
@@ -2758,7 +2473,7 @@
       <c r="G251" s="1"/>
       <c r="H251" s="1"/>
     </row>
-    <row r="252" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="252" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C252" s="1"/>
       <c r="D252" s="1"/>
       <c r="E252" s="1"/>
@@ -2766,7 +2481,7 @@
       <c r="G252" s="1"/>
       <c r="H252" s="1"/>
     </row>
-    <row r="253" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="253" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C253" s="1"/>
       <c r="D253" s="1"/>
       <c r="E253" s="1"/>
@@ -2774,7 +2489,7 @@
       <c r="G253" s="1"/>
       <c r="H253" s="1"/>
     </row>
-    <row r="254" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="254" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C254" s="1"/>
       <c r="D254" s="1"/>
       <c r="E254" s="1"/>
@@ -2782,7 +2497,7 @@
       <c r="G254" s="1"/>
       <c r="H254" s="1"/>
     </row>
-    <row r="255" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="255" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C255" s="1"/>
       <c r="D255" s="1"/>
       <c r="E255" s="1"/>
@@ -2790,7 +2505,7 @@
       <c r="G255" s="1"/>
       <c r="H255" s="1"/>
     </row>
-    <row r="256" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="256" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C256" s="1"/>
       <c r="D256" s="1"/>
       <c r="E256" s="1"/>
@@ -2798,7 +2513,7 @@
       <c r="G256" s="1"/>
       <c r="H256" s="1"/>
     </row>
-    <row r="257" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="257" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C257" s="1"/>
       <c r="D257" s="1"/>
       <c r="E257" s="1"/>
@@ -2806,7 +2521,7 @@
       <c r="G257" s="1"/>
       <c r="H257" s="1"/>
     </row>
-    <row r="258" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="258" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C258" s="1"/>
       <c r="D258" s="1"/>
       <c r="E258" s="1"/>
@@ -2814,7 +2529,7 @@
       <c r="G258" s="1"/>
       <c r="H258" s="1"/>
     </row>
-    <row r="259" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="259" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C259" s="1"/>
       <c r="D259" s="1"/>
       <c r="E259" s="1"/>
@@ -2822,7 +2537,7 @@
       <c r="G259" s="1"/>
       <c r="H259" s="1"/>
     </row>
-    <row r="260" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="260" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C260" s="1"/>
       <c r="D260" s="1"/>
       <c r="E260" s="1"/>
@@ -2830,7 +2545,7 @@
       <c r="G260" s="1"/>
       <c r="H260" s="1"/>
     </row>
-    <row r="261" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="261" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C261" s="1"/>
       <c r="D261" s="1"/>
       <c r="E261" s="1"/>
@@ -2838,7 +2553,7 @@
       <c r="G261" s="1"/>
       <c r="H261" s="1"/>
     </row>
-    <row r="262" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="262" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C262" s="1"/>
       <c r="D262" s="1"/>
       <c r="E262" s="1"/>
@@ -2846,7 +2561,7 @@
       <c r="G262" s="1"/>
       <c r="H262" s="1"/>
     </row>
-    <row r="263" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="263" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C263" s="1"/>
       <c r="D263" s="1"/>
       <c r="E263" s="1"/>
@@ -2854,7 +2569,7 @@
       <c r="G263" s="1"/>
       <c r="H263" s="1"/>
     </row>
-    <row r="264" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="264" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C264" s="1"/>
       <c r="D264" s="1"/>
       <c r="E264" s="1"/>
@@ -2862,7 +2577,7 @@
       <c r="G264" s="1"/>
       <c r="H264" s="1"/>
     </row>
-    <row r="265" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="265" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C265" s="1"/>
       <c r="D265" s="1"/>
       <c r="E265" s="1"/>
@@ -2870,7 +2585,7 @@
       <c r="G265" s="1"/>
       <c r="H265" s="1"/>
     </row>
-    <row r="266" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="266" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C266" s="1"/>
       <c r="D266" s="1"/>
       <c r="E266" s="1"/>
@@ -2878,7 +2593,7 @@
       <c r="G266" s="1"/>
       <c r="H266" s="1"/>
     </row>
-    <row r="267" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="267" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C267" s="1"/>
       <c r="D267" s="1"/>
       <c r="E267" s="1"/>
@@ -2886,7 +2601,7 @@
       <c r="G267" s="1"/>
       <c r="H267" s="1"/>
     </row>
-    <row r="268" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="268" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C268" s="1"/>
       <c r="D268" s="1"/>
       <c r="E268" s="1"/>
@@ -2894,7 +2609,7 @@
       <c r="G268" s="1"/>
       <c r="H268" s="1"/>
     </row>
-    <row r="269" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="269" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C269" s="1"/>
       <c r="D269" s="1"/>
       <c r="E269" s="1"/>
@@ -2902,7 +2617,7 @@
       <c r="G269" s="1"/>
       <c r="H269" s="1"/>
     </row>
-    <row r="270" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="270" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C270" s="1"/>
       <c r="D270" s="1"/>
       <c r="E270" s="1"/>
@@ -2910,7 +2625,7 @@
       <c r="G270" s="1"/>
       <c r="H270" s="1"/>
     </row>
-    <row r="271" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="271" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C271" s="1"/>
       <c r="D271" s="1"/>
       <c r="E271" s="1"/>
@@ -2918,7 +2633,7 @@
       <c r="G271" s="1"/>
       <c r="H271" s="1"/>
     </row>
-    <row r="272" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="272" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C272" s="1"/>
       <c r="D272" s="1"/>
       <c r="E272" s="1"/>
@@ -2926,7 +2641,7 @@
       <c r="G272" s="1"/>
       <c r="H272" s="1"/>
     </row>
-    <row r="273" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="273" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C273" s="1"/>
       <c r="D273" s="1"/>
       <c r="E273" s="1"/>
@@ -2934,7 +2649,7 @@
       <c r="G273" s="1"/>
       <c r="H273" s="1"/>
     </row>
-    <row r="274" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="274" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C274" s="1"/>
       <c r="D274" s="1"/>
       <c r="E274" s="1"/>
@@ -2942,7 +2657,7 @@
       <c r="G274" s="1"/>
       <c r="H274" s="1"/>
     </row>
-    <row r="275" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="275" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C275" s="1"/>
       <c r="D275" s="1"/>
       <c r="E275" s="1"/>
@@ -2950,7 +2665,7 @@
       <c r="G275" s="1"/>
       <c r="H275" s="1"/>
     </row>
-    <row r="276" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="276" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C276" s="1"/>
       <c r="D276" s="1"/>
       <c r="E276" s="1"/>
@@ -2958,7 +2673,7 @@
       <c r="G276" s="1"/>
       <c r="H276" s="1"/>
     </row>
-    <row r="277" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="277" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C277" s="1"/>
       <c r="D277" s="1"/>
       <c r="E277" s="1"/>
@@ -2966,7 +2681,7 @@
       <c r="G277" s="1"/>
       <c r="H277" s="1"/>
     </row>
-    <row r="278" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="278" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C278" s="1"/>
       <c r="D278" s="1"/>
       <c r="E278" s="1"/>
@@ -2974,7 +2689,7 @@
       <c r="G278" s="1"/>
       <c r="H278" s="1"/>
     </row>
-    <row r="279" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="279" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C279" s="1"/>
       <c r="D279" s="1"/>
       <c r="E279" s="1"/>
@@ -2982,7 +2697,7 @@
       <c r="G279" s="1"/>
       <c r="H279" s="1"/>
     </row>
-    <row r="280" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="280" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C280" s="1"/>
       <c r="D280" s="1"/>
       <c r="E280" s="1"/>
@@ -2990,7 +2705,7 @@
       <c r="G280" s="1"/>
       <c r="H280" s="1"/>
     </row>
-    <row r="281" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="281" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C281" s="1"/>
       <c r="D281" s="1"/>
       <c r="E281" s="1"/>
@@ -2998,7 +2713,7 @@
       <c r="G281" s="1"/>
       <c r="H281" s="1"/>
     </row>
-    <row r="282" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="282" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C282" s="1"/>
       <c r="D282" s="1"/>
       <c r="E282" s="1"/>
@@ -3006,7 +2721,7 @@
       <c r="G282" s="1"/>
       <c r="H282" s="1"/>
     </row>
-    <row r="283" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="283" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C283" s="1"/>
       <c r="D283" s="1"/>
       <c r="E283" s="1"/>
@@ -3014,7 +2729,7 @@
       <c r="G283" s="1"/>
       <c r="H283" s="1"/>
     </row>
-    <row r="284" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="284" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C284" s="1"/>
       <c r="D284" s="1"/>
       <c r="E284" s="1"/>
@@ -3022,7 +2737,7 @@
       <c r="G284" s="1"/>
       <c r="H284" s="1"/>
     </row>
-    <row r="285" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="285" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C285" s="1"/>
       <c r="D285" s="1"/>
       <c r="E285" s="1"/>
@@ -3030,7 +2745,7 @@
       <c r="G285" s="1"/>
       <c r="H285" s="1"/>
     </row>
-    <row r="286" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="286" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C286" s="1"/>
       <c r="D286" s="1"/>
       <c r="E286" s="1"/>
@@ -3038,7 +2753,7 @@
       <c r="G286" s="1"/>
       <c r="H286" s="1"/>
     </row>
-    <row r="287" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="287" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C287" s="1"/>
       <c r="D287" s="1"/>
       <c r="E287" s="1"/>
@@ -3046,7 +2761,7 @@
       <c r="G287" s="1"/>
       <c r="H287" s="1"/>
     </row>
-    <row r="288" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="288" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C288" s="1"/>
       <c r="D288" s="1"/>
       <c r="E288" s="1"/>
@@ -3054,7 +2769,7 @@
       <c r="G288" s="1"/>
       <c r="H288" s="1"/>
     </row>
-    <row r="289" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="289" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C289" s="1"/>
       <c r="D289" s="1"/>
       <c r="E289" s="1"/>
@@ -3062,7 +2777,7 @@
       <c r="G289" s="1"/>
       <c r="H289" s="1"/>
     </row>
-    <row r="290" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="290" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C290" s="1"/>
       <c r="D290" s="1"/>
       <c r="E290" s="1"/>
@@ -3070,7 +2785,7 @@
       <c r="G290" s="1"/>
       <c r="H290" s="1"/>
     </row>
-    <row r="291" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="291" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C291" s="1"/>
       <c r="D291" s="1"/>
       <c r="E291" s="1"/>
@@ -3078,7 +2793,7 @@
       <c r="G291" s="1"/>
       <c r="H291" s="1"/>
     </row>
-    <row r="292" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="292" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C292" s="1"/>
       <c r="D292" s="1"/>
       <c r="E292" s="1"/>
@@ -3086,7 +2801,7 @@
       <c r="G292" s="1"/>
       <c r="H292" s="1"/>
     </row>
-    <row r="293" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="293" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C293" s="1"/>
       <c r="D293" s="1"/>
       <c r="E293" s="1"/>
@@ -3094,7 +2809,7 @@
       <c r="G293" s="1"/>
       <c r="H293" s="1"/>
     </row>
-    <row r="294" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="294" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C294" s="1"/>
       <c r="D294" s="1"/>
       <c r="E294" s="1"/>
@@ -3102,7 +2817,7 @@
       <c r="G294" s="1"/>
       <c r="H294" s="1"/>
     </row>
-    <row r="295" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="295" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C295" s="1"/>
       <c r="D295" s="1"/>
       <c r="E295" s="1"/>
@@ -3110,7 +2825,7 @@
       <c r="G295" s="1"/>
       <c r="H295" s="1"/>
     </row>
-    <row r="296" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="296" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C296" s="1"/>
       <c r="D296" s="1"/>
       <c r="E296" s="1"/>
@@ -3118,7 +2833,7 @@
       <c r="G296" s="1"/>
       <c r="H296" s="1"/>
     </row>
-    <row r="297" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="297" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C297" s="1"/>
       <c r="D297" s="1"/>
       <c r="E297" s="1"/>
@@ -3126,7 +2841,7 @@
       <c r="G297" s="1"/>
       <c r="H297" s="1"/>
     </row>
-    <row r="298" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="298" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C298" s="1"/>
       <c r="D298" s="1"/>
       <c r="E298" s="1"/>
@@ -3134,7 +2849,7 @@
       <c r="G298" s="1"/>
       <c r="H298" s="1"/>
     </row>
-    <row r="299" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="299" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C299" s="1"/>
       <c r="D299" s="1"/>
       <c r="E299" s="1"/>
@@ -3142,7 +2857,7 @@
       <c r="G299" s="1"/>
       <c r="H299" s="1"/>
     </row>
-    <row r="300" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="300" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C300" s="1"/>
       <c r="D300" s="1"/>
       <c r="E300" s="1"/>
@@ -3150,7 +2865,7 @@
       <c r="G300" s="1"/>
       <c r="H300" s="1"/>
     </row>
-    <row r="301" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="301" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C301" s="1"/>
       <c r="D301" s="1"/>
       <c r="E301" s="1"/>
@@ -3158,7 +2873,7 @@
       <c r="G301" s="1"/>
       <c r="H301" s="1"/>
     </row>
-    <row r="302" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="302" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C302" s="1"/>
       <c r="D302" s="1"/>
       <c r="E302" s="1"/>
@@ -3166,7 +2881,7 @@
       <c r="G302" s="1"/>
       <c r="H302" s="1"/>
     </row>
-    <row r="303" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="303" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C303" s="1"/>
       <c r="D303" s="1"/>
       <c r="E303" s="1"/>
@@ -3174,7 +2889,7 @@
       <c r="G303" s="1"/>
       <c r="H303" s="1"/>
     </row>
-    <row r="304" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="304" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C304" s="1"/>
       <c r="D304" s="1"/>
       <c r="E304" s="1"/>
@@ -3182,7 +2897,7 @@
       <c r="G304" s="1"/>
       <c r="H304" s="1"/>
     </row>
-    <row r="305" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="305" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C305" s="1"/>
       <c r="D305" s="1"/>
       <c r="E305" s="1"/>
@@ -3190,7 +2905,7 @@
       <c r="G305" s="1"/>
       <c r="H305" s="1"/>
     </row>
-    <row r="306" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="306" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C306" s="1"/>
       <c r="D306" s="1"/>
       <c r="E306" s="1"/>
@@ -3198,7 +2913,7 @@
       <c r="G306" s="1"/>
       <c r="H306" s="1"/>
     </row>
-    <row r="307" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="307" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C307" s="1"/>
       <c r="D307" s="1"/>
       <c r="E307" s="1"/>
@@ -3206,7 +2921,7 @@
       <c r="G307" s="1"/>
       <c r="H307" s="1"/>
     </row>
-    <row r="308" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="308" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C308" s="1"/>
       <c r="D308" s="1"/>
       <c r="E308" s="1"/>
@@ -3214,7 +2929,7 @@
       <c r="G308" s="1"/>
       <c r="H308" s="1"/>
     </row>
-    <row r="309" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="309" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C309" s="1"/>
       <c r="D309" s="1"/>
       <c r="E309" s="1"/>
@@ -3222,7 +2937,7 @@
       <c r="G309" s="1"/>
       <c r="H309" s="1"/>
     </row>
-    <row r="310" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="310" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C310" s="1"/>
       <c r="D310" s="1"/>
       <c r="E310" s="1"/>
@@ -3230,7 +2945,7 @@
       <c r="G310" s="1"/>
       <c r="H310" s="1"/>
     </row>
-    <row r="311" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="311" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C311" s="1"/>
       <c r="D311" s="1"/>
       <c r="E311" s="1"/>
@@ -3238,7 +2953,7 @@
       <c r="G311" s="1"/>
       <c r="H311" s="1"/>
     </row>
-    <row r="312" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="312" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C312" s="1"/>
       <c r="D312" s="1"/>
       <c r="E312" s="1"/>
@@ -3246,7 +2961,7 @@
       <c r="G312" s="1"/>
       <c r="H312" s="1"/>
     </row>
-    <row r="313" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="313" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C313" s="1"/>
       <c r="D313" s="1"/>
       <c r="E313" s="1"/>
@@ -3254,7 +2969,7 @@
       <c r="G313" s="1"/>
       <c r="H313" s="1"/>
     </row>
-    <row r="314" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="314" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C314" s="1"/>
       <c r="D314" s="1"/>
       <c r="E314" s="1"/>
@@ -3262,7 +2977,7 @@
       <c r="G314" s="1"/>
       <c r="H314" s="1"/>
     </row>
-    <row r="315" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="315" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C315" s="1"/>
       <c r="D315" s="1"/>
       <c r="E315" s="1"/>
@@ -3270,7 +2985,7 @@
       <c r="G315" s="1"/>
       <c r="H315" s="1"/>
     </row>
-    <row r="316" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="316" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C316" s="1"/>
       <c r="D316" s="1"/>
       <c r="E316" s="1"/>
@@ -3278,7 +2993,7 @@
       <c r="G316" s="1"/>
       <c r="H316" s="1"/>
     </row>
-    <row r="317" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="317" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C317" s="1"/>
       <c r="D317" s="1"/>
       <c r="E317" s="1"/>
@@ -3286,7 +3001,7 @@
       <c r="G317" s="1"/>
       <c r="H317" s="1"/>
     </row>
-    <row r="318" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="318" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C318" s="1"/>
       <c r="D318" s="1"/>
       <c r="E318" s="1"/>
@@ -3294,7 +3009,7 @@
       <c r="G318" s="1"/>
       <c r="H318" s="1"/>
     </row>
-    <row r="319" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="319" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C319" s="1"/>
       <c r="D319" s="1"/>
       <c r="E319" s="1"/>
@@ -3302,7 +3017,7 @@
       <c r="G319" s="1"/>
       <c r="H319" s="1"/>
     </row>
-    <row r="320" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="320" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C320" s="1"/>
       <c r="D320" s="1"/>
       <c r="E320" s="1"/>
@@ -3310,7 +3025,7 @@
       <c r="G320" s="1"/>
       <c r="H320" s="1"/>
     </row>
-    <row r="321" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="321" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C321" s="1"/>
       <c r="D321" s="1"/>
       <c r="E321" s="1"/>
@@ -3318,7 +3033,7 @@
       <c r="G321" s="1"/>
       <c r="H321" s="1"/>
     </row>
-    <row r="322" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="322" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C322" s="1"/>
       <c r="D322" s="1"/>
       <c r="E322" s="1"/>
@@ -3326,7 +3041,7 @@
       <c r="G322" s="1"/>
       <c r="H322" s="1"/>
     </row>
-    <row r="323" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="323" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C323" s="1"/>
       <c r="D323" s="1"/>
       <c r="E323" s="1"/>
@@ -3334,7 +3049,7 @@
       <c r="G323" s="1"/>
       <c r="H323" s="1"/>
     </row>
-    <row r="324" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="324" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C324" s="1"/>
       <c r="D324" s="1"/>
       <c r="E324" s="1"/>
@@ -3342,7 +3057,7 @@
       <c r="G324" s="1"/>
       <c r="H324" s="1"/>
     </row>
-    <row r="325" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="325" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C325" s="1"/>
       <c r="D325" s="1"/>
       <c r="E325" s="1"/>
@@ -3350,7 +3065,7 @@
       <c r="G325" s="1"/>
       <c r="H325" s="1"/>
     </row>
-    <row r="326" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="326" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C326" s="1"/>
       <c r="D326" s="1"/>
       <c r="E326" s="1"/>
@@ -3358,7 +3073,7 @@
       <c r="G326" s="1"/>
       <c r="H326" s="1"/>
     </row>
-    <row r="327" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="327" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C327" s="1"/>
       <c r="D327" s="1"/>
       <c r="E327" s="1"/>
@@ -3366,7 +3081,7 @@
       <c r="G327" s="1"/>
       <c r="H327" s="1"/>
     </row>
-    <row r="328" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="328" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C328" s="1"/>
       <c r="D328" s="1"/>
       <c r="E328" s="1"/>
@@ -3374,7 +3089,7 @@
       <c r="G328" s="1"/>
       <c r="H328" s="1"/>
     </row>
-    <row r="329" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="329" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C329" s="1"/>
       <c r="D329" s="1"/>
       <c r="E329" s="1"/>
@@ -3382,7 +3097,7 @@
       <c r="G329" s="1"/>
       <c r="H329" s="1"/>
     </row>
-    <row r="330" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="330" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C330" s="1"/>
       <c r="D330" s="1"/>
       <c r="E330" s="1"/>
@@ -3390,7 +3105,7 @@
       <c r="G330" s="1"/>
       <c r="H330" s="1"/>
     </row>
-    <row r="331" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="331" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C331" s="1"/>
       <c r="D331" s="1"/>
       <c r="E331" s="1"/>
@@ -3398,7 +3113,7 @@
       <c r="G331" s="1"/>
       <c r="H331" s="1"/>
     </row>
-    <row r="332" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="332" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C332" s="1"/>
       <c r="D332" s="1"/>
       <c r="E332" s="1"/>
@@ -3406,7 +3121,7 @@
       <c r="G332" s="1"/>
       <c r="H332" s="1"/>
     </row>
-    <row r="333" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="333" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C333" s="1"/>
       <c r="D333" s="1"/>
       <c r="E333" s="1"/>
@@ -3414,7 +3129,7 @@
       <c r="G333" s="1"/>
       <c r="H333" s="1"/>
     </row>
-    <row r="334" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="334" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C334" s="1"/>
       <c r="D334" s="1"/>
       <c r="E334" s="1"/>
@@ -3422,7 +3137,7 @@
       <c r="G334" s="1"/>
       <c r="H334" s="1"/>
     </row>
-    <row r="335" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="335" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C335" s="1"/>
       <c r="D335" s="1"/>
       <c r="E335" s="1"/>
@@ -3430,7 +3145,7 @@
       <c r="G335" s="1"/>
       <c r="H335" s="1"/>
     </row>
-    <row r="336" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="336" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C336" s="1"/>
       <c r="D336" s="1"/>
       <c r="E336" s="1"/>
@@ -3438,7 +3153,7 @@
       <c r="G336" s="1"/>
       <c r="H336" s="1"/>
     </row>
-    <row r="337" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="337" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C337" s="1"/>
       <c r="D337" s="1"/>
       <c r="E337" s="1"/>
@@ -3446,7 +3161,7 @@
       <c r="G337" s="1"/>
       <c r="H337" s="1"/>
     </row>
-    <row r="338" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="338" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C338" s="1"/>
       <c r="D338" s="1"/>
       <c r="E338" s="1"/>
@@ -3454,7 +3169,7 @@
       <c r="G338" s="1"/>
       <c r="H338" s="1"/>
     </row>
-    <row r="339" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="339" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C339" s="1"/>
       <c r="D339" s="1"/>
       <c r="E339" s="1"/>
@@ -3462,7 +3177,7 @@
       <c r="G339" s="1"/>
       <c r="H339" s="1"/>
     </row>
-    <row r="340" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="340" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C340" s="1"/>
       <c r="D340" s="1"/>
       <c r="E340" s="1"/>
@@ -3470,7 +3185,7 @@
       <c r="G340" s="1"/>
       <c r="H340" s="1"/>
     </row>
-    <row r="341" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="341" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C341" s="1"/>
       <c r="D341" s="1"/>
       <c r="E341" s="1"/>
@@ -3478,7 +3193,7 @@
       <c r="G341" s="1"/>
       <c r="H341" s="1"/>
     </row>
-    <row r="342" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="342" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C342" s="1"/>
       <c r="D342" s="1"/>
       <c r="E342" s="1"/>
@@ -3486,7 +3201,7 @@
       <c r="G342" s="1"/>
       <c r="H342" s="1"/>
     </row>
-    <row r="343" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="343" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C343" s="1"/>
       <c r="D343" s="1"/>
       <c r="E343" s="1"/>
@@ -3494,7 +3209,7 @@
       <c r="G343" s="1"/>
       <c r="H343" s="1"/>
     </row>
-    <row r="344" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="344" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C344" s="1"/>
       <c r="D344" s="1"/>
       <c r="E344" s="1"/>
@@ -3502,7 +3217,7 @@
       <c r="G344" s="1"/>
       <c r="H344" s="1"/>
     </row>
-    <row r="345" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="345" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C345" s="1"/>
       <c r="D345" s="1"/>
       <c r="E345" s="1"/>
@@ -3510,7 +3225,7 @@
       <c r="G345" s="1"/>
       <c r="H345" s="1"/>
     </row>
-    <row r="346" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="346" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C346" s="1"/>
       <c r="D346" s="1"/>
       <c r="E346" s="1"/>
@@ -3518,7 +3233,7 @@
       <c r="G346" s="1"/>
       <c r="H346" s="1"/>
     </row>
-    <row r="347" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="347" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C347" s="1"/>
       <c r="D347" s="1"/>
       <c r="E347" s="1"/>
@@ -3526,7 +3241,7 @@
       <c r="G347" s="1"/>
       <c r="H347" s="1"/>
     </row>
-    <row r="348" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="348" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C348" s="1"/>
       <c r="D348" s="1"/>
       <c r="E348" s="1"/>
@@ -3534,7 +3249,7 @@
       <c r="G348" s="1"/>
       <c r="H348" s="1"/>
     </row>
-    <row r="349" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="349" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C349" s="1"/>
       <c r="D349" s="1"/>
       <c r="E349" s="1"/>
@@ -3542,7 +3257,7 @@
       <c r="G349" s="1"/>
       <c r="H349" s="1"/>
     </row>
-    <row r="350" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="350" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C350" s="1"/>
       <c r="D350" s="1"/>
       <c r="E350" s="1"/>
@@ -3550,7 +3265,7 @@
       <c r="G350" s="1"/>
       <c r="H350" s="1"/>
     </row>
-    <row r="351" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="351" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C351" s="1"/>
       <c r="D351" s="1"/>
       <c r="E351" s="1"/>
@@ -3558,7 +3273,7 @@
       <c r="G351" s="1"/>
       <c r="H351" s="1"/>
     </row>
-    <row r="352" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="352" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C352" s="1"/>
       <c r="D352" s="1"/>
       <c r="E352" s="1"/>
@@ -3566,7 +3281,7 @@
       <c r="G352" s="1"/>
       <c r="H352" s="1"/>
     </row>
-    <row r="353" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="353" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C353" s="1"/>
       <c r="D353" s="1"/>
       <c r="E353" s="1"/>
@@ -3574,7 +3289,7 @@
       <c r="G353" s="1"/>
       <c r="H353" s="1"/>
     </row>
-    <row r="354" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="354" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C354" s="1"/>
       <c r="D354" s="1"/>
       <c r="E354" s="1"/>
@@ -3582,7 +3297,7 @@
       <c r="G354" s="1"/>
       <c r="H354" s="1"/>
     </row>
-    <row r="355" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="355" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C355" s="1"/>
       <c r="D355" s="1"/>
       <c r="E355" s="1"/>
@@ -3590,7 +3305,7 @@
       <c r="G355" s="1"/>
       <c r="H355" s="1"/>
     </row>
-    <row r="356" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="356" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C356" s="1"/>
       <c r="D356" s="1"/>
       <c r="E356" s="1"/>
@@ -3598,7 +3313,7 @@
       <c r="G356" s="1"/>
       <c r="H356" s="1"/>
     </row>
-    <row r="357" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="357" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C357" s="1"/>
       <c r="D357" s="1"/>
       <c r="E357" s="1"/>
@@ -3606,7 +3321,7 @@
       <c r="G357" s="1"/>
       <c r="H357" s="1"/>
     </row>
-    <row r="358" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="358" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C358" s="1"/>
       <c r="D358" s="1"/>
       <c r="E358" s="1"/>
@@ -3614,7 +3329,7 @@
       <c r="G358" s="1"/>
       <c r="H358" s="1"/>
     </row>
-    <row r="359" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="359" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C359" s="1"/>
       <c r="D359" s="1"/>
       <c r="E359" s="1"/>
@@ -3622,7 +3337,7 @@
       <c r="G359" s="1"/>
       <c r="H359" s="1"/>
     </row>
-    <row r="360" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="360" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C360" s="1"/>
       <c r="D360" s="1"/>
       <c r="E360" s="1"/>
@@ -3630,7 +3345,7 @@
       <c r="G360" s="1"/>
       <c r="H360" s="1"/>
     </row>
-    <row r="361" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="361" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C361" s="1"/>
       <c r="D361" s="1"/>
       <c r="E361" s="1"/>
@@ -3638,7 +3353,7 @@
       <c r="G361" s="1"/>
       <c r="H361" s="1"/>
     </row>
-    <row r="362" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="362" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C362" s="1"/>
       <c r="D362" s="1"/>
       <c r="E362" s="1"/>
@@ -3646,7 +3361,7 @@
       <c r="G362" s="1"/>
       <c r="H362" s="1"/>
     </row>
-    <row r="363" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="363" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C363" s="1"/>
       <c r="D363" s="1"/>
       <c r="E363" s="1"/>
@@ -3654,7 +3369,7 @@
       <c r="G363" s="1"/>
       <c r="H363" s="1"/>
     </row>
-    <row r="364" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="364" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C364" s="1"/>
       <c r="D364" s="1"/>
       <c r="E364" s="1"/>
@@ -3662,7 +3377,7 @@
       <c r="G364" s="1"/>
       <c r="H364" s="1"/>
     </row>
-    <row r="365" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="365" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C365" s="1"/>
       <c r="D365" s="1"/>
       <c r="E365" s="1"/>
@@ -3670,7 +3385,7 @@
       <c r="G365" s="1"/>
       <c r="H365" s="1"/>
     </row>
-    <row r="366" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="366" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C366" s="1"/>
       <c r="D366" s="1"/>
       <c r="E366" s="1"/>
@@ -3678,7 +3393,7 @@
       <c r="G366" s="1"/>
       <c r="H366" s="1"/>
     </row>
-    <row r="367" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="367" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C367" s="1"/>
       <c r="D367" s="1"/>
       <c r="E367" s="1"/>
@@ -3686,7 +3401,7 @@
       <c r="G367" s="1"/>
       <c r="H367" s="1"/>
     </row>
-    <row r="368" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="368" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C368" s="1"/>
       <c r="D368" s="1"/>
       <c r="E368" s="1"/>
@@ -3694,7 +3409,7 @@
       <c r="G368" s="1"/>
       <c r="H368" s="1"/>
     </row>
-    <row r="369" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="369" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C369" s="1"/>
       <c r="D369" s="1"/>
       <c r="E369" s="1"/>
@@ -3702,7 +3417,7 @@
       <c r="G369" s="1"/>
       <c r="H369" s="1"/>
     </row>
-    <row r="370" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="370" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C370" s="1"/>
       <c r="D370" s="1"/>
       <c r="E370" s="1"/>
@@ -3710,7 +3425,7 @@
       <c r="G370" s="1"/>
       <c r="H370" s="1"/>
     </row>
-    <row r="371" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="371" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C371" s="1"/>
       <c r="D371" s="1"/>
       <c r="E371" s="1"/>
@@ -3718,7 +3433,7 @@
       <c r="G371" s="1"/>
       <c r="H371" s="1"/>
     </row>
-    <row r="372" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="372" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C372" s="1"/>
       <c r="D372" s="1"/>
       <c r="E372" s="1"/>
@@ -3726,7 +3441,7 @@
       <c r="G372" s="1"/>
       <c r="H372" s="1"/>
     </row>
-    <row r="373" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="373" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C373" s="1"/>
       <c r="D373" s="1"/>
       <c r="E373" s="1"/>
@@ -3734,7 +3449,7 @@
       <c r="G373" s="1"/>
       <c r="H373" s="1"/>
     </row>
-    <row r="374" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="374" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C374" s="1"/>
       <c r="D374" s="1"/>
       <c r="E374" s="1"/>
@@ -3742,7 +3457,7 @@
       <c r="G374" s="1"/>
       <c r="H374" s="1"/>
     </row>
-    <row r="375" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="375" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C375" s="1"/>
       <c r="D375" s="1"/>
       <c r="E375" s="1"/>
@@ -3750,7 +3465,7 @@
       <c r="G375" s="1"/>
       <c r="H375" s="1"/>
     </row>
-    <row r="376" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="376" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C376" s="1"/>
       <c r="D376" s="1"/>
       <c r="E376" s="1"/>
@@ -3758,7 +3473,7 @@
       <c r="G376" s="1"/>
       <c r="H376" s="1"/>
     </row>
-    <row r="377" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="377" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C377" s="1"/>
       <c r="D377" s="1"/>
       <c r="E377" s="1"/>
@@ -3766,7 +3481,7 @@
       <c r="G377" s="1"/>
       <c r="H377" s="1"/>
     </row>
-    <row r="378" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="378" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C378" s="1"/>
       <c r="D378" s="1"/>
       <c r="E378" s="1"/>
@@ -3774,7 +3489,7 @@
       <c r="G378" s="1"/>
       <c r="H378" s="1"/>
     </row>
-    <row r="379" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="379" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C379" s="1"/>
       <c r="D379" s="1"/>
       <c r="E379" s="1"/>
@@ -3782,7 +3497,7 @@
       <c r="G379" s="1"/>
       <c r="H379" s="1"/>
     </row>
-    <row r="380" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="380" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C380" s="1"/>
       <c r="D380" s="1"/>
       <c r="E380" s="1"/>
@@ -3790,7 +3505,7 @@
       <c r="G380" s="1"/>
       <c r="H380" s="1"/>
     </row>
-    <row r="381" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="381" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C381" s="1"/>
       <c r="D381" s="1"/>
       <c r="E381" s="1"/>
@@ -3798,7 +3513,7 @@
       <c r="G381" s="1"/>
       <c r="H381" s="1"/>
     </row>
-    <row r="382" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="382" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C382" s="1"/>
       <c r="D382" s="1"/>
       <c r="E382" s="1"/>
@@ -3806,7 +3521,7 @@
       <c r="G382" s="1"/>
       <c r="H382" s="1"/>
     </row>
-    <row r="383" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="383" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C383" s="1"/>
       <c r="D383" s="1"/>
       <c r="E383" s="1"/>
@@ -3814,7 +3529,7 @@
       <c r="G383" s="1"/>
       <c r="H383" s="1"/>
     </row>
-    <row r="384" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="384" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C384" s="1"/>
       <c r="D384" s="1"/>
       <c r="E384" s="1"/>
@@ -3822,7 +3537,7 @@
       <c r="G384" s="1"/>
       <c r="H384" s="1"/>
     </row>
-    <row r="385" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="385" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C385" s="1"/>
       <c r="D385" s="1"/>
       <c r="E385" s="1"/>
@@ -3830,7 +3545,7 @@
       <c r="G385" s="1"/>
       <c r="H385" s="1"/>
     </row>
-    <row r="386" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="386" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C386" s="1"/>
       <c r="D386" s="1"/>
       <c r="E386" s="1"/>
@@ -3838,7 +3553,7 @@
       <c r="G386" s="1"/>
       <c r="H386" s="1"/>
     </row>
-    <row r="387" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="387" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C387" s="1"/>
       <c r="D387" s="1"/>
       <c r="E387" s="1"/>
@@ -3846,7 +3561,7 @@
       <c r="G387" s="1"/>
       <c r="H387" s="1"/>
     </row>
-    <row r="388" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="388" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C388" s="1"/>
       <c r="D388" s="1"/>
       <c r="E388" s="1"/>
@@ -3854,7 +3569,7 @@
       <c r="G388" s="1"/>
       <c r="H388" s="1"/>
     </row>
-    <row r="389" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="389" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C389" s="1"/>
       <c r="D389" s="1"/>
       <c r="E389" s="1"/>
@@ -3862,7 +3577,7 @@
       <c r="G389" s="1"/>
       <c r="H389" s="1"/>
     </row>
-    <row r="390" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="390" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C390" s="1"/>
       <c r="D390" s="1"/>
       <c r="E390" s="1"/>
@@ -3870,7 +3585,7 @@
       <c r="G390" s="1"/>
       <c r="H390" s="1"/>
     </row>
-    <row r="391" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="391" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C391" s="1"/>
       <c r="D391" s="1"/>
       <c r="E391" s="1"/>
@@ -3878,7 +3593,7 @@
       <c r="G391" s="1"/>
       <c r="H391" s="1"/>
     </row>
-    <row r="392" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="392" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C392" s="1"/>
       <c r="D392" s="1"/>
       <c r="E392" s="1"/>
@@ -3886,7 +3601,7 @@
       <c r="G392" s="1"/>
       <c r="H392" s="1"/>
     </row>
-    <row r="393" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="393" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C393" s="1"/>
       <c r="D393" s="1"/>
       <c r="E393" s="1"/>
@@ -3894,7 +3609,7 @@
       <c r="G393" s="1"/>
       <c r="H393" s="1"/>
     </row>
-    <row r="394" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="394" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C394" s="1"/>
       <c r="D394" s="1"/>
       <c r="E394" s="1"/>
@@ -3902,7 +3617,7 @@
       <c r="G394" s="1"/>
       <c r="H394" s="1"/>
     </row>
-    <row r="395" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="395" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C395" s="1"/>
       <c r="D395" s="1"/>
       <c r="E395" s="1"/>
@@ -3910,7 +3625,7 @@
       <c r="G395" s="1"/>
       <c r="H395" s="1"/>
     </row>
-    <row r="396" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="396" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C396" s="1"/>
       <c r="D396" s="1"/>
       <c r="E396" s="1"/>
@@ -3918,7 +3633,7 @@
       <c r="G396" s="1"/>
       <c r="H396" s="1"/>
     </row>
-    <row r="397" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="397" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C397" s="1"/>
       <c r="D397" s="1"/>
       <c r="E397" s="1"/>
@@ -3926,7 +3641,7 @@
       <c r="G397" s="1"/>
       <c r="H397" s="1"/>
     </row>
-    <row r="398" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="398" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C398" s="1"/>
       <c r="D398" s="1"/>
       <c r="E398" s="1"/>
@@ -3934,7 +3649,7 @@
       <c r="G398" s="1"/>
       <c r="H398" s="1"/>
     </row>
-    <row r="399" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="399" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C399" s="1"/>
       <c r="D399" s="1"/>
       <c r="E399" s="1"/>
@@ -3942,7 +3657,7 @@
       <c r="G399" s="1"/>
       <c r="H399" s="1"/>
     </row>
-    <row r="400" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="400" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C400" s="1"/>
       <c r="D400" s="1"/>
       <c r="E400" s="1"/>
@@ -3950,7 +3665,7 @@
       <c r="G400" s="1"/>
       <c r="H400" s="1"/>
     </row>
-    <row r="401" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="401" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C401" s="1"/>
       <c r="D401" s="1"/>
       <c r="E401" s="1"/>
@@ -3958,7 +3673,7 @@
       <c r="G401" s="1"/>
       <c r="H401" s="1"/>
     </row>
-    <row r="402" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="402" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C402" s="1"/>
       <c r="D402" s="1"/>
       <c r="E402" s="1"/>
@@ -3966,7 +3681,7 @@
       <c r="G402" s="1"/>
       <c r="H402" s="1"/>
     </row>
-    <row r="403" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="403" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C403" s="1"/>
       <c r="D403" s="1"/>
       <c r="E403" s="1"/>
@@ -3974,7 +3689,7 @@
       <c r="G403" s="1"/>
       <c r="H403" s="1"/>
     </row>
-    <row r="404" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="404" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C404" s="1"/>
       <c r="D404" s="1"/>
       <c r="E404" s="1"/>
@@ -3982,7 +3697,7 @@
       <c r="G404" s="1"/>
       <c r="H404" s="1"/>
     </row>
-    <row r="405" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="405" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C405" s="1"/>
       <c r="D405" s="1"/>
       <c r="E405" s="1"/>
@@ -3990,7 +3705,7 @@
       <c r="G405" s="1"/>
       <c r="H405" s="1"/>
     </row>
-    <row r="406" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="406" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C406" s="1"/>
       <c r="D406" s="1"/>
       <c r="E406" s="1"/>
@@ -3998,7 +3713,7 @@
       <c r="G406" s="1"/>
       <c r="H406" s="1"/>
     </row>
-    <row r="407" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="407" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C407" s="1"/>
       <c r="D407" s="1"/>
       <c r="E407" s="1"/>
@@ -4006,7 +3721,7 @@
       <c r="G407" s="1"/>
       <c r="H407" s="1"/>
     </row>
-    <row r="408" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="408" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C408" s="1"/>
       <c r="D408" s="1"/>
       <c r="E408" s="1"/>
@@ -4014,7 +3729,7 @@
       <c r="G408" s="1"/>
       <c r="H408" s="1"/>
     </row>
-    <row r="409" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="409" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C409" s="1"/>
       <c r="D409" s="1"/>
       <c r="E409" s="1"/>
@@ -4022,7 +3737,7 @@
       <c r="G409" s="1"/>
       <c r="H409" s="1"/>
     </row>
-    <row r="410" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="410" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C410" s="1"/>
       <c r="D410" s="1"/>
       <c r="E410" s="1"/>
@@ -4030,7 +3745,7 @@
       <c r="G410" s="1"/>
       <c r="H410" s="1"/>
     </row>
-    <row r="411" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="411" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C411" s="1"/>
       <c r="D411" s="1"/>
       <c r="E411" s="1"/>
@@ -4038,7 +3753,7 @@
       <c r="G411" s="1"/>
       <c r="H411" s="1"/>
     </row>
-    <row r="412" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="412" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C412" s="1"/>
       <c r="D412" s="1"/>
       <c r="E412" s="1"/>
@@ -4046,7 +3761,7 @@
       <c r="G412" s="1"/>
       <c r="H412" s="1"/>
     </row>
-    <row r="413" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="413" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C413" s="1"/>
       <c r="D413" s="1"/>
       <c r="E413" s="1"/>
@@ -4054,7 +3769,7 @@
       <c r="G413" s="1"/>
       <c r="H413" s="1"/>
     </row>
-    <row r="414" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="414" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C414" s="1"/>
       <c r="D414" s="1"/>
       <c r="E414" s="1"/>
@@ -4062,7 +3777,7 @@
       <c r="G414" s="1"/>
       <c r="H414" s="1"/>
     </row>
-    <row r="415" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="415" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C415" s="1"/>
       <c r="D415" s="1"/>
       <c r="E415" s="1"/>
@@ -4070,7 +3785,7 @@
       <c r="G415" s="1"/>
       <c r="H415" s="1"/>
     </row>
-    <row r="416" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="416" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C416" s="1"/>
       <c r="D416" s="1"/>
       <c r="E416" s="1"/>
@@ -4078,7 +3793,7 @@
       <c r="G416" s="1"/>
       <c r="H416" s="1"/>
     </row>
-    <row r="417" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="417" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C417" s="1"/>
       <c r="D417" s="1"/>
       <c r="E417" s="1"/>
@@ -4086,7 +3801,7 @@
       <c r="G417" s="1"/>
       <c r="H417" s="1"/>
     </row>
-    <row r="418" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="418" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C418" s="1"/>
       <c r="D418" s="1"/>
       <c r="E418" s="1"/>
@@ -4094,7 +3809,7 @@
       <c r="G418" s="1"/>
       <c r="H418" s="1"/>
     </row>
-    <row r="419" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="419" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C419" s="1"/>
       <c r="D419" s="1"/>
       <c r="E419" s="1"/>
@@ -4102,7 +3817,7 @@
       <c r="G419" s="1"/>
       <c r="H419" s="1"/>
     </row>
-    <row r="420" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="420" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C420" s="1"/>
       <c r="D420" s="1"/>
       <c r="E420" s="1"/>
@@ -4110,7 +3825,7 @@
       <c r="G420" s="1"/>
       <c r="H420" s="1"/>
     </row>
-    <row r="421" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="421" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C421" s="1"/>
       <c r="D421" s="1"/>
       <c r="E421" s="1"/>
@@ -4118,7 +3833,7 @@
       <c r="G421" s="1"/>
       <c r="H421" s="1"/>
     </row>
-    <row r="422" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="422" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C422" s="1"/>
       <c r="D422" s="1"/>
       <c r="E422" s="1"/>
@@ -4126,7 +3841,7 @@
       <c r="G422" s="1"/>
       <c r="H422" s="1"/>
     </row>
-    <row r="423" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="423" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C423" s="1"/>
       <c r="D423" s="1"/>
       <c r="E423" s="1"/>
@@ -4134,7 +3849,7 @@
       <c r="G423" s="1"/>
       <c r="H423" s="1"/>
     </row>
-    <row r="424" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="424" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C424" s="1"/>
       <c r="D424" s="1"/>
       <c r="E424" s="1"/>
@@ -4142,7 +3857,7 @@
       <c r="G424" s="1"/>
       <c r="H424" s="1"/>
     </row>
-    <row r="425" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="425" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C425" s="1"/>
       <c r="D425" s="1"/>
       <c r="E425" s="1"/>
@@ -4150,7 +3865,7 @@
       <c r="G425" s="1"/>
       <c r="H425" s="1"/>
     </row>
-    <row r="426" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="426" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C426" s="1"/>
       <c r="D426" s="1"/>
       <c r="E426" s="1"/>
@@ -4158,7 +3873,7 @@
       <c r="G426" s="1"/>
       <c r="H426" s="1"/>
     </row>
-    <row r="427" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="427" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C427" s="1"/>
       <c r="D427" s="1"/>
       <c r="E427" s="1"/>
@@ -4166,7 +3881,7 @@
       <c r="G427" s="1"/>
       <c r="H427" s="1"/>
     </row>
-    <row r="428" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="428" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C428" s="1"/>
       <c r="D428" s="1"/>
       <c r="E428" s="1"/>
@@ -4174,7 +3889,7 @@
       <c r="G428" s="1"/>
       <c r="H428" s="1"/>
     </row>
-    <row r="429" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="429" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C429" s="1"/>
       <c r="D429" s="1"/>
       <c r="E429" s="1"/>
@@ -4182,7 +3897,7 @@
       <c r="G429" s="1"/>
       <c r="H429" s="1"/>
     </row>
-    <row r="430" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="430" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C430" s="1"/>
       <c r="D430" s="1"/>
       <c r="E430" s="1"/>
@@ -4190,7 +3905,7 @@
       <c r="G430" s="1"/>
       <c r="H430" s="1"/>
     </row>
-    <row r="431" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="431" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C431" s="1"/>
       <c r="D431" s="1"/>
       <c r="E431" s="1"/>
@@ -4198,7 +3913,7 @@
       <c r="G431" s="1"/>
       <c r="H431" s="1"/>
     </row>
-    <row r="432" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="432" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C432" s="1"/>
       <c r="D432" s="1"/>
       <c r="E432" s="1"/>
@@ -4206,7 +3921,7 @@
       <c r="G432" s="1"/>
       <c r="H432" s="1"/>
     </row>
-    <row r="433" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="433" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C433" s="1"/>
       <c r="D433" s="1"/>
       <c r="E433" s="1"/>
@@ -4214,7 +3929,7 @@
       <c r="G433" s="1"/>
       <c r="H433" s="1"/>
     </row>
-    <row r="434" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="434" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C434" s="1"/>
       <c r="D434" s="1"/>
       <c r="E434" s="1"/>
@@ -4222,7 +3937,7 @@
       <c r="G434" s="1"/>
       <c r="H434" s="1"/>
     </row>
-    <row r="435" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="435" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C435" s="1"/>
       <c r="D435" s="1"/>
       <c r="E435" s="1"/>
@@ -4230,7 +3945,7 @@
       <c r="G435" s="1"/>
       <c r="H435" s="1"/>
     </row>
-    <row r="436" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="436" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C436" s="1"/>
       <c r="D436" s="1"/>
       <c r="E436" s="1"/>
@@ -4238,7 +3953,7 @@
       <c r="G436" s="1"/>
       <c r="H436" s="1"/>
     </row>
-    <row r="437" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="437" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C437" s="1"/>
       <c r="D437" s="1"/>
       <c r="E437" s="1"/>
@@ -4246,7 +3961,7 @@
       <c r="G437" s="1"/>
       <c r="H437" s="1"/>
     </row>
-    <row r="438" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="438" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C438" s="1"/>
       <c r="D438" s="1"/>
       <c r="E438" s="1"/>
@@ -4254,7 +3969,7 @@
       <c r="G438" s="1"/>
       <c r="H438" s="1"/>
     </row>
-    <row r="439" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="439" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C439" s="1"/>
       <c r="D439" s="1"/>
       <c r="E439" s="1"/>
@@ -4262,7 +3977,7 @@
       <c r="G439" s="1"/>
       <c r="H439" s="1"/>
     </row>
-    <row r="440" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="440" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C440" s="1"/>
       <c r="D440" s="1"/>
       <c r="E440" s="1"/>
@@ -4270,7 +3985,7 @@
       <c r="G440" s="1"/>
       <c r="H440" s="1"/>
     </row>
-    <row r="441" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="441" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C441" s="1"/>
       <c r="D441" s="1"/>
       <c r="E441" s="1"/>
@@ -4278,7 +3993,7 @@
       <c r="G441" s="1"/>
       <c r="H441" s="1"/>
     </row>
-    <row r="442" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="442" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C442" s="1"/>
       <c r="D442" s="1"/>
       <c r="E442" s="1"/>
@@ -4286,7 +4001,7 @@
       <c r="G442" s="1"/>
       <c r="H442" s="1"/>
     </row>
-    <row r="443" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="443" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C443" s="1"/>
       <c r="D443" s="1"/>
       <c r="E443" s="1"/>
@@ -4294,7 +4009,7 @@
       <c r="G443" s="1"/>
       <c r="H443" s="1"/>
     </row>
-    <row r="444" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="444" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C444" s="1"/>
       <c r="D444" s="1"/>
       <c r="E444" s="1"/>
@@ -4302,7 +4017,7 @@
       <c r="G444" s="1"/>
       <c r="H444" s="1"/>
     </row>
-    <row r="445" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="445" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C445" s="1"/>
       <c r="D445" s="1"/>
       <c r="E445" s="1"/>
@@ -4310,7 +4025,7 @@
       <c r="G445" s="1"/>
       <c r="H445" s="1"/>
     </row>
-    <row r="446" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="446" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C446" s="1"/>
       <c r="D446" s="1"/>
       <c r="E446" s="1"/>
@@ -4318,7 +4033,7 @@
       <c r="G446" s="1"/>
       <c r="H446" s="1"/>
     </row>
-    <row r="447" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="447" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C447" s="1"/>
       <c r="D447" s="1"/>
       <c r="E447" s="1"/>
@@ -4326,7 +4041,7 @@
       <c r="G447" s="1"/>
       <c r="H447" s="1"/>
     </row>
-    <row r="448" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="448" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C448" s="1"/>
       <c r="D448" s="1"/>
       <c r="E448" s="1"/>
@@ -4334,7 +4049,7 @@
       <c r="G448" s="1"/>
       <c r="H448" s="1"/>
     </row>
-    <row r="449" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="449" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C449" s="1"/>
       <c r="D449" s="1"/>
       <c r="E449" s="1"/>
@@ -4342,7 +4057,7 @@
       <c r="G449" s="1"/>
       <c r="H449" s="1"/>
     </row>
-    <row r="450" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="450" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C450" s="1"/>
       <c r="D450" s="1"/>
       <c r="E450" s="1"/>
@@ -4350,7 +4065,7 @@
       <c r="G450" s="1"/>
       <c r="H450" s="1"/>
     </row>
-    <row r="451" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="451" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C451" s="1"/>
       <c r="D451" s="1"/>
       <c r="E451" s="1"/>
@@ -4358,7 +4073,7 @@
       <c r="G451" s="1"/>
       <c r="H451" s="1"/>
     </row>
-    <row r="452" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="452" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C452" s="1"/>
       <c r="D452" s="1"/>
       <c r="E452" s="1"/>
@@ -4366,7 +4081,7 @@
       <c r="G452" s="1"/>
       <c r="H452" s="1"/>
     </row>
-    <row r="453" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="453" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C453" s="1"/>
       <c r="D453" s="1"/>
       <c r="E453" s="1"/>
@@ -4374,7 +4089,7 @@
       <c r="G453" s="1"/>
       <c r="H453" s="1"/>
     </row>
-    <row r="454" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="454" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C454" s="1"/>
       <c r="D454" s="1"/>
       <c r="E454" s="1"/>
@@ -4382,7 +4097,7 @@
       <c r="G454" s="1"/>
       <c r="H454" s="1"/>
     </row>
-    <row r="455" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="455" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C455" s="1"/>
       <c r="D455" s="1"/>
       <c r="E455" s="1"/>
@@ -4390,7 +4105,7 @@
       <c r="G455" s="1"/>
       <c r="H455" s="1"/>
     </row>
-    <row r="456" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="456" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C456" s="1"/>
       <c r="D456" s="1"/>
       <c r="E456" s="1"/>
@@ -4398,7 +4113,7 @@
       <c r="G456" s="1"/>
       <c r="H456" s="1"/>
     </row>
-    <row r="457" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="457" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C457" s="1"/>
       <c r="D457" s="1"/>
       <c r="E457" s="1"/>
@@ -4406,7 +4121,7 @@
       <c r="G457" s="1"/>
       <c r="H457" s="1"/>
     </row>
-    <row r="458" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="458" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C458" s="1"/>
       <c r="D458" s="1"/>
       <c r="E458" s="1"/>
@@ -4414,7 +4129,7 @@
       <c r="G458" s="1"/>
       <c r="H458" s="1"/>
     </row>
-    <row r="459" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="459" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C459" s="1"/>
       <c r="D459" s="1"/>
       <c r="E459" s="1"/>
@@ -4422,7 +4137,7 @@
       <c r="G459" s="1"/>
       <c r="H459" s="1"/>
     </row>
-    <row r="460" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="460" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C460" s="1"/>
       <c r="D460" s="1"/>
       <c r="E460" s="1"/>
@@ -4430,7 +4145,7 @@
       <c r="G460" s="1"/>
       <c r="H460" s="1"/>
     </row>
-    <row r="461" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="461" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C461" s="1"/>
       <c r="D461" s="1"/>
       <c r="E461" s="1"/>
@@ -4438,7 +4153,7 @@
       <c r="G461" s="1"/>
       <c r="H461" s="1"/>
     </row>
-    <row r="462" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="462" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C462" s="1"/>
       <c r="D462" s="1"/>
       <c r="E462" s="1"/>
@@ -4446,7 +4161,7 @@
       <c r="G462" s="1"/>
       <c r="H462" s="1"/>
     </row>
-    <row r="463" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="463" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C463" s="1"/>
       <c r="D463" s="1"/>
       <c r="E463" s="1"/>
@@ -4454,7 +4169,7 @@
       <c r="G463" s="1"/>
       <c r="H463" s="1"/>
     </row>
-    <row r="464" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="464" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C464" s="1"/>
       <c r="D464" s="1"/>
       <c r="E464" s="1"/>
@@ -4462,7 +4177,7 @@
       <c r="G464" s="1"/>
       <c r="H464" s="1"/>
     </row>
-    <row r="465" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="465" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C465" s="1"/>
       <c r="D465" s="1"/>
       <c r="E465" s="1"/>
@@ -4470,7 +4185,7 @@
       <c r="G465" s="1"/>
       <c r="H465" s="1"/>
     </row>
-    <row r="466" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="466" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C466" s="1"/>
       <c r="D466" s="1"/>
       <c r="E466" s="1"/>
@@ -4478,7 +4193,7 @@
       <c r="G466" s="1"/>
       <c r="H466" s="1"/>
     </row>
-    <row r="467" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="467" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C467" s="1"/>
       <c r="D467" s="1"/>
       <c r="E467" s="1"/>
@@ -4486,7 +4201,7 @@
       <c r="G467" s="1"/>
       <c r="H467" s="1"/>
     </row>
-    <row r="468" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="468" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C468" s="1"/>
       <c r="D468" s="1"/>
       <c r="E468" s="1"/>
@@ -4494,7 +4209,7 @@
       <c r="G468" s="1"/>
       <c r="H468" s="1"/>
     </row>
-    <row r="469" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="469" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C469" s="1"/>
       <c r="D469" s="1"/>
       <c r="E469" s="1"/>
@@ -4502,7 +4217,7 @@
       <c r="G469" s="1"/>
       <c r="H469" s="1"/>
     </row>
-    <row r="470" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="470" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C470" s="1"/>
       <c r="D470" s="1"/>
       <c r="E470" s="1"/>
@@ -4510,7 +4225,7 @@
       <c r="G470" s="1"/>
       <c r="H470" s="1"/>
     </row>
-    <row r="471" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="471" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C471" s="1"/>
       <c r="D471" s="1"/>
       <c r="E471" s="1"/>
@@ -4518,7 +4233,7 @@
       <c r="G471" s="1"/>
       <c r="H471" s="1"/>
     </row>
-    <row r="472" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="472" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C472" s="1"/>
       <c r="D472" s="1"/>
       <c r="E472" s="1"/>
@@ -4526,7 +4241,7 @@
       <c r="G472" s="1"/>
       <c r="H472" s="1"/>
     </row>
-    <row r="473" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="473" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C473" s="1"/>
       <c r="D473" s="1"/>
       <c r="E473" s="1"/>
@@ -4534,7 +4249,7 @@
       <c r="G473" s="1"/>
       <c r="H473" s="1"/>
     </row>
-    <row r="474" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="474" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C474" s="1"/>
       <c r="D474" s="1"/>
       <c r="E474" s="1"/>
@@ -4542,7 +4257,7 @@
       <c r="G474" s="1"/>
       <c r="H474" s="1"/>
     </row>
-    <row r="475" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="475" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C475" s="1"/>
       <c r="D475" s="1"/>
       <c r="E475" s="1"/>
@@ -4550,7 +4265,7 @@
       <c r="G475" s="1"/>
       <c r="H475" s="1"/>
     </row>
-    <row r="476" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="476" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C476" s="1"/>
       <c r="D476" s="1"/>
       <c r="E476" s="1"/>
@@ -4558,7 +4273,7 @@
       <c r="G476" s="1"/>
       <c r="H476" s="1"/>
     </row>
-    <row r="477" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="477" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C477" s="1"/>
       <c r="D477" s="1"/>
       <c r="E477" s="1"/>
@@ -4566,7 +4281,7 @@
       <c r="G477" s="1"/>
       <c r="H477" s="1"/>
     </row>
-    <row r="478" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="478" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C478" s="1"/>
       <c r="D478" s="1"/>
       <c r="E478" s="1"/>
@@ -4574,7 +4289,7 @@
       <c r="G478" s="1"/>
       <c r="H478" s="1"/>
     </row>
-    <row r="479" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="479" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C479" s="1"/>
       <c r="D479" s="1"/>
       <c r="E479" s="1"/>
@@ -4582,7 +4297,7 @@
       <c r="G479" s="1"/>
       <c r="H479" s="1"/>
     </row>
-    <row r="480" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="480" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C480" s="1"/>
       <c r="D480" s="1"/>
       <c r="E480" s="1"/>
@@ -4590,7 +4305,7 @@
       <c r="G480" s="1"/>
       <c r="H480" s="1"/>
     </row>
-    <row r="481" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="481" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C481" s="1"/>
       <c r="D481" s="1"/>
       <c r="E481" s="1"/>
@@ -4598,7 +4313,7 @@
       <c r="G481" s="1"/>
       <c r="H481" s="1"/>
     </row>
-    <row r="482" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="482" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C482" s="1"/>
       <c r="D482" s="1"/>
       <c r="E482" s="1"/>
@@ -4606,7 +4321,7 @@
       <c r="G482" s="1"/>
       <c r="H482" s="1"/>
     </row>
-    <row r="483" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="483" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C483" s="1"/>
       <c r="D483" s="1"/>
       <c r="E483" s="1"/>
@@ -4614,7 +4329,7 @@
       <c r="G483" s="1"/>
       <c r="H483" s="1"/>
     </row>
-    <row r="484" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="484" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C484" s="1"/>
       <c r="D484" s="1"/>
       <c r="E484" s="1"/>
@@ -4622,7 +4337,7 @@
       <c r="G484" s="1"/>
       <c r="H484" s="1"/>
     </row>
-    <row r="485" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="485" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C485" s="1"/>
       <c r="D485" s="1"/>
       <c r="E485" s="1"/>
@@ -4630,7 +4345,7 @@
       <c r="G485" s="1"/>
       <c r="H485" s="1"/>
     </row>
-    <row r="486" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="486" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C486" s="1"/>
       <c r="D486" s="1"/>
       <c r="E486" s="1"/>
@@ -4638,7 +4353,7 @@
       <c r="G486" s="1"/>
       <c r="H486" s="1"/>
     </row>
-    <row r="487" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="487" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C487" s="1"/>
       <c r="D487" s="1"/>
       <c r="E487" s="1"/>
@@ -4646,7 +4361,7 @@
       <c r="G487" s="1"/>
       <c r="H487" s="1"/>
     </row>
-    <row r="488" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="488" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C488" s="1"/>
       <c r="D488" s="1"/>
       <c r="E488" s="1"/>
@@ -4654,7 +4369,7 @@
       <c r="G488" s="1"/>
       <c r="H488" s="1"/>
     </row>
-    <row r="489" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="489" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C489" s="1"/>
       <c r="D489" s="1"/>
       <c r="E489" s="1"/>
@@ -4662,7 +4377,7 @@
       <c r="G489" s="1"/>
       <c r="H489" s="1"/>
     </row>
-    <row r="490" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="490" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C490" s="1"/>
       <c r="D490" s="1"/>
       <c r="E490" s="1"/>
@@ -4670,7 +4385,7 @@
       <c r="G490" s="1"/>
       <c r="H490" s="1"/>
     </row>
-    <row r="491" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="491" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C491" s="1"/>
       <c r="D491" s="1"/>
       <c r="E491" s="1"/>
@@ -4678,7 +4393,7 @@
       <c r="G491" s="1"/>
       <c r="H491" s="1"/>
     </row>
-    <row r="492" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="492" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C492" s="1"/>
       <c r="D492" s="1"/>
       <c r="E492" s="1"/>
@@ -4686,7 +4401,7 @@
       <c r="G492" s="1"/>
       <c r="H492" s="1"/>
     </row>
-    <row r="493" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="493" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C493" s="1"/>
       <c r="D493" s="1"/>
       <c r="E493" s="1"/>
@@ -4694,7 +4409,7 @@
       <c r="G493" s="1"/>
       <c r="H493" s="1"/>
     </row>
-    <row r="494" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="494" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C494" s="1"/>
       <c r="D494" s="1"/>
       <c r="E494" s="1"/>
@@ -4702,7 +4417,7 @@
       <c r="G494" s="1"/>
       <c r="H494" s="1"/>
     </row>
-    <row r="495" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="495" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C495" s="1"/>
       <c r="D495" s="1"/>
       <c r="E495" s="1"/>
@@ -4710,7 +4425,7 @@
       <c r="G495" s="1"/>
       <c r="H495" s="1"/>
     </row>
-    <row r="496" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="496" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C496" s="1"/>
       <c r="D496" s="1"/>
       <c r="E496" s="1"/>
@@ -4718,7 +4433,7 @@
       <c r="G496" s="1"/>
       <c r="H496" s="1"/>
     </row>
-    <row r="497" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="497" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C497" s="1"/>
       <c r="D497" s="1"/>
       <c r="E497" s="1"/>
@@ -4726,7 +4441,7 @@
       <c r="G497" s="1"/>
       <c r="H497" s="1"/>
     </row>
-    <row r="498" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="498" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C498" s="1"/>
       <c r="D498" s="1"/>
       <c r="E498" s="1"/>
@@ -4734,7 +4449,7 @@
       <c r="G498" s="1"/>
       <c r="H498" s="1"/>
     </row>
-    <row r="499" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="499" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C499" s="1"/>
       <c r="D499" s="1"/>
       <c r="E499" s="1"/>
@@ -4742,7 +4457,7 @@
       <c r="G499" s="1"/>
       <c r="H499" s="1"/>
     </row>
-    <row r="500" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="500" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C500" s="1"/>
       <c r="D500" s="1"/>
       <c r="E500" s="1"/>
@@ -4750,7 +4465,7 @@
       <c r="G500" s="1"/>
       <c r="H500" s="1"/>
     </row>
-    <row r="501" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="501" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C501" s="1"/>
       <c r="D501" s="1"/>
       <c r="E501" s="1"/>
@@ -4758,7 +4473,7 @@
       <c r="G501" s="1"/>
       <c r="H501" s="1"/>
     </row>
-    <row r="502" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="502" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C502" s="1"/>
       <c r="D502" s="1"/>
       <c r="E502" s="1"/>
@@ -4766,7 +4481,7 @@
       <c r="G502" s="1"/>
       <c r="H502" s="1"/>
     </row>
-    <row r="503" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="503" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C503" s="1"/>
       <c r="D503" s="1"/>
       <c r="E503" s="1"/>
@@ -4774,7 +4489,7 @@
       <c r="G503" s="1"/>
       <c r="H503" s="1"/>
     </row>
-    <row r="504" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="504" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C504" s="1"/>
       <c r="D504" s="1"/>
       <c r="E504" s="1"/>
@@ -4782,7 +4497,7 @@
       <c r="G504" s="1"/>
       <c r="H504" s="1"/>
     </row>
-    <row r="505" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="505" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C505" s="1"/>
       <c r="D505" s="1"/>
       <c r="E505" s="1"/>
@@ -4790,7 +4505,7 @@
       <c r="G505" s="1"/>
       <c r="H505" s="1"/>
     </row>
-    <row r="506" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="506" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C506" s="1"/>
       <c r="D506" s="1"/>
       <c r="E506" s="1"/>
@@ -4798,7 +4513,7 @@
       <c r="G506" s="1"/>
       <c r="H506" s="1"/>
     </row>
-    <row r="507" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="507" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C507" s="1"/>
       <c r="D507" s="1"/>
       <c r="E507" s="1"/>
@@ -4806,7 +4521,7 @@
       <c r="G507" s="1"/>
       <c r="H507" s="1"/>
     </row>
-    <row r="508" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="508" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C508" s="1"/>
       <c r="D508" s="1"/>
       <c r="E508" s="1"/>
@@ -4814,7 +4529,7 @@
       <c r="G508" s="1"/>
       <c r="H508" s="1"/>
     </row>
-    <row r="509" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="509" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C509" s="1"/>
       <c r="D509" s="1"/>
       <c r="E509" s="1"/>
@@ -4822,7 +4537,7 @@
       <c r="G509" s="1"/>
       <c r="H509" s="1"/>
     </row>
-    <row r="510" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="510" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C510" s="1"/>
       <c r="D510" s="1"/>
       <c r="E510" s="1"/>
@@ -4830,7 +4545,7 @@
       <c r="G510" s="1"/>
       <c r="H510" s="1"/>
     </row>
-    <row r="511" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="511" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C511" s="1"/>
       <c r="D511" s="1"/>
       <c r="E511" s="1"/>
@@ -4838,7 +4553,7 @@
       <c r="G511" s="1"/>
       <c r="H511" s="1"/>
     </row>
-    <row r="512" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="512" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C512" s="1"/>
       <c r="D512" s="1"/>
       <c r="E512" s="1"/>
@@ -4846,7 +4561,7 @@
       <c r="G512" s="1"/>
       <c r="H512" s="1"/>
     </row>
-    <row r="513" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="513" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C513" s="1"/>
       <c r="D513" s="1"/>
       <c r="E513" s="1"/>
@@ -4854,7 +4569,7 @@
       <c r="G513" s="1"/>
       <c r="H513" s="1"/>
     </row>
-    <row r="514" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="514" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C514" s="1"/>
       <c r="D514" s="1"/>
       <c r="E514" s="1"/>
@@ -4862,7 +4577,7 @@
       <c r="G514" s="1"/>
       <c r="H514" s="1"/>
     </row>
-    <row r="515" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="515" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C515" s="1"/>
       <c r="D515" s="1"/>
       <c r="E515" s="1"/>
@@ -4870,7 +4585,7 @@
       <c r="G515" s="1"/>
       <c r="H515" s="1"/>
     </row>
-    <row r="516" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="516" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C516" s="1"/>
       <c r="D516" s="1"/>
       <c r="E516" s="1"/>
@@ -4878,7 +4593,7 @@
       <c r="G516" s="1"/>
       <c r="H516" s="1"/>
     </row>
-    <row r="517" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="517" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C517" s="1"/>
       <c r="D517" s="1"/>
       <c r="E517" s="1"/>
@@ -4886,7 +4601,7 @@
       <c r="G517" s="1"/>
       <c r="H517" s="1"/>
     </row>
-    <row r="518" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="518" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C518" s="1"/>
       <c r="D518" s="1"/>
       <c r="E518" s="1"/>
@@ -4894,7 +4609,7 @@
       <c r="G518" s="1"/>
       <c r="H518" s="1"/>
     </row>
-    <row r="519" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="519" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C519" s="1"/>
       <c r="D519" s="1"/>
       <c r="E519" s="1"/>
@@ -4902,7 +4617,7 @@
       <c r="G519" s="1"/>
       <c r="H519" s="1"/>
     </row>
-    <row r="520" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="520" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C520" s="1"/>
       <c r="D520" s="1"/>
       <c r="E520" s="1"/>
@@ -4910,7 +4625,7 @@
       <c r="G520" s="1"/>
       <c r="H520" s="1"/>
     </row>
-    <row r="521" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="521" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C521" s="1"/>
       <c r="D521" s="1"/>
       <c r="E521" s="1"/>
@@ -4918,7 +4633,7 @@
       <c r="G521" s="1"/>
       <c r="H521" s="1"/>
     </row>
-    <row r="522" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="522" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C522" s="1"/>
       <c r="D522" s="1"/>
       <c r="E522" s="1"/>
@@ -4926,7 +4641,7 @@
       <c r="G522" s="1"/>
       <c r="H522" s="1"/>
     </row>
-    <row r="523" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="523" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C523" s="1"/>
       <c r="D523" s="1"/>
       <c r="E523" s="1"/>
@@ -4934,7 +4649,7 @@
       <c r="G523" s="1"/>
       <c r="H523" s="1"/>
     </row>
-    <row r="524" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="524" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C524" s="1"/>
       <c r="D524" s="1"/>
       <c r="E524" s="1"/>
@@ -4942,7 +4657,7 @@
       <c r="G524" s="1"/>
       <c r="H524" s="1"/>
     </row>
-    <row r="525" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="525" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C525" s="1"/>
       <c r="D525" s="1"/>
       <c r="E525" s="1"/>
@@ -4950,7 +4665,7 @@
       <c r="G525" s="1"/>
       <c r="H525" s="1"/>
     </row>
-    <row r="526" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="526" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C526" s="1"/>
       <c r="D526" s="1"/>
       <c r="E526" s="1"/>
@@ -4958,7 +4673,7 @@
       <c r="G526" s="1"/>
       <c r="H526" s="1"/>
     </row>
-    <row r="527" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="527" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C527" s="1"/>
       <c r="D527" s="1"/>
       <c r="E527" s="1"/>
@@ -4966,7 +4681,7 @@
       <c r="G527" s="1"/>
       <c r="H527" s="1"/>
     </row>
-    <row r="528" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="528" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C528" s="1"/>
       <c r="D528" s="1"/>
       <c r="E528" s="1"/>
@@ -4974,7 +4689,7 @@
       <c r="G528" s="1"/>
       <c r="H528" s="1"/>
     </row>
-    <row r="529" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="529" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C529" s="1"/>
       <c r="D529" s="1"/>
       <c r="E529" s="1"/>
@@ -4982,7 +4697,7 @@
       <c r="G529" s="1"/>
       <c r="H529" s="1"/>
     </row>
-    <row r="530" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="530" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C530" s="1"/>
       <c r="D530" s="1"/>
       <c r="E530" s="1"/>
@@ -4990,7 +4705,7 @@
       <c r="G530" s="1"/>
       <c r="H530" s="1"/>
     </row>
-    <row r="531" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="531" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C531" s="1"/>
       <c r="D531" s="1"/>
       <c r="E531" s="1"/>
@@ -4998,7 +4713,7 @@
       <c r="G531" s="1"/>
       <c r="H531" s="1"/>
     </row>
-    <row r="532" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="532" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C532" s="1"/>
       <c r="D532" s="1"/>
       <c r="E532" s="1"/>
@@ -5006,7 +4721,7 @@
       <c r="G532" s="1"/>
       <c r="H532" s="1"/>
     </row>
-    <row r="533" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="533" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C533" s="1"/>
       <c r="D533" s="1"/>
       <c r="E533" s="1"/>
@@ -5014,7 +4729,7 @@
       <c r="G533" s="1"/>
       <c r="H533" s="1"/>
     </row>
-    <row r="534" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="534" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C534" s="1"/>
       <c r="D534" s="1"/>
       <c r="E534" s="1"/>
@@ -5022,7 +4737,7 @@
       <c r="G534" s="1"/>
       <c r="H534" s="1"/>
     </row>
-    <row r="535" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="535" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C535" s="1"/>
       <c r="D535" s="1"/>
       <c r="E535" s="1"/>
@@ -5030,7 +4745,7 @@
       <c r="G535" s="1"/>
       <c r="H535" s="1"/>
     </row>
-    <row r="536" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="536" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C536" s="1"/>
       <c r="D536" s="1"/>
       <c r="E536" s="1"/>
@@ -5038,7 +4753,7 @@
       <c r="G536" s="1"/>
       <c r="H536" s="1"/>
     </row>
-    <row r="537" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="537" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C537" s="1"/>
       <c r="D537" s="1"/>
       <c r="E537" s="1"/>
@@ -5046,7 +4761,7 @@
       <c r="G537" s="1"/>
       <c r="H537" s="1"/>
     </row>
-    <row r="538" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="538" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C538" s="1"/>
       <c r="D538" s="1"/>
       <c r="E538" s="1"/>
@@ -5054,7 +4769,7 @@
       <c r="G538" s="1"/>
       <c r="H538" s="1"/>
     </row>
-    <row r="539" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="539" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C539" s="1"/>
       <c r="D539" s="1"/>
       <c r="E539" s="1"/>
@@ -5062,7 +4777,7 @@
       <c r="G539" s="1"/>
       <c r="H539" s="1"/>
     </row>
-    <row r="540" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="540" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C540" s="1"/>
       <c r="D540" s="1"/>
       <c r="E540" s="1"/>
@@ -5070,7 +4785,7 @@
       <c r="G540" s="1"/>
       <c r="H540" s="1"/>
     </row>
-    <row r="541" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="541" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C541" s="1"/>
       <c r="D541" s="1"/>
       <c r="E541" s="1"/>
@@ -5078,7 +4793,7 @@
       <c r="G541" s="1"/>
       <c r="H541" s="1"/>
     </row>
-    <row r="542" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="542" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C542" s="1"/>
       <c r="D542" s="1"/>
       <c r="E542" s="1"/>
@@ -5086,7 +4801,7 @@
       <c r="G542" s="1"/>
       <c r="H542" s="1"/>
     </row>
-    <row r="543" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="543" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C543" s="1"/>
       <c r="D543" s="1"/>
       <c r="E543" s="1"/>
@@ -5094,7 +4809,7 @@
       <c r="G543" s="1"/>
       <c r="H543" s="1"/>
     </row>
-    <row r="544" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="544" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C544" s="1"/>
       <c r="D544" s="1"/>
       <c r="E544" s="1"/>
@@ -5102,7 +4817,7 @@
       <c r="G544" s="1"/>
       <c r="H544" s="1"/>
     </row>
-    <row r="545" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="545" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C545" s="1"/>
       <c r="D545" s="1"/>
       <c r="E545" s="1"/>
@@ -5110,7 +4825,7 @@
       <c r="G545" s="1"/>
       <c r="H545" s="1"/>
     </row>
-    <row r="546" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="546" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C546" s="1"/>
       <c r="D546" s="1"/>
       <c r="E546" s="1"/>
@@ -5118,7 +4833,7 @@
       <c r="G546" s="1"/>
       <c r="H546" s="1"/>
     </row>
-    <row r="547" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="547" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C547" s="1"/>
       <c r="D547" s="1"/>
       <c r="E547" s="1"/>
@@ -5126,7 +4841,7 @@
       <c r="G547" s="1"/>
       <c r="H547" s="1"/>
     </row>
-    <row r="548" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="548" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C548" s="1"/>
       <c r="D548" s="1"/>
       <c r="E548" s="1"/>
@@ -5134,7 +4849,7 @@
       <c r="G548" s="1"/>
       <c r="H548" s="1"/>
     </row>
-    <row r="549" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="549" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C549" s="1"/>
       <c r="D549" s="1"/>
       <c r="E549" s="1"/>
@@ -5142,7 +4857,7 @@
       <c r="G549" s="1"/>
       <c r="H549" s="1"/>
     </row>
-    <row r="550" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="550" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C550" s="1"/>
       <c r="D550" s="1"/>
       <c r="E550" s="1"/>
@@ -5150,7 +4865,7 @@
       <c r="G550" s="1"/>
       <c r="H550" s="1"/>
     </row>
-    <row r="551" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="551" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C551" s="1"/>
       <c r="D551" s="1"/>
       <c r="E551" s="1"/>
@@ -5158,7 +4873,7 @@
       <c r="G551" s="1"/>
       <c r="H551" s="1"/>
     </row>
-    <row r="552" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="552" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C552" s="1"/>
       <c r="D552" s="1"/>
       <c r="E552" s="1"/>
@@ -5166,7 +4881,7 @@
       <c r="G552" s="1"/>
       <c r="H552" s="1"/>
     </row>
-    <row r="553" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="553" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C553" s="1"/>
       <c r="D553" s="1"/>
       <c r="E553" s="1"/>
@@ -5174,7 +4889,7 @@
       <c r="G553" s="1"/>
       <c r="H553" s="1"/>
     </row>
-    <row r="554" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="554" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C554" s="1"/>
       <c r="D554" s="1"/>
       <c r="E554" s="1"/>
@@ -5182,7 +4897,7 @@
       <c r="G554" s="1"/>
       <c r="H554" s="1"/>
     </row>
-    <row r="555" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="555" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C555" s="1"/>
       <c r="D555" s="1"/>
       <c r="E555" s="1"/>
@@ -5190,7 +4905,7 @@
       <c r="G555" s="1"/>
       <c r="H555" s="1"/>
     </row>
-    <row r="556" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="556" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C556" s="1"/>
       <c r="D556" s="1"/>
       <c r="E556" s="1"/>
@@ -5198,7 +4913,7 @@
       <c r="G556" s="1"/>
       <c r="H556" s="1"/>
     </row>
-    <row r="557" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="557" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C557" s="1"/>
       <c r="D557" s="1"/>
       <c r="E557" s="1"/>
@@ -5206,7 +4921,7 @@
       <c r="G557" s="1"/>
       <c r="H557" s="1"/>
     </row>
-    <row r="558" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="558" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C558" s="1"/>
       <c r="D558" s="1"/>
       <c r="E558" s="1"/>
@@ -5214,7 +4929,7 @@
       <c r="G558" s="1"/>
       <c r="H558" s="1"/>
     </row>
-    <row r="559" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="559" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C559" s="1"/>
       <c r="D559" s="1"/>
       <c r="E559" s="1"/>
@@ -5222,7 +4937,7 @@
       <c r="G559" s="1"/>
       <c r="H559" s="1"/>
     </row>
-    <row r="560" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="560" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C560" s="1"/>
       <c r="D560" s="1"/>
       <c r="E560" s="1"/>
@@ -5230,7 +4945,7 @@
       <c r="G560" s="1"/>
       <c r="H560" s="1"/>
     </row>
-    <row r="561" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="561" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C561" s="1"/>
       <c r="D561" s="1"/>
       <c r="E561" s="1"/>
@@ -5238,7 +4953,7 @@
       <c r="G561" s="1"/>
       <c r="H561" s="1"/>
     </row>
-    <row r="562" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="562" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C562" s="1"/>
       <c r="D562" s="1"/>
       <c r="E562" s="1"/>
@@ -5246,7 +4961,7 @@
       <c r="G562" s="1"/>
       <c r="H562" s="1"/>
     </row>
-    <row r="563" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="563" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C563" s="1"/>
       <c r="D563" s="1"/>
       <c r="E563" s="1"/>
@@ -5254,7 +4969,7 @@
       <c r="G563" s="1"/>
       <c r="H563" s="1"/>
     </row>
-    <row r="564" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="564" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C564" s="1"/>
       <c r="D564" s="1"/>
       <c r="E564" s="1"/>
@@ -5262,7 +4977,7 @@
       <c r="G564" s="1"/>
       <c r="H564" s="1"/>
     </row>
-    <row r="565" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="565" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C565" s="1"/>
       <c r="D565" s="1"/>
       <c r="E565" s="1"/>
@@ -5270,7 +4985,7 @@
       <c r="G565" s="1"/>
       <c r="H565" s="1"/>
     </row>
-    <row r="566" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="566" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C566" s="1"/>
       <c r="D566" s="1"/>
       <c r="E566" s="1"/>
@@ -5278,7 +4993,7 @@
       <c r="G566" s="1"/>
       <c r="H566" s="1"/>
     </row>
-    <row r="567" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="567" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C567" s="1"/>
       <c r="D567" s="1"/>
       <c r="E567" s="1"/>
@@ -5286,7 +5001,7 @@
       <c r="G567" s="1"/>
       <c r="H567" s="1"/>
     </row>
-    <row r="568" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="568" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C568" s="1"/>
       <c r="D568" s="1"/>
       <c r="E568" s="1"/>
@@ -5294,7 +5009,7 @@
       <c r="G568" s="1"/>
       <c r="H568" s="1"/>
     </row>
-    <row r="569" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="569" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C569" s="1"/>
       <c r="D569" s="1"/>
       <c r="E569" s="1"/>
@@ -5302,7 +5017,7 @@
       <c r="G569" s="1"/>
       <c r="H569" s="1"/>
     </row>
-    <row r="570" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="570" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C570" s="1"/>
       <c r="D570" s="1"/>
       <c r="E570" s="1"/>
@@ -5310,7 +5025,7 @@
       <c r="G570" s="1"/>
       <c r="H570" s="1"/>
     </row>
-    <row r="571" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="571" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C571" s="1"/>
       <c r="D571" s="1"/>
       <c r="E571" s="1"/>
@@ -5318,7 +5033,7 @@
       <c r="G571" s="1"/>
       <c r="H571" s="1"/>
     </row>
-    <row r="572" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="572" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C572" s="1"/>
       <c r="D572" s="1"/>
       <c r="E572" s="1"/>
@@ -5326,7 +5041,7 @@
       <c r="G572" s="1"/>
       <c r="H572" s="1"/>
     </row>
-    <row r="573" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="573" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C573" s="1"/>
       <c r="D573" s="1"/>
       <c r="E573" s="1"/>
@@ -5334,7 +5049,7 @@
       <c r="G573" s="1"/>
       <c r="H573" s="1"/>
     </row>
-    <row r="574" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="574" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C574" s="1"/>
       <c r="D574" s="1"/>
       <c r="E574" s="1"/>
@@ -5342,7 +5057,7 @@
       <c r="G574" s="1"/>
       <c r="H574" s="1"/>
     </row>
-    <row r="575" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="575" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C575" s="1"/>
       <c r="D575" s="1"/>
       <c r="E575" s="1"/>
@@ -5350,7 +5065,7 @@
       <c r="G575" s="1"/>
       <c r="H575" s="1"/>
     </row>
-    <row r="576" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="576" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C576" s="1"/>
       <c r="D576" s="1"/>
       <c r="E576" s="1"/>
@@ -5358,7 +5073,7 @@
       <c r="G576" s="1"/>
       <c r="H576" s="1"/>
     </row>
-    <row r="577" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="577" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C577" s="1"/>
       <c r="D577" s="1"/>
       <c r="E577" s="1"/>
@@ -5366,7 +5081,7 @@
       <c r="G577" s="1"/>
       <c r="H577" s="1"/>
     </row>
-    <row r="578" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="578" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C578" s="1"/>
       <c r="D578" s="1"/>
       <c r="E578" s="1"/>
@@ -5374,7 +5089,7 @@
       <c r="G578" s="1"/>
       <c r="H578" s="1"/>
     </row>
-    <row r="579" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="579" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C579" s="1"/>
       <c r="D579" s="1"/>
       <c r="E579" s="1"/>
@@ -5382,7 +5097,7 @@
       <c r="G579" s="1"/>
       <c r="H579" s="1"/>
     </row>
-    <row r="580" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="580" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C580" s="1"/>
       <c r="D580" s="1"/>
       <c r="E580" s="1"/>
@@ -5390,7 +5105,7 @@
       <c r="G580" s="1"/>
       <c r="H580" s="1"/>
     </row>
-    <row r="581" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="581" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C581" s="1"/>
       <c r="D581" s="1"/>
       <c r="E581" s="1"/>
@@ -5398,7 +5113,7 @@
       <c r="G581" s="1"/>
       <c r="H581" s="1"/>
     </row>
-    <row r="582" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="582" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C582" s="1"/>
       <c r="D582" s="1"/>
       <c r="E582" s="1"/>
@@ -5406,7 +5121,7 @@
       <c r="G582" s="1"/>
       <c r="H582" s="1"/>
     </row>
-    <row r="583" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="583" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C583" s="1"/>
       <c r="D583" s="1"/>
       <c r="E583" s="1"/>
@@ -5414,7 +5129,7 @@
       <c r="G583" s="1"/>
       <c r="H583" s="1"/>
     </row>
-    <row r="584" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="584" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C584" s="1"/>
       <c r="D584" s="1"/>
       <c r="E584" s="1"/>
@@ -5422,7 +5137,7 @@
       <c r="G584" s="1"/>
       <c r="H584" s="1"/>
     </row>
-    <row r="585" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="585" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C585" s="1"/>
       <c r="D585" s="1"/>
       <c r="E585" s="1"/>
@@ -5430,7 +5145,7 @@
       <c r="G585" s="1"/>
       <c r="H585" s="1"/>
     </row>
-    <row r="586" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="586" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C586" s="1"/>
       <c r="D586" s="1"/>
       <c r="E586" s="1"/>
@@ -5438,7 +5153,7 @@
       <c r="G586" s="1"/>
       <c r="H586" s="1"/>
     </row>
-    <row r="587" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="587" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C587" s="1"/>
       <c r="D587" s="1"/>
       <c r="E587" s="1"/>
@@ -5446,7 +5161,7 @@
       <c r="G587" s="1"/>
       <c r="H587" s="1"/>
     </row>
-    <row r="588" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="588" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C588" s="1"/>
       <c r="D588" s="1"/>
       <c r="E588" s="1"/>
@@ -5454,7 +5169,7 @@
       <c r="G588" s="1"/>
       <c r="H588" s="1"/>
     </row>
-    <row r="589" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="589" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C589" s="1"/>
       <c r="D589" s="1"/>
       <c r="E589" s="1"/>
@@ -5462,7 +5177,7 @@
       <c r="G589" s="1"/>
       <c r="H589" s="1"/>
     </row>
-    <row r="590" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="590" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C590" s="1"/>
       <c r="D590" s="1"/>
       <c r="E590" s="1"/>
@@ -5470,7 +5185,7 @@
       <c r="G590" s="1"/>
       <c r="H590" s="1"/>
     </row>
-    <row r="591" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="591" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C591" s="1"/>
       <c r="D591" s="1"/>
       <c r="E591" s="1"/>
@@ -5478,7 +5193,7 @@
       <c r="G591" s="1"/>
       <c r="H591" s="1"/>
     </row>
-    <row r="592" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="592" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C592" s="1"/>
       <c r="D592" s="1"/>
       <c r="E592" s="1"/>
@@ -5486,7 +5201,7 @@
       <c r="G592" s="1"/>
       <c r="H592" s="1"/>
     </row>
-    <row r="593" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="593" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C593" s="1"/>
       <c r="D593" s="1"/>
       <c r="E593" s="1"/>
@@ -5494,7 +5209,7 @@
       <c r="G593" s="1"/>
       <c r="H593" s="1"/>
     </row>
-    <row r="594" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="594" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C594" s="1"/>
       <c r="D594" s="1"/>
       <c r="E594" s="1"/>
@@ -5502,7 +5217,7 @@
       <c r="G594" s="1"/>
       <c r="H594" s="1"/>
     </row>
-    <row r="595" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="595" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C595" s="1"/>
       <c r="D595" s="1"/>
       <c r="E595" s="1"/>
@@ -5510,7 +5225,7 @@
       <c r="G595" s="1"/>
       <c r="H595" s="1"/>
     </row>
-    <row r="596" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="596" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C596" s="1"/>
       <c r="D596" s="1"/>
       <c r="E596" s="1"/>
@@ -5518,7 +5233,7 @@
       <c r="G596" s="1"/>
       <c r="H596" s="1"/>
     </row>
-    <row r="597" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="597" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C597" s="1"/>
       <c r="D597" s="1"/>
       <c r="E597" s="1"/>
@@ -5526,7 +5241,7 @@
       <c r="G597" s="1"/>
       <c r="H597" s="1"/>
     </row>
-    <row r="598" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="598" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C598" s="1"/>
       <c r="D598" s="1"/>
       <c r="E598" s="1"/>
@@ -5534,7 +5249,7 @@
       <c r="G598" s="1"/>
       <c r="H598" s="1"/>
     </row>
-    <row r="599" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="599" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C599" s="1"/>
       <c r="D599" s="1"/>
       <c r="E599" s="1"/>
@@ -5542,7 +5257,7 @@
       <c r="G599" s="1"/>
       <c r="H599" s="1"/>
     </row>
-    <row r="600" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="600" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C600" s="1"/>
       <c r="D600" s="1"/>
       <c r="E600" s="1"/>
@@ -5550,7 +5265,7 @@
       <c r="G600" s="1"/>
       <c r="H600" s="1"/>
     </row>
-    <row r="601" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="601" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C601" s="1"/>
       <c r="D601" s="1"/>
       <c r="E601" s="1"/>
@@ -5558,7 +5273,7 @@
       <c r="G601" s="1"/>
       <c r="H601" s="1"/>
     </row>
-    <row r="602" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="602" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C602" s="1"/>
       <c r="D602" s="1"/>
       <c r="E602" s="1"/>
@@ -5566,7 +5281,7 @@
       <c r="G602" s="1"/>
       <c r="H602" s="1"/>
     </row>
-    <row r="603" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="603" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C603" s="1"/>
       <c r="D603" s="1"/>
       <c r="E603" s="1"/>
@@ -5574,7 +5289,7 @@
       <c r="G603" s="1"/>
       <c r="H603" s="1"/>
     </row>
-    <row r="604" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="604" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C604" s="1"/>
       <c r="D604" s="1"/>
       <c r="E604" s="1"/>
@@ -5582,7 +5297,7 @@
       <c r="G604" s="1"/>
       <c r="H604" s="1"/>
     </row>
-    <row r="605" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="605" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C605" s="1"/>
       <c r="D605" s="1"/>
       <c r="E605" s="1"/>
@@ -5590,7 +5305,7 @@
       <c r="G605" s="1"/>
       <c r="H605" s="1"/>
     </row>
-    <row r="606" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="606" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C606" s="1"/>
       <c r="D606" s="1"/>
       <c r="E606" s="1"/>
@@ -5598,7 +5313,7 @@
       <c r="G606" s="1"/>
       <c r="H606" s="1"/>
     </row>
-    <row r="607" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="607" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C607" s="1"/>
       <c r="D607" s="1"/>
       <c r="E607" s="1"/>
@@ -5606,7 +5321,7 @@
       <c r="G607" s="1"/>
       <c r="H607" s="1"/>
     </row>
-    <row r="608" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="608" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C608" s="1"/>
       <c r="D608" s="1"/>
       <c r="E608" s="1"/>
@@ -5614,7 +5329,7 @@
       <c r="G608" s="1"/>
       <c r="H608" s="1"/>
     </row>
-    <row r="609" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="609" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C609" s="1"/>
       <c r="D609" s="1"/>
       <c r="E609" s="1"/>
@@ -5622,7 +5337,7 @@
       <c r="G609" s="1"/>
       <c r="H609" s="1"/>
     </row>
-    <row r="610" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="610" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C610" s="1"/>
       <c r="D610" s="1"/>
       <c r="E610" s="1"/>
@@ -5630,7 +5345,7 @@
       <c r="G610" s="1"/>
       <c r="H610" s="1"/>
     </row>
-    <row r="611" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="611" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C611" s="1"/>
       <c r="D611" s="1"/>
       <c r="E611" s="1"/>
@@ -5638,7 +5353,7 @@
       <c r="G611" s="1"/>
       <c r="H611" s="1"/>
     </row>
-    <row r="612" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="612" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C612" s="1"/>
       <c r="D612" s="1"/>
       <c r="E612" s="1"/>
@@ -5646,7 +5361,7 @@
       <c r="G612" s="1"/>
       <c r="H612" s="1"/>
     </row>
-    <row r="613" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="613" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C613" s="1"/>
       <c r="D613" s="1"/>
       <c r="E613" s="1"/>
@@ -5654,7 +5369,7 @@
       <c r="G613" s="1"/>
       <c r="H613" s="1"/>
     </row>
-    <row r="614" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="614" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C614" s="1"/>
       <c r="D614" s="1"/>
       <c r="E614" s="1"/>
@@ -5662,7 +5377,7 @@
       <c r="G614" s="1"/>
       <c r="H614" s="1"/>
     </row>
-    <row r="615" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="615" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C615" s="1"/>
       <c r="D615" s="1"/>
       <c r="E615" s="1"/>
@@ -5670,7 +5385,7 @@
       <c r="G615" s="1"/>
       <c r="H615" s="1"/>
     </row>
-    <row r="616" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="616" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C616" s="1"/>
       <c r="D616" s="1"/>
       <c r="E616" s="1"/>
@@ -5678,7 +5393,7 @@
       <c r="G616" s="1"/>
       <c r="H616" s="1"/>
     </row>
-    <row r="617" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="617" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C617" s="1"/>
       <c r="D617" s="1"/>
       <c r="E617" s="1"/>
@@ -5686,7 +5401,7 @@
       <c r="G617" s="1"/>
       <c r="H617" s="1"/>
     </row>
-    <row r="618" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="618" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C618" s="1"/>
       <c r="D618" s="1"/>
       <c r="E618" s="1"/>
@@ -5694,7 +5409,7 @@
       <c r="G618" s="1"/>
       <c r="H618" s="1"/>
     </row>
-    <row r="619" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="619" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C619" s="1"/>
       <c r="D619" s="1"/>
       <c r="E619" s="1"/>
@@ -5702,7 +5417,7 @@
       <c r="G619" s="1"/>
       <c r="H619" s="1"/>
     </row>
-    <row r="620" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="620" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C620" s="1"/>
       <c r="D620" s="1"/>
       <c r="E620" s="1"/>
@@ -5710,7 +5425,7 @@
       <c r="G620" s="1"/>
       <c r="H620" s="1"/>
     </row>
-    <row r="621" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="621" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C621" s="1"/>
       <c r="D621" s="1"/>
       <c r="E621" s="1"/>
@@ -5718,7 +5433,7 @@
       <c r="G621" s="1"/>
       <c r="H621" s="1"/>
     </row>
-    <row r="622" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="622" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C622" s="1"/>
       <c r="D622" s="1"/>
       <c r="E622" s="1"/>
@@ -5726,7 +5441,7 @@
       <c r="G622" s="1"/>
       <c r="H622" s="1"/>
     </row>
-    <row r="623" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="623" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C623" s="1"/>
       <c r="D623" s="1"/>
       <c r="E623" s="1"/>
@@ -5734,7 +5449,7 @@
       <c r="G623" s="1"/>
       <c r="H623" s="1"/>
     </row>
-    <row r="624" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="624" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C624" s="1"/>
       <c r="D624" s="1"/>
       <c r="E624" s="1"/>
@@ -5742,7 +5457,7 @@
       <c r="G624" s="1"/>
       <c r="H624" s="1"/>
     </row>
-    <row r="625" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="625" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C625" s="1"/>
       <c r="D625" s="1"/>
       <c r="E625" s="1"/>
@@ -5750,7 +5465,7 @@
       <c r="G625" s="1"/>
       <c r="H625" s="1"/>
     </row>
-    <row r="626" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="626" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C626" s="1"/>
       <c r="D626" s="1"/>
       <c r="E626" s="1"/>
@@ -5758,7 +5473,7 @@
       <c r="G626" s="1"/>
       <c r="H626" s="1"/>
     </row>
-    <row r="627" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="627" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C627" s="1"/>
       <c r="D627" s="1"/>
       <c r="E627" s="1"/>
@@ -5766,7 +5481,7 @@
       <c r="G627" s="1"/>
       <c r="H627" s="1"/>
     </row>
-    <row r="628" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="628" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C628" s="1"/>
       <c r="D628" s="1"/>
       <c r="E628" s="1"/>
@@ -5774,7 +5489,7 @@
       <c r="G628" s="1"/>
       <c r="H628" s="1"/>
     </row>
-    <row r="629" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="629" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C629" s="1"/>
       <c r="D629" s="1"/>
       <c r="E629" s="1"/>
@@ -5782,7 +5497,7 @@
       <c r="G629" s="1"/>
       <c r="H629" s="1"/>
     </row>
-    <row r="630" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="630" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C630" s="1"/>
       <c r="D630" s="1"/>
       <c r="E630" s="1"/>
@@ -5790,7 +5505,7 @@
       <c r="G630" s="1"/>
       <c r="H630" s="1"/>
     </row>
-    <row r="631" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="631" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C631" s="1"/>
       <c r="D631" s="1"/>
       <c r="E631" s="1"/>
@@ -5798,7 +5513,7 @@
       <c r="G631" s="1"/>
       <c r="H631" s="1"/>
     </row>
-    <row r="632" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="632" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C632" s="1"/>
       <c r="D632" s="1"/>
       <c r="E632" s="1"/>
@@ -5806,7 +5521,7 @@
       <c r="G632" s="1"/>
       <c r="H632" s="1"/>
     </row>
-    <row r="633" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="633" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C633" s="1"/>
       <c r="D633" s="1"/>
       <c r="E633" s="1"/>
@@ -5814,7 +5529,7 @@
       <c r="G633" s="1"/>
       <c r="H633" s="1"/>
     </row>
-    <row r="634" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="634" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C634" s="1"/>
       <c r="D634" s="1"/>
       <c r="E634" s="1"/>
@@ -5822,7 +5537,7 @@
       <c r="G634" s="1"/>
       <c r="H634" s="1"/>
     </row>
-    <row r="635" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="635" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C635" s="1"/>
       <c r="D635" s="1"/>
       <c r="E635" s="1"/>
@@ -5830,7 +5545,7 @@
       <c r="G635" s="1"/>
       <c r="H635" s="1"/>
     </row>
-    <row r="636" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="636" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C636" s="1"/>
       <c r="D636" s="1"/>
       <c r="E636" s="1"/>
@@ -5838,7 +5553,7 @@
       <c r="G636" s="1"/>
       <c r="H636" s="1"/>
     </row>
-    <row r="637" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="637" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C637" s="1"/>
       <c r="D637" s="1"/>
       <c r="E637" s="1"/>
@@ -5846,7 +5561,7 @@
       <c r="G637" s="1"/>
       <c r="H637" s="1"/>
     </row>
-    <row r="638" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="638" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C638" s="1"/>
       <c r="D638" s="1"/>
       <c r="E638" s="1"/>
@@ -5854,7 +5569,7 @@
       <c r="G638" s="1"/>
       <c r="H638" s="1"/>
     </row>
-    <row r="639" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="639" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C639" s="1"/>
       <c r="D639" s="1"/>
       <c r="E639" s="1"/>
@@ -5862,7 +5577,7 @@
       <c r="G639" s="1"/>
       <c r="H639" s="1"/>
     </row>
-    <row r="640" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="640" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C640" s="1"/>
       <c r="D640" s="1"/>
       <c r="E640" s="1"/>
@@ -5870,7 +5585,7 @@
       <c r="G640" s="1"/>
       <c r="H640" s="1"/>
     </row>
-    <row r="641" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="641" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C641" s="1"/>
       <c r="D641" s="1"/>
       <c r="E641" s="1"/>
@@ -5878,7 +5593,7 @@
       <c r="G641" s="1"/>
       <c r="H641" s="1"/>
     </row>
-    <row r="642" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="642" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C642" s="1"/>
       <c r="D642" s="1"/>
       <c r="E642" s="1"/>
@@ -5886,7 +5601,7 @@
       <c r="G642" s="1"/>
       <c r="H642" s="1"/>
     </row>
-    <row r="643" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="643" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C643" s="1"/>
       <c r="D643" s="1"/>
       <c r="E643" s="1"/>
@@ -5894,7 +5609,7 @@
       <c r="G643" s="1"/>
       <c r="H643" s="1"/>
     </row>
-    <row r="644" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="644" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C644" s="1"/>
       <c r="D644" s="1"/>
       <c r="E644" s="1"/>
@@ -5902,7 +5617,7 @@
       <c r="G644" s="1"/>
       <c r="H644" s="1"/>
     </row>
-    <row r="645" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="645" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C645" s="1"/>
       <c r="D645" s="1"/>
       <c r="E645" s="1"/>
@@ -5910,7 +5625,7 @@
       <c r="G645" s="1"/>
       <c r="H645" s="1"/>
     </row>
-    <row r="646" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="646" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C646" s="1"/>
       <c r="D646" s="1"/>
       <c r="E646" s="1"/>
@@ -5918,7 +5633,7 @@
       <c r="G646" s="1"/>
       <c r="H646" s="1"/>
     </row>
-    <row r="647" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="647" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C647" s="1"/>
       <c r="D647" s="1"/>
       <c r="E647" s="1"/>
@@ -5926,7 +5641,7 @@
       <c r="G647" s="1"/>
       <c r="H647" s="1"/>
     </row>
-    <row r="648" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="648" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C648" s="1"/>
       <c r="D648" s="1"/>
       <c r="E648" s="1"/>
@@ -5934,7 +5649,7 @@
       <c r="G648" s="1"/>
       <c r="H648" s="1"/>
     </row>
-    <row r="649" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="649" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C649" s="1"/>
       <c r="D649" s="1"/>
       <c r="E649" s="1"/>
@@ -5942,7 +5657,7 @@
       <c r="G649" s="1"/>
       <c r="H649" s="1"/>
     </row>
-    <row r="650" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="650" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C650" s="1"/>
       <c r="D650" s="1"/>
       <c r="E650" s="1"/>
@@ -5950,7 +5665,7 @@
       <c r="G650" s="1"/>
       <c r="H650" s="1"/>
     </row>
-    <row r="651" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="651" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C651" s="1"/>
       <c r="D651" s="1"/>
       <c r="E651" s="1"/>
@@ -5958,7 +5673,7 @@
       <c r="G651" s="1"/>
       <c r="H651" s="1"/>
     </row>
-    <row r="652" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="652" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C652" s="1"/>
       <c r="D652" s="1"/>
       <c r="E652" s="1"/>
@@ -5966,7 +5681,7 @@
       <c r="G652" s="1"/>
       <c r="H652" s="1"/>
     </row>
-    <row r="653" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="653" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C653" s="1"/>
       <c r="D653" s="1"/>
       <c r="E653" s="1"/>
@@ -5974,7 +5689,7 @@
       <c r="G653" s="1"/>
       <c r="H653" s="1"/>
     </row>
-    <row r="654" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="654" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C654" s="1"/>
       <c r="D654" s="1"/>
       <c r="E654" s="1"/>
@@ -5982,7 +5697,7 @@
       <c r="G654" s="1"/>
       <c r="H654" s="1"/>
     </row>
-    <row r="655" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="655" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C655" s="1"/>
       <c r="D655" s="1"/>
       <c r="E655" s="1"/>
@@ -5990,7 +5705,7 @@
       <c r="G655" s="1"/>
       <c r="H655" s="1"/>
     </row>
-    <row r="656" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="656" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C656" s="1"/>
       <c r="D656" s="1"/>
       <c r="E656" s="1"/>
@@ -5998,7 +5713,7 @@
       <c r="G656" s="1"/>
       <c r="H656" s="1"/>
     </row>
-    <row r="657" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="657" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C657" s="1"/>
       <c r="D657" s="1"/>
       <c r="E657" s="1"/>
@@ -6006,7 +5721,7 @@
       <c r="G657" s="1"/>
       <c r="H657" s="1"/>
     </row>
-    <row r="658" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="658" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C658" s="1"/>
       <c r="D658" s="1"/>
       <c r="E658" s="1"/>
@@ -6014,7 +5729,7 @@
       <c r="G658" s="1"/>
       <c r="H658" s="1"/>
     </row>
-    <row r="659" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="659" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C659" s="1"/>
       <c r="D659" s="1"/>
       <c r="E659" s="1"/>
@@ -6022,7 +5737,7 @@
       <c r="G659" s="1"/>
       <c r="H659" s="1"/>
     </row>
-    <row r="660" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="660" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C660" s="1"/>
       <c r="D660" s="1"/>
       <c r="E660" s="1"/>
@@ -6030,7 +5745,7 @@
       <c r="G660" s="1"/>
       <c r="H660" s="1"/>
     </row>
-    <row r="661" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="661" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C661" s="1"/>
       <c r="D661" s="1"/>
       <c r="E661" s="1"/>
@@ -6038,7 +5753,7 @@
       <c r="G661" s="1"/>
       <c r="H661" s="1"/>
     </row>
-    <row r="662" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="662" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C662" s="1"/>
       <c r="D662" s="1"/>
       <c r="E662" s="1"/>
@@ -6046,7 +5761,7 @@
       <c r="G662" s="1"/>
       <c r="H662" s="1"/>
     </row>
-    <row r="663" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="663" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C663" s="1"/>
       <c r="D663" s="1"/>
       <c r="E663" s="1"/>
@@ -6054,7 +5769,7 @@
       <c r="G663" s="1"/>
       <c r="H663" s="1"/>
     </row>
-    <row r="664" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="664" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C664" s="1"/>
       <c r="D664" s="1"/>
       <c r="E664" s="1"/>
@@ -6062,7 +5777,7 @@
       <c r="G664" s="1"/>
       <c r="H664" s="1"/>
     </row>
-    <row r="665" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="665" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C665" s="1"/>
       <c r="D665" s="1"/>
       <c r="E665" s="1"/>
@@ -6070,7 +5785,7 @@
       <c r="G665" s="1"/>
       <c r="H665" s="1"/>
     </row>
-    <row r="666" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="666" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C666" s="1"/>
       <c r="D666" s="1"/>
       <c r="E666" s="1"/>
@@ -6078,7 +5793,7 @@
       <c r="G666" s="1"/>
       <c r="H666" s="1"/>
     </row>
-    <row r="667" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="667" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C667" s="1"/>
       <c r="D667" s="1"/>
       <c r="E667" s="1"/>
@@ -6086,7 +5801,7 @@
       <c r="G667" s="1"/>
       <c r="H667" s="1"/>
     </row>
-    <row r="668" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="668" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C668" s="1"/>
       <c r="D668" s="1"/>
       <c r="E668" s="1"/>
@@ -6094,7 +5809,7 @@
       <c r="G668" s="1"/>
       <c r="H668" s="1"/>
     </row>
-    <row r="669" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="669" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C669" s="1"/>
       <c r="D669" s="1"/>
       <c r="E669" s="1"/>
@@ -6102,7 +5817,7 @@
       <c r="G669" s="1"/>
       <c r="H669" s="1"/>
     </row>
-    <row r="670" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="670" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C670" s="1"/>
       <c r="D670" s="1"/>
       <c r="E670" s="1"/>
@@ -6110,7 +5825,7 @@
       <c r="G670" s="1"/>
       <c r="H670" s="1"/>
     </row>
-    <row r="671" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="671" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C671" s="1"/>
       <c r="D671" s="1"/>
       <c r="E671" s="1"/>
@@ -6118,7 +5833,7 @@
       <c r="G671" s="1"/>
       <c r="H671" s="1"/>
     </row>
-    <row r="672" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="672" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C672" s="1"/>
       <c r="D672" s="1"/>
       <c r="E672" s="1"/>
@@ -6126,7 +5841,7 @@
       <c r="G672" s="1"/>
       <c r="H672" s="1"/>
     </row>
-    <row r="673" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="673" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C673" s="1"/>
       <c r="D673" s="1"/>
       <c r="E673" s="1"/>
@@ -6134,7 +5849,7 @@
       <c r="G673" s="1"/>
       <c r="H673" s="1"/>
     </row>
-    <row r="674" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="674" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C674" s="1"/>
       <c r="D674" s="1"/>
       <c r="E674" s="1"/>
@@ -6142,7 +5857,7 @@
       <c r="G674" s="1"/>
       <c r="H674" s="1"/>
     </row>
-    <row r="675" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="675" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C675" s="1"/>
       <c r="D675" s="1"/>
       <c r="E675" s="1"/>
@@ -6150,7 +5865,7 @@
       <c r="G675" s="1"/>
       <c r="H675" s="1"/>
     </row>
-    <row r="676" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="676" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C676" s="1"/>
       <c r="D676" s="1"/>
       <c r="E676" s="1"/>
@@ -6158,7 +5873,7 @@
       <c r="G676" s="1"/>
       <c r="H676" s="1"/>
     </row>
-    <row r="677" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="677" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C677" s="1"/>
       <c r="D677" s="1"/>
       <c r="E677" s="1"/>
@@ -6166,7 +5881,7 @@
       <c r="G677" s="1"/>
       <c r="H677" s="1"/>
     </row>
-    <row r="678" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="678" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C678" s="1"/>
       <c r="D678" s="1"/>
       <c r="E678" s="1"/>
@@ -6174,7 +5889,7 @@
       <c r="G678" s="1"/>
       <c r="H678" s="1"/>
     </row>
-    <row r="679" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="679" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C679" s="1"/>
       <c r="D679" s="1"/>
       <c r="E679" s="1"/>
@@ -6182,7 +5897,7 @@
       <c r="G679" s="1"/>
       <c r="H679" s="1"/>
     </row>
-    <row r="680" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="680" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C680" s="1"/>
       <c r="D680" s="1"/>
       <c r="E680" s="1"/>
@@ -6190,7 +5905,7 @@
       <c r="G680" s="1"/>
       <c r="H680" s="1"/>
     </row>
-    <row r="681" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="681" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C681" s="1"/>
       <c r="D681" s="1"/>
       <c r="E681" s="1"/>
@@ -6198,7 +5913,7 @@
       <c r="G681" s="1"/>
       <c r="H681" s="1"/>
     </row>
-    <row r="682" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="682" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C682" s="1"/>
       <c r="D682" s="1"/>
       <c r="E682" s="1"/>
@@ -6206,7 +5921,7 @@
       <c r="G682" s="1"/>
       <c r="H682" s="1"/>
     </row>
-    <row r="683" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="683" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C683" s="1"/>
       <c r="D683" s="1"/>
       <c r="E683" s="1"/>
@@ -6214,7 +5929,7 @@
       <c r="G683" s="1"/>
       <c r="H683" s="1"/>
     </row>
-    <row r="684" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="684" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C684" s="1"/>
       <c r="D684" s="1"/>
       <c r="E684" s="1"/>
@@ -6222,7 +5937,7 @@
       <c r="G684" s="1"/>
       <c r="H684" s="1"/>
     </row>
-    <row r="685" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="685" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C685" s="1"/>
       <c r="D685" s="1"/>
       <c r="E685" s="1"/>
@@ -6230,7 +5945,7 @@
       <c r="G685" s="1"/>
       <c r="H685" s="1"/>
     </row>
-    <row r="686" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="686" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C686" s="1"/>
       <c r="D686" s="1"/>
       <c r="E686" s="1"/>
@@ -6238,7 +5953,7 @@
       <c r="G686" s="1"/>
       <c r="H686" s="1"/>
     </row>
-    <row r="687" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="687" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C687" s="1"/>
       <c r="D687" s="1"/>
       <c r="E687" s="1"/>
@@ -6246,7 +5961,7 @@
       <c r="G687" s="1"/>
       <c r="H687" s="1"/>
     </row>
-    <row r="688" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="688" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C688" s="1"/>
       <c r="D688" s="1"/>
       <c r="E688" s="1"/>
@@ -6254,7 +5969,7 @@
       <c r="G688" s="1"/>
       <c r="H688" s="1"/>
     </row>
-    <row r="689" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="689" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C689" s="1"/>
       <c r="D689" s="1"/>
       <c r="E689" s="1"/>
@@ -6262,7 +5977,7 @@
       <c r="G689" s="1"/>
       <c r="H689" s="1"/>
     </row>
-    <row r="690" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="690" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C690" s="1"/>
       <c r="D690" s="1"/>
       <c r="E690" s="1"/>
@@ -6270,7 +5985,7 @@
       <c r="G690" s="1"/>
       <c r="H690" s="1"/>
     </row>
-    <row r="691" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="691" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C691" s="1"/>
       <c r="D691" s="1"/>
       <c r="E691" s="1"/>
@@ -6278,7 +5993,7 @@
       <c r="G691" s="1"/>
       <c r="H691" s="1"/>
     </row>
-    <row r="692" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="692" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C692" s="1"/>
       <c r="D692" s="1"/>
       <c r="E692" s="1"/>
@@ -6286,7 +6001,7 @@
       <c r="G692" s="1"/>
       <c r="H692" s="1"/>
     </row>
-    <row r="693" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="693" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C693" s="1"/>
       <c r="D693" s="1"/>
       <c r="E693" s="1"/>
@@ -6294,7 +6009,7 @@
       <c r="G693" s="1"/>
       <c r="H693" s="1"/>
     </row>
-    <row r="694" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="694" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C694" s="1"/>
       <c r="D694" s="1"/>
       <c r="E694" s="1"/>
@@ -6302,7 +6017,7 @@
       <c r="G694" s="1"/>
       <c r="H694" s="1"/>
     </row>
-    <row r="695" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="695" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C695" s="1"/>
       <c r="D695" s="1"/>
       <c r="E695" s="1"/>
@@ -6310,7 +6025,7 @@
       <c r="G695" s="1"/>
       <c r="H695" s="1"/>
     </row>
-    <row r="696" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="696" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C696" s="1"/>
       <c r="D696" s="1"/>
       <c r="E696" s="1"/>
@@ -6318,7 +6033,7 @@
       <c r="G696" s="1"/>
       <c r="H696" s="1"/>
     </row>
-    <row r="697" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="697" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C697" s="1"/>
       <c r="D697" s="1"/>
       <c r="E697" s="1"/>
@@ -6326,7 +6041,7 @@
       <c r="G697" s="1"/>
       <c r="H697" s="1"/>
     </row>
-    <row r="698" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="698" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C698" s="1"/>
       <c r="D698" s="1"/>
       <c r="E698" s="1"/>
@@ -6334,7 +6049,7 @@
       <c r="G698" s="1"/>
       <c r="H698" s="1"/>
     </row>
-    <row r="699" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="699" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C699" s="1"/>
       <c r="D699" s="1"/>
       <c r="E699" s="1"/>
@@ -6342,7 +6057,7 @@
       <c r="G699" s="1"/>
       <c r="H699" s="1"/>
     </row>
-    <row r="700" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="700" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C700" s="1"/>
       <c r="D700" s="1"/>
       <c r="E700" s="1"/>
@@ -6350,7 +6065,7 @@
       <c r="G700" s="1"/>
       <c r="H700" s="1"/>
     </row>
-    <row r="701" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="701" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C701" s="1"/>
       <c r="D701" s="1"/>
       <c r="E701" s="1"/>
@@ -6358,7 +6073,7 @@
       <c r="G701" s="1"/>
       <c r="H701" s="1"/>
     </row>
-    <row r="702" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="702" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C702" s="1"/>
       <c r="D702" s="1"/>
       <c r="E702" s="1"/>
@@ -6366,7 +6081,7 @@
       <c r="G702" s="1"/>
       <c r="H702" s="1"/>
     </row>
-    <row r="703" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="703" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C703" s="1"/>
       <c r="D703" s="1"/>
       <c r="E703" s="1"/>
@@ -6374,7 +6089,7 @@
       <c r="G703" s="1"/>
       <c r="H703" s="1"/>
     </row>
-    <row r="704" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="704" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C704" s="1"/>
       <c r="D704" s="1"/>
       <c r="E704" s="1"/>
@@ -6382,7 +6097,7 @@
       <c r="G704" s="1"/>
       <c r="H704" s="1"/>
     </row>
-    <row r="705" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="705" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C705" s="1"/>
       <c r="D705" s="1"/>
       <c r="E705" s="1"/>
@@ -6390,7 +6105,7 @@
       <c r="G705" s="1"/>
       <c r="H705" s="1"/>
     </row>
-    <row r="706" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="706" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C706" s="1"/>
       <c r="D706" s="1"/>
       <c r="E706" s="1"/>
@@ -6398,7 +6113,7 @@
       <c r="G706" s="1"/>
       <c r="H706" s="1"/>
     </row>
-    <row r="707" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="707" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C707" s="1"/>
       <c r="D707" s="1"/>
       <c r="E707" s="1"/>
@@ -6406,7 +6121,7 @@
       <c r="G707" s="1"/>
       <c r="H707" s="1"/>
     </row>
-    <row r="708" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="708" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C708" s="1"/>
       <c r="D708" s="1"/>
       <c r="E708" s="1"/>
@@ -6414,7 +6129,7 @@
       <c r="G708" s="1"/>
       <c r="H708" s="1"/>
     </row>
-    <row r="709" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="709" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C709" s="1"/>
       <c r="D709" s="1"/>
       <c r="E709" s="1"/>
@@ -6422,7 +6137,7 @@
       <c r="G709" s="1"/>
       <c r="H709" s="1"/>
     </row>
-    <row r="710" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="710" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C710" s="1"/>
       <c r="D710" s="1"/>
       <c r="E710" s="1"/>
@@ -6430,7 +6145,7 @@
       <c r="G710" s="1"/>
       <c r="H710" s="1"/>
     </row>
-    <row r="711" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="711" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C711" s="1"/>
       <c r="D711" s="1"/>
       <c r="E711" s="1"/>
@@ -6438,7 +6153,7 @@
       <c r="G711" s="1"/>
       <c r="H711" s="1"/>
     </row>
-    <row r="712" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="712" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C712" s="1"/>
       <c r="D712" s="1"/>
       <c r="E712" s="1"/>
@@ -6446,7 +6161,7 @@
       <c r="G712" s="1"/>
       <c r="H712" s="1"/>
     </row>
-    <row r="713" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="713" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C713" s="1"/>
       <c r="D713" s="1"/>
       <c r="E713" s="1"/>
@@ -6454,7 +6169,7 @@
       <c r="G713" s="1"/>
       <c r="H713" s="1"/>
     </row>
-    <row r="714" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="714" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C714" s="1"/>
       <c r="D714" s="1"/>
       <c r="E714" s="1"/>
@@ -6462,7 +6177,7 @@
       <c r="G714" s="1"/>
       <c r="H714" s="1"/>
     </row>
-    <row r="715" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="715" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C715" s="1"/>
       <c r="D715" s="1"/>
       <c r="E715" s="1"/>
@@ -6470,7 +6185,7 @@
       <c r="G715" s="1"/>
       <c r="H715" s="1"/>
     </row>
-    <row r="716" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="716" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C716" s="1"/>
       <c r="D716" s="1"/>
       <c r="E716" s="1"/>
@@ -6478,7 +6193,7 @@
       <c r="G716" s="1"/>
       <c r="H716" s="1"/>
     </row>
-    <row r="717" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="717" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C717" s="1"/>
       <c r="D717" s="1"/>
       <c r="E717" s="1"/>
@@ -6486,7 +6201,7 @@
       <c r="G717" s="1"/>
       <c r="H717" s="1"/>
     </row>
-    <row r="718" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="718" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C718" s="1"/>
       <c r="D718" s="1"/>
       <c r="E718" s="1"/>
@@ -6494,7 +6209,7 @@
       <c r="G718" s="1"/>
       <c r="H718" s="1"/>
     </row>
-    <row r="719" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="719" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C719" s="1"/>
       <c r="D719" s="1"/>
       <c r="E719" s="1"/>
@@ -6502,7 +6217,7 @@
       <c r="G719" s="1"/>
       <c r="H719" s="1"/>
     </row>
-    <row r="720" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="720" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C720" s="1"/>
       <c r="D720" s="1"/>
       <c r="E720" s="1"/>
@@ -6510,7 +6225,7 @@
       <c r="G720" s="1"/>
       <c r="H720" s="1"/>
     </row>
-    <row r="721" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="721" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C721" s="1"/>
       <c r="D721" s="1"/>
       <c r="E721" s="1"/>
@@ -6518,7 +6233,7 @@
       <c r="G721" s="1"/>
       <c r="H721" s="1"/>
     </row>
-    <row r="722" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="722" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C722" s="1"/>
       <c r="D722" s="1"/>
       <c r="E722" s="1"/>
@@ -6526,7 +6241,7 @@
       <c r="G722" s="1"/>
       <c r="H722" s="1"/>
     </row>
-    <row r="723" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="723" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C723" s="1"/>
       <c r="D723" s="1"/>
       <c r="E723" s="1"/>
@@ -6534,7 +6249,7 @@
       <c r="G723" s="1"/>
       <c r="H723" s="1"/>
     </row>
-    <row r="724" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="724" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C724" s="1"/>
       <c r="D724" s="1"/>
       <c r="E724" s="1"/>
@@ -6542,7 +6257,7 @@
       <c r="G724" s="1"/>
       <c r="H724" s="1"/>
     </row>
-    <row r="725" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="725" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C725" s="1"/>
       <c r="D725" s="1"/>
       <c r="E725" s="1"/>
@@ -6550,7 +6265,7 @@
       <c r="G725" s="1"/>
       <c r="H725" s="1"/>
     </row>
-    <row r="726" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="726" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C726" s="1"/>
       <c r="D726" s="1"/>
       <c r="E726" s="1"/>
@@ -6558,7 +6273,7 @@
       <c r="G726" s="1"/>
       <c r="H726" s="1"/>
     </row>
-    <row r="727" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="727" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C727" s="1"/>
       <c r="D727" s="1"/>
       <c r="E727" s="1"/>
@@ -6566,7 +6281,7 @@
       <c r="G727" s="1"/>
       <c r="H727" s="1"/>
     </row>
-    <row r="728" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="728" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C728" s="1"/>
       <c r="D728" s="1"/>
       <c r="E728" s="1"/>
@@ -6574,7 +6289,7 @@
       <c r="G728" s="1"/>
       <c r="H728" s="1"/>
     </row>
-    <row r="729" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="729" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C729" s="1"/>
       <c r="D729" s="1"/>
       <c r="E729" s="1"/>
@@ -6582,7 +6297,7 @@
       <c r="G729" s="1"/>
       <c r="H729" s="1"/>
     </row>
-    <row r="730" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="730" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C730" s="1"/>
       <c r="D730" s="1"/>
       <c r="E730" s="1"/>
@@ -6590,7 +6305,7 @@
       <c r="G730" s="1"/>
       <c r="H730" s="1"/>
     </row>
-    <row r="731" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="731" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C731" s="1"/>
       <c r="D731" s="1"/>
       <c r="E731" s="1"/>
@@ -6598,7 +6313,7 @@
       <c r="G731" s="1"/>
       <c r="H731" s="1"/>
     </row>
-    <row r="732" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="732" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C732" s="1"/>
       <c r="D732" s="1"/>
       <c r="E732" s="1"/>
@@ -6606,7 +6321,7 @@
       <c r="G732" s="1"/>
       <c r="H732" s="1"/>
     </row>
-    <row r="733" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="733" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C733" s="1"/>
       <c r="D733" s="1"/>
       <c r="E733" s="1"/>
@@ -6614,7 +6329,7 @@
       <c r="G733" s="1"/>
       <c r="H733" s="1"/>
     </row>
-    <row r="734" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="734" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C734" s="1"/>
       <c r="D734" s="1"/>
       <c r="E734" s="1"/>
@@ -6622,7 +6337,7 @@
       <c r="G734" s="1"/>
       <c r="H734" s="1"/>
     </row>
-    <row r="735" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="735" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C735" s="1"/>
       <c r="D735" s="1"/>
       <c r="E735" s="1"/>
@@ -6630,7 +6345,7 @@
       <c r="G735" s="1"/>
       <c r="H735" s="1"/>
     </row>
-    <row r="736" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="736" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C736" s="1"/>
       <c r="D736" s="1"/>
       <c r="E736" s="1"/>
@@ -6638,7 +6353,7 @@
       <c r="G736" s="1"/>
       <c r="H736" s="1"/>
     </row>
-    <row r="737" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="737" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C737" s="1"/>
       <c r="D737" s="1"/>
       <c r="E737" s="1"/>
@@ -6646,7 +6361,7 @@
       <c r="G737" s="1"/>
       <c r="H737" s="1"/>
     </row>
-    <row r="738" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="738" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C738" s="1"/>
       <c r="D738" s="1"/>
       <c r="E738" s="1"/>
@@ -6654,7 +6369,7 @@
       <c r="G738" s="1"/>
       <c r="H738" s="1"/>
     </row>
-    <row r="739" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="739" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C739" s="1"/>
       <c r="D739" s="1"/>
       <c r="E739" s="1"/>
@@ -6662,7 +6377,7 @@
       <c r="G739" s="1"/>
       <c r="H739" s="1"/>
     </row>
-    <row r="740" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="740" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C740" s="1"/>
       <c r="D740" s="1"/>
       <c r="E740" s="1"/>
@@ -6670,7 +6385,7 @@
       <c r="G740" s="1"/>
       <c r="H740" s="1"/>
     </row>
-    <row r="741" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="741" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C741" s="1"/>
       <c r="D741" s="1"/>
       <c r="E741" s="1"/>
@@ -6678,7 +6393,7 @@
       <c r="G741" s="1"/>
       <c r="H741" s="1"/>
     </row>
-    <row r="742" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="742" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C742" s="1"/>
       <c r="D742" s="1"/>
       <c r="E742" s="1"/>
@@ -6686,7 +6401,7 @@
       <c r="G742" s="1"/>
       <c r="H742" s="1"/>
     </row>
-    <row r="743" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="743" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C743" s="1"/>
       <c r="D743" s="1"/>
       <c r="E743" s="1"/>
@@ -6694,7 +6409,7 @@
       <c r="G743" s="1"/>
       <c r="H743" s="1"/>
     </row>
-    <row r="744" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="744" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C744" s="1"/>
       <c r="D744" s="1"/>
       <c r="E744" s="1"/>
@@ -6702,7 +6417,7 @@
       <c r="G744" s="1"/>
       <c r="H744" s="1"/>
     </row>
-    <row r="745" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="745" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C745" s="1"/>
       <c r="D745" s="1"/>
       <c r="E745" s="1"/>
@@ -6710,7 +6425,7 @@
       <c r="G745" s="1"/>
       <c r="H745" s="1"/>
     </row>
-    <row r="746" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="746" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C746" s="1"/>
       <c r="D746" s="1"/>
       <c r="E746" s="1"/>
@@ -6718,7 +6433,7 @@
       <c r="G746" s="1"/>
       <c r="H746" s="1"/>
     </row>
-    <row r="747" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="747" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C747" s="1"/>
       <c r="D747" s="1"/>
       <c r="E747" s="1"/>
@@ -6726,7 +6441,7 @@
       <c r="G747" s="1"/>
       <c r="H747" s="1"/>
     </row>
-    <row r="748" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="748" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C748" s="1"/>
       <c r="D748" s="1"/>
       <c r="E748" s="1"/>
@@ -6734,7 +6449,7 @@
       <c r="G748" s="1"/>
       <c r="H748" s="1"/>
     </row>
-    <row r="749" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="749" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C749" s="1"/>
       <c r="D749" s="1"/>
       <c r="E749" s="1"/>
@@ -6742,7 +6457,7 @@
       <c r="G749" s="1"/>
       <c r="H749" s="1"/>
     </row>
-    <row r="750" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="750" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C750" s="1"/>
       <c r="D750" s="1"/>
       <c r="E750" s="1"/>
@@ -6750,7 +6465,7 @@
       <c r="G750" s="1"/>
       <c r="H750" s="1"/>
     </row>
-    <row r="751" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="751" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C751" s="1"/>
       <c r="D751" s="1"/>
       <c r="E751" s="1"/>
@@ -6758,7 +6473,7 @@
       <c r="G751" s="1"/>
       <c r="H751" s="1"/>
     </row>
-    <row r="752" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="752" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C752" s="1"/>
       <c r="D752" s="1"/>
       <c r="E752" s="1"/>
@@ -6766,7 +6481,7 @@
       <c r="G752" s="1"/>
       <c r="H752" s="1"/>
     </row>
-    <row r="753" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="753" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C753" s="1"/>
       <c r="D753" s="1"/>
       <c r="E753" s="1"/>
@@ -6774,7 +6489,7 @@
       <c r="G753" s="1"/>
       <c r="H753" s="1"/>
     </row>
-    <row r="754" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="754" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C754" s="1"/>
       <c r="D754" s="1"/>
       <c r="E754" s="1"/>
@@ -6782,7 +6497,7 @@
       <c r="G754" s="1"/>
       <c r="H754" s="1"/>
     </row>
-    <row r="755" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="755" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C755" s="1"/>
       <c r="D755" s="1"/>
       <c r="E755" s="1"/>
@@ -6790,7 +6505,7 @@
       <c r="G755" s="1"/>
       <c r="H755" s="1"/>
     </row>
-    <row r="756" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="756" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C756" s="1"/>
       <c r="D756" s="1"/>
       <c r="E756" s="1"/>
@@ -6798,7 +6513,7 @@
       <c r="G756" s="1"/>
       <c r="H756" s="1"/>
     </row>
-    <row r="757" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="757" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C757" s="1"/>
       <c r="D757" s="1"/>
       <c r="E757" s="1"/>
@@ -6806,7 +6521,7 @@
       <c r="G757" s="1"/>
       <c r="H757" s="1"/>
     </row>
-    <row r="758" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="758" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C758" s="1"/>
       <c r="D758" s="1"/>
       <c r="E758" s="1"/>
@@ -6814,7 +6529,7 @@
       <c r="G758" s="1"/>
       <c r="H758" s="1"/>
     </row>
-    <row r="759" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="759" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C759" s="1"/>
       <c r="D759" s="1"/>
       <c r="E759" s="1"/>
@@ -6822,7 +6537,7 @@
       <c r="G759" s="1"/>
       <c r="H759" s="1"/>
     </row>
-    <row r="760" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="760" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C760" s="1"/>
       <c r="D760" s="1"/>
       <c r="E760" s="1"/>
@@ -6830,7 +6545,7 @@
       <c r="G760" s="1"/>
       <c r="H760" s="1"/>
     </row>
-    <row r="761" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="761" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C761" s="1"/>
       <c r="D761" s="1"/>
       <c r="E761" s="1"/>
@@ -6838,7 +6553,7 @@
       <c r="G761" s="1"/>
       <c r="H761" s="1"/>
     </row>
-    <row r="762" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="762" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C762" s="1"/>
       <c r="D762" s="1"/>
       <c r="E762" s="1"/>
@@ -6846,7 +6561,7 @@
       <c r="G762" s="1"/>
       <c r="H762" s="1"/>
     </row>
-    <row r="763" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="763" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C763" s="1"/>
       <c r="D763" s="1"/>
       <c r="E763" s="1"/>
@@ -6854,7 +6569,7 @@
       <c r="G763" s="1"/>
       <c r="H763" s="1"/>
     </row>
-    <row r="764" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="764" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C764" s="1"/>
       <c r="D764" s="1"/>
       <c r="E764" s="1"/>
@@ -6862,7 +6577,7 @@
       <c r="G764" s="1"/>
       <c r="H764" s="1"/>
     </row>
-    <row r="765" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="765" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C765" s="1"/>
       <c r="D765" s="1"/>
       <c r="E765" s="1"/>
@@ -6870,7 +6585,7 @@
       <c r="G765" s="1"/>
       <c r="H765" s="1"/>
     </row>
-    <row r="766" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="766" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C766" s="1"/>
       <c r="D766" s="1"/>
       <c r="E766" s="1"/>
@@ -6878,7 +6593,7 @@
       <c r="G766" s="1"/>
       <c r="H766" s="1"/>
     </row>
-    <row r="767" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="767" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C767" s="1"/>
       <c r="D767" s="1"/>
       <c r="E767" s="1"/>
@@ -6886,7 +6601,7 @@
       <c r="G767" s="1"/>
       <c r="H767" s="1"/>
     </row>
-    <row r="768" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="768" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C768" s="1"/>
       <c r="D768" s="1"/>
       <c r="E768" s="1"/>
@@ -6894,7 +6609,7 @@
       <c r="G768" s="1"/>
       <c r="H768" s="1"/>
     </row>
-    <row r="769" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="769" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C769" s="1"/>
       <c r="D769" s="1"/>
       <c r="E769" s="1"/>
@@ -6902,7 +6617,7 @@
       <c r="G769" s="1"/>
       <c r="H769" s="1"/>
     </row>
-    <row r="770" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="770" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C770" s="1"/>
       <c r="D770" s="1"/>
       <c r="E770" s="1"/>
@@ -6910,7 +6625,7 @@
       <c r="G770" s="1"/>
       <c r="H770" s="1"/>
     </row>
-    <row r="771" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="771" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C771" s="1"/>
       <c r="D771" s="1"/>
       <c r="E771" s="1"/>
@@ -6918,7 +6633,7 @@
       <c r="G771" s="1"/>
       <c r="H771" s="1"/>
     </row>
-    <row r="772" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="772" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C772" s="1"/>
       <c r="D772" s="1"/>
       <c r="E772" s="1"/>
@@ -6926,7 +6641,7 @@
       <c r="G772" s="1"/>
       <c r="H772" s="1"/>
     </row>
-    <row r="773" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="773" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C773" s="1"/>
       <c r="D773" s="1"/>
       <c r="E773" s="1"/>
@@ -6934,7 +6649,7 @@
       <c r="G773" s="1"/>
       <c r="H773" s="1"/>
     </row>
-    <row r="774" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="774" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C774" s="1"/>
       <c r="D774" s="1"/>
       <c r="E774" s="1"/>
@@ -6942,7 +6657,7 @@
       <c r="G774" s="1"/>
       <c r="H774" s="1"/>
     </row>
-    <row r="775" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="775" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C775" s="1"/>
       <c r="D775" s="1"/>
       <c r="E775" s="1"/>
@@ -6950,7 +6665,7 @@
       <c r="G775" s="1"/>
       <c r="H775" s="1"/>
     </row>
-    <row r="776" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="776" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C776" s="1"/>
       <c r="D776" s="1"/>
       <c r="E776" s="1"/>
@@ -6958,7 +6673,7 @@
       <c r="G776" s="1"/>
       <c r="H776" s="1"/>
     </row>
-    <row r="777" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="777" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C777" s="1"/>
       <c r="D777" s="1"/>
       <c r="E777" s="1"/>
@@ -6966,7 +6681,7 @@
       <c r="G777" s="1"/>
       <c r="H777" s="1"/>
     </row>
-    <row r="778" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="778" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C778" s="1"/>
       <c r="D778" s="1"/>
       <c r="E778" s="1"/>
@@ -6974,7 +6689,7 @@
       <c r="G778" s="1"/>
       <c r="H778" s="1"/>
     </row>
-    <row r="779" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="779" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C779" s="1"/>
       <c r="D779" s="1"/>
       <c r="E779" s="1"/>
@@ -6982,7 +6697,7 @@
       <c r="G779" s="1"/>
       <c r="H779" s="1"/>
     </row>
-    <row r="780" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="780" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C780" s="1"/>
       <c r="D780" s="1"/>
       <c r="E780" s="1"/>
@@ -6990,7 +6705,7 @@
       <c r="G780" s="1"/>
       <c r="H780" s="1"/>
     </row>
-    <row r="781" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="781" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C781" s="1"/>
       <c r="D781" s="1"/>
       <c r="E781" s="1"/>
@@ -6998,7 +6713,7 @@
       <c r="G781" s="1"/>
       <c r="H781" s="1"/>
     </row>
-    <row r="782" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="782" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C782" s="1"/>
       <c r="D782" s="1"/>
       <c r="E782" s="1"/>
@@ -7006,7 +6721,7 @@
       <c r="G782" s="1"/>
       <c r="H782" s="1"/>
     </row>
-    <row r="783" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="783" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C783" s="1"/>
       <c r="D783" s="1"/>
       <c r="E783" s="1"/>
@@ -7014,7 +6729,7 @@
       <c r="G783" s="1"/>
       <c r="H783" s="1"/>
     </row>
-    <row r="784" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="784" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C784" s="1"/>
       <c r="D784" s="1"/>
       <c r="E784" s="1"/>
@@ -7022,7 +6737,7 @@
       <c r="G784" s="1"/>
       <c r="H784" s="1"/>
     </row>
-    <row r="785" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="785" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C785" s="1"/>
       <c r="D785" s="1"/>
       <c r="E785" s="1"/>
@@ -7030,7 +6745,7 @@
       <c r="G785" s="1"/>
       <c r="H785" s="1"/>
     </row>
-    <row r="786" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="786" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C786" s="1"/>
       <c r="D786" s="1"/>
       <c r="E786" s="1"/>
@@ -7038,7 +6753,7 @@
       <c r="G786" s="1"/>
       <c r="H786" s="1"/>
     </row>
-    <row r="787" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="787" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C787" s="1"/>
       <c r="D787" s="1"/>
       <c r="E787" s="1"/>
@@ -7046,7 +6761,7 @@
       <c r="G787" s="1"/>
       <c r="H787" s="1"/>
     </row>
-    <row r="788" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="788" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C788" s="1"/>
       <c r="D788" s="1"/>
       <c r="E788" s="1"/>
@@ -7054,7 +6769,7 @@
       <c r="G788" s="1"/>
       <c r="H788" s="1"/>
     </row>
-    <row r="789" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="789" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C789" s="1"/>
       <c r="D789" s="1"/>
       <c r="E789" s="1"/>
@@ -7062,7 +6777,7 @@
       <c r="G789" s="1"/>
       <c r="H789" s="1"/>
     </row>
-    <row r="790" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="790" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C790" s="1"/>
       <c r="D790" s="1"/>
       <c r="E790" s="1"/>
@@ -7070,7 +6785,7 @@
       <c r="G790" s="1"/>
       <c r="H790" s="1"/>
     </row>
-    <row r="791" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="791" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C791" s="1"/>
       <c r="D791" s="1"/>
       <c r="E791" s="1"/>
@@ -7078,7 +6793,7 @@
       <c r="G791" s="1"/>
       <c r="H791" s="1"/>
     </row>
-    <row r="792" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="792" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C792" s="1"/>
       <c r="D792" s="1"/>
       <c r="E792" s="1"/>
@@ -7086,7 +6801,7 @@
       <c r="G792" s="1"/>
       <c r="H792" s="1"/>
     </row>
-    <row r="793" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="793" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C793" s="1"/>
       <c r="D793" s="1"/>
       <c r="E793" s="1"/>
@@ -7094,7 +6809,7 @@
       <c r="G793" s="1"/>
       <c r="H793" s="1"/>
     </row>
-    <row r="794" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="794" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C794" s="1"/>
       <c r="D794" s="1"/>
       <c r="E794" s="1"/>
@@ -7102,7 +6817,7 @@
       <c r="G794" s="1"/>
       <c r="H794" s="1"/>
     </row>
-    <row r="795" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="795" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C795" s="1"/>
       <c r="D795" s="1"/>
       <c r="E795" s="1"/>
@@ -7110,7 +6825,7 @@
       <c r="G795" s="1"/>
       <c r="H795" s="1"/>
     </row>
-    <row r="796" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="796" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C796" s="1"/>
       <c r="D796" s="1"/>
       <c r="E796" s="1"/>
@@ -7118,7 +6833,7 @@
       <c r="G796" s="1"/>
       <c r="H796" s="1"/>
     </row>
-    <row r="797" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="797" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C797" s="1"/>
       <c r="D797" s="1"/>
       <c r="E797" s="1"/>
@@ -7126,7 +6841,7 @@
       <c r="G797" s="1"/>
       <c r="H797" s="1"/>
     </row>
-    <row r="798" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="798" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C798" s="1"/>
       <c r="D798" s="1"/>
       <c r="E798" s="1"/>
@@ -7134,7 +6849,7 @@
       <c r="G798" s="1"/>
       <c r="H798" s="1"/>
     </row>
-    <row r="799" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="799" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C799" s="1"/>
       <c r="D799" s="1"/>
       <c r="E799" s="1"/>
@@ -7142,7 +6857,7 @@
       <c r="G799" s="1"/>
       <c r="H799" s="1"/>
     </row>
-    <row r="800" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="800" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C800" s="1"/>
       <c r="D800" s="1"/>
       <c r="E800" s="1"/>
@@ -7150,7 +6865,7 @@
       <c r="G800" s="1"/>
       <c r="H800" s="1"/>
     </row>
-    <row r="801" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="801" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C801" s="1"/>
       <c r="D801" s="1"/>
       <c r="E801" s="1"/>
@@ -7158,7 +6873,7 @@
       <c r="G801" s="1"/>
       <c r="H801" s="1"/>
     </row>
-    <row r="802" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="802" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C802" s="1"/>
       <c r="D802" s="1"/>
       <c r="E802" s="1"/>
@@ -7166,7 +6881,7 @@
       <c r="G802" s="1"/>
       <c r="H802" s="1"/>
     </row>
-    <row r="803" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="803" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C803" s="1"/>
       <c r="D803" s="1"/>
       <c r="E803" s="1"/>
@@ -7174,7 +6889,7 @@
       <c r="G803" s="1"/>
       <c r="H803" s="1"/>
     </row>
-    <row r="804" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="804" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C804" s="1"/>
       <c r="D804" s="1"/>
       <c r="E804" s="1"/>
@@ -7182,7 +6897,7 @@
       <c r="G804" s="1"/>
       <c r="H804" s="1"/>
     </row>
-    <row r="805" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="805" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C805" s="1"/>
       <c r="D805" s="1"/>
       <c r="E805" s="1"/>
@@ -7190,7 +6905,7 @@
       <c r="G805" s="1"/>
       <c r="H805" s="1"/>
     </row>
-    <row r="806" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="806" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C806" s="1"/>
       <c r="D806" s="1"/>
       <c r="E806" s="1"/>
@@ -7198,7 +6913,7 @@
       <c r="G806" s="1"/>
       <c r="H806" s="1"/>
     </row>
-    <row r="807" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="807" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C807" s="1"/>
       <c r="D807" s="1"/>
       <c r="E807" s="1"/>
@@ -7206,7 +6921,7 @@
       <c r="G807" s="1"/>
       <c r="H807" s="1"/>
     </row>
-    <row r="808" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="808" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C808" s="1"/>
       <c r="D808" s="1"/>
       <c r="E808" s="1"/>
@@ -7214,7 +6929,7 @@
       <c r="G808" s="1"/>
       <c r="H808" s="1"/>
     </row>
-    <row r="809" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="809" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C809" s="1"/>
       <c r="D809" s="1"/>
       <c r="E809" s="1"/>
@@ -7222,7 +6937,7 @@
       <c r="G809" s="1"/>
       <c r="H809" s="1"/>
     </row>
-    <row r="810" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="810" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C810" s="1"/>
       <c r="D810" s="1"/>
       <c r="E810" s="1"/>
@@ -7230,7 +6945,7 @@
       <c r="G810" s="1"/>
       <c r="H810" s="1"/>
     </row>
-    <row r="811" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="811" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C811" s="1"/>
       <c r="D811" s="1"/>
       <c r="E811" s="1"/>
@@ -7238,7 +6953,7 @@
       <c r="G811" s="1"/>
       <c r="H811" s="1"/>
     </row>
-    <row r="812" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="812" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C812" s="1"/>
       <c r="D812" s="1"/>
       <c r="E812" s="1"/>
@@ -7246,7 +6961,7 @@
       <c r="G812" s="1"/>
       <c r="H812" s="1"/>
     </row>
-    <row r="813" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="813" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C813" s="1"/>
       <c r="D813" s="1"/>
       <c r="E813" s="1"/>
@@ -7254,7 +6969,7 @@
       <c r="G813" s="1"/>
       <c r="H813" s="1"/>
     </row>
-    <row r="814" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="814" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C814" s="1"/>
       <c r="D814" s="1"/>
       <c r="E814" s="1"/>
@@ -7262,7 +6977,7 @@
       <c r="G814" s="1"/>
       <c r="H814" s="1"/>
     </row>
-    <row r="815" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="815" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C815" s="1"/>
       <c r="D815" s="1"/>
       <c r="E815" s="1"/>
@@ -7270,7 +6985,7 @@
       <c r="G815" s="1"/>
       <c r="H815" s="1"/>
     </row>
-    <row r="816" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="816" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C816" s="1"/>
       <c r="D816" s="1"/>
       <c r="E816" s="1"/>
@@ -7278,7 +6993,7 @@
       <c r="G816" s="1"/>
       <c r="H816" s="1"/>
     </row>
-    <row r="817" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="817" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C817" s="1"/>
       <c r="D817" s="1"/>
       <c r="E817" s="1"/>
@@ -7286,7 +7001,7 @@
       <c r="G817" s="1"/>
       <c r="H817" s="1"/>
     </row>
-    <row r="818" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="818" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C818" s="1"/>
       <c r="D818" s="1"/>
       <c r="E818" s="1"/>
@@ -7294,7 +7009,7 @@
       <c r="G818" s="1"/>
       <c r="H818" s="1"/>
     </row>
-    <row r="819" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="819" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C819" s="1"/>
       <c r="D819" s="1"/>
       <c r="E819" s="1"/>
@@ -7302,7 +7017,7 @@
       <c r="G819" s="1"/>
       <c r="H819" s="1"/>
     </row>
-    <row r="820" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="820" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C820" s="1"/>
       <c r="D820" s="1"/>
       <c r="E820" s="1"/>
@@ -7310,7 +7025,7 @@
       <c r="G820" s="1"/>
       <c r="H820" s="1"/>
     </row>
-    <row r="821" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="821" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C821" s="1"/>
       <c r="D821" s="1"/>
       <c r="E821" s="1"/>
@@ -7318,7 +7033,7 @@
       <c r="G821" s="1"/>
       <c r="H821" s="1"/>
     </row>
-    <row r="822" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="822" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C822" s="1"/>
       <c r="D822" s="1"/>
       <c r="E822" s="1"/>
@@ -7326,7 +7041,7 @@
       <c r="G822" s="1"/>
       <c r="H822" s="1"/>
     </row>
-    <row r="823" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="823" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C823" s="1"/>
       <c r="D823" s="1"/>
       <c r="E823" s="1"/>
@@ -7334,7 +7049,7 @@
       <c r="G823" s="1"/>
       <c r="H823" s="1"/>
     </row>
-    <row r="824" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="824" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C824" s="1"/>
       <c r="D824" s="1"/>
       <c r="E824" s="1"/>
@@ -7342,7 +7057,7 @@
       <c r="G824" s="1"/>
       <c r="H824" s="1"/>
     </row>
-    <row r="825" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="825" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C825" s="1"/>
       <c r="D825" s="1"/>
       <c r="E825" s="1"/>
@@ -7350,7 +7065,7 @@
       <c r="G825" s="1"/>
       <c r="H825" s="1"/>
     </row>
-    <row r="826" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="826" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C826" s="1"/>
       <c r="D826" s="1"/>
       <c r="E826" s="1"/>
@@ -7358,7 +7073,7 @@
       <c r="G826" s="1"/>
       <c r="H826" s="1"/>
     </row>
-    <row r="827" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="827" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C827" s="1"/>
       <c r="D827" s="1"/>
       <c r="E827" s="1"/>
@@ -7366,7 +7081,7 @@
       <c r="G827" s="1"/>
       <c r="H827" s="1"/>
     </row>
-    <row r="828" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="828" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C828" s="1"/>
       <c r="D828" s="1"/>
       <c r="E828" s="1"/>
@@ -7374,7 +7089,7 @@
       <c r="G828" s="1"/>
       <c r="H828" s="1"/>
     </row>
-    <row r="829" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="829" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C829" s="1"/>
       <c r="D829" s="1"/>
       <c r="E829" s="1"/>
@@ -7382,7 +7097,7 @@
       <c r="G829" s="1"/>
       <c r="H829" s="1"/>
     </row>
-    <row r="830" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="830" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C830" s="1"/>
       <c r="D830" s="1"/>
       <c r="E830" s="1"/>
@@ -7390,7 +7105,7 @@
       <c r="G830" s="1"/>
       <c r="H830" s="1"/>
     </row>
-    <row r="831" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="831" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C831" s="1"/>
       <c r="D831" s="1"/>
       <c r="E831" s="1"/>
@@ -7398,7 +7113,7 @@
       <c r="G831" s="1"/>
       <c r="H831" s="1"/>
     </row>
-    <row r="832" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="832" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C832" s="1"/>
       <c r="D832" s="1"/>
       <c r="E832" s="1"/>
@@ -7406,7 +7121,7 @@
       <c r="G832" s="1"/>
       <c r="H832" s="1"/>
     </row>
-    <row r="833" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="833" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C833" s="1"/>
       <c r="D833" s="1"/>
       <c r="E833" s="1"/>
@@ -7414,7 +7129,7 @@
       <c r="G833" s="1"/>
       <c r="H833" s="1"/>
     </row>
-    <row r="834" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="834" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C834" s="1"/>
       <c r="D834" s="1"/>
       <c r="E834" s="1"/>
@@ -7422,7 +7137,7 @@
       <c r="G834" s="1"/>
       <c r="H834" s="1"/>
     </row>
-    <row r="835" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="835" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C835" s="1"/>
       <c r="D835" s="1"/>
       <c r="E835" s="1"/>
@@ -7430,7 +7145,7 @@
       <c r="G835" s="1"/>
       <c r="H835" s="1"/>
     </row>
-    <row r="836" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="836" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C836" s="1"/>
       <c r="D836" s="1"/>
       <c r="E836" s="1"/>
@@ -7438,7 +7153,7 @@
       <c r="G836" s="1"/>
       <c r="H836" s="1"/>
     </row>
-    <row r="837" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="837" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C837" s="1"/>
       <c r="D837" s="1"/>
       <c r="E837" s="1"/>
@@ -7446,7 +7161,7 @@
       <c r="G837" s="1"/>
       <c r="H837" s="1"/>
     </row>
-    <row r="838" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="838" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C838" s="1"/>
       <c r="D838" s="1"/>
       <c r="E838" s="1"/>
@@ -7454,7 +7169,7 @@
       <c r="G838" s="1"/>
       <c r="H838" s="1"/>
     </row>
-    <row r="839" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="839" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C839" s="1"/>
       <c r="D839" s="1"/>
       <c r="E839" s="1"/>
@@ -7462,7 +7177,7 @@
       <c r="G839" s="1"/>
       <c r="H839" s="1"/>
     </row>
-    <row r="840" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="840" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C840" s="1"/>
       <c r="D840" s="1"/>
       <c r="E840" s="1"/>
@@ -7470,7 +7185,7 @@
       <c r="G840" s="1"/>
       <c r="H840" s="1"/>
     </row>
-    <row r="841" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="841" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C841" s="1"/>
       <c r="D841" s="1"/>
       <c r="E841" s="1"/>
@@ -7478,7 +7193,7 @@
       <c r="G841" s="1"/>
       <c r="H841" s="1"/>
     </row>
-    <row r="842" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="842" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C842" s="1"/>
       <c r="D842" s="1"/>
       <c r="E842" s="1"/>
@@ -7486,7 +7201,7 @@
       <c r="G842" s="1"/>
       <c r="H842" s="1"/>
     </row>
-    <row r="843" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="843" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C843" s="1"/>
       <c r="D843" s="1"/>
       <c r="E843" s="1"/>
@@ -7494,7 +7209,7 @@
       <c r="G843" s="1"/>
       <c r="H843" s="1"/>
     </row>
-    <row r="844" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="844" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C844" s="1"/>
       <c r="D844" s="1"/>
       <c r="E844" s="1"/>
@@ -7502,7 +7217,7 @@
       <c r="G844" s="1"/>
       <c r="H844" s="1"/>
     </row>
-    <row r="845" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="845" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C845" s="1"/>
       <c r="D845" s="1"/>
       <c r="E845" s="1"/>
@@ -7510,7 +7225,7 @@
       <c r="G845" s="1"/>
       <c r="H845" s="1"/>
     </row>
-    <row r="846" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="846" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C846" s="1"/>
       <c r="D846" s="1"/>
       <c r="E846" s="1"/>
@@ -7518,7 +7233,7 @@
       <c r="G846" s="1"/>
       <c r="H846" s="1"/>
     </row>
-    <row r="847" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="847" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C847" s="1"/>
       <c r="D847" s="1"/>
       <c r="E847" s="1"/>
@@ -7526,7 +7241,7 @@
       <c r="G847" s="1"/>
       <c r="H847" s="1"/>
     </row>
-    <row r="848" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="848" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C848" s="1"/>
       <c r="D848" s="1"/>
       <c r="E848" s="1"/>
@@ -7534,7 +7249,7 @@
       <c r="G848" s="1"/>
       <c r="H848" s="1"/>
     </row>
-    <row r="849" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="849" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C849" s="1"/>
       <c r="D849" s="1"/>
       <c r="E849" s="1"/>
@@ -7542,7 +7257,7 @@
       <c r="G849" s="1"/>
       <c r="H849" s="1"/>
     </row>
-    <row r="850" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="850" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C850" s="1"/>
       <c r="D850" s="1"/>
       <c r="E850" s="1"/>
@@ -7550,7 +7265,7 @@
       <c r="G850" s="1"/>
       <c r="H850" s="1"/>
     </row>
-    <row r="851" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="851" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C851" s="1"/>
       <c r="D851" s="1"/>
       <c r="E851" s="1"/>
@@ -7558,7 +7273,7 @@
       <c r="G851" s="1"/>
       <c r="H851" s="1"/>
     </row>
-    <row r="852" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="852" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C852" s="1"/>
       <c r="D852" s="1"/>
       <c r="E852" s="1"/>
@@ -7566,7 +7281,7 @@
       <c r="G852" s="1"/>
       <c r="H852" s="1"/>
     </row>
-    <row r="853" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="853" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C853" s="1"/>
       <c r="D853" s="1"/>
       <c r="E853" s="1"/>
@@ -7574,7 +7289,7 @@
       <c r="G853" s="1"/>
       <c r="H853" s="1"/>
     </row>
-    <row r="854" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="854" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C854" s="1"/>
       <c r="D854" s="1"/>
       <c r="E854" s="1"/>
@@ -7582,7 +7297,7 @@
       <c r="G854" s="1"/>
       <c r="H854" s="1"/>
     </row>
-    <row r="855" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="855" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C855" s="1"/>
       <c r="D855" s="1"/>
       <c r="E855" s="1"/>
@@ -7590,7 +7305,7 @@
       <c r="G855" s="1"/>
       <c r="H855" s="1"/>
     </row>
-    <row r="856" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="856" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C856" s="1"/>
       <c r="D856" s="1"/>
       <c r="E856" s="1"/>
@@ -7598,7 +7313,7 @@
       <c r="G856" s="1"/>
       <c r="H856" s="1"/>
     </row>
-    <row r="857" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="857" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C857" s="1"/>
       <c r="D857" s="1"/>
       <c r="E857" s="1"/>
@@ -7606,7 +7321,7 @@
       <c r="G857" s="1"/>
       <c r="H857" s="1"/>
     </row>
-    <row r="858" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="858" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C858" s="1"/>
       <c r="D858" s="1"/>
       <c r="E858" s="1"/>
@@ -7614,7 +7329,7 @@
       <c r="G858" s="1"/>
       <c r="H858" s="1"/>
     </row>
-    <row r="859" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="859" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C859" s="1"/>
       <c r="D859" s="1"/>
       <c r="E859" s="1"/>
@@ -7622,7 +7337,7 @@
       <c r="G859" s="1"/>
       <c r="H859" s="1"/>
     </row>
-    <row r="860" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="860" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C860" s="1"/>
       <c r="D860" s="1"/>
       <c r="E860" s="1"/>
@@ -7630,7 +7345,7 @@
       <c r="G860" s="1"/>
       <c r="H860" s="1"/>
     </row>
-    <row r="861" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="861" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C861" s="1"/>
       <c r="D861" s="1"/>
       <c r="E861" s="1"/>
@@ -7638,7 +7353,7 @@
       <c r="G861" s="1"/>
       <c r="H861" s="1"/>
     </row>
-    <row r="862" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="862" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C862" s="1"/>
       <c r="D862" s="1"/>
       <c r="E862" s="1"/>
@@ -7646,7 +7361,7 @@
       <c r="G862" s="1"/>
       <c r="H862" s="1"/>
     </row>
-    <row r="863" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="863" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C863" s="1"/>
       <c r="D863" s="1"/>
       <c r="E863" s="1"/>
@@ -7654,7 +7369,7 @@
       <c r="G863" s="1"/>
       <c r="H863" s="1"/>
     </row>
-    <row r="864" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="864" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C864" s="1"/>
       <c r="D864" s="1"/>
       <c r="E864" s="1"/>
@@ -7662,7 +7377,7 @@
       <c r="G864" s="1"/>
       <c r="H864" s="1"/>
     </row>
-    <row r="865" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="865" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C865" s="1"/>
       <c r="D865" s="1"/>
       <c r="E865" s="1"/>
@@ -7670,7 +7385,7 @@
       <c r="G865" s="1"/>
       <c r="H865" s="1"/>
     </row>
-    <row r="866" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="866" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C866" s="1"/>
       <c r="D866" s="1"/>
       <c r="E866" s="1"/>
@@ -7678,7 +7393,7 @@
       <c r="G866" s="1"/>
       <c r="H866" s="1"/>
     </row>
-    <row r="867" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="867" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C867" s="1"/>
       <c r="D867" s="1"/>
       <c r="E867" s="1"/>
@@ -7686,7 +7401,7 @@
       <c r="G867" s="1"/>
       <c r="H867" s="1"/>
     </row>
-    <row r="868" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="868" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C868" s="1"/>
       <c r="D868" s="1"/>
       <c r="E868" s="1"/>
@@ -7694,7 +7409,7 @@
       <c r="G868" s="1"/>
       <c r="H868" s="1"/>
     </row>
-    <row r="869" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="869" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C869" s="1"/>
       <c r="D869" s="1"/>
       <c r="E869" s="1"/>
@@ -7702,7 +7417,7 @@
       <c r="G869" s="1"/>
       <c r="H869" s="1"/>
     </row>
-    <row r="870" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="870" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C870" s="1"/>
       <c r="D870" s="1"/>
       <c r="E870" s="1"/>
@@ -7710,7 +7425,7 @@
       <c r="G870" s="1"/>
       <c r="H870" s="1"/>
     </row>
-    <row r="871" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="871" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C871" s="1"/>
       <c r="D871" s="1"/>
       <c r="E871" s="1"/>
@@ -7718,7 +7433,7 @@
       <c r="G871" s="1"/>
       <c r="H871" s="1"/>
     </row>
-    <row r="872" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="872" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C872" s="1"/>
       <c r="D872" s="1"/>
       <c r="E872" s="1"/>
@@ -7726,7 +7441,7 @@
       <c r="G872" s="1"/>
       <c r="H872" s="1"/>
     </row>
-    <row r="873" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="873" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C873" s="1"/>
       <c r="D873" s="1"/>
       <c r="E873" s="1"/>
@@ -7734,7 +7449,7 @@
       <c r="G873" s="1"/>
       <c r="H873" s="1"/>
     </row>
-    <row r="874" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="874" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C874" s="1"/>
       <c r="D874" s="1"/>
       <c r="E874" s="1"/>
@@ -7742,7 +7457,7 @@
       <c r="G874" s="1"/>
       <c r="H874" s="1"/>
     </row>
-    <row r="875" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="875" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C875" s="1"/>
       <c r="D875" s="1"/>
       <c r="E875" s="1"/>
@@ -7750,7 +7465,7 @@
       <c r="G875" s="1"/>
       <c r="H875" s="1"/>
     </row>
-    <row r="876" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="876" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C876" s="1"/>
       <c r="D876" s="1"/>
       <c r="E876" s="1"/>
@@ -7758,7 +7473,7 @@
       <c r="G876" s="1"/>
       <c r="H876" s="1"/>
     </row>
-    <row r="877" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="877" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C877" s="1"/>
       <c r="D877" s="1"/>
       <c r="E877" s="1"/>
@@ -7766,7 +7481,7 @@
       <c r="G877" s="1"/>
       <c r="H877" s="1"/>
     </row>
-    <row r="878" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="878" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C878" s="1"/>
       <c r="D878" s="1"/>
       <c r="E878" s="1"/>
@@ -7774,7 +7489,7 @@
       <c r="G878" s="1"/>
       <c r="H878" s="1"/>
     </row>
-    <row r="879" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="879" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C879" s="1"/>
       <c r="D879" s="1"/>
       <c r="E879" s="1"/>
@@ -7782,7 +7497,7 @@
       <c r="G879" s="1"/>
       <c r="H879" s="1"/>
     </row>
-    <row r="880" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="880" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C880" s="1"/>
       <c r="D880" s="1"/>
       <c r="E880" s="1"/>
@@ -7790,7 +7505,7 @@
       <c r="G880" s="1"/>
       <c r="H880" s="1"/>
     </row>
-    <row r="881" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="881" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C881" s="1"/>
       <c r="D881" s="1"/>
       <c r="E881" s="1"/>
@@ -7798,7 +7513,7 @@
       <c r="G881" s="1"/>
       <c r="H881" s="1"/>
     </row>
-    <row r="882" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="882" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C882" s="1"/>
       <c r="D882" s="1"/>
       <c r="E882" s="1"/>
@@ -7806,7 +7521,7 @@
       <c r="G882" s="1"/>
       <c r="H882" s="1"/>
     </row>
-    <row r="883" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="883" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C883" s="1"/>
       <c r="D883" s="1"/>
       <c r="E883" s="1"/>
@@ -7814,7 +7529,7 @@
       <c r="G883" s="1"/>
       <c r="H883" s="1"/>
     </row>
-    <row r="884" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="884" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C884" s="1"/>
       <c r="D884" s="1"/>
       <c r="E884" s="1"/>
@@ -7822,7 +7537,7 @@
       <c r="G884" s="1"/>
       <c r="H884" s="1"/>
     </row>
-    <row r="885" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="885" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C885" s="1"/>
       <c r="D885" s="1"/>
       <c r="E885" s="1"/>
@@ -7830,7 +7545,7 @@
       <c r="G885" s="1"/>
       <c r="H885" s="1"/>
     </row>
-    <row r="886" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="886" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C886" s="1"/>
       <c r="D886" s="1"/>
       <c r="E886" s="1"/>
@@ -7838,7 +7553,7 @@
       <c r="G886" s="1"/>
       <c r="H886" s="1"/>
     </row>
-    <row r="887" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="887" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C887" s="1"/>
       <c r="D887" s="1"/>
       <c r="E887" s="1"/>
@@ -7846,7 +7561,7 @@
       <c r="G887" s="1"/>
       <c r="H887" s="1"/>
     </row>
-    <row r="888" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="888" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C888" s="1"/>
       <c r="D888" s="1"/>
       <c r="E888" s="1"/>
@@ -7854,7 +7569,7 @@
       <c r="G888" s="1"/>
       <c r="H888" s="1"/>
     </row>
-    <row r="889" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="889" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C889" s="1"/>
       <c r="D889" s="1"/>
       <c r="E889" s="1"/>
@@ -7862,7 +7577,7 @@
       <c r="G889" s="1"/>
       <c r="H889" s="1"/>
     </row>
-    <row r="890" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="890" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C890" s="1"/>
       <c r="D890" s="1"/>
       <c r="E890" s="1"/>
@@ -7870,7 +7585,7 @@
       <c r="G890" s="1"/>
       <c r="H890" s="1"/>
     </row>
-    <row r="891" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="891" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C891" s="1"/>
       <c r="D891" s="1"/>
       <c r="E891" s="1"/>
@@ -7878,7 +7593,7 @@
       <c r="G891" s="1"/>
       <c r="H891" s="1"/>
     </row>
-    <row r="892" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="892" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C892" s="1"/>
       <c r="D892" s="1"/>
       <c r="E892" s="1"/>
@@ -7886,7 +7601,7 @@
       <c r="G892" s="1"/>
       <c r="H892" s="1"/>
     </row>
-    <row r="893" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="893" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C893" s="1"/>
       <c r="D893" s="1"/>
       <c r="E893" s="1"/>
@@ -7894,7 +7609,7 @@
       <c r="G893" s="1"/>
       <c r="H893" s="1"/>
     </row>
-    <row r="894" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="894" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C894" s="1"/>
       <c r="D894" s="1"/>
       <c r="E894" s="1"/>
@@ -7902,7 +7617,7 @@
       <c r="G894" s="1"/>
       <c r="H894" s="1"/>
     </row>
-    <row r="895" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="895" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C895" s="1"/>
       <c r="D895" s="1"/>
       <c r="E895" s="1"/>
@@ -7910,7 +7625,7 @@
       <c r="G895" s="1"/>
       <c r="H895" s="1"/>
     </row>
-    <row r="896" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="896" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C896" s="1"/>
       <c r="D896" s="1"/>
       <c r="E896" s="1"/>
@@ -7918,7 +7633,7 @@
       <c r="G896" s="1"/>
       <c r="H896" s="1"/>
     </row>
-    <row r="897" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="897" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C897" s="1"/>
       <c r="D897" s="1"/>
       <c r="E897" s="1"/>
@@ -7926,7 +7641,7 @@
       <c r="G897" s="1"/>
       <c r="H897" s="1"/>
     </row>
-    <row r="898" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="898" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C898" s="1"/>
       <c r="D898" s="1"/>
       <c r="E898" s="1"/>
@@ -7934,7 +7649,7 @@
       <c r="G898" s="1"/>
       <c r="H898" s="1"/>
     </row>
-    <row r="899" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="899" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C899" s="1"/>
       <c r="D899" s="1"/>
       <c r="E899" s="1"/>
@@ -7942,7 +7657,7 @@
       <c r="G899" s="1"/>
       <c r="H899" s="1"/>
     </row>
-    <row r="900" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="900" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C900" s="1"/>
       <c r="D900" s="1"/>
       <c r="E900" s="1"/>
@@ -7950,7 +7665,7 @@
       <c r="G900" s="1"/>
       <c r="H900" s="1"/>
     </row>
-    <row r="901" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="901" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C901" s="1"/>
       <c r="D901" s="1"/>
       <c r="E901" s="1"/>
@@ -7958,7 +7673,7 @@
       <c r="G901" s="1"/>
       <c r="H901" s="1"/>
     </row>
-    <row r="902" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="902" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C902" s="1"/>
       <c r="D902" s="1"/>
       <c r="E902" s="1"/>
@@ -7966,7 +7681,7 @@
       <c r="G902" s="1"/>
       <c r="H902" s="1"/>
     </row>
-    <row r="903" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="903" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C903" s="1"/>
       <c r="D903" s="1"/>
       <c r="E903" s="1"/>
@@ -7974,7 +7689,7 @@
       <c r="G903" s="1"/>
       <c r="H903" s="1"/>
     </row>
-    <row r="904" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="904" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C904" s="1"/>
       <c r="D904" s="1"/>
       <c r="E904" s="1"/>
@@ -7982,7 +7697,7 @@
       <c r="G904" s="1"/>
       <c r="H904" s="1"/>
     </row>
-    <row r="905" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="905" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C905" s="1"/>
       <c r="D905" s="1"/>
       <c r="E905" s="1"/>
@@ -7990,7 +7705,7 @@
       <c r="G905" s="1"/>
       <c r="H905" s="1"/>
     </row>
-    <row r="906" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="906" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C906" s="1"/>
       <c r="D906" s="1"/>
       <c r="E906" s="1"/>
@@ -7998,7 +7713,7 @@
       <c r="G906" s="1"/>
       <c r="H906" s="1"/>
     </row>
-    <row r="907" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="907" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C907" s="1"/>
       <c r="D907" s="1"/>
       <c r="E907" s="1"/>
@@ -8006,7 +7721,7 @@
       <c r="G907" s="1"/>
       <c r="H907" s="1"/>
     </row>
-    <row r="908" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="908" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C908" s="1"/>
       <c r="D908" s="1"/>
       <c r="E908" s="1"/>
@@ -8014,7 +7729,7 @@
       <c r="G908" s="1"/>
       <c r="H908" s="1"/>
     </row>
-    <row r="909" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="909" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C909" s="1"/>
       <c r="D909" s="1"/>
       <c r="E909" s="1"/>
@@ -8022,7 +7737,7 @@
       <c r="G909" s="1"/>
       <c r="H909" s="1"/>
     </row>
-    <row r="910" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="910" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C910" s="1"/>
       <c r="D910" s="1"/>
       <c r="E910" s="1"/>
@@ -8030,7 +7745,7 @@
       <c r="G910" s="1"/>
       <c r="H910" s="1"/>
     </row>
-    <row r="911" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="911" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C911" s="1"/>
       <c r="D911" s="1"/>
       <c r="E911" s="1"/>
@@ -8038,7 +7753,7 @@
       <c r="G911" s="1"/>
       <c r="H911" s="1"/>
     </row>
-    <row r="912" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="912" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C912" s="1"/>
       <c r="D912" s="1"/>
       <c r="E912" s="1"/>
@@ -8046,7 +7761,7 @@
       <c r="G912" s="1"/>
       <c r="H912" s="1"/>
     </row>
-    <row r="913" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="913" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C913" s="1"/>
       <c r="D913" s="1"/>
       <c r="E913" s="1"/>
@@ -8054,7 +7769,7 @@
       <c r="G913" s="1"/>
       <c r="H913" s="1"/>
     </row>
-    <row r="914" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="914" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C914" s="1"/>
       <c r="D914" s="1"/>
       <c r="E914" s="1"/>
@@ -8062,7 +7777,7 @@
       <c r="G914" s="1"/>
       <c r="H914" s="1"/>
     </row>
-    <row r="915" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="915" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C915" s="1"/>
       <c r="D915" s="1"/>
       <c r="E915" s="1"/>
@@ -8070,7 +7785,7 @@
       <c r="G915" s="1"/>
       <c r="H915" s="1"/>
     </row>
-    <row r="916" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="916" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C916" s="1"/>
       <c r="D916" s="1"/>
       <c r="E916" s="1"/>
@@ -8078,7 +7793,7 @@
       <c r="G916" s="1"/>
       <c r="H916" s="1"/>
     </row>
-    <row r="917" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="917" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C917" s="1"/>
       <c r="D917" s="1"/>
       <c r="E917" s="1"/>
@@ -8086,7 +7801,7 @@
       <c r="G917" s="1"/>
       <c r="H917" s="1"/>
     </row>
-    <row r="918" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="918" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C918" s="1"/>
       <c r="D918" s="1"/>
       <c r="E918" s="1"/>
@@ -8094,7 +7809,7 @@
       <c r="G918" s="1"/>
       <c r="H918" s="1"/>
     </row>
-    <row r="919" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="919" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C919" s="1"/>
       <c r="D919" s="1"/>
       <c r="E919" s="1"/>
@@ -8102,7 +7817,7 @@
       <c r="G919" s="1"/>
       <c r="H919" s="1"/>
     </row>
-    <row r="920" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="920" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C920" s="1"/>
       <c r="D920" s="1"/>
       <c r="E920" s="1"/>
@@ -8110,7 +7825,7 @@
       <c r="G920" s="1"/>
       <c r="H920" s="1"/>
     </row>
-    <row r="921" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="921" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C921" s="1"/>
       <c r="D921" s="1"/>
       <c r="E921" s="1"/>
@@ -8118,7 +7833,7 @@
       <c r="G921" s="1"/>
       <c r="H921" s="1"/>
     </row>
-    <row r="922" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="922" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C922" s="1"/>
       <c r="D922" s="1"/>
       <c r="E922" s="1"/>
@@ -8126,7 +7841,7 @@
       <c r="G922" s="1"/>
       <c r="H922" s="1"/>
     </row>
-    <row r="923" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="923" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C923" s="1"/>
       <c r="D923" s="1"/>
       <c r="E923" s="1"/>
@@ -8134,7 +7849,7 @@
       <c r="G923" s="1"/>
       <c r="H923" s="1"/>
     </row>
-    <row r="924" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="924" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C924" s="1"/>
       <c r="D924" s="1"/>
       <c r="E924" s="1"/>
@@ -8142,7 +7857,7 @@
       <c r="G924" s="1"/>
       <c r="H924" s="1"/>
     </row>
-    <row r="925" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="925" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C925" s="1"/>
       <c r="D925" s="1"/>
       <c r="E925" s="1"/>
@@ -8150,7 +7865,7 @@
       <c r="G925" s="1"/>
       <c r="H925" s="1"/>
     </row>
-    <row r="926" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="926" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C926" s="1"/>
       <c r="D926" s="1"/>
       <c r="E926" s="1"/>
@@ -8158,7 +7873,7 @@
       <c r="G926" s="1"/>
       <c r="H926" s="1"/>
     </row>
-    <row r="927" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="927" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C927" s="1"/>
       <c r="D927" s="1"/>
       <c r="E927" s="1"/>
@@ -8166,7 +7881,7 @@
       <c r="G927" s="1"/>
       <c r="H927" s="1"/>
     </row>
-    <row r="928" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="928" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C928" s="1"/>
       <c r="D928" s="1"/>
       <c r="E928" s="1"/>
@@ -8174,7 +7889,7 @@
       <c r="G928" s="1"/>
       <c r="H928" s="1"/>
     </row>
-    <row r="929" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="929" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C929" s="1"/>
       <c r="D929" s="1"/>
       <c r="E929" s="1"/>
@@ -8182,7 +7897,7 @@
       <c r="G929" s="1"/>
       <c r="H929" s="1"/>
     </row>
-    <row r="930" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="930" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C930" s="1"/>
       <c r="D930" s="1"/>
       <c r="E930" s="1"/>
@@ -8190,7 +7905,7 @@
       <c r="G930" s="1"/>
       <c r="H930" s="1"/>
     </row>
-    <row r="931" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="931" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C931" s="1"/>
       <c r="D931" s="1"/>
       <c r="E931" s="1"/>
@@ -8198,7 +7913,7 @@
       <c r="G931" s="1"/>
       <c r="H931" s="1"/>
     </row>
-    <row r="932" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="932" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C932" s="1"/>
       <c r="D932" s="1"/>
       <c r="E932" s="1"/>
@@ -8206,7 +7921,7 @@
       <c r="G932" s="1"/>
       <c r="H932" s="1"/>
     </row>
-    <row r="933" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="933" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C933" s="1"/>
       <c r="D933" s="1"/>
       <c r="E933" s="1"/>
@@ -8214,7 +7929,7 @@
       <c r="G933" s="1"/>
       <c r="H933" s="1"/>
     </row>
-    <row r="934" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="934" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C934" s="1"/>
       <c r="D934" s="1"/>
       <c r="E934" s="1"/>
@@ -8222,7 +7937,7 @@
       <c r="G934" s="1"/>
       <c r="H934" s="1"/>
     </row>
-    <row r="935" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="935" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C935" s="1"/>
       <c r="D935" s="1"/>
       <c r="E935" s="1"/>
@@ -8230,7 +7945,7 @@
       <c r="G935" s="1"/>
       <c r="H935" s="1"/>
     </row>
-    <row r="936" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="936" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C936" s="1"/>
       <c r="D936" s="1"/>
       <c r="E936" s="1"/>
@@ -8238,7 +7953,7 @@
       <c r="G936" s="1"/>
       <c r="H936" s="1"/>
     </row>
-    <row r="937" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="937" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C937" s="1"/>
       <c r="D937" s="1"/>
       <c r="E937" s="1"/>
@@ -8246,7 +7961,7 @@
       <c r="G937" s="1"/>
       <c r="H937" s="1"/>
     </row>
-    <row r="938" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="938" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C938" s="1"/>
       <c r="D938" s="1"/>
       <c r="E938" s="1"/>
@@ -8254,7 +7969,7 @@
       <c r="G938" s="1"/>
       <c r="H938" s="1"/>
     </row>
-    <row r="939" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="939" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C939" s="1"/>
       <c r="D939" s="1"/>
       <c r="E939" s="1"/>
@@ -8262,7 +7977,7 @@
       <c r="G939" s="1"/>
       <c r="H939" s="1"/>
     </row>
-    <row r="940" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="940" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C940" s="1"/>
       <c r="D940" s="1"/>
       <c r="E940" s="1"/>
@@ -8270,7 +7985,7 @@
       <c r="G940" s="1"/>
       <c r="H940" s="1"/>
     </row>
-    <row r="941" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="941" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C941" s="1"/>
       <c r="D941" s="1"/>
       <c r="E941" s="1"/>
@@ -8278,7 +7993,7 @@
       <c r="G941" s="1"/>
       <c r="H941" s="1"/>
     </row>
-    <row r="942" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="942" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C942" s="1"/>
       <c r="D942" s="1"/>
       <c r="E942" s="1"/>
@@ -8286,7 +8001,7 @@
       <c r="G942" s="1"/>
       <c r="H942" s="1"/>
     </row>
-    <row r="943" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="943" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C943" s="1"/>
       <c r="D943" s="1"/>
       <c r="E943" s="1"/>
@@ -8294,7 +8009,7 @@
       <c r="G943" s="1"/>
       <c r="H943" s="1"/>
     </row>
-    <row r="944" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="944" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C944" s="1"/>
       <c r="D944" s="1"/>
       <c r="E944" s="1"/>
@@ -8302,7 +8017,7 @@
       <c r="G944" s="1"/>
       <c r="H944" s="1"/>
     </row>
-    <row r="945" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="945" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C945" s="1"/>
       <c r="D945" s="1"/>
       <c r="E945" s="1"/>
@@ -8310,7 +8025,7 @@
       <c r="G945" s="1"/>
       <c r="H945" s="1"/>
     </row>
-    <row r="946" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="946" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C946" s="1"/>
       <c r="D946" s="1"/>
       <c r="E946" s="1"/>
@@ -8318,7 +8033,7 @@
       <c r="G946" s="1"/>
       <c r="H946" s="1"/>
     </row>
-    <row r="947" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="947" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C947" s="1"/>
       <c r="D947" s="1"/>
       <c r="E947" s="1"/>
@@ -8326,7 +8041,7 @@
       <c r="G947" s="1"/>
       <c r="H947" s="1"/>
     </row>
-    <row r="948" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="948" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C948" s="1"/>
       <c r="D948" s="1"/>
       <c r="E948" s="1"/>
@@ -8334,7 +8049,7 @@
       <c r="G948" s="1"/>
       <c r="H948" s="1"/>
     </row>
-    <row r="949" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="949" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C949" s="1"/>
       <c r="D949" s="1"/>
       <c r="E949" s="1"/>
@@ -8342,7 +8057,7 @@
       <c r="G949" s="1"/>
       <c r="H949" s="1"/>
     </row>
-    <row r="950" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="950" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C950" s="1"/>
       <c r="D950" s="1"/>
       <c r="E950" s="1"/>
@@ -8350,7 +8065,7 @@
       <c r="G950" s="1"/>
       <c r="H950" s="1"/>
     </row>
-    <row r="951" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="951" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C951" s="1"/>
       <c r="D951" s="1"/>
       <c r="E951" s="1"/>
@@ -8358,7 +8073,7 @@
       <c r="G951" s="1"/>
       <c r="H951" s="1"/>
     </row>
-    <row r="952" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="952" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C952" s="1"/>
       <c r="D952" s="1"/>
       <c r="E952" s="1"/>
@@ -8366,7 +8081,7 @@
       <c r="G952" s="1"/>
       <c r="H952" s="1"/>
     </row>
-    <row r="953" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="953" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C953" s="1"/>
       <c r="D953" s="1"/>
       <c r="E953" s="1"/>
@@ -8374,7 +8089,7 @@
       <c r="G953" s="1"/>
       <c r="H953" s="1"/>
     </row>
-    <row r="954" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="954" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C954" s="1"/>
       <c r="D954" s="1"/>
       <c r="E954" s="1"/>
@@ -8382,7 +8097,7 @@
       <c r="G954" s="1"/>
       <c r="H954" s="1"/>
     </row>
-    <row r="955" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="955" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C955" s="1"/>
       <c r="D955" s="1"/>
       <c r="E955" s="1"/>
@@ -8390,7 +8105,7 @@
       <c r="G955" s="1"/>
       <c r="H955" s="1"/>
     </row>
-    <row r="956" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="956" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C956" s="1"/>
       <c r="D956" s="1"/>
       <c r="E956" s="1"/>
@@ -8398,7 +8113,7 @@
       <c r="G956" s="1"/>
       <c r="H956" s="1"/>
     </row>
-    <row r="957" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="957" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C957" s="1"/>
       <c r="D957" s="1"/>
       <c r="E957" s="1"/>
@@ -8406,7 +8121,7 @@
       <c r="G957" s="1"/>
       <c r="H957" s="1"/>
     </row>
-    <row r="958" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="958" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C958" s="1"/>
       <c r="D958" s="1"/>
       <c r="E958" s="1"/>
@@ -8414,7 +8129,7 @@
       <c r="G958" s="1"/>
       <c r="H958" s="1"/>
     </row>
-    <row r="959" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="959" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C959" s="1"/>
       <c r="D959" s="1"/>
       <c r="E959" s="1"/>
@@ -8422,7 +8137,7 @@
       <c r="G959" s="1"/>
       <c r="H959" s="1"/>
     </row>
-    <row r="960" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="960" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C960" s="1"/>
       <c r="D960" s="1"/>
       <c r="E960" s="1"/>
@@ -8430,7 +8145,7 @@
       <c r="G960" s="1"/>
       <c r="H960" s="1"/>
     </row>
-    <row r="961" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="961" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C961" s="1"/>
       <c r="D961" s="1"/>
       <c r="E961" s="1"/>
@@ -8438,7 +8153,7 @@
       <c r="G961" s="1"/>
       <c r="H961" s="1"/>
     </row>
-    <row r="962" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="962" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C962" s="1"/>
       <c r="D962" s="1"/>
       <c r="E962" s="1"/>
@@ -8446,7 +8161,7 @@
       <c r="G962" s="1"/>
       <c r="H962" s="1"/>
     </row>
-    <row r="963" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="963" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C963" s="1"/>
       <c r="D963" s="1"/>
       <c r="E963" s="1"/>
@@ -8454,7 +8169,7 @@
       <c r="G963" s="1"/>
       <c r="H963" s="1"/>
     </row>
-    <row r="964" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="964" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C964" s="1"/>
       <c r="D964" s="1"/>
       <c r="E964" s="1"/>
@@ -8462,7 +8177,7 @@
       <c r="G964" s="1"/>
       <c r="H964" s="1"/>
     </row>
-    <row r="965" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="965" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C965" s="1"/>
       <c r="D965" s="1"/>
       <c r="E965" s="1"/>
@@ -8470,7 +8185,7 @@
       <c r="G965" s="1"/>
       <c r="H965" s="1"/>
     </row>
-    <row r="966" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="966" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C966" s="1"/>
       <c r="D966" s="1"/>
       <c r="E966" s="1"/>
@@ -8478,7 +8193,7 @@
       <c r="G966" s="1"/>
       <c r="H966" s="1"/>
     </row>
-    <row r="967" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="967" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C967" s="1"/>
       <c r="D967" s="1"/>
       <c r="E967" s="1"/>
@@ -8486,7 +8201,7 @@
       <c r="G967" s="1"/>
       <c r="H967" s="1"/>
     </row>
-    <row r="968" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="968" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C968" s="1"/>
       <c r="D968" s="1"/>
       <c r="E968" s="1"/>
@@ -8494,7 +8209,7 @@
       <c r="G968" s="1"/>
       <c r="H968" s="1"/>
     </row>
-    <row r="969" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="969" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C969" s="1"/>
       <c r="D969" s="1"/>
       <c r="E969" s="1"/>
@@ -8502,7 +8217,7 @@
       <c r="G969" s="1"/>
       <c r="H969" s="1"/>
     </row>
-    <row r="970" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="970" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C970" s="1"/>
       <c r="D970" s="1"/>
       <c r="E970" s="1"/>
@@ -8510,7 +8225,7 @@
       <c r="G970" s="1"/>
       <c r="H970" s="1"/>
     </row>
-    <row r="971" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="971" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C971" s="1"/>
       <c r="D971" s="1"/>
       <c r="E971" s="1"/>
@@ -8518,7 +8233,7 @@
       <c r="G971" s="1"/>
       <c r="H971" s="1"/>
     </row>
-    <row r="972" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="972" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C972" s="1"/>
       <c r="D972" s="1"/>
       <c r="E972" s="1"/>
@@ -8526,7 +8241,7 @@
       <c r="G972" s="1"/>
       <c r="H972" s="1"/>
     </row>
-    <row r="973" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="973" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C973" s="1"/>
       <c r="D973" s="1"/>
       <c r="E973" s="1"/>
@@ -8534,7 +8249,7 @@
       <c r="G973" s="1"/>
       <c r="H973" s="1"/>
     </row>
-    <row r="974" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="974" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C974" s="1"/>
       <c r="D974" s="1"/>
       <c r="E974" s="1"/>
@@ -8542,7 +8257,7 @@
       <c r="G974" s="1"/>
       <c r="H974" s="1"/>
     </row>
-    <row r="975" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="975" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C975" s="1"/>
       <c r="D975" s="1"/>
       <c r="E975" s="1"/>
@@ -8550,7 +8265,7 @@
       <c r="G975" s="1"/>
       <c r="H975" s="1"/>
     </row>
-    <row r="976" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="976" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C976" s="1"/>
       <c r="D976" s="1"/>
       <c r="E976" s="1"/>
@@ -8558,7 +8273,7 @@
       <c r="G976" s="1"/>
       <c r="H976" s="1"/>
     </row>
-    <row r="977" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="977" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C977" s="1"/>
       <c r="D977" s="1"/>
       <c r="E977" s="1"/>
@@ -8566,7 +8281,7 @@
       <c r="G977" s="1"/>
       <c r="H977" s="1"/>
     </row>
-    <row r="978" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="978" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C978" s="1"/>
       <c r="D978" s="1"/>
       <c r="E978" s="1"/>
@@ -8574,7 +8289,7 @@
       <c r="G978" s="1"/>
       <c r="H978" s="1"/>
     </row>
-    <row r="979" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="979" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C979" s="1"/>
       <c r="D979" s="1"/>
       <c r="E979" s="1"/>
@@ -8582,7 +8297,7 @@
       <c r="G979" s="1"/>
       <c r="H979" s="1"/>
     </row>
-    <row r="980" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="980" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C980" s="1"/>
       <c r="D980" s="1"/>
       <c r="E980" s="1"/>
@@ -8590,7 +8305,7 @@
       <c r="G980" s="1"/>
       <c r="H980" s="1"/>
     </row>
-    <row r="981" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="981" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C981" s="1"/>
       <c r="D981" s="1"/>
       <c r="E981" s="1"/>
@@ -8598,7 +8313,7 @@
       <c r="G981" s="1"/>
       <c r="H981" s="1"/>
     </row>
-    <row r="982" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="982" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C982" s="1"/>
       <c r="D982" s="1"/>
       <c r="E982" s="1"/>
@@ -8606,7 +8321,7 @@
       <c r="G982" s="1"/>
       <c r="H982" s="1"/>
     </row>
-    <row r="983" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="983" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C983" s="1"/>
       <c r="D983" s="1"/>
       <c r="E983" s="1"/>
@@ -8614,7 +8329,7 @@
       <c r="G983" s="1"/>
       <c r="H983" s="1"/>
     </row>
-    <row r="984" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="984" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C984" s="1"/>
       <c r="D984" s="1"/>
       <c r="E984" s="1"/>
@@ -8622,7 +8337,7 @@
       <c r="G984" s="1"/>
       <c r="H984" s="1"/>
     </row>
-    <row r="985" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="985" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C985" s="1"/>
       <c r="D985" s="1"/>
       <c r="E985" s="1"/>
@@ -8630,7 +8345,7 @@
       <c r="G985" s="1"/>
       <c r="H985" s="1"/>
     </row>
-    <row r="986" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="986" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C986" s="1"/>
       <c r="D986" s="1"/>
       <c r="E986" s="1"/>
@@ -8638,7 +8353,7 @@
       <c r="G986" s="1"/>
       <c r="H986" s="1"/>
     </row>
-    <row r="987" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="987" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C987" s="1"/>
       <c r="D987" s="1"/>
       <c r="E987" s="1"/>
@@ -8646,7 +8361,7 @@
       <c r="G987" s="1"/>
       <c r="H987" s="1"/>
     </row>
-    <row r="988" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="988" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C988" s="1"/>
       <c r="D988" s="1"/>
       <c r="E988" s="1"/>
@@ -8654,7 +8369,7 @@
       <c r="G988" s="1"/>
       <c r="H988" s="1"/>
     </row>
-    <row r="989" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="989" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C989" s="1"/>
       <c r="D989" s="1"/>
       <c r="E989" s="1"/>
@@ -8662,7 +8377,7 @@
       <c r="G989" s="1"/>
       <c r="H989" s="1"/>
     </row>
-    <row r="990" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="990" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C990" s="1"/>
       <c r="D990" s="1"/>
       <c r="E990" s="1"/>
@@ -8670,7 +8385,7 @@
       <c r="G990" s="1"/>
       <c r="H990" s="1"/>
     </row>
-    <row r="991" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="991" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C991" s="1"/>
       <c r="D991" s="1"/>
       <c r="E991" s="1"/>
@@ -8678,7 +8393,7 @@
       <c r="G991" s="1"/>
       <c r="H991" s="1"/>
     </row>
-    <row r="992" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="992" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C992" s="1"/>
       <c r="D992" s="1"/>
       <c r="E992" s="1"/>
@@ -8686,7 +8401,7 @@
       <c r="G992" s="1"/>
       <c r="H992" s="1"/>
     </row>
-    <row r="993" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="993" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C993" s="1"/>
       <c r="D993" s="1"/>
       <c r="E993" s="1"/>
@@ -8694,7 +8409,7 @@
       <c r="G993" s="1"/>
       <c r="H993" s="1"/>
     </row>
-    <row r="994" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="994" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C994" s="1"/>
       <c r="D994" s="1"/>
       <c r="E994" s="1"/>
@@ -8702,7 +8417,7 @@
       <c r="G994" s="1"/>
       <c r="H994" s="1"/>
     </row>
-    <row r="995" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="995" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C995" s="1"/>
       <c r="D995" s="1"/>
       <c r="E995" s="1"/>
@@ -8710,7 +8425,7 @@
       <c r="G995" s="1"/>
       <c r="H995" s="1"/>
     </row>
-    <row r="996" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="996" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C996" s="1"/>
       <c r="D996" s="1"/>
       <c r="E996" s="1"/>
@@ -8718,7 +8433,7 @@
       <c r="G996" s="1"/>
       <c r="H996" s="1"/>
     </row>
-    <row r="997" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="997" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C997" s="1"/>
       <c r="D997" s="1"/>
       <c r="E997" s="1"/>
@@ -8726,7 +8441,7 @@
       <c r="G997" s="1"/>
       <c r="H997" s="1"/>
     </row>
-    <row r="998" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="998" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C998" s="1"/>
       <c r="D998" s="1"/>
       <c r="E998" s="1"/>
@@ -8734,7 +8449,7 @@
       <c r="G998" s="1"/>
       <c r="H998" s="1"/>
     </row>
-    <row r="999" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="999" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C999" s="1"/>
       <c r="D999" s="1"/>
       <c r="E999" s="1"/>
@@ -8743,7 +8458,12 @@
       <c r="H999" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
--- a/imputacioHoresDSA.xlsx
+++ b/imputacioHoresDSA.xlsx
@@ -358,10 +358,10 @@
   <dimension ref="A1:I999"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I4" activeCellId="0" sqref="I4"/>
+      <selection pane="topLeft" activeCell="J8" activeCellId="0" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.28"/>
@@ -446,11 +446,11 @@
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G6" s="6" t="n">
         <f aca="false">SUM(C6:F6)</f>
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H6" s="6" t="s">
         <v>10</v>
@@ -561,11 +561,11 @@
       </c>
       <c r="F13" s="12" t="n">
         <f aca="false">SUM(F6:F12)</f>
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="G13" s="12" t="n">
         <f aca="false">SUM(C13:F13)</f>
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H13" s="1"/>
     </row>

--- a/imputacioHoresDSA.xlsx
+++ b/imputacioHoresDSA.xlsx
@@ -358,10 +358,10 @@
   <dimension ref="A1:I999"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J8" activeCellId="0" sqref="J8"/>
+      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.28"/>
@@ -466,11 +466,11 @@
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G7" s="6" t="n">
         <f aca="false">SUM(C7:F7)</f>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>12</v>
@@ -561,11 +561,11 @@
       </c>
       <c r="F13" s="12" t="n">
         <f aca="false">SUM(F6:F12)</f>
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G13" s="12" t="n">
         <f aca="false">SUM(C13:F13)</f>
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H13" s="1"/>
     </row>

--- a/imputacioHoresDSA.xlsx
+++ b/imputacioHoresDSA.xlsx
@@ -361,7 +361,7 @@
       <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.28"/>
@@ -466,11 +466,11 @@
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G7" s="6" t="n">
         <f aca="false">SUM(C7:F7)</f>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>12</v>
@@ -561,11 +561,11 @@
       </c>
       <c r="F13" s="12" t="n">
         <f aca="false">SUM(F6:F12)</f>
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G13" s="12" t="n">
         <f aca="false">SUM(C13:F13)</f>
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H13" s="1"/>
     </row>

--- a/imputacioHoresDSA.xlsx
+++ b/imputacioHoresDSA.xlsx
@@ -79,7 +79,7 @@
     <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
     <numFmt numFmtId="166" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -122,8 +122,18 @@
       <family val="0"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="13"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -138,14 +148,32 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFF3F3F3"/>
+        <fgColor rgb="FF2A6099"/>
+        <bgColor rgb="FF004586"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFFF420E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF81D41A"/>
+        <bgColor rgb="FF579D1C"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF3F3F3"/>
-        <bgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
   </fills>
@@ -225,7 +253,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -250,15 +278,27 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -274,7 +314,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -290,7 +330,7 @@
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFF3F3F3"/>
       <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
@@ -307,11 +347,11 @@
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFF3F3F3"/>
+      <rgbColor rgb="FFFFFFCC"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FF2A6099"/>
       <rgbColor rgb="FFD9D9D9"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
@@ -331,14 +371,14 @@
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FF81D41A"/>
+      <rgbColor rgb="FFFFD320"/>
       <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FFFF420E"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF004586"/>
+      <rgbColor rgb="FF579D1C"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FF993300"/>
@@ -350,6 +390,1579 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Imputación de horas en el proyecto</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$6:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>API REST Android Unity Web</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:explosion val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:ln w="0">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:ln w="0">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+              <a:ln w="0">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="579d1c"/>
+              </a:solidFill>
+              <a:ln w="0">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$6:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>API REST</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Android</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Unity</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Web</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$6:$G$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="0">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Imputación de horas Juan Antonio</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$6:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>API REST Android Unity Web</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:explosion val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:ln w="0">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:ln w="0">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+              <a:ln w="0">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="579d1c"/>
+              </a:solidFill>
+              <a:ln w="0">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$6:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>API REST</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Android</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Unity</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Web</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$6:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="0">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Imputación de horas Ashley</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$6:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>API REST Android Unity Web</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:explosion val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:ln w="0">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:ln w="0">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+              <a:ln w="0">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="579d1c"/>
+              </a:solidFill>
+              <a:ln w="0">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$6:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>API REST</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Android</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Unity</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Web</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$6:$F$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="0">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Imputación de horas Ángela</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$6:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>API REST Android Unity Web</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:explosion val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:ln w="0">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:ln w="0">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+              <a:ln w="0">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="579d1c"/>
+              </a:solidFill>
+              <a:ln w="0">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$6:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>API REST</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Android</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Unity</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Web</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$6:$D$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="0">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Imputación de horas Alejandro</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$6:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>API REST Android Unity Web</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:explosion val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:ln w="0">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:ln w="0">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+              <a:ln w="0">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="579d1c"/>
+              </a:solidFill>
+              <a:ln w="0">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$6:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>API REST</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Android</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Unity</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Web</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$6:$E$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="0">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>174600</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>27000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>821880</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>3240</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="0" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="8442720" y="5817960"/>
+        <a:ext cx="5762160" cy="3233880"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>105480</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>1440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>745200</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>158760</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="1" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="8373600" y="2354040"/>
+        <a:ext cx="5754600" cy="3233880"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9360</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>70560</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>993600</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>50400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="2478240" y="5861520"/>
+        <a:ext cx="5760360" cy="3237480"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>429840</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>117000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>970560</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>97200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="2455200" y="2469600"/>
+        <a:ext cx="5760360" cy="3237480"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>60480</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>166680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>706320</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>146520</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="14466600" y="3966840"/>
+        <a:ext cx="5760720" cy="3237480"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
@@ -358,10 +1971,10 @@
   <dimension ref="A1:I999"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
+      <selection pane="topLeft" activeCell="J5" activeCellId="0" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.28"/>
@@ -436,134 +2049,134 @@
       <c r="H5" s="5"/>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6" t="n">
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7" t="n">
         <v>16</v>
       </c>
-      <c r="G6" s="6" t="n">
+      <c r="G6" s="7" t="n">
         <f aca="false">SUM(C6:F6)</f>
         <v>17</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6" t="n">
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7" t="n">
         <v>15</v>
       </c>
-      <c r="G7" s="6" t="n">
+      <c r="G7" s="7" t="n">
         <f aca="false">SUM(C7:F7)</f>
         <v>17</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="9" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="10" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="4"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6" t="n">
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="G8" s="6" t="n">
+      <c r="G8" s="7" t="n">
         <f aca="false">SUM(C8:F8)</f>
         <v>0</v>
       </c>
-      <c r="H8" s="6"/>
+      <c r="H8" s="7"/>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="11" t="s">
         <v>14</v>
       </c>
       <c r="C9" s="4" t="n">
         <v>9</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6" t="n">
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="G9" s="6" t="n">
+      <c r="G9" s="7" t="n">
         <f aca="false">SUM(C9:F9)</f>
         <v>9</v>
       </c>
-      <c r="H9" s="6"/>
+      <c r="H9" s="7"/>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="4"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6" t="n">
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7" t="n">
         <f aca="false">SUM(C10:F10)</f>
         <v>0</v>
       </c>
-      <c r="H10" s="6"/>
+      <c r="H10" s="7"/>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="4"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6" t="n">
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7" t="n">
         <f aca="false">SUM(C11:F11)</f>
         <v>0</v>
       </c>
-      <c r="H11" s="6"/>
+      <c r="H11" s="7"/>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="9"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="6" t="n">
+      <c r="C12" s="12"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="7" t="n">
         <f aca="false">SUM(C12:F12)</f>
         <v>0</v>
       </c>
-      <c r="H12" s="10"/>
+      <c r="H12" s="13"/>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="11" t="n">
+      <c r="C13" s="14" t="n">
         <f aca="false">SUM(C6:C12)</f>
         <v>12</v>
       </c>
-      <c r="D13" s="11" t="n">
+      <c r="D13" s="14" t="n">
         <f aca="false">SUM(D6:D12)</f>
         <v>0</v>
       </c>
-      <c r="E13" s="11" t="n">
+      <c r="E13" s="14" t="n">
         <f aca="false">SUM(E6:E9)</f>
         <v>0</v>
       </c>
-      <c r="F13" s="12" t="n">
+      <c r="F13" s="15" t="n">
         <f aca="false">SUM(F6:F12)</f>
         <v>31</v>
       </c>
-      <c r="G13" s="12" t="n">
+      <c r="G13" s="15" t="n">
         <f aca="false">SUM(C13:F13)</f>
         <v>43</v>
       </c>
@@ -8465,5 +10078,6 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/imputacioHoresDSA.xlsx
+++ b/imputacioHoresDSA.xlsx
@@ -390,7 +390,1160 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Imputación de horas Juan Antonio</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$6:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>API REST Android Unity Web</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:explosion val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:ln w="0">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:ln w="0">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+              <a:ln w="0">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="579d1c"/>
+              </a:solidFill>
+              <a:ln w="0">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="bestFit"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$6:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>API REST</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Android</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Unity</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Web</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$6:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="0">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Imputación de horas Ashley</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$6:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>API REST Android Unity Web</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:explosion val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:ln w="0">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:ln w="0">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+              <a:ln w="0">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="579d1c"/>
+              </a:solidFill>
+              <a:ln w="0">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="bestFit"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$6:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>API REST</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Android</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Unity</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Web</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$6:$F$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="0">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Imputación de horas Ángela</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$6:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>API REST Android Unity Web</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:explosion val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:ln w="0">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:ln w="0">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+              <a:ln w="0">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="579d1c"/>
+              </a:solidFill>
+              <a:ln w="0">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="bestFit"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$6:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>API REST</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Android</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Unity</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Web</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$6:$D$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="0">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Imputación de horas Alejandro</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$6:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>API REST Android Unity Web</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:explosion val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:ln w="0">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:ln w="0">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+              <a:ln w="0">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="579d1c"/>
+              </a:solidFill>
+              <a:ln w="0">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="bestFit"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$6:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>API REST</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Android</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Unity</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Web</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$6:$E$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="0">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -508,6 +1661,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="bestFit"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -528,6 +1682,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="bestFit"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -548,6 +1703,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="bestFit"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -568,6 +1724,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="bestFit"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -586,6 +1743,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="bestFit"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -621,10 +1779,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>17</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -667,1135 +1825,7 @@
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln w="0">
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:rPr>
-              <a:t>Imputación de horas Juan Antonio</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:pieChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$6:$A$9</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>API REST Android Unity Web</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:explosion val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-              <a:ln w="0">
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ff420e"/>
-              </a:solidFill>
-              <a:ln w="0">
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ffd320"/>
-              </a:solidFill>
-              <a:ln w="0">
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="579d1c"/>
-              </a:solidFill>
-              <a:ln w="0">
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:txPr>
-                <a:bodyPr wrap="none"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                      <a:latin typeface="Arial"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator> </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:txPr>
-                <a:bodyPr wrap="none"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                      <a:latin typeface="Arial"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator> </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:txPr>
-                <a:bodyPr wrap="none"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                      <a:latin typeface="Arial"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator> </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="3"/>
-              <c:txPr>
-                <a:bodyPr wrap="none"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                      <a:latin typeface="Arial"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator> </c:separator>
-            </c:dLbl>
-            <c:txPr>
-              <a:bodyPr wrap="none"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="1"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$A$6:$A$9</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>API REST</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Android</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Unity</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Web</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$C$6:$C$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-              <a:latin typeface="Arial"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln w="0">
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:rPr>
-              <a:t>Imputación de horas Ashley</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:pieChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$6:$A$9</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>API REST Android Unity Web</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:explosion val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-              <a:ln w="0">
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ff420e"/>
-              </a:solidFill>
-              <a:ln w="0">
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ffd320"/>
-              </a:solidFill>
-              <a:ln w="0">
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="579d1c"/>
-              </a:solidFill>
-              <a:ln w="0">
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:txPr>
-                <a:bodyPr wrap="none"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                      <a:latin typeface="Arial"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator> </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:txPr>
-                <a:bodyPr wrap="none"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                      <a:latin typeface="Arial"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator> </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:txPr>
-                <a:bodyPr wrap="none"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                      <a:latin typeface="Arial"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator> </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="3"/>
-              <c:txPr>
-                <a:bodyPr wrap="none"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                      <a:latin typeface="Arial"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator> </c:separator>
-            </c:dLbl>
-            <c:txPr>
-              <a:bodyPr wrap="none"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="1"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$A$6:$A$9</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>API REST</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Android</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Unity</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Web</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$F$6:$F$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-              <a:latin typeface="Arial"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln w="0">
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:rPr>
-              <a:t>Imputación de horas Ángela</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:pieChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$6:$A$9</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>API REST Android Unity Web</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:explosion val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-              <a:ln w="0">
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ff420e"/>
-              </a:solidFill>
-              <a:ln w="0">
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ffd320"/>
-              </a:solidFill>
-              <a:ln w="0">
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="579d1c"/>
-              </a:solidFill>
-              <a:ln w="0">
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:txPr>
-                <a:bodyPr wrap="none"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                      <a:latin typeface="Arial"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator> </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:txPr>
-                <a:bodyPr wrap="none"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                      <a:latin typeface="Arial"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator> </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:txPr>
-                <a:bodyPr wrap="none"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                      <a:latin typeface="Arial"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator> </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="3"/>
-              <c:txPr>
-                <a:bodyPr wrap="none"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                      <a:latin typeface="Arial"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator> </c:separator>
-            </c:dLbl>
-            <c:txPr>
-              <a:bodyPr wrap="none"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="1"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$A$6:$A$9</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>API REST</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Android</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Unity</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Web</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$D$6:$D$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-              <a:latin typeface="Arial"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln w="0">
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:rPr>
-              <a:t>Imputación de horas Alejandro</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:pieChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$6:$A$9</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>API REST Android Unity Web</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:explosion val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-              <a:ln w="0">
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ff420e"/>
-              </a:solidFill>
-              <a:ln w="0">
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ffd320"/>
-              </a:solidFill>
-              <a:ln w="0">
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="579d1c"/>
-              </a:solidFill>
-              <a:ln w="0">
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:txPr>
-                <a:bodyPr wrap="none"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                      <a:latin typeface="Arial"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator> </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:txPr>
-                <a:bodyPr wrap="none"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                      <a:latin typeface="Arial"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator> </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:txPr>
-                <a:bodyPr wrap="none"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                      <a:latin typeface="Arial"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator> </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="3"/>
-              <c:txPr>
-                <a:bodyPr wrap="none"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                      <a:latin typeface="Arial"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator> </c:separator>
-            </c:dLbl>
-            <c:txPr>
-              <a:bodyPr wrap="none"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="1"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$A$6:$A$9</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>API REST</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Android</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Unity</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Web</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$E$6:$E$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-              <a:latin typeface="Arial"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1819,9 +1849,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>821880</xdr:colOff>
+      <xdr:colOff>821160</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>3240</xdr:rowOff>
+      <xdr:rowOff>2520</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1829,8 +1859,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8442720" y="5817960"/>
-        <a:ext cx="5762160" cy="3233880"/>
+        <a:off x="8450280" y="5817960"/>
+        <a:ext cx="5774400" cy="3233160"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1849,9 +1879,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>745200</xdr:colOff>
+      <xdr:colOff>744480</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>158760</xdr:rowOff>
+      <xdr:rowOff>158040</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1859,8 +1889,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8373600" y="2354040"/>
-        <a:ext cx="5754600" cy="3233880"/>
+        <a:off x="8381160" y="2354040"/>
+        <a:ext cx="5766840" cy="3233160"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1879,9 +1909,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>993600</xdr:colOff>
+      <xdr:colOff>992880</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>50400</xdr:rowOff>
+      <xdr:rowOff>49680</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1890,7 +1920,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="2478240" y="5861520"/>
-        <a:ext cx="5760360" cy="3237480"/>
+        <a:ext cx="5765040" cy="3236760"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1909,9 +1939,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>970560</xdr:colOff>
+      <xdr:colOff>969840</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>97200</xdr:rowOff>
+      <xdr:rowOff>96480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1920,7 +1950,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="2455200" y="2469600"/>
-        <a:ext cx="5760360" cy="3237480"/>
+        <a:ext cx="5765040" cy="3236760"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1939,9 +1969,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>706320</xdr:colOff>
+      <xdr:colOff>705600</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>146520</xdr:rowOff>
+      <xdr:rowOff>145800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1949,8 +1979,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="14466600" y="3966840"/>
-        <a:ext cx="5760720" cy="3237480"/>
+        <a:off x="14489280" y="3966840"/>
+        <a:ext cx="5772960" cy="3236760"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1971,10 +2001,10 @@
   <dimension ref="A1:I999"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J5" activeCellId="0" sqref="J5"/>
+      <selection pane="topLeft" activeCell="I7" activeCellId="0" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.55078125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.28"/>
@@ -2059,11 +2089,11 @@
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G6" s="7" t="n">
         <f aca="false">SUM(C6:F6)</f>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7" t="s">
         <v>10</v>
@@ -2079,11 +2109,11 @@
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G7" s="7" t="n">
         <f aca="false">SUM(C7:F7)</f>
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H7" s="9" t="s">
         <v>12</v>
@@ -2174,11 +2204,11 @@
       </c>
       <c r="F13" s="15" t="n">
         <f aca="false">SUM(F6:F12)</f>
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G13" s="15" t="n">
         <f aca="false">SUM(C13:F13)</f>
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="H13" s="1"/>
     </row>

--- a/imputacioHoresDSA.xlsx
+++ b/imputacioHoresDSA.xlsx
@@ -962,7 +962,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>19</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>20</c:v>
@@ -1910,7 +1910,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>56</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>38</c:v>
@@ -1983,9 +1983,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>820440</xdr:colOff>
+      <xdr:colOff>820080</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>1800</xdr:rowOff>
+      <xdr:rowOff>1440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1993,8 +1993,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8455320" y="5635080"/>
-        <a:ext cx="5786280" cy="3129480"/>
+        <a:off x="8458560" y="5635080"/>
+        <a:ext cx="5792400" cy="3129120"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2013,9 +2013,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>743760</xdr:colOff>
+      <xdr:colOff>743400</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>157320</xdr:rowOff>
+      <xdr:rowOff>156960</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2023,8 +2023,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8386200" y="2279520"/>
-        <a:ext cx="5778720" cy="3135600"/>
+        <a:off x="8389440" y="2279520"/>
+        <a:ext cx="5784840" cy="3135240"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2043,9 +2043,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>992160</xdr:colOff>
+      <xdr:colOff>991800</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>48960</xdr:rowOff>
+      <xdr:rowOff>48600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2053,8 +2053,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="2469960" y="5678640"/>
-        <a:ext cx="5775120" cy="3133080"/>
+        <a:off x="2469240" y="5678640"/>
+        <a:ext cx="5777280" cy="3132720"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2073,9 +2073,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>969120</xdr:colOff>
+      <xdr:colOff>968760</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>95760</xdr:rowOff>
+      <xdr:rowOff>95400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2083,8 +2083,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="2451600" y="2395080"/>
-        <a:ext cx="5770440" cy="3133440"/>
+        <a:off x="2450880" y="2395080"/>
+        <a:ext cx="5772600" cy="3133080"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2103,9 +2103,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>704880</xdr:colOff>
+      <xdr:colOff>704520</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>145080</xdr:rowOff>
+      <xdr:rowOff>144720</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2113,8 +2113,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="14509800" y="3846960"/>
-        <a:ext cx="5784480" cy="3133080"/>
+        <a:off x="14520600" y="3846960"/>
+        <a:ext cx="5790600" cy="3132720"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2138,9 +2138,9 @@
       <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.58984375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.60546875" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.45"/>
@@ -2227,11 +2227,11 @@
         <v>3</v>
       </c>
       <c r="F6" s="7" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G6" s="7" t="n">
         <f aca="false">SUM(C6:F6)</f>
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H6" s="7" t="s">
         <v>10</v>
@@ -2346,11 +2346,11 @@
       </c>
       <c r="F13" s="15" t="n">
         <f aca="false">SUM(F6:F12)</f>
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G13" s="15" t="n">
         <f aca="false">SUM(C13:F13)</f>
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H13" s="1"/>
     </row>

--- a/imputacioHoresDSA.xlsx
+++ b/imputacioHoresDSA.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -67,6 +67,12 @@
     <t xml:space="preserve">Web</t>
   </si>
   <si>
+    <t xml:space="preserve">Base de datos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Despliegue</t>
+  </si>
+  <si>
     <t xml:space="preserve">TOTAL</t>
   </si>
 </sst>
@@ -79,7 +85,7 @@
     <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
     <numFmt numFmtId="166" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -123,6 +129,13 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="13"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -135,7 +148,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -163,7 +176,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFD320"/>
       </patternFill>
     </fill>
     <fill>
@@ -174,8 +187,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF800080"/>
+        <bgColor rgb="FF800080"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFBF00"/>
+        <bgColor rgb="FFFFD320"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF3F3F3"/>
-        <bgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -255,7 +280,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -304,6 +329,14 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -316,7 +349,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -332,14 +365,14 @@
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFF3F3F3"/>
+      <rgbColor rgb="FFFFFFFF"/>
       <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF7E0021"/>
       <rgbColor rgb="FF008000"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FF808000"/>
@@ -349,7 +382,7 @@
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFF3F3F3"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
@@ -357,7 +390,7 @@
       <rgbColor rgb="FFD9D9D9"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFFD320"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF800000"/>
@@ -367,14 +400,14 @@
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFCCFFCC"/>
       <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FF83CAFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF81D41A"/>
-      <rgbColor rgb="FFFFD320"/>
+      <rgbColor rgb="FFFFBF00"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF420E"/>
       <rgbColor rgb="FF666699"/>
@@ -392,7 +425,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -418,7 +451,7 @@
                 </a:solidFill>
                 <a:latin typeface="Arial"/>
               </a:rPr>
-              <a:t>Imputación de horas Juan Antonio</a:t>
+              <a:t>Imputación de horas en el proyecto</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -440,11 +473,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$6:$A$9</c:f>
+              <c:f>Sheet1!$A$6:$A$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>API REST Android Unity Web</c:v>
+                  <c:v>API REST Android Unity Web Base de datos Despliegue</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -496,6 +529,28 @@
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="579d1c"/>
+              </a:solidFill>
+              <a:ln w="0">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7e0021"/>
+              </a:solidFill>
+              <a:ln w="0">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="83caff"/>
               </a:solidFill>
               <a:ln w="0">
                 <a:noFill/>
@@ -599,6 +654,54 @@
               <c:showPercent val="0"/>
               <c:separator> </c:separator>
             </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:txPr>
+                <a:bodyPr wrap="square"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" lang="ca-ES" sz="1000" spc="-1" strike="noStrike">
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:txPr>
+                <a:bodyPr wrap="square"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" lang="ca-ES" sz="1000" spc="-1" strike="noStrike">
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
             <c:txPr>
               <a:bodyPr wrap="square"/>
               <a:lstStyle/>
@@ -624,9 +727,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$6:$A$9</c:f>
+              <c:f>Sheet1!$A$6:$A$11</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>API REST</c:v>
                 </c:pt>
@@ -639,20 +742,38 @@
                 <c:pt idx="3">
                   <c:v>Web</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>Base de datos</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Despliegue</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$6:$C$9</c:f>
+              <c:f>Sheet1!$G$6:$G$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>18</c:v>
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19</c:v>
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -705,7 +826,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -731,7 +852,7 @@
                 </a:solidFill>
                 <a:latin typeface="Arial"/>
               </a:rPr>
-              <a:t>Imputación de horas Ashley</a:t>
+              <a:t>Imputación de horas Juan Antonio</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -753,11 +874,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$6:$A$9</c:f>
+              <c:f>Sheet1!$A$6:$A$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>API REST Android Unity Web</c:v>
+                  <c:v>API REST Android Unity Web Base de datos Despliegue</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -809,6 +930,28 @@
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="579d1c"/>
+              </a:solidFill>
+              <a:ln w="0">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7e0021"/>
+              </a:solidFill>
+              <a:ln w="0">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="83caff"/>
               </a:solidFill>
               <a:ln w="0">
                 <a:noFill/>
@@ -912,6 +1055,54 @@
               <c:showPercent val="0"/>
               <c:separator> </c:separator>
             </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:txPr>
+                <a:bodyPr wrap="square"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" lang="ca-ES" sz="1000" spc="-1" strike="noStrike">
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:txPr>
+                <a:bodyPr wrap="square"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" lang="ca-ES" sz="1000" spc="-1" strike="noStrike">
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
             <c:txPr>
               <a:bodyPr wrap="square"/>
               <a:lstStyle/>
@@ -937,9 +1128,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$6:$A$9</c:f>
+              <c:f>Sheet1!$A$6:$A$11</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>API REST</c:v>
                 </c:pt>
@@ -952,26 +1143,26 @@
                 <c:pt idx="3">
                   <c:v>Web</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>Base de datos</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Despliegue</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$6:$F$9</c:f>
+              <c:f>Sheet1!$C$6:$C$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1024,7 +1215,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1050,7 +1241,7 @@
                 </a:solidFill>
                 <a:latin typeface="Arial"/>
               </a:rPr>
-              <a:t>Imputación de horas Ángela</a:t>
+              <a:t>Imputación de horas Ashley</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1072,11 +1263,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$6:$A$9</c:f>
+              <c:f>Sheet1!$A$6:$A$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>API REST Android Unity Web</c:v>
+                  <c:v>API REST Android Unity Web Base de datos Despliegue</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1128,6 +1319,28 @@
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="579d1c"/>
+              </a:solidFill>
+              <a:ln w="0">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7e0021"/>
+              </a:solidFill>
+              <a:ln w="0">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="83caff"/>
               </a:solidFill>
               <a:ln w="0">
                 <a:noFill/>
@@ -1231,6 +1444,54 @@
               <c:showPercent val="0"/>
               <c:separator> </c:separator>
             </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:txPr>
+                <a:bodyPr wrap="square"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" lang="ca-ES" sz="1000" spc="-1" strike="noStrike">
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:txPr>
+                <a:bodyPr wrap="square"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" lang="ca-ES" sz="1000" spc="-1" strike="noStrike">
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
             <c:txPr>
               <a:bodyPr wrap="square"/>
               <a:lstStyle/>
@@ -1256,9 +1517,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$6:$A$9</c:f>
+              <c:f>Sheet1!$A$6:$A$11</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>API REST</c:v>
                 </c:pt>
@@ -1271,20 +1532,32 @@
                 <c:pt idx="3">
                   <c:v>Web</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>Base de datos</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Despliegue</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$6:$D$9</c:f>
+              <c:f>Sheet1!$F$6:$F$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>16</c:v>
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1337,7 +1610,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1363,7 +1636,7 @@
                 </a:solidFill>
                 <a:latin typeface="Arial"/>
               </a:rPr>
-              <a:t>Imputación de horas Alejandro</a:t>
+              <a:t>Imputación de horas Ángela</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1385,11 +1658,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$6:$A$9</c:f>
+              <c:f>Sheet1!$A$6:$A$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>API REST Android Unity Web</c:v>
+                  <c:v>API REST Android Unity Web Base de datos Despliegue</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1441,6 +1714,28 @@
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="579d1c"/>
+              </a:solidFill>
+              <a:ln w="0">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7e0021"/>
+              </a:solidFill>
+              <a:ln w="0">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="83caff"/>
               </a:solidFill>
               <a:ln w="0">
                 <a:noFill/>
@@ -1544,6 +1839,54 @@
               <c:showPercent val="0"/>
               <c:separator> </c:separator>
             </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:txPr>
+                <a:bodyPr wrap="square"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" lang="ca-ES" sz="1000" spc="-1" strike="noStrike">
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:txPr>
+                <a:bodyPr wrap="square"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" lang="ca-ES" sz="1000" spc="-1" strike="noStrike">
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
             <c:txPr>
               <a:bodyPr wrap="square"/>
               <a:lstStyle/>
@@ -1569,9 +1912,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$6:$A$9</c:f>
+              <c:f>Sheet1!$A$6:$A$11</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>API REST</c:v>
                 </c:pt>
@@ -1584,23 +1927,26 @@
                 <c:pt idx="3">
                   <c:v>Web</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>Base de datos</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Despliegue</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$6:$E$9</c:f>
+              <c:f>Sheet1!$D$6:$D$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>18</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1653,7 +1999,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1679,7 +2025,7 @@
                 </a:solidFill>
                 <a:latin typeface="Arial"/>
               </a:rPr>
-              <a:t>Imputación de horas en el proyecto</a:t>
+              <a:t>Imputación de horas Alejandro</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1701,11 +2047,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$6:$A$9</c:f>
+              <c:f>Sheet1!$A$6:$A$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>API REST Android Unity Web</c:v>
+                  <c:v>API REST Android Unity Web Base de datos Despliegue</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1757,6 +2103,28 @@
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="579d1c"/>
+              </a:solidFill>
+              <a:ln w="0">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7e0021"/>
+              </a:solidFill>
+              <a:ln w="0">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="83caff"/>
               </a:solidFill>
               <a:ln w="0">
                 <a:noFill/>
@@ -1860,6 +2228,54 @@
               <c:showPercent val="0"/>
               <c:separator> </c:separator>
             </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:txPr>
+                <a:bodyPr wrap="square"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" lang="ca-ES" sz="1000" spc="-1" strike="noStrike">
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:txPr>
+                <a:bodyPr wrap="square"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" lang="ca-ES" sz="1000" spc="-1" strike="noStrike">
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
             <c:txPr>
               <a:bodyPr wrap="square"/>
               <a:lstStyle/>
@@ -1885,9 +2301,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$6:$A$9</c:f>
+              <c:f>Sheet1!$A$6:$A$11</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>API REST</c:v>
                 </c:pt>
@@ -1900,26 +2316,29 @@
                 <c:pt idx="3">
                   <c:v>Web</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>Base de datos</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Despliegue</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$6:$G$9</c:f>
+              <c:f>Sheet1!$E$6:$E$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>58</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>39</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1983,9 +2402,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>820080</xdr:colOff>
+      <xdr:colOff>819720</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>1440</xdr:rowOff>
+      <xdr:rowOff>1080</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1993,8 +2412,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8458560" y="5635080"/>
-        <a:ext cx="5792400" cy="3129120"/>
+        <a:off x="8461800" y="5635080"/>
+        <a:ext cx="5798160" cy="3128760"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2013,9 +2432,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>743400</xdr:colOff>
+      <xdr:colOff>743040</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>156960</xdr:rowOff>
+      <xdr:rowOff>156600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2023,8 +2442,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8389440" y="2279520"/>
-        <a:ext cx="5784840" cy="3135240"/>
+        <a:off x="8392680" y="2279520"/>
+        <a:ext cx="5790600" cy="3134880"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2043,9 +2462,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>991800</xdr:colOff>
+      <xdr:colOff>991440</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>48600</xdr:rowOff>
+      <xdr:rowOff>48240</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2053,8 +2472,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="2469240" y="5678640"/>
-        <a:ext cx="5777280" cy="3132720"/>
+        <a:off x="2468520" y="5678640"/>
+        <a:ext cx="5779440" cy="3132360"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2073,9 +2492,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>968760</xdr:colOff>
+      <xdr:colOff>968400</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>95400</xdr:rowOff>
+      <xdr:rowOff>95040</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2083,8 +2502,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="2450880" y="2395080"/>
-        <a:ext cx="5772600" cy="3133080"/>
+        <a:off x="2450160" y="2395080"/>
+        <a:ext cx="5774760" cy="3132720"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2103,9 +2522,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>704520</xdr:colOff>
+      <xdr:colOff>704160</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>144720</xdr:rowOff>
+      <xdr:rowOff>144360</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2113,8 +2532,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="14520600" y="3846960"/>
-        <a:ext cx="5790600" cy="3132720"/>
+        <a:off x="14531400" y="3846960"/>
+        <a:ext cx="5796720" cy="3132360"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2134,11 +2553,11 @@
   </sheetPr>
   <dimension ref="A1:I999"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A31" activeCellId="0" sqref="A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.60546875" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.625" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.22"/>
@@ -2296,6 +2715,9 @@
       <c r="H9" s="7"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="12" t="s">
+        <v>15</v>
+      </c>
       <c r="C10" s="4"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
@@ -2307,6 +2729,9 @@
       <c r="H10" s="7"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="13" t="s">
+        <v>16</v>
+      </c>
       <c r="C11" s="4"/>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
@@ -2318,37 +2743,37 @@
       <c r="H11" s="7"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="12"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
       <c r="G12" s="7" t="n">
         <f aca="false">SUM(C12:F12)</f>
         <v>0</v>
       </c>
-      <c r="H12" s="13"/>
+      <c r="H12" s="15"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
-      <c r="C13" s="14" t="n">
+      <c r="C13" s="16" t="n">
         <f aca="false">SUM(C6:C12)</f>
         <v>37</v>
       </c>
-      <c r="D13" s="14" t="n">
+      <c r="D13" s="16" t="n">
         <f aca="false">SUM(D6:D12)</f>
         <v>29</v>
       </c>
-      <c r="E13" s="14" t="n">
+      <c r="E13" s="16" t="n">
         <f aca="false">SUM(E6:E9)</f>
         <v>28</v>
       </c>
-      <c r="F13" s="15" t="n">
+      <c r="F13" s="17" t="n">
         <f aca="false">SUM(F6:F12)</f>
         <v>41</v>
       </c>
-      <c r="G13" s="15" t="n">
+      <c r="G13" s="17" t="n">
         <f aca="false">SUM(C13:F13)</f>
         <v>135</v>
       </c>

--- a/imputacioHoresDSA.xlsx
+++ b/imputacioHoresDSA.xlsx
@@ -425,408 +425,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" lang="ca-ES" sz="1300" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr b="0" lang="ca-ES" sz="1300" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Arial"/>
-              </a:rPr>
-              <a:t>Imputación de horas en el proyecto</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:pieChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$6:$A$11</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>API REST Android Unity Web Base de datos Despliegue</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:explosion val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-              <a:ln w="0">
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ff420e"/>
-              </a:solidFill>
-              <a:ln w="0">
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ffd320"/>
-              </a:solidFill>
-              <a:ln w="0">
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="579d1c"/>
-              </a:solidFill>
-              <a:ln w="0">
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="7e0021"/>
-              </a:solidFill>
-              <a:ln w="0">
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="83caff"/>
-              </a:solidFill>
-              <a:ln w="0">
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:txPr>
-                <a:bodyPr wrap="square"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr b="0" lang="ca-ES" sz="1000" spc="-1" strike="noStrike">
-                      <a:solidFill>
-                        <a:srgbClr val="000000"/>
-                      </a:solidFill>
-                      <a:latin typeface="Arial"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator> </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:txPr>
-                <a:bodyPr wrap="square"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr b="0" lang="ca-ES" sz="1000" spc="-1" strike="noStrike">
-                      <a:solidFill>
-                        <a:srgbClr val="000000"/>
-                      </a:solidFill>
-                      <a:latin typeface="Arial"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator> </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:txPr>
-                <a:bodyPr wrap="square"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr b="0" lang="ca-ES" sz="1000" spc="-1" strike="noStrike">
-                      <a:solidFill>
-                        <a:srgbClr val="000000"/>
-                      </a:solidFill>
-                      <a:latin typeface="Arial"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator> </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="3"/>
-              <c:txPr>
-                <a:bodyPr wrap="square"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr b="0" lang="ca-ES" sz="1000" spc="-1" strike="noStrike">
-                      <a:solidFill>
-                        <a:srgbClr val="000000"/>
-                      </a:solidFill>
-                      <a:latin typeface="Arial"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator> </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="4"/>
-              <c:txPr>
-                <a:bodyPr wrap="square"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr b="0" lang="ca-ES" sz="1000" spc="-1" strike="noStrike">
-                      <a:solidFill>
-                        <a:srgbClr val="000000"/>
-                      </a:solidFill>
-                      <a:latin typeface="Arial"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator> </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="5"/>
-              <c:txPr>
-                <a:bodyPr wrap="square"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr b="0" lang="ca-ES" sz="1000" spc="-1" strike="noStrike">
-                      <a:solidFill>
-                        <a:srgbClr val="000000"/>
-                      </a:solidFill>
-                      <a:latin typeface="Arial"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator> </c:separator>
-            </c:dLbl>
-            <c:txPr>
-              <a:bodyPr wrap="square"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" lang="ca-ES" sz="1000" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="bestFit"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$A$6:$A$11</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>API REST</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Android</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Unity</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Web</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Base de datos</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Despliegue</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$G$6:$G$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr b="0" lang="ca-ES" sz="1000" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Arial"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln w="9360">
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1215,7 +814,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1548,10 +1147,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>21</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -1610,7 +1209,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1999,7 +1598,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2391,6 +1990,407 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" lang="ca-ES" sz="1300" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" lang="ca-ES" sz="1300" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Imputación de horas en el proyecto</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$6:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>API REST Android Unity Web Base de datos Despliegue</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:explosion val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:ln w="0">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:ln w="0">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+              <a:ln w="0">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="579d1c"/>
+              </a:solidFill>
+              <a:ln w="0">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7e0021"/>
+              </a:solidFill>
+              <a:ln w="0">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="83caff"/>
+              </a:solidFill>
+              <a:ln w="0">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:txPr>
+                <a:bodyPr wrap="square"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" lang="ca-ES" sz="1000" spc="-1" strike="noStrike">
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:txPr>
+                <a:bodyPr wrap="square"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" lang="ca-ES" sz="1000" spc="-1" strike="noStrike">
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:txPr>
+                <a:bodyPr wrap="square"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" lang="ca-ES" sz="1000" spc="-1" strike="noStrike">
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:txPr>
+                <a:bodyPr wrap="square"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" lang="ca-ES" sz="1000" spc="-1" strike="noStrike">
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:txPr>
+                <a:bodyPr wrap="square"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" lang="ca-ES" sz="1000" spc="-1" strike="noStrike">
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:txPr>
+                <a:bodyPr wrap="square"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" lang="ca-ES" sz="1000" spc="-1" strike="noStrike">
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:txPr>
+              <a:bodyPr wrap="square"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" lang="ca-ES" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="bestFit"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$6:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>API REST</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Android</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Unity</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Web</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Base de datos</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Despliegue</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$6:$G$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" lang="ca-ES" sz="1000" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="9360">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -2402,9 +2402,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>819720</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>1080</xdr:rowOff>
+      <xdr:colOff>819360</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>176040</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2412,8 +2412,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8461800" y="5635080"/>
-        <a:ext cx="5798160" cy="3128760"/>
+        <a:off x="8465760" y="5635080"/>
+        <a:ext cx="5803920" cy="3128400"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2432,9 +2432,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>743040</xdr:colOff>
+      <xdr:colOff>742680</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>156600</xdr:rowOff>
+      <xdr:rowOff>156240</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2442,8 +2442,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8392680" y="2279520"/>
-        <a:ext cx="5790600" cy="3134880"/>
+        <a:off x="8396640" y="2279520"/>
+        <a:ext cx="5796360" cy="3134520"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2462,9 +2462,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>991440</xdr:colOff>
+      <xdr:colOff>991080</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>48240</xdr:rowOff>
+      <xdr:rowOff>47880</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2473,7 +2473,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="2468520" y="5678640"/>
-        <a:ext cx="5779440" cy="3132360"/>
+        <a:ext cx="5781600" cy="3132000"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2492,9 +2492,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>968400</xdr:colOff>
+      <xdr:colOff>968040</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>95040</xdr:rowOff>
+      <xdr:rowOff>94680</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2503,7 +2503,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="2450160" y="2395080"/>
-        <a:ext cx="5774760" cy="3132720"/>
+        <a:ext cx="5776920" cy="3132360"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2522,9 +2522,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>704160</xdr:colOff>
+      <xdr:colOff>703800</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>144360</xdr:rowOff>
+      <xdr:rowOff>144000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2532,8 +2532,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="14531400" y="3846960"/>
-        <a:ext cx="5796720" cy="3132360"/>
+        <a:off x="14542920" y="3846960"/>
+        <a:ext cx="5802480" cy="3132000"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2553,11 +2553,11 @@
   </sheetPr>
   <dimension ref="A1:I999"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A31" activeCellId="0" sqref="A31"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J8" activeCellId="0" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.625" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.640625" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.22"/>
@@ -2646,11 +2646,11 @@
         <v>3</v>
       </c>
       <c r="F6" s="7" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G6" s="7" t="n">
         <f aca="false">SUM(C6:F6)</f>
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H6" s="7" t="s">
         <v>10</v>
@@ -2666,11 +2666,11 @@
         <v>18</v>
       </c>
       <c r="F7" s="7" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G7" s="7" t="n">
         <f aca="false">SUM(C7:F7)</f>
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H7" s="9" t="s">
         <v>12</v>
@@ -2771,11 +2771,11 @@
       </c>
       <c r="F13" s="17" t="n">
         <f aca="false">SUM(F6:F12)</f>
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G13" s="17" t="n">
         <f aca="false">SUM(C13:F13)</f>
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="H13" s="1"/>
     </row>

--- a/imputacioHoresDSA.xlsx
+++ b/imputacioHoresDSA.xlsx
@@ -85,7 +85,7 @@
     <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
     <numFmt numFmtId="166" formatCode="General"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -118,6 +118,14 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
     </font>
@@ -280,7 +288,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -325,11 +333,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1152,11 +1164,8 @@
                 <c:pt idx="1">
                   <c:v>22</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2332,7 +2341,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>39</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -2402,9 +2411,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>819360</xdr:colOff>
+      <xdr:colOff>818280</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>176040</xdr:rowOff>
+      <xdr:rowOff>174960</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2412,8 +2421,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8465760" y="5635080"/>
-        <a:ext cx="5803920" cy="3128400"/>
+        <a:off x="8476920" y="5635080"/>
+        <a:ext cx="5822280" cy="3127320"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2432,9 +2441,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>742680</xdr:colOff>
+      <xdr:colOff>741600</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>156240</xdr:rowOff>
+      <xdr:rowOff>155160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2442,8 +2451,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8396640" y="2279520"/>
-        <a:ext cx="5796360" cy="3134520"/>
+        <a:off x="8407800" y="2279520"/>
+        <a:ext cx="5814720" cy="3133440"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2462,9 +2471,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>991080</xdr:colOff>
+      <xdr:colOff>990000</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>47880</xdr:rowOff>
+      <xdr:rowOff>46800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2473,7 +2482,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="2468520" y="5678640"/>
-        <a:ext cx="5781600" cy="3132000"/>
+        <a:ext cx="5788080" cy="3130920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2492,9 +2501,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>968040</xdr:colOff>
+      <xdr:colOff>966960</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>94680</xdr:rowOff>
+      <xdr:rowOff>93600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2503,7 +2512,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="2450160" y="2395080"/>
-        <a:ext cx="5776920" cy="3132360"/>
+        <a:ext cx="5783400" cy="3131280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2522,9 +2531,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>703800</xdr:colOff>
+      <xdr:colOff>702720</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>144000</xdr:rowOff>
+      <xdr:rowOff>142920</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2532,8 +2541,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="14542920" y="3846960"/>
-        <a:ext cx="5802480" cy="3132000"/>
+        <a:off x="14577120" y="3846960"/>
+        <a:ext cx="5820480" cy="3130920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2551,13 +2560,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I999"/>
+  <dimension ref="A1:J999"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J8" activeCellId="0" sqref="J8"/>
+      <selection pane="topLeft" activeCell="J9" activeCellId="0" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.640625" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.6953125" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.22"/>
@@ -2683,17 +2692,16 @@
       <c r="C8" s="4"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
-      <c r="F8" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="F8" s="7"/>
       <c r="G8" s="7" t="n">
         <f aca="false">SUM(C8:F8)</f>
         <v>0</v>
       </c>
       <c r="H8" s="7"/>
+      <c r="J8" s="11"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="12" t="s">
         <v>14</v>
       </c>
       <c r="C9" s="4" t="n">
@@ -2706,16 +2714,16 @@
         <v>7</v>
       </c>
       <c r="F9" s="7" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G9" s="7" t="n">
         <f aca="false">SUM(C9:F9)</f>
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H9" s="7"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="13" t="s">
         <v>15</v>
       </c>
       <c r="C10" s="4"/>
@@ -2729,7 +2737,7 @@
       <c r="H10" s="7"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="14" t="s">
         <v>16</v>
       </c>
       <c r="C11" s="4"/>
@@ -2743,39 +2751,39 @@
       <c r="H11" s="7"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="14"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
       <c r="G12" s="7" t="n">
         <f aca="false">SUM(C12:F12)</f>
         <v>0</v>
       </c>
-      <c r="H12" s="15"/>
+      <c r="H12" s="16"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="16" t="n">
+      <c r="C13" s="17" t="n">
         <f aca="false">SUM(C6:C12)</f>
         <v>37</v>
       </c>
-      <c r="D13" s="16" t="n">
+      <c r="D13" s="17" t="n">
         <f aca="false">SUM(D6:D12)</f>
         <v>29</v>
       </c>
-      <c r="E13" s="16" t="n">
+      <c r="E13" s="17" t="n">
         <f aca="false">SUM(E6:E9)</f>
         <v>28</v>
       </c>
-      <c r="F13" s="17" t="n">
+      <c r="F13" s="18" t="n">
         <f aca="false">SUM(F6:F12)</f>
-        <v>47</v>
+        <v>52</v>
       </c>
-      <c r="G13" s="17" t="n">
+      <c r="G13" s="18" t="n">
         <f aca="false">SUM(C13:F13)</f>
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="H13" s="1"/>
     </row>

--- a/imputacioHoresDSA.xlsx
+++ b/imputacioHoresDSA.xlsx
@@ -437,7 +437,408 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" lang="ca-ES" sz="1300" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" lang="ca-ES" sz="1300" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Imputación de horas en el proyecto</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$6:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>API REST Android Unity Web Base de datos Despliegue</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:explosion val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:ln w="0">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:ln w="0">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+              <a:ln w="0">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="579d1c"/>
+              </a:solidFill>
+              <a:ln w="0">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7e0021"/>
+              </a:solidFill>
+              <a:ln w="0">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="83caff"/>
+              </a:solidFill>
+              <a:ln w="0">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:txPr>
+                <a:bodyPr wrap="square"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" lang="ca-ES" sz="1000" spc="-1" strike="noStrike">
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:txPr>
+                <a:bodyPr wrap="square"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" lang="ca-ES" sz="1000" spc="-1" strike="noStrike">
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:txPr>
+                <a:bodyPr wrap="square"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" lang="ca-ES" sz="1000" spc="-1" strike="noStrike">
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:txPr>
+                <a:bodyPr wrap="square"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" lang="ca-ES" sz="1000" spc="-1" strike="noStrike">
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:txPr>
+                <a:bodyPr wrap="square"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" lang="ca-ES" sz="1000" spc="-1" strike="noStrike">
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:txPr>
+                <a:bodyPr wrap="square"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" lang="ca-ES" sz="1000" spc="-1" strike="noStrike">
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:txPr>
+              <a:bodyPr wrap="square"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" lang="ca-ES" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="bestFit"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$6:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>API REST</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Android</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Unity</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Web</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Base de datos</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Despliegue</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$6:$G$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" lang="ca-ES" sz="1000" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="9360">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -826,7 +1227,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1162,10 +1563,10 @@
                   <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1218,7 +1619,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1607,7 +2008,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1999,407 +2400,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" lang="ca-ES" sz="1300" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr b="0" lang="ca-ES" sz="1300" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Arial"/>
-              </a:rPr>
-              <a:t>Imputación de horas en el proyecto</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:pieChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$6:$A$11</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>API REST Android Unity Web Base de datos Despliegue</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:explosion val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-              <a:ln w="0">
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ff420e"/>
-              </a:solidFill>
-              <a:ln w="0">
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ffd320"/>
-              </a:solidFill>
-              <a:ln w="0">
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="579d1c"/>
-              </a:solidFill>
-              <a:ln w="0">
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="7e0021"/>
-              </a:solidFill>
-              <a:ln w="0">
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="83caff"/>
-              </a:solidFill>
-              <a:ln w="0">
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:txPr>
-                <a:bodyPr wrap="square"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr b="0" lang="ca-ES" sz="1000" spc="-1" strike="noStrike">
-                      <a:solidFill>
-                        <a:srgbClr val="000000"/>
-                      </a:solidFill>
-                      <a:latin typeface="Arial"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator> </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:txPr>
-                <a:bodyPr wrap="square"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr b="0" lang="ca-ES" sz="1000" spc="-1" strike="noStrike">
-                      <a:solidFill>
-                        <a:srgbClr val="000000"/>
-                      </a:solidFill>
-                      <a:latin typeface="Arial"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator> </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:txPr>
-                <a:bodyPr wrap="square"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr b="0" lang="ca-ES" sz="1000" spc="-1" strike="noStrike">
-                      <a:solidFill>
-                        <a:srgbClr val="000000"/>
-                      </a:solidFill>
-                      <a:latin typeface="Arial"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator> </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="3"/>
-              <c:txPr>
-                <a:bodyPr wrap="square"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr b="0" lang="ca-ES" sz="1000" spc="-1" strike="noStrike">
-                      <a:solidFill>
-                        <a:srgbClr val="000000"/>
-                      </a:solidFill>
-                      <a:latin typeface="Arial"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator> </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="4"/>
-              <c:txPr>
-                <a:bodyPr wrap="square"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr b="0" lang="ca-ES" sz="1000" spc="-1" strike="noStrike">
-                      <a:solidFill>
-                        <a:srgbClr val="000000"/>
-                      </a:solidFill>
-                      <a:latin typeface="Arial"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator> </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="5"/>
-              <c:txPr>
-                <a:bodyPr wrap="square"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr b="0" lang="ca-ES" sz="1000" spc="-1" strike="noStrike">
-                      <a:solidFill>
-                        <a:srgbClr val="000000"/>
-                      </a:solidFill>
-                      <a:latin typeface="Arial"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator> </c:separator>
-            </c:dLbl>
-            <c:txPr>
-              <a:bodyPr wrap="square"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" lang="ca-ES" sz="1000" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="bestFit"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$A$6:$A$11</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>API REST</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Android</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Unity</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Web</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Base de datos</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Despliegue</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$G$6:$G$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr b="0" lang="ca-ES" sz="1000" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Arial"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln w="9360">
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -2411,9 +2411,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>818280</xdr:colOff>
+      <xdr:colOff>817560</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>174960</xdr:rowOff>
+      <xdr:rowOff>174240</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2421,8 +2421,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8476920" y="5635080"/>
-        <a:ext cx="5822280" cy="3127320"/>
+        <a:off x="8484840" y="5635080"/>
+        <a:ext cx="5833800" cy="3126600"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2441,9 +2441,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>741600</xdr:colOff>
+      <xdr:colOff>740880</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>155160</xdr:rowOff>
+      <xdr:rowOff>154440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2451,8 +2451,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8407800" y="2279520"/>
-        <a:ext cx="5814720" cy="3133440"/>
+        <a:off x="8415720" y="2279520"/>
+        <a:ext cx="5826240" cy="3132720"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2471,9 +2471,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>990000</xdr:colOff>
+      <xdr:colOff>989280</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>46800</xdr:rowOff>
+      <xdr:rowOff>46080</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2482,7 +2482,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="2468520" y="5678640"/>
-        <a:ext cx="5788080" cy="3130920"/>
+        <a:ext cx="5792760" cy="3130200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2501,9 +2501,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>966960</xdr:colOff>
+      <xdr:colOff>966240</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>93600</xdr:rowOff>
+      <xdr:rowOff>92880</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2512,7 +2512,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="2450160" y="2395080"/>
-        <a:ext cx="5783400" cy="3131280"/>
+        <a:ext cx="5788080" cy="3130560"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2525,15 +2525,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>60480</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>166680</xdr:rowOff>
+      <xdr:colOff>60840</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>78120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>702720</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>142920</xdr:rowOff>
+      <xdr:colOff>702360</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>53640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2541,8 +2541,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="14577120" y="3846960"/>
-        <a:ext cx="5820480" cy="3130920"/>
+        <a:off x="14600160" y="3933720"/>
+        <a:ext cx="5832720" cy="3130200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2562,11 +2562,11 @@
   </sheetPr>
   <dimension ref="A1:J999"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J9" activeCellId="0" sqref="J9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.6953125" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.73046875" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.22"/>
@@ -2675,11 +2675,11 @@
         <v>18</v>
       </c>
       <c r="F7" s="7" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G7" s="7" t="n">
         <f aca="false">SUM(C7:F7)</f>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H7" s="9" t="s">
         <v>12</v>
@@ -2714,11 +2714,11 @@
         <v>7</v>
       </c>
       <c r="F9" s="7" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G9" s="7" t="n">
         <f aca="false">SUM(C9:F9)</f>
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H9" s="7"/>
     </row>
@@ -2779,11 +2779,11 @@
       </c>
       <c r="F13" s="18" t="n">
         <f aca="false">SUM(F6:F12)</f>
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G13" s="18" t="n">
         <f aca="false">SUM(C13:F13)</f>
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="H13" s="1"/>
     </row>

--- a/imputacioHoresDSA.xlsx
+++ b/imputacioHoresDSA.xlsx
@@ -437,408 +437,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" lang="ca-ES" sz="1300" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr b="0" lang="ca-ES" sz="1300" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Arial"/>
-              </a:rPr>
-              <a:t>Imputación de horas en el proyecto</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:pieChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$6:$A$11</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>API REST Android Unity Web Base de datos Despliegue</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:explosion val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-              <a:ln w="0">
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ff420e"/>
-              </a:solidFill>
-              <a:ln w="0">
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ffd320"/>
-              </a:solidFill>
-              <a:ln w="0">
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="579d1c"/>
-              </a:solidFill>
-              <a:ln w="0">
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="7e0021"/>
-              </a:solidFill>
-              <a:ln w="0">
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="83caff"/>
-              </a:solidFill>
-              <a:ln w="0">
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:txPr>
-                <a:bodyPr wrap="square"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr b="0" lang="ca-ES" sz="1000" spc="-1" strike="noStrike">
-                      <a:solidFill>
-                        <a:srgbClr val="000000"/>
-                      </a:solidFill>
-                      <a:latin typeface="Arial"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator> </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:txPr>
-                <a:bodyPr wrap="square"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr b="0" lang="ca-ES" sz="1000" spc="-1" strike="noStrike">
-                      <a:solidFill>
-                        <a:srgbClr val="000000"/>
-                      </a:solidFill>
-                      <a:latin typeface="Arial"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator> </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:txPr>
-                <a:bodyPr wrap="square"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr b="0" lang="ca-ES" sz="1000" spc="-1" strike="noStrike">
-                      <a:solidFill>
-                        <a:srgbClr val="000000"/>
-                      </a:solidFill>
-                      <a:latin typeface="Arial"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator> </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="3"/>
-              <c:txPr>
-                <a:bodyPr wrap="square"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr b="0" lang="ca-ES" sz="1000" spc="-1" strike="noStrike">
-                      <a:solidFill>
-                        <a:srgbClr val="000000"/>
-                      </a:solidFill>
-                      <a:latin typeface="Arial"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator> </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="4"/>
-              <c:txPr>
-                <a:bodyPr wrap="square"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr b="0" lang="ca-ES" sz="1000" spc="-1" strike="noStrike">
-                      <a:solidFill>
-                        <a:srgbClr val="000000"/>
-                      </a:solidFill>
-                      <a:latin typeface="Arial"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator> </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="5"/>
-              <c:txPr>
-                <a:bodyPr wrap="square"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr b="0" lang="ca-ES" sz="1000" spc="-1" strike="noStrike">
-                      <a:solidFill>
-                        <a:srgbClr val="000000"/>
-                      </a:solidFill>
-                      <a:latin typeface="Arial"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator> </c:separator>
-            </c:dLbl>
-            <c:txPr>
-              <a:bodyPr wrap="square"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" lang="ca-ES" sz="1000" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="bestFit"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$A$6:$A$11</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>API REST</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Android</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Unity</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Web</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Base de datos</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Despliegue</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$G$6:$G$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr b="0" lang="ca-ES" sz="1000" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Arial"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln w="9360">
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1227,7 +826,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1563,7 +1162,7 @@
                   <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>23</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>8</c:v>
@@ -1619,7 +1218,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2008,7 +1607,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2400,6 +1999,407 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" lang="ca-ES" sz="1300" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" lang="ca-ES" sz="1300" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Imputación de horas en el proyecto</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$6:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>API REST Android Unity Web Base de datos Despliegue</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:explosion val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:ln w="0">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:ln w="0">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+              <a:ln w="0">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="579d1c"/>
+              </a:solidFill>
+              <a:ln w="0">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7e0021"/>
+              </a:solidFill>
+              <a:ln w="0">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="83caff"/>
+              </a:solidFill>
+              <a:ln w="0">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:txPr>
+                <a:bodyPr wrap="square"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" lang="ca-ES" sz="1000" spc="-1" strike="noStrike">
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:txPr>
+                <a:bodyPr wrap="square"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" lang="ca-ES" sz="1000" spc="-1" strike="noStrike">
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:txPr>
+                <a:bodyPr wrap="square"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" lang="ca-ES" sz="1000" spc="-1" strike="noStrike">
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:txPr>
+                <a:bodyPr wrap="square"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" lang="ca-ES" sz="1000" spc="-1" strike="noStrike">
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:txPr>
+                <a:bodyPr wrap="square"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" lang="ca-ES" sz="1000" spc="-1" strike="noStrike">
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:txPr>
+                <a:bodyPr wrap="square"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" lang="ca-ES" sz="1000" spc="-1" strike="noStrike">
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:txPr>
+              <a:bodyPr wrap="square"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" lang="ca-ES" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="bestFit"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$6:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>API REST</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Android</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Unity</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Web</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Base de datos</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Despliegue</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$6:$G$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" lang="ca-ES" sz="1000" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="9360">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -2411,9 +2411,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>817560</xdr:colOff>
+      <xdr:colOff>817200</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>174240</xdr:rowOff>
+      <xdr:rowOff>173880</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2421,8 +2421,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8484840" y="5635080"/>
-        <a:ext cx="5833800" cy="3126600"/>
+        <a:off x="8488440" y="5635080"/>
+        <a:ext cx="5840280" cy="3126240"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2441,9 +2441,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>740880</xdr:colOff>
+      <xdr:colOff>740520</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>154440</xdr:rowOff>
+      <xdr:rowOff>154080</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2451,8 +2451,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8415720" y="2279520"/>
-        <a:ext cx="5826240" cy="3132720"/>
+        <a:off x="8419320" y="2279520"/>
+        <a:ext cx="5832720" cy="3132360"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2471,9 +2471,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>989280</xdr:colOff>
+      <xdr:colOff>988920</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>46080</xdr:rowOff>
+      <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2482,7 +2482,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="2468520" y="5678640"/>
-        <a:ext cx="5792760" cy="3130200"/>
+        <a:ext cx="5794920" cy="3129840"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2501,9 +2501,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>966240</xdr:colOff>
+      <xdr:colOff>965880</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>92880</xdr:rowOff>
+      <xdr:rowOff>92520</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2512,7 +2512,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="2450160" y="2395080"/>
-        <a:ext cx="5788080" cy="3130560"/>
+        <a:ext cx="5790240" cy="3130200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2531,9 +2531,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>702360</xdr:colOff>
+      <xdr:colOff>702000</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>53640</xdr:rowOff>
+      <xdr:rowOff>53280</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2541,8 +2541,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="14600160" y="3933720"/>
-        <a:ext cx="5832720" cy="3130200"/>
+        <a:off x="14611680" y="3933720"/>
+        <a:ext cx="5838480" cy="3129840"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2563,10 +2563,10 @@
   <dimension ref="A1:J999"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
+      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.73046875" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.75" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.22"/>
@@ -2675,11 +2675,11 @@
         <v>18</v>
       </c>
       <c r="F7" s="7" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G7" s="7" t="n">
         <f aca="false">SUM(C7:F7)</f>
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H7" s="9" t="s">
         <v>12</v>
@@ -2779,11 +2779,11 @@
       </c>
       <c r="F13" s="18" t="n">
         <f aca="false">SUM(F6:F12)</f>
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="G13" s="18" t="n">
         <f aca="false">SUM(C13:F13)</f>
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="H13" s="1"/>
     </row>

--- a/imputacioHoresDSA.xlsx
+++ b/imputacioHoresDSA.xlsx
@@ -437,7 +437,408 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" lang="ca-ES" sz="1300" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" lang="ca-ES" sz="1300" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Imputación de horas en el proyecto</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$6:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>API REST Android Unity Web Base de datos Despliegue</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:explosion val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:ln w="0">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:ln w="0">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+              <a:ln w="0">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="579d1c"/>
+              </a:solidFill>
+              <a:ln w="0">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7e0021"/>
+              </a:solidFill>
+              <a:ln w="0">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="83caff"/>
+              </a:solidFill>
+              <a:ln w="0">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:txPr>
+                <a:bodyPr wrap="square"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" lang="ca-ES" sz="1000" spc="-1" strike="noStrike">
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:txPr>
+                <a:bodyPr wrap="square"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" lang="ca-ES" sz="1000" spc="-1" strike="noStrike">
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:txPr>
+                <a:bodyPr wrap="square"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" lang="ca-ES" sz="1000" spc="-1" strike="noStrike">
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:txPr>
+                <a:bodyPr wrap="square"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" lang="ca-ES" sz="1000" spc="-1" strike="noStrike">
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:txPr>
+                <a:bodyPr wrap="square"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" lang="ca-ES" sz="1000" spc="-1" strike="noStrike">
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:txPr>
+                <a:bodyPr wrap="square"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" lang="ca-ES" sz="1000" spc="-1" strike="noStrike">
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:txPr>
+              <a:bodyPr wrap="square"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" lang="ca-ES" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="bestFit"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$6:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>API REST</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Android</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Unity</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Web</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Base de datos</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Despliegue</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$6:$G$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" lang="ca-ES" sz="1000" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="9360">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -826,7 +1227,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1162,7 +1563,7 @@
                   <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>8</c:v>
@@ -1218,7 +1619,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1607,7 +2008,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1999,407 +2400,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" lang="ca-ES" sz="1300" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr b="0" lang="ca-ES" sz="1300" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Arial"/>
-              </a:rPr>
-              <a:t>Imputación de horas en el proyecto</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:pieChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$6:$A$11</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>API REST Android Unity Web Base de datos Despliegue</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:explosion val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-              <a:ln w="0">
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ff420e"/>
-              </a:solidFill>
-              <a:ln w="0">
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ffd320"/>
-              </a:solidFill>
-              <a:ln w="0">
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="579d1c"/>
-              </a:solidFill>
-              <a:ln w="0">
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="7e0021"/>
-              </a:solidFill>
-              <a:ln w="0">
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="83caff"/>
-              </a:solidFill>
-              <a:ln w="0">
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:txPr>
-                <a:bodyPr wrap="square"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr b="0" lang="ca-ES" sz="1000" spc="-1" strike="noStrike">
-                      <a:solidFill>
-                        <a:srgbClr val="000000"/>
-                      </a:solidFill>
-                      <a:latin typeface="Arial"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator> </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:txPr>
-                <a:bodyPr wrap="square"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr b="0" lang="ca-ES" sz="1000" spc="-1" strike="noStrike">
-                      <a:solidFill>
-                        <a:srgbClr val="000000"/>
-                      </a:solidFill>
-                      <a:latin typeface="Arial"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator> </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:txPr>
-                <a:bodyPr wrap="square"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr b="0" lang="ca-ES" sz="1000" spc="-1" strike="noStrike">
-                      <a:solidFill>
-                        <a:srgbClr val="000000"/>
-                      </a:solidFill>
-                      <a:latin typeface="Arial"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator> </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="3"/>
-              <c:txPr>
-                <a:bodyPr wrap="square"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr b="0" lang="ca-ES" sz="1000" spc="-1" strike="noStrike">
-                      <a:solidFill>
-                        <a:srgbClr val="000000"/>
-                      </a:solidFill>
-                      <a:latin typeface="Arial"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator> </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="4"/>
-              <c:txPr>
-                <a:bodyPr wrap="square"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr b="0" lang="ca-ES" sz="1000" spc="-1" strike="noStrike">
-                      <a:solidFill>
-                        <a:srgbClr val="000000"/>
-                      </a:solidFill>
-                      <a:latin typeface="Arial"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator> </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="5"/>
-              <c:txPr>
-                <a:bodyPr wrap="square"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr b="0" lang="ca-ES" sz="1000" spc="-1" strike="noStrike">
-                      <a:solidFill>
-                        <a:srgbClr val="000000"/>
-                      </a:solidFill>
-                      <a:latin typeface="Arial"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator> </c:separator>
-            </c:dLbl>
-            <c:txPr>
-              <a:bodyPr wrap="square"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" lang="ca-ES" sz="1000" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="bestFit"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$A$6:$A$11</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>API REST</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Android</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Unity</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Web</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Base de datos</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Despliegue</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$G$6:$G$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr b="0" lang="ca-ES" sz="1000" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Arial"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln w="9360">
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -2675,11 +2675,11 @@
         <v>18</v>
       </c>
       <c r="F7" s="7" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G7" s="7" t="n">
         <f aca="false">SUM(C7:F7)</f>
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H7" s="9" t="s">
         <v>12</v>
@@ -2779,11 +2779,11 @@
       </c>
       <c r="F13" s="18" t="n">
         <f aca="false">SUM(F6:F12)</f>
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G13" s="18" t="n">
         <f aca="false">SUM(C13:F13)</f>
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="H13" s="1"/>
     </row>

--- a/imputacioHoresDSA.xlsx
+++ b/imputacioHoresDSA.xlsx
@@ -437,408 +437,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" lang="ca-ES" sz="1300" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr b="0" lang="ca-ES" sz="1300" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Arial"/>
-              </a:rPr>
-              <a:t>Imputación de horas en el proyecto</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:pieChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$6:$A$11</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>API REST Android Unity Web Base de datos Despliegue</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:explosion val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-              <a:ln w="0">
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ff420e"/>
-              </a:solidFill>
-              <a:ln w="0">
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ffd320"/>
-              </a:solidFill>
-              <a:ln w="0">
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="579d1c"/>
-              </a:solidFill>
-              <a:ln w="0">
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="7e0021"/>
-              </a:solidFill>
-              <a:ln w="0">
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="83caff"/>
-              </a:solidFill>
-              <a:ln w="0">
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:txPr>
-                <a:bodyPr wrap="square"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr b="0" lang="ca-ES" sz="1000" spc="-1" strike="noStrike">
-                      <a:solidFill>
-                        <a:srgbClr val="000000"/>
-                      </a:solidFill>
-                      <a:latin typeface="Arial"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator> </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:txPr>
-                <a:bodyPr wrap="square"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr b="0" lang="ca-ES" sz="1000" spc="-1" strike="noStrike">
-                      <a:solidFill>
-                        <a:srgbClr val="000000"/>
-                      </a:solidFill>
-                      <a:latin typeface="Arial"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator> </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:txPr>
-                <a:bodyPr wrap="square"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr b="0" lang="ca-ES" sz="1000" spc="-1" strike="noStrike">
-                      <a:solidFill>
-                        <a:srgbClr val="000000"/>
-                      </a:solidFill>
-                      <a:latin typeface="Arial"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator> </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="3"/>
-              <c:txPr>
-                <a:bodyPr wrap="square"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr b="0" lang="ca-ES" sz="1000" spc="-1" strike="noStrike">
-                      <a:solidFill>
-                        <a:srgbClr val="000000"/>
-                      </a:solidFill>
-                      <a:latin typeface="Arial"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator> </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="4"/>
-              <c:txPr>
-                <a:bodyPr wrap="square"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr b="0" lang="ca-ES" sz="1000" spc="-1" strike="noStrike">
-                      <a:solidFill>
-                        <a:srgbClr val="000000"/>
-                      </a:solidFill>
-                      <a:latin typeface="Arial"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator> </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="5"/>
-              <c:txPr>
-                <a:bodyPr wrap="square"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr b="0" lang="ca-ES" sz="1000" spc="-1" strike="noStrike">
-                      <a:solidFill>
-                        <a:srgbClr val="000000"/>
-                      </a:solidFill>
-                      <a:latin typeface="Arial"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator> </c:separator>
-            </c:dLbl>
-            <c:txPr>
-              <a:bodyPr wrap="square"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" lang="ca-ES" sz="1000" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="bestFit"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$A$6:$A$11</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>API REST</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Android</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Unity</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Web</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Base de datos</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Despliegue</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$G$6:$G$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr b="0" lang="ca-ES" sz="1000" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Arial"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln w="9360">
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1227,7 +826,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1560,10 +1159,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>25</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>28</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>8</c:v>
@@ -1619,7 +1218,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2008,7 +1607,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2400,6 +1999,407 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" lang="ca-ES" sz="1300" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" lang="ca-ES" sz="1300" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Imputación de horas en el proyecto</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$6:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>API REST Android Unity Web Base de datos Despliegue</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:explosion val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:ln w="0">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:ln w="0">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+              <a:ln w="0">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="579d1c"/>
+              </a:solidFill>
+              <a:ln w="0">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7e0021"/>
+              </a:solidFill>
+              <a:ln w="0">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="83caff"/>
+              </a:solidFill>
+              <a:ln w="0">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:txPr>
+                <a:bodyPr wrap="square"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" lang="ca-ES" sz="1000" spc="-1" strike="noStrike">
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:txPr>
+                <a:bodyPr wrap="square"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" lang="ca-ES" sz="1000" spc="-1" strike="noStrike">
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:txPr>
+                <a:bodyPr wrap="square"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" lang="ca-ES" sz="1000" spc="-1" strike="noStrike">
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:txPr>
+                <a:bodyPr wrap="square"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" lang="ca-ES" sz="1000" spc="-1" strike="noStrike">
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:txPr>
+                <a:bodyPr wrap="square"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" lang="ca-ES" sz="1000" spc="-1" strike="noStrike">
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:txPr>
+                <a:bodyPr wrap="square"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" lang="ca-ES" sz="1000" spc="-1" strike="noStrike">
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:txPr>
+              <a:bodyPr wrap="square"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" lang="ca-ES" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="bestFit"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$6:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>API REST</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Android</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Unity</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Web</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Base de datos</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Despliegue</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$6:$G$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" lang="ca-ES" sz="1000" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="9360">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -2411,9 +2411,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>816840</xdr:colOff>
+      <xdr:colOff>816480</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>173520</xdr:rowOff>
+      <xdr:rowOff>173160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2421,8 +2421,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8492400" y="5635080"/>
-        <a:ext cx="5846040" cy="3125880"/>
+        <a:off x="8496000" y="5635080"/>
+        <a:ext cx="5852160" cy="3125520"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2441,9 +2441,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>740160</xdr:colOff>
+      <xdr:colOff>739800</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>153720</xdr:rowOff>
+      <xdr:rowOff>153360</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2451,8 +2451,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8423280" y="2279520"/>
-        <a:ext cx="5838480" cy="3132000"/>
+        <a:off x="8426880" y="2279520"/>
+        <a:ext cx="5844600" cy="3131640"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2471,9 +2471,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>988560</xdr:colOff>
+      <xdr:colOff>988200</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>45360</xdr:rowOff>
+      <xdr:rowOff>45000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2482,7 +2482,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="2468520" y="5678640"/>
-        <a:ext cx="5797080" cy="3129480"/>
+        <a:ext cx="5799240" cy="3129120"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2501,9 +2501,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>965520</xdr:colOff>
+      <xdr:colOff>965160</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>92160</xdr:rowOff>
+      <xdr:rowOff>91800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2512,7 +2512,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="2450160" y="2395080"/>
-        <a:ext cx="5792400" cy="3129840"/>
+        <a:ext cx="5794560" cy="3129480"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2531,9 +2531,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>701640</xdr:colOff>
+      <xdr:colOff>701280</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>52920</xdr:rowOff>
+      <xdr:rowOff>52560</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2541,8 +2541,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="14623200" y="3933720"/>
-        <a:ext cx="5844600" cy="3129480"/>
+        <a:off x="14634720" y="3933720"/>
+        <a:ext cx="5850360" cy="3129120"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2563,10 +2563,10 @@
   <dimension ref="A1:J999"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
+      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.76953125" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.78515625" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.22"/>
@@ -2655,11 +2655,11 @@
         <v>3</v>
       </c>
       <c r="F6" s="7" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="n">
         <f aca="false">SUM(C6:F6)</f>
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="H6" s="7" t="s">
         <v>10</v>
@@ -2675,11 +2675,11 @@
         <v>18</v>
       </c>
       <c r="F7" s="7" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G7" s="7" t="n">
         <f aca="false">SUM(C7:F7)</f>
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H7" s="9" t="s">
         <v>12</v>
@@ -2779,11 +2779,11 @@
       </c>
       <c r="F13" s="18" t="n">
         <f aca="false">SUM(F6:F12)</f>
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="G13" s="18" t="n">
         <f aca="false">SUM(C13:F13)</f>
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="H13" s="1"/>
     </row>

--- a/imputacioHoresDSA.xlsx
+++ b/imputacioHoresDSA.xlsx
@@ -437,7 +437,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -826,7 +826,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1159,7 +1159,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>28</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>30</c:v>
@@ -1218,7 +1218,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1607,7 +1607,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1999,7 +1999,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2332,7 +2332,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>65</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>48</c:v>
@@ -2411,9 +2411,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>816480</xdr:colOff>
+      <xdr:colOff>816120</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>173160</xdr:rowOff>
+      <xdr:rowOff>172800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2421,8 +2421,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8496000" y="5635080"/>
-        <a:ext cx="5852160" cy="3125520"/>
+        <a:off x="8499960" y="5635080"/>
+        <a:ext cx="5857920" cy="3125160"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2441,9 +2441,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>739800</xdr:colOff>
+      <xdr:colOff>739440</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>153360</xdr:rowOff>
+      <xdr:rowOff>153000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2451,8 +2451,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8426880" y="2279520"/>
-        <a:ext cx="5844600" cy="3131640"/>
+        <a:off x="8430840" y="2279520"/>
+        <a:ext cx="5850360" cy="3131280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2471,9 +2471,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>988200</xdr:colOff>
+      <xdr:colOff>987840</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>45000</xdr:rowOff>
+      <xdr:rowOff>44640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2482,7 +2482,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="2468520" y="5678640"/>
-        <a:ext cx="5799240" cy="3129120"/>
+        <a:ext cx="5801400" cy="3128760"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2501,9 +2501,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>965160</xdr:colOff>
+      <xdr:colOff>964800</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>91800</xdr:rowOff>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2512,7 +2512,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="2450160" y="2395080"/>
-        <a:ext cx="5794560" cy="3129480"/>
+        <a:ext cx="5796720" cy="3129120"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2531,9 +2531,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>701280</xdr:colOff>
+      <xdr:colOff>700920</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>52560</xdr:rowOff>
+      <xdr:rowOff>52200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2541,8 +2541,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="14634720" y="3933720"/>
-        <a:ext cx="5850360" cy="3129120"/>
+        <a:off x="14645880" y="3933720"/>
+        <a:ext cx="5856840" cy="3128760"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2562,11 +2562,11 @@
   </sheetPr>
   <dimension ref="A1:J999"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.78515625" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.8046875" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.22"/>
@@ -2655,11 +2655,11 @@
         <v>3</v>
       </c>
       <c r="F6" s="7" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G6" s="7" t="n">
         <f aca="false">SUM(C6:F6)</f>
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H6" s="7" t="s">
         <v>10</v>
@@ -2779,11 +2779,11 @@
       </c>
       <c r="F13" s="18" t="n">
         <f aca="false">SUM(F6:F12)</f>
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G13" s="18" t="n">
         <f aca="false">SUM(C13:F13)</f>
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H13" s="1"/>
     </row>

--- a/imputacioHoresDSA.xlsx
+++ b/imputacioHoresDSA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DSA\Proyecto DSA\ProyectoDSA\Proyecto_DSA_Rempalago\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04E280B4-5FC5-402A-8C01-B35A9CCD775D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD93FCC5-2876-457C-BAE1-EB23ECAA4BA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3517,8 +3517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB999"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="64" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="R87" sqref="R87"/>
+    <sheetView tabSelected="1" topLeftCell="L62" zoomScale="64" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="U80" sqref="U80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3615,7 +3615,7 @@
       <c r="Z4" s="7"/>
       <c r="AA4" s="7"/>
       <c r="AB4" s="7">
-        <f t="shared" ref="AB4:AB11" si="0">SUM(X4:AA4)</f>
+        <f t="shared" ref="AB4" si="0">SUM(X4:AA4)</f>
         <v>0</v>
       </c>
     </row>
@@ -3915,7 +3915,7 @@
       <c r="Z15" s="7"/>
       <c r="AA15" s="7"/>
       <c r="AB15" s="7">
-        <f t="shared" ref="AB15:AB22" si="3">SUM(X15:AA15)</f>
+        <f t="shared" ref="AB15" si="3">SUM(X15:AA15)</f>
         <v>0</v>
       </c>
     </row>
@@ -4122,7 +4122,7 @@
       <c r="Z26" s="7"/>
       <c r="AA26" s="7"/>
       <c r="AB26" s="7">
-        <f t="shared" ref="AB26:AB33" si="5">SUM(X26:AA26)</f>
+        <f t="shared" ref="AB26" si="5">SUM(X26:AA26)</f>
         <v>0</v>
       </c>
     </row>
@@ -4321,7 +4321,7 @@
       <c r="Z36" s="7"/>
       <c r="AA36" s="7"/>
       <c r="AB36" s="7">
-        <f t="shared" ref="AB36:AB43" si="7">SUM(X36:AA36)</f>
+        <f t="shared" ref="AB36" si="7">SUM(X36:AA36)</f>
         <v>0</v>
       </c>
     </row>
@@ -4520,7 +4520,7 @@
       <c r="Z46" s="7"/>
       <c r="AA46" s="7"/>
       <c r="AB46" s="7">
-        <f t="shared" ref="AB46:AB53" si="9">SUM(X46:AA46)</f>
+        <f t="shared" ref="AB46" si="9">SUM(X46:AA46)</f>
         <v>0</v>
       </c>
     </row>
@@ -4719,7 +4719,7 @@
       <c r="Z56" s="7"/>
       <c r="AA56" s="7"/>
       <c r="AB56" s="7">
-        <f t="shared" ref="AB56:AB63" si="11">SUM(X56:AA56)</f>
+        <f t="shared" ref="AB56" si="11">SUM(X56:AA56)</f>
         <v>0</v>
       </c>
     </row>
@@ -4928,7 +4928,7 @@
       <c r="Z67" s="7"/>
       <c r="AA67" s="7"/>
       <c r="AB67" s="7">
-        <f t="shared" ref="AB67:AB74" si="13">SUM(X67:AA67)</f>
+        <f t="shared" ref="AB67" si="13">SUM(X67:AA67)</f>
         <v>1</v>
       </c>
     </row>
@@ -5137,7 +5137,7 @@
       <c r="Z78" s="7"/>
       <c r="AA78" s="7"/>
       <c r="AB78" s="7">
-        <f t="shared" ref="AB78:AB85" si="15">SUM(X78:AA78)</f>
+        <f t="shared" ref="AB78" si="15">SUM(X78:AA78)</f>
         <v>0</v>
       </c>
     </row>
@@ -5167,13 +5167,15 @@
       <c r="W80" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="X80" s="4"/>
+      <c r="X80" s="4">
+        <v>2</v>
+      </c>
       <c r="Y80" s="7"/>
       <c r="Z80" s="7"/>
       <c r="AA80" s="7"/>
       <c r="AB80" s="7">
         <f t="shared" ref="AB80:AB85" si="16">SUM(X80:AA80)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="3:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -5261,7 +5263,7 @@
       </c>
       <c r="X85" s="17">
         <f>SUM(X78:X84)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y85" s="17">
         <f>SUM(Y78:Y84)</f>
@@ -5277,7 +5279,7 @@
       </c>
       <c r="AB85" s="18">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="3:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -5336,7 +5338,7 @@
       <c r="Z88" s="7"/>
       <c r="AA88" s="7"/>
       <c r="AB88" s="7">
-        <f t="shared" ref="AB88:AB95" si="17">SUM(X88:AA88)</f>
+        <f t="shared" ref="AB88" si="17">SUM(X88:AA88)</f>
         <v>0</v>
       </c>
     </row>
@@ -5371,7 +5373,7 @@
       <c r="Z90" s="7"/>
       <c r="AA90" s="7"/>
       <c r="AB90" s="7">
-        <f t="shared" ref="AB90:AB96" si="18">SUM(X90:AA90)</f>
+        <f t="shared" ref="AB90:AB95" si="18">SUM(X90:AA90)</f>
         <v>0</v>
       </c>
     </row>

--- a/imputacioHoresDSA.xlsx
+++ b/imputacioHoresDSA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DSA\Proyecto DSA\ProyectoDSA\Proyecto_DSA_Rempalago\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD93FCC5-2876-457C-BAE1-EB23ECAA4BA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C425A09-E99A-4F65-A122-C571BEBE1440}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,8 +35,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="31">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -118,6 +140,18 @@
   <si>
     <t>1/1-7/1</t>
   </si>
+  <si>
+    <t>8/1-14/1</t>
+  </si>
+  <si>
+    <t>15/1-21/1</t>
+  </si>
+  <si>
+    <t>Juan</t>
+  </si>
+  <si>
+    <t>Angela</t>
+  </si>
 </sst>
 </file>
 
@@ -164,7 +198,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -217,6 +251,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFF3F3F3"/>
         <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -304,7 +344,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -344,6 +384,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -869,10 +916,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>18</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>19</c:v>
@@ -941,6 +991,294 @@
       <a:noFill/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$X$116:$AC$116</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Unity</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Android</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Web</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Base de datos</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Despliegue</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>API REST</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$X$120:$AC$120</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-644C-4AF0-9786-ADD1C7602CBE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -1387,13 +1725,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>28</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>30</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
                 <c:pt idx="3">
-                  <c:v>8</c:v>
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1905,16 +2249,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>20</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6</c:v>
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2429,6 +2779,9 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="3">
@@ -2944,22 +3297,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>74</c:v>
+                  <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>77</c:v>
+                  <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>63</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3031,6 +3384,4895 @@
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES"/>
+              <a:t>Alejandro</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$X$116:$AC$116</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Unity</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Android</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Web</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Base de datos</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Despliegue</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>API REST</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$X$117:$AC$117</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-14BE-443B-A8B3-BEF96C982A0C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES"/>
+              <a:t>Ángela</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$X$116:$AC$116</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Unity</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Android</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Web</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Base de datos</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Despliegue</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>API REST</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$X$118:$AC$118</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-446F-4BD4-B49C-B01664CF06B6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$W$117</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Alejandro</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Sheet1!$W$2,Sheet1!$W$13,Sheet1!$W$24,Sheet1!$W$34,Sheet1!$W$44,Sheet1!$W$54,Sheet1!$W$65,Sheet1!$W$76,Sheet1!$W$86,Sheet1!$W$95,Sheet1!$W$104,Sheet1!$Z$113,Sheet1!$Z$11,Sheet1!$Z$22,Sheet1!$Z$33,Sheet1!$Z$42,Sheet1!$Z$52,Sheet1!$Z$63,Sheet1!$Z$74,Sheet1!$Z$84,Sheet1!$Z$94,Sheet1!$Z$103,Sheet1!$Z$113)</c:f>
+              <c:strCache>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>6/11-12/11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13/11-19/11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20/11-26/11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27/11-3/12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4/12-10/12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11/12-17/12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18/12-24/12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>25/12-31/12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1/1-7/1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8/1-14/1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15/1-21/1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$Z$11,Sheet1!$Z$22,Sheet1!$Z$33,Sheet1!$Z$42,Sheet1!$Z$52,Sheet1!$Z$63,Sheet1!$Z$74,Sheet1!$Z$84,Sheet1!$Z$94,Sheet1!$Z$103)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000010-7C62-4279-9269-2C6D833788A3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:axId val="1833493935"/>
+        <c:axId val="1624534351"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$W$120</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Juan</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent2"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>(Sheet1!$W$2,Sheet1!$W$13,Sheet1!$W$24,Sheet1!$W$34,Sheet1!$W$44,Sheet1!$W$54,Sheet1!$W$65,Sheet1!$W$76,Sheet1!$W$86,Sheet1!$W$95,Sheet1!$W$104,Sheet1!$Z$113,Sheet1!$Z$11,Sheet1!$Z$22,Sheet1!$Z$33,Sheet1!$Z$42,Sheet1!$Z$52,Sheet1!$Z$63,Sheet1!$Z$74,Sheet1!$Z$84,Sheet1!$Z$94,Sheet1!$Z$103,Sheet1!$Z$113)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="23"/>
+                      <c:pt idx="0">
+                        <c:v>6/11-12/11</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>13/11-19/11</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>20/11-26/11</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>27/11-3/12</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>4/12-10/12</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>11/12-17/12</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>18/12-24/12</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>25/12-31/12</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>1/1-7/1</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>8/1-14/1</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>15/1-21/1</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>22</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>11</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>22</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>(Sheet1!$X$11,Sheet1!$X$22,Sheet1!$X$33,Sheet1!$X$42,Sheet1!$X$52,Sheet1!$X$63,Sheet1!$X$74,Sheet1!$X$84,Sheet1!$X$94,Sheet1!$X$103,Sheet1!$X$113)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="11"/>
+                      <c:pt idx="0">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>11</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>10</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000009-7C62-4279-9269-2C6D833788A3}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$W$119</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Ashley</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent3"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>(Sheet1!$W$2,Sheet1!$W$13,Sheet1!$W$24,Sheet1!$W$34,Sheet1!$W$44,Sheet1!$W$54,Sheet1!$W$65,Sheet1!$W$76,Sheet1!$W$86,Sheet1!$W$95,Sheet1!$W$104,Sheet1!$Z$113,Sheet1!$Z$11,Sheet1!$Z$22,Sheet1!$Z$33,Sheet1!$Z$42,Sheet1!$Z$52,Sheet1!$Z$63,Sheet1!$Z$74,Sheet1!$Z$84,Sheet1!$Z$94,Sheet1!$Z$103,Sheet1!$Z$113)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="23"/>
+                      <c:pt idx="0">
+                        <c:v>6/11-12/11</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>13/11-19/11</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>20/11-26/11</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>27/11-3/12</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>4/12-10/12</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>11/12-17/12</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>18/12-24/12</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>25/12-31/12</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>1/1-7/1</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>8/1-14/1</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>15/1-21/1</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>22</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>11</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>22</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>(Sheet1!$AA$11,Sheet1!$AA$22,Sheet1!$AA$33,Sheet1!$AA$42,Sheet1!$AA$52,Sheet1!$AA$63,Sheet1!$AA$74,Sheet1!$AA$84,Sheet1!$AA$94,Sheet1!$AA$103,Sheet1!$AA$113)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="11"/>
+                      <c:pt idx="0">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000012-7C62-4279-9269-2C6D833788A3}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$W$118</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Angela</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent4"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>(Sheet1!$W$2,Sheet1!$W$13,Sheet1!$W$24,Sheet1!$W$34,Sheet1!$W$44,Sheet1!$W$54,Sheet1!$W$65,Sheet1!$W$76,Sheet1!$W$86,Sheet1!$W$95,Sheet1!$W$104,Sheet1!$Z$113,Sheet1!$Z$11,Sheet1!$Z$22,Sheet1!$Z$33,Sheet1!$Z$42,Sheet1!$Z$52,Sheet1!$Z$63,Sheet1!$Z$74,Sheet1!$Z$84,Sheet1!$Z$94,Sheet1!$Z$103,Sheet1!$Z$113)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="23"/>
+                      <c:pt idx="0">
+                        <c:v>6/11-12/11</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>13/11-19/11</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>20/11-26/11</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>27/11-3/12</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>4/12-10/12</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>11/12-17/12</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>18/12-24/12</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>25/12-31/12</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>1/1-7/1</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>8/1-14/1</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>15/1-21/1</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>22</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>11</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>22</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>(Sheet1!$Y$11,Sheet1!$Y$22,Sheet1!$Y$33,Sheet1!$Y$42,Sheet1!$Y$52,Sheet1!$Y$63,Sheet1!$Y$74,Sheet1!$Y$84,Sheet1!$Y$94,Sheet1!$Y$103,Sheet1!$Y$113)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="11"/>
+                      <c:pt idx="0">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>18</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>13</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>5</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000013-7C62-4279-9269-2C6D833788A3}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1833493935"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1624534351"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1624534351"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1833493935"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$W$120</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Juan</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Sheet1!$W$2,Sheet1!$W$13,Sheet1!$W$24,Sheet1!$W$34,Sheet1!$W$44,Sheet1!$W$54,Sheet1!$W$65,Sheet1!$W$76,Sheet1!$W$86,Sheet1!$W$95,Sheet1!$W$104)</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>6/11-12/11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13/11-19/11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20/11-26/11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27/11-3/12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4/12-10/12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11/12-17/12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18/12-24/12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>25/12-31/12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1/1-7/1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8/1-14/1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15/1-21/1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$X$11,Sheet1!$X$22,Sheet1!$X$33,Sheet1!$X$42,Sheet1!$X$52,Sheet1!$X$63,Sheet1!$X$74,Sheet1!$X$84,Sheet1!$X$94,Sheet1!$X$103,Sheet1!$X$113)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D6B9-4A65-A818-AC4CC2CCDD42}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$W$117</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Alejandro</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Sheet1!$W$2,Sheet1!$W$13,Sheet1!$W$24,Sheet1!$W$34,Sheet1!$W$44,Sheet1!$W$54,Sheet1!$W$65,Sheet1!$W$76,Sheet1!$W$86,Sheet1!$W$95,Sheet1!$W$104)</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>6/11-12/11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13/11-19/11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20/11-26/11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27/11-3/12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4/12-10/12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11/12-17/12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18/12-24/12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>25/12-31/12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1/1-7/1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8/1-14/1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15/1-21/1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$Z$11,Sheet1!$Z$22,Sheet1!$Z$33,Sheet1!$Z$42,Sheet1!$Z$52,Sheet1!$Z$63,Sheet1!$Z$74,Sheet1!$Z$84,Sheet1!$Z$94,Sheet1!$Z$103)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D6B9-4A65-A818-AC4CC2CCDD42}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$W$119</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ashley</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$AA$11,Sheet1!$AA$22,Sheet1!$AA$33,Sheet1!$AA$42,Sheet1!$AA$52,Sheet1!$AA$63,Sheet1!$AA$74,Sheet1!$AA$84,Sheet1!$AA$94,Sheet1!$AA$103,Sheet1!$AA$113)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D6B9-4A65-A818-AC4CC2CCDD42}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$W$118</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Angela</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$Y$11,Sheet1!$Y$22,Sheet1!$Y$33,Sheet1!$Y$42,Sheet1!$Y$52,Sheet1!$Y$63,Sheet1!$Y$74,Sheet1!$Y$84,Sheet1!$Y$94,Sheet1!$Y$103,Sheet1!$Y$113)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-D6B9-4A65-A818-AC4CC2CCDD42}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:axId val="1833493935"/>
+        <c:axId val="1624534351"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1833493935"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1624534351"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1624534351"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1833493935"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3115,8 +8357,8 @@
       <xdr:rowOff>70560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>987120</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>3391</xdr:colOff>
       <xdr:row>50</xdr:row>
       <xdr:rowOff>43920</xdr:rowOff>
     </xdr:to>
@@ -3210,6 +8452,188 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>176893</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>65314</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Gráfico 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAB60111-76DB-D22D-0738-522537288B64}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>449035</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>16329</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>54428</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>106137</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Gráfico 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7ED2977E-12D6-800C-3CEF-10FE2BC0EEB9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>34636</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>51954</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>138545</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Gráfico 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46CA8357-551A-3276-D89A-568332958BF5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>917863</xdr:colOff>
+      <xdr:row>199</xdr:row>
+      <xdr:rowOff>3463</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Gráfico 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79014DA8-AA5B-436A-BF24-A818E9ED8D42}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>181841</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>65810</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>805296</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Gráfico 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FF59896-A9BD-04F9-2711-2EAFA8EBC457}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3515,10 +8939,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB999"/>
+  <dimension ref="A1:AE999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L62" zoomScale="64" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="U80" sqref="U80"/>
+    <sheetView tabSelected="1" topLeftCell="R76" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="X116" activeCellId="1" sqref="X120:AC120 X116:AC116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3528,6 +8952,7 @@
     <col min="4" max="4" width="15.42578125" customWidth="1"/>
     <col min="5" max="5" width="10.42578125" customWidth="1"/>
     <col min="6" max="6" width="12.85546875" customWidth="1"/>
+    <col min="24" max="24" width="21.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -3610,13 +9035,21 @@
       <c r="W4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="X4" s="4"/>
-      <c r="Y4" s="7"/>
-      <c r="Z4" s="7"/>
-      <c r="AA4" s="7"/>
+      <c r="X4" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="7">
+        <v>2</v>
+      </c>
+      <c r="Z4" s="7">
+        <v>2</v>
+      </c>
+      <c r="AA4" s="7">
+        <v>4</v>
+      </c>
       <c r="AB4" s="7">
         <f t="shared" ref="AB4" si="0">SUM(X4:AA4)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -3633,11 +9066,22 @@
       <c r="W5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="X5" s="4"/>
-      <c r="Y5" s="7"/>
-      <c r="Z5" s="7"/>
-      <c r="AA5" s="7"/>
-      <c r="AB5" s="7"/>
+      <c r="X5" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="7">
+        <f>SUM(X5:AA5)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
@@ -3645,20 +9089,20 @@
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="4">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D6" s="7">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E6" s="7">
         <v>8</v>
       </c>
       <c r="F6" s="7">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7">
         <f t="shared" ref="G6:G13" si="1">SUM(C6:F6)</f>
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H6" s="7" t="s">
         <v>10</v>
@@ -3666,12 +9110,20 @@
       <c r="W6" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="X6" s="4"/>
-      <c r="Y6" s="7"/>
-      <c r="Z6" s="7"/>
-      <c r="AA6" s="7"/>
+      <c r="X6" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="7">
+        <v>0</v>
+      </c>
       <c r="AB6" s="7">
-        <f t="shared" ref="AB6:AB11" si="2">SUM(X6:AA6)</f>
+        <f t="shared" ref="AB6:AB10" si="2">SUM(X6:AA6)</f>
         <v>0</v>
       </c>
     </row>
@@ -3683,17 +9135,17 @@
         <v>19</v>
       </c>
       <c r="D7" s="7">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E7" s="7">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F7" s="7">
         <v>30</v>
       </c>
       <c r="G7" s="7">
         <f t="shared" si="1"/>
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H7" s="9" t="s">
         <v>12</v>
@@ -3701,36 +9153,60 @@
       <c r="W7" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="X7" s="4"/>
-      <c r="Y7" s="7"/>
-      <c r="Z7" s="7"/>
-      <c r="AA7" s="7"/>
+      <c r="X7" s="4">
+        <v>7</v>
+      </c>
+      <c r="Y7" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="7">
+        <v>3</v>
+      </c>
+      <c r="AA7" s="7">
+        <v>0</v>
+      </c>
       <c r="AB7" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>SUM(X7:AA7)</f>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
+      <c r="C8" s="4">
+        <v>15</v>
+      </c>
+      <c r="D8" s="7">
+        <v>2</v>
+      </c>
+      <c r="E8" s="7">
+        <v>22</v>
+      </c>
+      <c r="F8" s="7">
+        <v>0</v>
+      </c>
       <c r="G8" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="H8" s="7"/>
       <c r="J8" s="11"/>
       <c r="W8" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="X8" s="4"/>
-      <c r="Y8" s="7"/>
-      <c r="Z8" s="7"/>
-      <c r="AA8" s="7"/>
+      <c r="X8" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="7">
+        <v>0</v>
+      </c>
       <c r="AB8" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -3744,26 +9220,34 @@
         <v>19</v>
       </c>
       <c r="D9" s="7">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E9" s="7">
         <v>23</v>
       </c>
       <c r="F9" s="7">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G9" s="7">
         <f t="shared" si="1"/>
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H9" s="7"/>
       <c r="W9" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="X9" s="4"/>
-      <c r="Y9" s="7"/>
-      <c r="Z9" s="7"/>
-      <c r="AA9" s="7"/>
+      <c r="X9" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="7">
+        <v>0</v>
+      </c>
       <c r="AB9" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -3798,36 +9282,33 @@
         <v>16</v>
       </c>
       <c r="C11" s="4"/>
-      <c r="D11" s="7"/>
+      <c r="D11" s="7">
+        <v>2</v>
+      </c>
       <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
+      <c r="F11" s="7">
+        <v>2</v>
+      </c>
       <c r="G11" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H11" s="7"/>
-      <c r="W11" t="s">
-        <v>6</v>
-      </c>
-      <c r="X11" s="17">
-        <f>SUM(X4:X10)</f>
-        <v>0</v>
-      </c>
-      <c r="Y11" s="17">
-        <f>SUM(Y4:Y10)</f>
-        <v>0</v>
-      </c>
-      <c r="Z11" s="17">
-        <f>SUM(Z4:Z7)</f>
-        <v>0</v>
-      </c>
-      <c r="AA11" s="18">
-        <f>SUM(AA4:AA10)</f>
-        <v>0</v>
-      </c>
-      <c r="AB11" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="X11">
+        <f>SUM(X4:X9)</f>
+        <v>7</v>
+      </c>
+      <c r="Y11">
+        <f t="shared" ref="Y11:AA11" si="3">SUM(Y4:Y9)</f>
+        <v>2</v>
+      </c>
+      <c r="Z11">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="AA11">
+        <f t="shared" si="3"/>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -3847,23 +9328,23 @@
       </c>
       <c r="C13" s="17">
         <f>SUM(C6:C12)</f>
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="D13" s="17">
         <f>SUM(D6:D12)</f>
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="E13" s="17">
         <f>SUM(E6:E9)</f>
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="F13" s="18">
         <f>SUM(F6:F12)</f>
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G13" s="18">
         <f t="shared" si="1"/>
-        <v>234</v>
+        <v>294</v>
       </c>
       <c r="H13" s="1"/>
       <c r="W13" t="s">
@@ -3896,7 +9377,6 @@
         <v>0</v>
       </c>
       <c r="Y14" s="5"/>
-      <c r="Z14" s="5"/>
       <c r="AA14" s="5"/>
       <c r="AB14" s="5"/>
     </row>
@@ -3910,13 +9390,21 @@
       <c r="W15" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="X15" s="4"/>
-      <c r="Y15" s="7"/>
-      <c r="Z15" s="7"/>
-      <c r="AA15" s="7"/>
+      <c r="X15" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="7">
+        <v>10</v>
+      </c>
+      <c r="Z15" s="5">
+        <v>3</v>
+      </c>
+      <c r="AA15" s="7">
+        <v>12</v>
+      </c>
       <c r="AB15" s="7">
-        <f t="shared" ref="AB15" si="3">SUM(X15:AA15)</f>
-        <v>0</v>
+        <f t="shared" ref="AB15" si="4">SUM(X15:AA15)</f>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -3929,11 +9417,22 @@
       <c r="W16" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="X16" s="4"/>
-      <c r="Y16" s="7"/>
-      <c r="Z16" s="7"/>
-      <c r="AA16" s="7"/>
-      <c r="AB16" s="7"/>
+      <c r="X16" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="7">
+        <f>SUM(X16:AA16)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="3:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C17" s="1"/>
@@ -3945,12 +9444,20 @@
       <c r="W17" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="X17" s="4"/>
-      <c r="Y17" s="7"/>
-      <c r="Z17" s="7"/>
-      <c r="AA17" s="7"/>
+      <c r="X17" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="7">
+        <v>0</v>
+      </c>
       <c r="AB17" s="7">
-        <f t="shared" ref="AB17:AB22" si="4">SUM(X17:AA17)</f>
+        <f t="shared" ref="AB17:AB21" si="5">SUM(X17:AA17)</f>
         <v>0</v>
       </c>
     </row>
@@ -3964,13 +9471,21 @@
       <c r="W18" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="X18" s="4"/>
-      <c r="Y18" s="7"/>
-      <c r="Z18" s="7"/>
-      <c r="AA18" s="7"/>
+      <c r="X18" s="4">
+        <v>8</v>
+      </c>
+      <c r="Y18" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="7">
+        <v>8</v>
+      </c>
+      <c r="AA18" s="7">
+        <v>0</v>
+      </c>
       <c r="AB18" s="7">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="3:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -3983,12 +9498,20 @@
       <c r="W19" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="X19" s="4"/>
-      <c r="Y19" s="7"/>
-      <c r="Z19" s="7"/>
-      <c r="AA19" s="7"/>
+      <c r="X19" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="7">
+        <v>0</v>
+      </c>
       <c r="AB19" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -4002,12 +9525,20 @@
       <c r="W20" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="X20" s="4"/>
-      <c r="Y20" s="7"/>
-      <c r="Z20" s="7"/>
-      <c r="AA20" s="7"/>
+      <c r="X20" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="7">
+        <v>0</v>
+      </c>
       <c r="AB20" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -4023,7 +9554,7 @@
       <c r="Z21" s="16"/>
       <c r="AA21" s="16"/>
       <c r="AB21" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -4034,28 +9565,21 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
-      <c r="W22" t="s">
-        <v>6</v>
-      </c>
-      <c r="X22" s="17">
-        <f>SUM(X15:X21)</f>
-        <v>0</v>
-      </c>
-      <c r="Y22" s="17">
-        <f>SUM(Y15:Y21)</f>
-        <v>0</v>
-      </c>
-      <c r="Z22" s="17">
-        <f>SUM(Z15:Z18)</f>
-        <v>0</v>
-      </c>
-      <c r="AA22" s="18">
-        <f>SUM(AA15:AA21)</f>
-        <v>0</v>
-      </c>
-      <c r="AB22" s="18">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="X22">
+        <f>SUM(X15:X20)</f>
+        <v>8</v>
+      </c>
+      <c r="Y22">
+        <f t="shared" ref="Y22:Z22" si="6">SUM(Y15:Y20)</f>
+        <v>10</v>
+      </c>
+      <c r="Z22">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="AA22">
+        <f>SUM(AA15:AA20)</f>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="3:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -4117,13 +9641,21 @@
       <c r="W26" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="X26" s="4"/>
-      <c r="Y26" s="7"/>
-      <c r="Z26" s="7"/>
-      <c r="AA26" s="7"/>
+      <c r="X26" s="4">
+        <v>5</v>
+      </c>
+      <c r="Y26" s="7">
+        <v>2</v>
+      </c>
+      <c r="Z26" s="7">
+        <v>3</v>
+      </c>
+      <c r="AA26" s="7">
+        <v>2</v>
+      </c>
       <c r="AB26" s="7">
-        <f t="shared" ref="AB26" si="5">SUM(X26:AA26)</f>
-        <v>0</v>
+        <f t="shared" ref="AB26" si="7">SUM(X26:AA26)</f>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="3:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -4136,11 +9668,22 @@
       <c r="W27" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="X27" s="4"/>
-      <c r="Y27" s="7"/>
-      <c r="Z27" s="7"/>
-      <c r="AA27" s="7"/>
-      <c r="AB27" s="7"/>
+      <c r="X27" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="7">
+        <v>11</v>
+      </c>
+      <c r="AA27" s="7">
+        <v>15</v>
+      </c>
+      <c r="AB27" s="7">
+        <f>SUM(X27:AA27)</f>
+        <v>26</v>
+      </c>
     </row>
     <row r="28" spans="3:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C28" s="1"/>
@@ -4152,12 +9695,17 @@
       <c r="W28" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="X28" s="4"/>
-      <c r="Y28" s="7"/>
-      <c r="Z28" s="7"/>
-      <c r="AA28" s="7"/>
+      <c r="X28" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="7">
+        <v>0</v>
+      </c>
       <c r="AB28" s="7">
-        <f t="shared" ref="AB28:AB33" si="6">SUM(X28:AA28)</f>
+        <f t="shared" ref="AB28:AB32" si="8">SUM(X28:AA28)</f>
         <v>0</v>
       </c>
     </row>
@@ -4171,13 +9719,21 @@
       <c r="W29" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="X29" s="4"/>
-      <c r="Y29" s="7"/>
-      <c r="Z29" s="7"/>
-      <c r="AA29" s="7"/>
+      <c r="X29" s="4">
+        <v>4</v>
+      </c>
+      <c r="Y29" s="7">
+        <v>8</v>
+      </c>
+      <c r="Z29" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="7">
+        <v>0</v>
+      </c>
       <c r="AB29" s="7">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="3:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -4190,12 +9746,20 @@
       <c r="W30" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="X30" s="4"/>
-      <c r="Y30" s="7"/>
-      <c r="Z30" s="7"/>
-      <c r="AA30" s="7"/>
+      <c r="X30" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="7">
+        <v>0</v>
+      </c>
       <c r="AB30" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -4209,12 +9773,20 @@
       <c r="W31" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="X31" s="4"/>
-      <c r="Y31" s="7"/>
-      <c r="Z31" s="7"/>
-      <c r="AA31" s="7"/>
+      <c r="X31" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="7">
+        <v>0</v>
+      </c>
       <c r="AB31" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -4230,7 +9802,7 @@
       <c r="Z32" s="16"/>
       <c r="AA32" s="16"/>
       <c r="AB32" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -4241,28 +9813,21 @@
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
-      <c r="W33" t="s">
-        <v>6</v>
-      </c>
-      <c r="X33" s="17">
-        <f>SUM(X26:X32)</f>
-        <v>0</v>
-      </c>
-      <c r="Y33" s="17">
-        <f>SUM(Y26:Y32)</f>
-        <v>0</v>
-      </c>
-      <c r="Z33" s="17">
-        <f>SUM(Z26:Z29)</f>
-        <v>0</v>
-      </c>
-      <c r="AA33" s="18">
-        <f>SUM(AA26:AA32)</f>
-        <v>0</v>
-      </c>
-      <c r="AB33" s="18">
-        <f t="shared" si="6"/>
-        <v>0</v>
+      <c r="X33">
+        <f>SUM(X26:X31)</f>
+        <v>9</v>
+      </c>
+      <c r="Y33">
+        <f t="shared" ref="Y33:AA33" si="9">SUM(Y26:Y31)</f>
+        <v>10</v>
+      </c>
+      <c r="Z33">
+        <f t="shared" si="9"/>
+        <v>14</v>
+      </c>
+      <c r="AA33">
+        <f t="shared" si="9"/>
+        <v>17</v>
       </c>
     </row>
     <row r="34" spans="3:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -4316,13 +9881,21 @@
       <c r="W36" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="X36" s="4"/>
-      <c r="Y36" s="7"/>
-      <c r="Z36" s="7"/>
-      <c r="AA36" s="7"/>
+      <c r="X36" s="4">
+        <v>6</v>
+      </c>
+      <c r="Y36" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z36" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA36" s="7">
+        <v>2</v>
+      </c>
       <c r="AB36" s="7">
-        <f t="shared" ref="AB36" si="7">SUM(X36:AA36)</f>
-        <v>0</v>
+        <f t="shared" ref="AB36" si="10">SUM(X36:AA36)</f>
+        <v>8</v>
       </c>
     </row>
     <row r="37" spans="3:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -4335,11 +9908,22 @@
       <c r="W37" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="X37" s="4"/>
-      <c r="Y37" s="7"/>
-      <c r="Z37" s="7"/>
-      <c r="AA37" s="7"/>
-      <c r="AB37" s="7"/>
+      <c r="X37" s="4">
+        <v>3</v>
+      </c>
+      <c r="Y37" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z37" s="7">
+        <v>10</v>
+      </c>
+      <c r="AA37" s="7">
+        <v>10</v>
+      </c>
+      <c r="AB37" s="7">
+        <f>SUM(X37:AA37)</f>
+        <v>23</v>
+      </c>
     </row>
     <row r="38" spans="3:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C38" s="1"/>
@@ -4351,12 +9935,20 @@
       <c r="W38" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="X38" s="4"/>
-      <c r="Y38" s="7"/>
-      <c r="Z38" s="7"/>
-      <c r="AA38" s="7"/>
+      <c r="X38" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y38" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z38" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA38" s="7">
+        <v>0</v>
+      </c>
       <c r="AB38" s="7">
-        <f t="shared" ref="AB38:AB43" si="8">SUM(X38:AA38)</f>
+        <f>SUM(X38:AA38)</f>
         <v>0</v>
       </c>
     </row>
@@ -4371,12 +9963,16 @@
         <v>14</v>
       </c>
       <c r="X39" s="4"/>
-      <c r="Y39" s="7"/>
-      <c r="Z39" s="7"/>
+      <c r="Y39" s="7">
+        <v>6</v>
+      </c>
+      <c r="Z39" s="7">
+        <v>0</v>
+      </c>
       <c r="AA39" s="7"/>
       <c r="AB39" s="7">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" ref="AB38:AB41" si="11">SUM(X39:AA39)</f>
+        <v>6</v>
       </c>
     </row>
     <row r="40" spans="3:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -4389,13 +9985,21 @@
       <c r="W40" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="X40" s="4"/>
-      <c r="Y40" s="7"/>
-      <c r="Z40" s="7"/>
-      <c r="AA40" s="7"/>
+      <c r="X40" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y40" s="7">
+        <v>12</v>
+      </c>
+      <c r="Z40" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA40" s="7">
+        <v>0</v>
+      </c>
       <c r="AB40" s="7">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>12</v>
       </c>
     </row>
     <row r="41" spans="3:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -4408,12 +10012,20 @@
       <c r="W41" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="X41" s="4"/>
-      <c r="Y41" s="7"/>
-      <c r="Z41" s="7"/>
-      <c r="AA41" s="7"/>
+      <c r="X41" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z41" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA41" s="7">
+        <v>0</v>
+      </c>
       <c r="AB41" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -4424,13 +10036,21 @@
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
-      <c r="X42" s="15"/>
-      <c r="Y42" s="16"/>
-      <c r="Z42" s="16"/>
-      <c r="AA42" s="16"/>
-      <c r="AB42" s="7">
-        <f t="shared" si="8"/>
-        <v>0</v>
+      <c r="X42">
+        <f>SUM(X36:X41)</f>
+        <v>9</v>
+      </c>
+      <c r="Y42">
+        <f t="shared" ref="Y42:AA42" si="12">SUM(Y36:Y41)</f>
+        <v>18</v>
+      </c>
+      <c r="Z42">
+        <f t="shared" si="12"/>
+        <v>10</v>
+      </c>
+      <c r="AA42">
+        <f t="shared" si="12"/>
+        <v>12</v>
       </c>
     </row>
     <row r="43" spans="3:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -4440,29 +10060,6 @@
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
-      <c r="W43" t="s">
-        <v>6</v>
-      </c>
-      <c r="X43" s="17">
-        <f>SUM(X36:X42)</f>
-        <v>0</v>
-      </c>
-      <c r="Y43" s="17">
-        <f>SUM(Y36:Y42)</f>
-        <v>0</v>
-      </c>
-      <c r="Z43" s="17">
-        <f>SUM(Z36:Z39)</f>
-        <v>0</v>
-      </c>
-      <c r="AA43" s="18">
-        <f>SUM(AA36:AA42)</f>
-        <v>0</v>
-      </c>
-      <c r="AB43" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="44" spans="3:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C44" s="1"/>
@@ -4515,13 +10112,19 @@
       <c r="W46" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="X46" s="4"/>
-      <c r="Y46" s="7"/>
+      <c r="X46" s="4">
+        <v>3</v>
+      </c>
+      <c r="Y46" s="7">
+        <v>2</v>
+      </c>
       <c r="Z46" s="7"/>
-      <c r="AA46" s="7"/>
+      <c r="AA46" s="7">
+        <v>3</v>
+      </c>
       <c r="AB46" s="7">
-        <f t="shared" ref="AB46" si="9">SUM(X46:AA46)</f>
-        <v>0</v>
+        <f t="shared" ref="AB46" si="13">SUM(X46:AA46)</f>
+        <v>8</v>
       </c>
     </row>
     <row r="47" spans="3:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -4534,11 +10137,22 @@
       <c r="W47" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="X47" s="4"/>
-      <c r="Y47" s="7"/>
-      <c r="Z47" s="7"/>
-      <c r="AA47" s="7"/>
-      <c r="AB47" s="7"/>
+      <c r="X47" s="4">
+        <v>7</v>
+      </c>
+      <c r="Y47" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z47" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="7">
+        <v>5</v>
+      </c>
+      <c r="AB47" s="7">
+        <f>SUM(X47:AA47)</f>
+        <v>12</v>
+      </c>
     </row>
     <row r="48" spans="3:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C48" s="1"/>
@@ -4550,16 +10164,24 @@
       <c r="W48" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="X48" s="4"/>
-      <c r="Y48" s="7"/>
-      <c r="Z48" s="7"/>
-      <c r="AA48" s="7"/>
+      <c r="X48" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y48" s="7">
+        <v>6</v>
+      </c>
+      <c r="Z48" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA48" s="7">
+        <v>0</v>
+      </c>
       <c r="AB48" s="7">
-        <f t="shared" ref="AB48:AB53" si="10">SUM(X48:AA48)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:28" ht="14.25" x14ac:dyDescent="0.2">
+        <f t="shared" ref="AB48:AB52" si="14">SUM(X48:AA48)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="3:31" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
@@ -4571,14 +10193,18 @@
       </c>
       <c r="X49" s="4"/>
       <c r="Y49" s="7"/>
-      <c r="Z49" s="7"/>
-      <c r="AA49" s="7"/>
+      <c r="Z49" s="7">
+        <v>2</v>
+      </c>
+      <c r="AA49" s="7">
+        <v>7</v>
+      </c>
       <c r="AB49" s="7">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="3:28" ht="14.25" x14ac:dyDescent="0.2">
+        <f t="shared" si="14"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="3:31" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
@@ -4588,16 +10214,24 @@
       <c r="W50" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="X50" s="4"/>
-      <c r="Y50" s="7"/>
-      <c r="Z50" s="7"/>
-      <c r="AA50" s="7"/>
+      <c r="X50" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="7">
+        <v>8</v>
+      </c>
+      <c r="Z50" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="7">
+        <v>0</v>
+      </c>
       <c r="AB50" s="7">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="3:28" ht="14.25" x14ac:dyDescent="0.2">
+        <f t="shared" si="14"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
@@ -4607,63 +10241,60 @@
       <c r="W51" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="X51" s="4"/>
-      <c r="Y51" s="7"/>
-      <c r="Z51" s="7"/>
-      <c r="AA51" s="7"/>
+      <c r="X51" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="7">
+        <v>0</v>
+      </c>
       <c r="AB51" s="7">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="3:28" ht="14.25" x14ac:dyDescent="0.2">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
-      <c r="X52" s="15"/>
-      <c r="Y52" s="16"/>
-      <c r="Z52" s="16"/>
-      <c r="AA52" s="16"/>
+      <c r="X52" s="15">
+        <f>SUM(X46:X51)</f>
+        <v>10</v>
+      </c>
+      <c r="Y52" s="15">
+        <f t="shared" ref="Y52:AA52" si="15">SUM(Y46:Y51)</f>
+        <v>16</v>
+      </c>
+      <c r="Z52" s="15">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="AA52" s="15">
+        <f t="shared" si="15"/>
+        <v>15</v>
+      </c>
       <c r="AB52" s="7">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="3:28" ht="14.25" x14ac:dyDescent="0.2">
+        <f t="shared" si="14"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="53" spans="3:31" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
-      <c r="W53" t="s">
-        <v>6</v>
-      </c>
-      <c r="X53" s="17">
-        <f>SUM(X46:X52)</f>
-        <v>0</v>
-      </c>
-      <c r="Y53" s="17">
-        <f>SUM(Y46:Y52)</f>
-        <v>0</v>
-      </c>
-      <c r="Z53" s="17">
-        <f>SUM(Z46:Z49)</f>
-        <v>0</v>
-      </c>
-      <c r="AA53" s="18">
-        <f>SUM(AA46:AA52)</f>
-        <v>0</v>
-      </c>
-      <c r="AB53" s="18">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="3:28" ht="14.25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="54" spans="3:31" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
@@ -4689,7 +10320,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="3:28" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
@@ -4704,7 +10335,7 @@
       <c r="AA55" s="5"/>
       <c r="AB55" s="5"/>
     </row>
-    <row r="56" spans="3:28" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="56" spans="3:31" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
@@ -4714,16 +10345,22 @@
       <c r="W56" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="X56" s="4"/>
-      <c r="Y56" s="7"/>
+      <c r="X56" s="4">
+        <v>4</v>
+      </c>
+      <c r="Y56" s="7">
+        <v>5</v>
+      </c>
       <c r="Z56" s="7"/>
-      <c r="AA56" s="7"/>
+      <c r="AA56" s="7">
+        <v>7</v>
+      </c>
       <c r="AB56" s="7">
-        <f t="shared" ref="AB56" si="11">SUM(X56:AA56)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="3:28" ht="14.25" x14ac:dyDescent="0.2">
+        <f t="shared" ref="AB56" si="16">SUM(X56:AA56)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="57" spans="3:31" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
@@ -4733,13 +10370,22 @@
       <c r="W57" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="X57" s="4"/>
-      <c r="Y57" s="7"/>
-      <c r="Z57" s="7"/>
+      <c r="X57" s="4">
+        <v>7</v>
+      </c>
+      <c r="Y57" s="7">
+        <v>6</v>
+      </c>
+      <c r="Z57" s="7">
+        <v>0</v>
+      </c>
       <c r="AA57" s="7"/>
-      <c r="AB57" s="7"/>
-    </row>
-    <row r="58" spans="3:28" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="AB57" s="7">
+        <f>SUM(X57:AA57)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58" spans="3:31" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
@@ -4749,16 +10395,24 @@
       <c r="W58" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="X58" s="4"/>
-      <c r="Y58" s="7"/>
-      <c r="Z58" s="7"/>
-      <c r="AA58" s="7"/>
+      <c r="X58" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y58" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z58" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA58" s="7">
+        <v>0</v>
+      </c>
       <c r="AB58" s="7">
-        <f t="shared" ref="AB58:AB63" si="12">SUM(X58:AA58)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:28" ht="14.25" x14ac:dyDescent="0.2">
+        <f t="shared" ref="AB58:AB62" si="17">SUM(X58:AA58)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
@@ -4770,14 +10424,18 @@
       </c>
       <c r="X59" s="4"/>
       <c r="Y59" s="7"/>
-      <c r="Z59" s="7"/>
-      <c r="AA59" s="7"/>
+      <c r="Z59" s="7">
+        <v>10</v>
+      </c>
+      <c r="AA59" s="7">
+        <v>3</v>
+      </c>
       <c r="AB59" s="7">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="3:28" ht="14.25" x14ac:dyDescent="0.2">
+        <f t="shared" si="17"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="60" spans="3:31" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
@@ -4787,16 +10445,24 @@
       <c r="W60" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="X60" s="4"/>
-      <c r="Y60" s="7"/>
-      <c r="Z60" s="7"/>
-      <c r="AA60" s="7"/>
+      <c r="X60" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y60" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z60" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA60" s="7">
+        <v>0</v>
+      </c>
       <c r="AB60" s="7">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="3:28" ht="14.25" x14ac:dyDescent="0.2">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:31" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
@@ -4806,16 +10472,24 @@
       <c r="W61" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="X61" s="4"/>
-      <c r="Y61" s="7"/>
-      <c r="Z61" s="7"/>
-      <c r="AA61" s="7"/>
+      <c r="X61" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="7">
+        <v>2</v>
+      </c>
+      <c r="Z61" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="7">
+        <v>2</v>
+      </c>
       <c r="AB61" s="7">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:28" ht="14.25" x14ac:dyDescent="0.2">
+        <f t="shared" si="17"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="3:31" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
@@ -4827,42 +10501,40 @@
       <c r="Z62" s="16"/>
       <c r="AA62" s="16"/>
       <c r="AB62" s="7">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="3:28" ht="14.25" x14ac:dyDescent="0.2">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:31" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
-      <c r="W63" t="s">
-        <v>6</v>
-      </c>
-      <c r="X63" s="17">
-        <f>SUM(X56:X62)</f>
-        <v>0</v>
-      </c>
-      <c r="Y63" s="17">
-        <f>SUM(Y56:Y62)</f>
-        <v>0</v>
-      </c>
-      <c r="Z63" s="17">
-        <f>SUM(Z56:Z59)</f>
-        <v>0</v>
-      </c>
-      <c r="AA63" s="18">
-        <f>SUM(AA56:AA62)</f>
-        <v>0</v>
-      </c>
-      <c r="AB63" s="18">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="3:28" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="W63" s="19"/>
+      <c r="X63" s="19">
+        <f>SUM(X56:X61)</f>
+        <v>11</v>
+      </c>
+      <c r="Y63" s="19">
+        <f t="shared" ref="Y63:AA63" si="18">SUM(Y56:Y61)</f>
+        <v>13</v>
+      </c>
+      <c r="Z63" s="19">
+        <f t="shared" si="18"/>
+        <v>10</v>
+      </c>
+      <c r="AA63" s="19">
+        <f t="shared" si="18"/>
+        <v>12</v>
+      </c>
+      <c r="AB63" s="19"/>
+      <c r="AC63" s="19"/>
+      <c r="AD63" s="19"/>
+      <c r="AE63" s="19"/>
+    </row>
+    <row r="64" spans="3:31" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
@@ -4924,11 +10596,17 @@
       <c r="X67" s="4">
         <v>1</v>
       </c>
-      <c r="Y67" s="7"/>
-      <c r="Z67" s="7"/>
-      <c r="AA67" s="7"/>
+      <c r="Y67" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z67" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA67" s="7">
+        <v>0</v>
+      </c>
       <c r="AB67" s="7">
-        <f t="shared" ref="AB67" si="13">SUM(X67:AA67)</f>
+        <f t="shared" ref="AB67" si="19">SUM(X67:AA67)</f>
         <v>1</v>
       </c>
     </row>
@@ -4945,10 +10623,19 @@
       <c r="X68" s="4">
         <v>2</v>
       </c>
-      <c r="Y68" s="7"/>
-      <c r="Z68" s="7"/>
-      <c r="AA68" s="7"/>
-      <c r="AB68" s="7"/>
+      <c r="Y68" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z68" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB68" s="7">
+        <f>SUM(X68:AA68)</f>
+        <v>3</v>
+      </c>
     </row>
     <row r="69" spans="3:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C69" s="1"/>
@@ -4960,12 +10647,20 @@
       <c r="W69" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="X69" s="4"/>
-      <c r="Y69" s="7"/>
-      <c r="Z69" s="7"/>
-      <c r="AA69" s="7"/>
+      <c r="X69" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y69" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z69" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="7">
+        <v>0</v>
+      </c>
       <c r="AB69" s="7">
-        <f t="shared" ref="AB69:AB74" si="14">SUM(X69:AA69)</f>
+        <f t="shared" ref="AB69:AB73" si="20">SUM(X69:AA69)</f>
         <v>0</v>
       </c>
     </row>
@@ -4979,12 +10674,20 @@
       <c r="W70" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="X70" s="4"/>
-      <c r="Y70" s="7"/>
-      <c r="Z70" s="7"/>
-      <c r="AA70" s="7"/>
+      <c r="X70" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y70" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z70" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="7">
+        <v>0</v>
+      </c>
       <c r="AB70" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -4998,12 +10701,20 @@
       <c r="W71" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="X71" s="4"/>
-      <c r="Y71" s="7"/>
-      <c r="Z71" s="7"/>
-      <c r="AA71" s="7"/>
+      <c r="X71" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y71" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z71" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="7">
+        <v>0</v>
+      </c>
       <c r="AB71" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -5017,12 +10728,20 @@
       <c r="W72" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="X72" s="4"/>
-      <c r="Y72" s="7"/>
-      <c r="Z72" s="7"/>
-      <c r="AA72" s="7"/>
+      <c r="X72" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y72" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z72" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA72" s="7">
+        <v>0</v>
+      </c>
       <c r="AB72" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -5038,7 +10757,7 @@
       <c r="Z73" s="16"/>
       <c r="AA73" s="16"/>
       <c r="AB73" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -5049,28 +10768,21 @@
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
-      <c r="W74" t="s">
-        <v>6</v>
-      </c>
-      <c r="X74" s="17">
-        <f>SUM(X67:X73)</f>
+      <c r="X74">
+        <f>SUM(X67:X72)</f>
         <v>3</v>
       </c>
-      <c r="Y74" s="17">
-        <f>SUM(Y67:Y73)</f>
-        <v>0</v>
-      </c>
-      <c r="Z74" s="17">
-        <f>SUM(Z67:Z70)</f>
-        <v>0</v>
-      </c>
-      <c r="AA74" s="18">
-        <f>SUM(AA67:AA73)</f>
-        <v>0</v>
-      </c>
-      <c r="AB74" s="18">
-        <f t="shared" si="14"/>
-        <v>3</v>
+      <c r="Y74">
+        <f t="shared" ref="Y74:AA74" si="21">SUM(Y67:Y72)</f>
+        <v>1</v>
+      </c>
+      <c r="Z74">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AA74">
+        <f t="shared" si="21"/>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="3:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -5132,12 +10844,20 @@
       <c r="W78" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="X78" s="4"/>
-      <c r="Y78" s="7"/>
-      <c r="Z78" s="7"/>
-      <c r="AA78" s="7"/>
+      <c r="X78" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y78" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z78" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA78" s="7">
+        <v>0</v>
+      </c>
       <c r="AB78" s="7">
-        <f t="shared" ref="AB78" si="15">SUM(X78:AA78)</f>
+        <f t="shared" ref="AB78" si="22">SUM(X78:AA78)</f>
         <v>0</v>
       </c>
     </row>
@@ -5151,11 +10871,22 @@
       <c r="W79" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="X79" s="4"/>
-      <c r="Y79" s="7"/>
-      <c r="Z79" s="7"/>
-      <c r="AA79" s="7"/>
-      <c r="AB79" s="7"/>
+      <c r="X79" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y79" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z79" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA79" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB79" s="7">
+        <f>SUM(X79:AA79)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="80" spans="3:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C80" s="1"/>
@@ -5168,14 +10899,20 @@
         <v>13</v>
       </c>
       <c r="X80" s="4">
-        <v>2</v>
-      </c>
-      <c r="Y80" s="7"/>
-      <c r="Z80" s="7"/>
-      <c r="AA80" s="7"/>
+        <v>0</v>
+      </c>
+      <c r="Y80" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z80" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA80" s="7">
+        <v>0</v>
+      </c>
       <c r="AB80" s="7">
-        <f t="shared" ref="AB80:AB85" si="16">SUM(X80:AA80)</f>
-        <v>2</v>
+        <f t="shared" ref="AB80:AB84" si="23">SUM(X80:AA80)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="3:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -5188,12 +10925,20 @@
       <c r="W81" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="X81" s="4"/>
-      <c r="Y81" s="7"/>
-      <c r="Z81" s="7"/>
-      <c r="AA81" s="7"/>
+      <c r="X81" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y81" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z81" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA81" s="7">
+        <v>0</v>
+      </c>
       <c r="AB81" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -5207,12 +10952,20 @@
       <c r="W82" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="X82" s="4"/>
-      <c r="Y82" s="7"/>
-      <c r="Z82" s="7"/>
-      <c r="AA82" s="7"/>
+      <c r="X82" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y82" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z82" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA82" s="7">
+        <v>0</v>
+      </c>
       <c r="AB82" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -5226,12 +10979,20 @@
       <c r="W83" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="X83" s="4"/>
-      <c r="Y83" s="7"/>
-      <c r="Z83" s="7"/>
-      <c r="AA83" s="7"/>
+      <c r="X83" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y83" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z83" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA83" s="7">
+        <v>0</v>
+      </c>
       <c r="AB83" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -5242,13 +11003,25 @@
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
-      <c r="X84" s="15"/>
-      <c r="Y84" s="16"/>
-      <c r="Z84" s="16"/>
-      <c r="AA84" s="16"/>
+      <c r="X84" s="15">
+        <f>SUM(X78:X83)</f>
+        <v>0</v>
+      </c>
+      <c r="Y84" s="15">
+        <f t="shared" ref="Y84:AA84" si="24">SUM(Y78:Y83)</f>
+        <v>1</v>
+      </c>
+      <c r="Z84" s="15">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AA84" s="15">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
       <c r="AB84" s="7">
-        <f t="shared" si="16"/>
-        <v>0</v>
+        <f t="shared" si="23"/>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="3:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -5258,29 +11031,6 @@
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
-      <c r="W85" t="s">
-        <v>6</v>
-      </c>
-      <c r="X85" s="17">
-        <f>SUM(X78:X84)</f>
-        <v>2</v>
-      </c>
-      <c r="Y85" s="17">
-        <f>SUM(Y78:Y84)</f>
-        <v>0</v>
-      </c>
-      <c r="Z85" s="17">
-        <f>SUM(Z78:Z81)</f>
-        <v>0</v>
-      </c>
-      <c r="AA85" s="18">
-        <f>SUM(AA78:AA84)</f>
-        <v>0</v>
-      </c>
-      <c r="AB85" s="18">
-        <f t="shared" si="16"/>
-        <v>2</v>
-      </c>
     </row>
     <row r="86" spans="3:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C86" s="1"/>
@@ -5333,12 +11083,20 @@
       <c r="W88" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="X88" s="4"/>
-      <c r="Y88" s="7"/>
-      <c r="Z88" s="7"/>
-      <c r="AA88" s="7"/>
+      <c r="X88" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y88" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z88" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA88" s="7">
+        <v>0</v>
+      </c>
       <c r="AB88" s="7">
-        <f t="shared" ref="AB88" si="17">SUM(X88:AA88)</f>
+        <f t="shared" ref="AB88" si="25">SUM(X88:AA88)</f>
         <v>0</v>
       </c>
     </row>
@@ -5352,11 +11110,22 @@
       <c r="W89" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="X89" s="4"/>
-      <c r="Y89" s="7"/>
-      <c r="Z89" s="7"/>
-      <c r="AA89" s="7"/>
-      <c r="AB89" s="7"/>
+      <c r="X89" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y89" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z89" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA89" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB89" s="7">
+        <f>SUM(X89:AA89)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="90" spans="3:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C90" s="1"/>
@@ -5368,13 +11137,21 @@
       <c r="W90" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="X90" s="4"/>
-      <c r="Y90" s="7"/>
-      <c r="Z90" s="7"/>
-      <c r="AA90" s="7"/>
+      <c r="X90" s="4">
+        <v>5</v>
+      </c>
+      <c r="Y90" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z90" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA90" s="7">
+        <v>0</v>
+      </c>
       <c r="AB90" s="7">
-        <f t="shared" ref="AB90:AB95" si="18">SUM(X90:AA90)</f>
-        <v>0</v>
+        <f t="shared" ref="AB90:AB94" si="26">SUM(X90:AA90)</f>
+        <v>5</v>
       </c>
     </row>
     <row r="91" spans="3:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -5387,12 +11164,20 @@
       <c r="W91" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="X91" s="4"/>
-      <c r="Y91" s="7"/>
-      <c r="Z91" s="7"/>
-      <c r="AA91" s="7"/>
+      <c r="X91" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y91" s="21">
+        <v>0</v>
+      </c>
+      <c r="Z91" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA91" s="7">
+        <v>0</v>
+      </c>
       <c r="AB91" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
@@ -5406,12 +11191,20 @@
       <c r="W92" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="X92" s="4"/>
-      <c r="Y92" s="7"/>
-      <c r="Z92" s="7"/>
-      <c r="AA92" s="7"/>
+      <c r="X92" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y92" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z92" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA92" s="7">
+        <v>0</v>
+      </c>
       <c r="AB92" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
@@ -5425,12 +11218,20 @@
       <c r="W93" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="X93" s="4"/>
-      <c r="Y93" s="7"/>
-      <c r="Z93" s="7"/>
-      <c r="AA93" s="7"/>
+      <c r="X93" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y93" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z93" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA93" s="7">
+        <v>0</v>
+      </c>
       <c r="AB93" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
@@ -5441,13 +11242,25 @@
       <c r="F94" s="1"/>
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
-      <c r="X94" s="15"/>
-      <c r="Y94" s="16"/>
-      <c r="Z94" s="16"/>
-      <c r="AA94" s="16"/>
+      <c r="X94" s="15">
+        <f>SUM(X88:X93)</f>
+        <v>5</v>
+      </c>
+      <c r="Y94" s="15">
+        <f t="shared" ref="Y94:AA94" si="27">SUM(Y88:Y93)</f>
+        <v>0</v>
+      </c>
+      <c r="Z94" s="15">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="AA94" s="15">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
       <c r="AB94" s="7">
-        <f t="shared" si="18"/>
-        <v>0</v>
+        <f t="shared" si="26"/>
+        <v>5</v>
       </c>
     </row>
     <row r="95" spans="3:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -5458,27 +11271,22 @@
       <c r="G95" s="1"/>
       <c r="H95" s="1"/>
       <c r="W95" t="s">
+        <v>27</v>
+      </c>
+      <c r="X95" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y95" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z95" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA95" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB95" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="X95" s="17">
-        <f>SUM(X88:X94)</f>
-        <v>0</v>
-      </c>
-      <c r="Y95" s="17">
-        <f>SUM(Y88:Y94)</f>
-        <v>0</v>
-      </c>
-      <c r="Z95" s="17">
-        <f>SUM(Z88:Z91)</f>
-        <v>0</v>
-      </c>
-      <c r="AA95" s="18">
-        <f>SUM(AA88:AA94)</f>
-        <v>0</v>
-      </c>
-      <c r="AB95" s="18">
-        <f t="shared" si="18"/>
-        <v>0</v>
       </c>
     </row>
     <row r="96" spans="3:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -5488,152 +11296,472 @@
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
-    </row>
-    <row r="97" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="X96" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="5"/>
+      <c r="Z96" s="5"/>
+      <c r="AA96" s="5"/>
+      <c r="AB96" s="5"/>
+    </row>
+    <row r="97" spans="3:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
       <c r="G97" s="1"/>
       <c r="H97" s="1"/>
-    </row>
-    <row r="98" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="W97" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="X97" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y97" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z97" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA97" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB97" s="7">
+        <f t="shared" ref="AB97" si="28">SUM(X97:AA97)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
-    </row>
-    <row r="99" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="W98" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="X98" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y98" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z98" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA98" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB98" s="7">
+        <f>SUM(X98:AA98)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
       <c r="H99" s="1"/>
-    </row>
-    <row r="100" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="W99" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="X99" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y99" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z99" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA99" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB99" s="7">
+        <f t="shared" ref="AB99:AB103" si="29">SUM(X99:AA99)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
-    </row>
-    <row r="101" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="W100" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="X100" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y100" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z100" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA100" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB100" s="7">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
       <c r="G101" s="1"/>
       <c r="H101" s="1"/>
-    </row>
-    <row r="102" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="W101" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="X101" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y101" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z101" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA101" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB101" s="7">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
       <c r="G102" s="1"/>
       <c r="H102" s="1"/>
-    </row>
-    <row r="103" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="W102" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="X102" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB102" s="7">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="3:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
       <c r="F103" s="1"/>
       <c r="G103" s="1"/>
       <c r="H103" s="1"/>
-    </row>
-    <row r="104" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="X103" s="15">
+        <f>SUM(X97:X102)</f>
+        <v>0</v>
+      </c>
+      <c r="Y103" s="15">
+        <f t="shared" ref="Y103:AA103" si="30">SUM(Y97:Y102)</f>
+        <v>0</v>
+      </c>
+      <c r="Z103" s="15">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="AA103" s="15">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="AB103" s="7">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="3:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
       <c r="F104" s="1"/>
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
-    </row>
-    <row r="105" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="W104" t="s">
+        <v>28</v>
+      </c>
+      <c r="X104" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y104" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z104" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA104" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB104" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105" spans="3:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
       <c r="F105" s="1"/>
       <c r="G105" s="1"/>
       <c r="H105" s="1"/>
-    </row>
-    <row r="106" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="X105" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y105" s="5"/>
+      <c r="Z105" s="5"/>
+      <c r="AA105" s="5"/>
+      <c r="AB105" s="5"/>
+    </row>
+    <row r="106" spans="3:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
       <c r="F106" s="1"/>
       <c r="G106" s="1"/>
       <c r="H106" s="1"/>
-    </row>
-    <row r="107" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="W106" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="X106" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y106" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z106" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA106" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB106" s="7">
+        <f t="shared" ref="AB106" si="31">SUM(X106:AA106)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="3:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
       <c r="F107" s="1"/>
       <c r="G107" s="1"/>
       <c r="H107" s="1"/>
-    </row>
-    <row r="108" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="W107" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="X107" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y107" s="7">
+        <v>2</v>
+      </c>
+      <c r="Z107" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA107" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB107" s="7">
+        <f>SUM(X107:AA107)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="3:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
       <c r="F108" s="1"/>
       <c r="G108" s="1"/>
       <c r="H108" s="1"/>
-    </row>
-    <row r="109" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="W108" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="X108" s="4">
+        <v>10</v>
+      </c>
+      <c r="Y108" s="7">
+        <v>2</v>
+      </c>
+      <c r="Z108" s="7">
+        <v>22</v>
+      </c>
+      <c r="AA108" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB108" s="7">
+        <f t="shared" ref="AB108:AB112" si="32">SUM(X108:AA108)</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="109" spans="3:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
       <c r="F109" s="1"/>
       <c r="G109" s="1"/>
       <c r="H109" s="1"/>
-    </row>
-    <row r="110" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="W109" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="X109" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y109" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z109" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA109" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB109" s="7">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="3:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
       <c r="F110" s="1"/>
       <c r="G110" s="1"/>
       <c r="H110" s="1"/>
-    </row>
-    <row r="111" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="W110" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="X110" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y110" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z110" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA110" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB110" s="7">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="3:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
       <c r="F111" s="1"/>
       <c r="G111" s="1"/>
       <c r="H111" s="1"/>
-    </row>
-    <row r="112" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="W111" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="X111" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y111" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z111" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA111" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB111" s="7">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="3:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
       <c r="E112" s="1"/>
       <c r="F112" s="1"/>
       <c r="G112" s="1"/>
       <c r="H112" s="1"/>
-    </row>
-    <row r="113" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="X112" s="15"/>
+      <c r="Y112" s="16"/>
+      <c r="Z112" s="16"/>
+      <c r="AA112" s="16"/>
+      <c r="AB112" s="7">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="3:30" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
       <c r="F113" s="1"/>
       <c r="G113" s="1"/>
       <c r="H113" s="1"/>
-    </row>
-    <row r="114" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="X113">
+        <f>SUM(X106:X110)</f>
+        <v>10</v>
+      </c>
+      <c r="Y113">
+        <f t="shared" ref="Y113:AA113" si="33">SUM(Y106:Y110)</f>
+        <v>5</v>
+      </c>
+      <c r="Z113">
+        <f t="shared" si="33"/>
+        <v>22</v>
+      </c>
+      <c r="AA113">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="3:30" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
       <c r="F114" s="1"/>
       <c r="G114" s="1"/>
       <c r="H114" s="1"/>
-    </row>
-    <row r="115" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="X114" cm="1">
+        <f t="array" ref="X114">SUM(X106:X111+X97:X102+X88:X93+X78:X83+X67:X72+X56:X61+X46:X51+X36:X41+X26:X31+X15:X20+X4:X9)</f>
+        <v>72</v>
+      </c>
+      <c r="Y114" cm="1">
+        <f t="array" ref="Y114">SUM(Y106:Y111+Y97:Y102+Y88:Y93+Y78:Y83+Y67:Y72+Y56:Y61+Y46:Y51+Y36:Y41+Y26:Y31+Y15:Y20+Y4:Y9)</f>
+        <v>76</v>
+      </c>
+      <c r="Z114" cm="1">
+        <f t="array" ref="Z114">SUM(Z106:Z111+Z97:Z102+Z88:Z93+Z78:Z83+Z67:Z72+Z56:Z61+Z46:Z51+Z36:Z41+Z26:Z31+Z15:Z20+Z4:Z9)</f>
+        <v>74</v>
+      </c>
+      <c r="AA114" cm="1">
+        <f t="array" ref="AA114">SUM(AA106:AA111+AA97:AA102+AA88:AA93+AA78:AA83+AA67:AA72+AA56:AA61+AA46:AA51+AA36:AA41+AA26:AA31+AA15:AA20+AA4:AA9)</f>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="115" spans="3:30" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
@@ -5641,47 +11769,178 @@
       <c r="G115" s="1"/>
       <c r="H115" s="1"/>
     </row>
-    <row r="116" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="116" spans="3:30" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
       <c r="E116" s="1"/>
       <c r="F116" s="1"/>
       <c r="G116" s="1"/>
       <c r="H116" s="1"/>
-    </row>
-    <row r="117" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="X116" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y116" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z116" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA116" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB116" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC116" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD116" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="117" spans="3:30" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
       <c r="F117" s="1"/>
       <c r="G117" s="1"/>
       <c r="H117" s="1"/>
-    </row>
-    <row r="118" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="W117" t="s">
+        <v>4</v>
+      </c>
+      <c r="X117" s="19">
+        <f>SUM(Z108)</f>
+        <v>22</v>
+      </c>
+      <c r="Y117" s="19">
+        <f>SUM(Z107+Z98+Z89+Z79+Z68+Z57+Z47+Z37+Z27+Z16+Z5)</f>
+        <v>21</v>
+      </c>
+      <c r="Z117" s="19">
+        <f>SUM(Z109+Z100+Z91+Z81+Z70+Z59+Z49+Z39+Z29+Z18+Z7)</f>
+        <v>23</v>
+      </c>
+      <c r="AA117" s="19">
+        <f>SUM(Z110+Z101+Z92+Z82+Z71+Z60+Z50+Z40+Z30+Z19+Z8)</f>
+        <v>0</v>
+      </c>
+      <c r="AB117" s="19">
+        <f>SUM(Z111+Z102+Z93+Z83+Z72+Z61+Z51+Z41+Z31+Z20+Z9)</f>
+        <v>0</v>
+      </c>
+      <c r="AC117" s="19">
+        <f>SUM(Z106+Z97+Z88+Z78+Z67+Z56+Z46+Z36+Z26+Z15+Z4)</f>
+        <v>8</v>
+      </c>
+      <c r="AD117">
+        <f>SUM(X117:AC120)</f>
+        <v>294</v>
+      </c>
+    </row>
+    <row r="118" spans="3:30" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
       <c r="F118" s="1"/>
       <c r="G118" s="1"/>
       <c r="H118" s="1"/>
-    </row>
-    <row r="119" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="W118" t="s">
+        <v>30</v>
+      </c>
+      <c r="X118" s="19">
+        <v>2</v>
+      </c>
+      <c r="Y118" s="19">
+        <f>SUM(Y107+Y98+Y89+Y79+Y68+Y57+Y48+Y37+Y27+Y16+Y5)</f>
+        <v>16</v>
+      </c>
+      <c r="Z118" s="19">
+        <f>SUM(Y109+Y100+Y91+Y81+Y70+Y59+Y49+Y39+Y29+Y18+Y7)</f>
+        <v>14</v>
+      </c>
+      <c r="AA118" s="19">
+        <f>SUM(Y110+Y101+Y92+Y82+Y71+Y60+Y50+Y40+Y30+Y19+Y8)</f>
+        <v>20</v>
+      </c>
+      <c r="AB118" s="19">
+        <f>SUM(Y111+Y102+Y93+Y83+Y61+Y51+Y72+Y41+Y31+Y20+Y9)</f>
+        <v>2</v>
+      </c>
+      <c r="AC118" s="19">
+        <f>SUM(Y106+Y97+Y88+Y78+Y67+Y56+Y46+Y36+Y26+Y15+Y4)</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="119" spans="3:30" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
       <c r="F119" s="1"/>
       <c r="G119" s="1"/>
       <c r="H119" s="1"/>
-    </row>
-    <row r="120" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="W119" t="s">
+        <v>5</v>
+      </c>
+      <c r="X119" s="19">
+        <v>0</v>
+      </c>
+      <c r="Y119" s="19">
+        <f>SUM(AA107+AA98+AA89+AA79+AA68+AA57+AA47+AA37+AA27+AA16+AA5)</f>
+        <v>30</v>
+      </c>
+      <c r="Z119" s="19">
+        <f>SUM(AA109+AA100+AA81+AA70+AA49+AA39+AA29+AA18+AA7+AA91+AA59)</f>
+        <v>10</v>
+      </c>
+      <c r="AA119" s="19">
+        <f>SUM(AA110+AA101+AA92+AA82+AA60+AA50+AA40+AA30+AA19+AA8)</f>
+        <v>0</v>
+      </c>
+      <c r="AB119" s="19">
+        <f>SUM(AA111+AA102+AA93+AA83+AA72+AA51+AA61+AA41+AA31+AA20+AA9)</f>
+        <v>2</v>
+      </c>
+      <c r="AC119" s="19">
+        <f>SUM(AA106+AA97+AA88+AA78+AA67+AA56+AA46+AA36+AA26+AA15+AA4)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="120" spans="3:30" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
       <c r="F120" s="1"/>
       <c r="G120" s="1"/>
       <c r="H120" s="1"/>
-    </row>
-    <row r="121" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="W120" t="s">
+        <v>29</v>
+      </c>
+      <c r="X120" s="19">
+        <f>SUM(X108+X99+X90)</f>
+        <v>15</v>
+      </c>
+      <c r="Y120" s="19">
+        <f>SUM(X107+X98+X89+X79+X68+X57+X47+X37+X27+X16+X5)</f>
+        <v>19</v>
+      </c>
+      <c r="Z120" s="19">
+        <f>SUM(X109+X100+X91+X81+X70+X59+X49+X39+X29+X18+X7)</f>
+        <v>19</v>
+      </c>
+      <c r="AA120" s="19">
+        <f>SUM(X110+X101+X92+X82+X71+X60+X50+X40+X30+X19+X8)</f>
+        <v>0</v>
+      </c>
+      <c r="AB120" s="19">
+        <f>SUM(X111+X102+X93+X83+X72+X61+X41+X31+X20+X9)</f>
+        <v>0</v>
+      </c>
+      <c r="AC120" s="19">
+        <f>SUM(X106+X97+X88+X78+X67+X56+X46+X36+X26+X15+X4)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="121" spans="3:30" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
@@ -5689,7 +11948,7 @@
       <c r="G121" s="1"/>
       <c r="H121" s="1"/>
     </row>
-    <row r="122" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="122" spans="3:30" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
@@ -5697,7 +11956,7 @@
       <c r="G122" s="1"/>
       <c r="H122" s="1"/>
     </row>
-    <row r="123" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="123" spans="3:30" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
@@ -5705,7 +11964,7 @@
       <c r="G123" s="1"/>
       <c r="H123" s="1"/>
     </row>
-    <row r="124" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="124" spans="3:30" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
       <c r="E124" s="1"/>
@@ -5713,7 +11972,7 @@
       <c r="G124" s="1"/>
       <c r="H124" s="1"/>
     </row>
-    <row r="125" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="125" spans="3:30" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
       <c r="E125" s="1"/>
@@ -5721,7 +11980,7 @@
       <c r="G125" s="1"/>
       <c r="H125" s="1"/>
     </row>
-    <row r="126" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="126" spans="3:30" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
@@ -5729,7 +11988,7 @@
       <c r="G126" s="1"/>
       <c r="H126" s="1"/>
     </row>
-    <row r="127" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="127" spans="3:30" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
@@ -5737,7 +11996,7 @@
       <c r="G127" s="1"/>
       <c r="H127" s="1"/>
     </row>
-    <row r="128" spans="3:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="128" spans="3:30" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
